--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -3,35 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC27B88-DF96-DF4E-A787-F6B83967E95C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A8A2F6-91F9-0B43-ADE1-C22A965346FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PaidLicenseHolders" sheetId="17" r:id="rId1"/>
-    <sheet name="2018" sheetId="1" r:id="rId2"/>
-    <sheet name="2017" sheetId="2" r:id="rId3"/>
-    <sheet name="2016" sheetId="3" r:id="rId4"/>
-    <sheet name="2015" sheetId="4" r:id="rId5"/>
-    <sheet name="2014" sheetId="5" r:id="rId6"/>
-    <sheet name="2013" sheetId="6" r:id="rId7"/>
-    <sheet name="2012" sheetId="7" r:id="rId8"/>
-    <sheet name="2011" sheetId="8" r:id="rId9"/>
-    <sheet name="2010" sheetId="9" r:id="rId10"/>
-    <sheet name="2009" sheetId="10" r:id="rId11"/>
-    <sheet name="2008" sheetId="11" r:id="rId12"/>
-    <sheet name="2007" sheetId="12" r:id="rId13"/>
-    <sheet name="2006" sheetId="13" r:id="rId14"/>
-    <sheet name="2005" sheetId="14" r:id="rId15"/>
-    <sheet name="2004" sheetId="15" r:id="rId16"/>
-    <sheet name="Notes" sheetId="16" r:id="rId17"/>
+    <sheet name="LicenseHolders" sheetId="17" r:id="rId1"/>
+    <sheet name="TotalLicenses" sheetId="18" r:id="rId2"/>
+    <sheet name="2018" sheetId="1" r:id="rId3"/>
+    <sheet name="2017" sheetId="2" r:id="rId4"/>
+    <sheet name="2016" sheetId="3" r:id="rId5"/>
+    <sheet name="2015" sheetId="4" r:id="rId6"/>
+    <sheet name="2014" sheetId="5" r:id="rId7"/>
+    <sheet name="2013" sheetId="6" r:id="rId8"/>
+    <sheet name="2012" sheetId="7" r:id="rId9"/>
+    <sheet name="2011" sheetId="8" r:id="rId10"/>
+    <sheet name="2010" sheetId="9" r:id="rId11"/>
+    <sheet name="2009" sheetId="10" r:id="rId12"/>
+    <sheet name="2008" sheetId="11" r:id="rId13"/>
+    <sheet name="2007" sheetId="12" r:id="rId14"/>
+    <sheet name="2006" sheetId="13" r:id="rId15"/>
+    <sheet name="2005" sheetId="14" r:id="rId16"/>
+    <sheet name="2004" sheetId="15" r:id="rId17"/>
+    <sheet name="Notes" sheetId="16" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="148">
   <si>
     <r>
       <rPr>
@@ -887,6 +888,36 @@
   <si>
     <t>2012 Gross Cost - Hunting Licenses</t>
   </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>West North Central</t>
+  </si>
+  <si>
+    <t>East North Central</t>
+  </si>
+  <si>
+    <t>West South Central</t>
+  </si>
+  <si>
+    <t>East South Central</t>
+  </si>
+  <si>
+    <t>South Atlantic</t>
+  </si>
+  <si>
+    <t>Middle Atlantic</t>
+  </si>
+  <si>
+    <t>New England</t>
+  </si>
 </sst>
 </file>
 
@@ -959,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -986,6 +1017,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,3324 +1359,3477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A21B4A-A263-DF46-B91A-B4FADE2BF08E}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="5">
         <v>2018</v>
       </c>
-      <c r="C1" s="5">
-        <f>B1-1</f>
+      <c r="D1" s="5">
+        <f>C1-1</f>
         <v>2017</v>
       </c>
-      <c r="D1" s="5">
-        <f t="shared" ref="D1:P1" si="0">C1-1</f>
+      <c r="E1" s="5">
+        <f t="shared" ref="E1:Q1" si="0">D1-1</f>
         <v>2016</v>
       </c>
-      <c r="E1" s="5">
+      <c r="F1" s="5">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="F1" s="5">
+      <c r="G1" s="5">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="G1" s="5">
+      <c r="H1" s="5">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="H1" s="5">
+      <c r="I1" s="5">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="I1" s="5">
+      <c r="J1" s="5">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="J1" s="5">
+      <c r="K1" s="5">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="K1" s="5">
+      <c r="L1" s="5">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="L1" s="5">
+      <c r="M1" s="5">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="M1" s="5">
+      <c r="N1" s="5">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="N1" s="5">
+      <c r="O1" s="5">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="O1" s="5">
+      <c r="P1" s="5">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="P1" s="5">
+      <c r="Q1" s="5">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="6">
         <f>'2018'!B2</f>
         <v>108921</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="6">
         <f>'2017'!B2</f>
         <v>108487</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <f>'2016'!B2</f>
         <v>106916</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <f>'2015'!B2</f>
         <v>107131</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <f>'2014'!B2</f>
         <v>107260</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>'2013'!B2</f>
         <v>101547</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <f>'2012'!B2</f>
         <v>106653</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <f>'2011'!B2</f>
         <v>101750</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <f>'2010'!B2</f>
         <v>97858</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <f>'2009'!B2</f>
         <v>96979</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <f>'2008'!B2</f>
         <v>96979</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <f>'2007'!B2</f>
         <v>99954</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <f>'2006'!B2</f>
         <v>98084</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <f>'2005'!B2</f>
         <v>99121</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <f>'2004'!B2</f>
         <v>97537</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="6">
         <f>'2018'!B3</f>
         <v>547905</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="6">
         <f>'2017'!B3</f>
         <v>548829</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <f>'2016'!B3</f>
         <v>565139</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <f>'2015'!B3</f>
         <v>507926</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <f>'2014'!B3</f>
         <v>507403</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <f>'2013'!B3</f>
         <v>530127</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <f>'2012'!B3</f>
         <v>527713</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <f>'2011'!B3</f>
         <v>540098</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <f>'2010'!B3</f>
         <v>264710</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <f>'2009'!B3</f>
         <v>264640</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <f>'2008'!B3</f>
         <v>255923</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <f>'2007'!B3</f>
         <v>259241</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <f>'2006'!B3</f>
         <v>267354</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <f>'2005'!B3</f>
         <v>270229</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <f>'2004'!B3</f>
         <v>273638</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="6">
         <f>'2018'!B4</f>
         <v>326559</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="6">
         <f>'2017'!B4</f>
         <v>340200</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <f>'2016'!B4</f>
         <v>328542</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <f>'2015'!B4</f>
         <v>326779</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <f>'2014'!B4</f>
         <v>382212</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <f>'2013'!B4</f>
         <v>390554</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <f>'2012'!B4</f>
         <v>385275</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <f>'2011'!B4</f>
         <v>390932</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <f>'2010'!B4</f>
         <v>381521</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <f>'2009'!B4</f>
         <v>380931</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <f>'2008'!B4</f>
         <v>354042</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <f>'2007'!B4</f>
         <v>375737</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <f>'2006'!B4</f>
         <v>378162</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <f>'2005'!B4</f>
         <v>386559</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <f>'2004'!B4</f>
         <v>402493</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="6">
         <f>'2018'!B5</f>
         <v>305214</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <f>'2017'!B5</f>
         <v>324553</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <f>'2016'!B5</f>
         <v>215444</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <f>'2015'!B5</f>
         <v>200092</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <f>'2014'!B5</f>
         <v>195213</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <f>'2013'!B5</f>
         <v>195664</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <f>'2012'!B5</f>
         <v>194727</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <f>'2011'!B5</f>
         <v>191834</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <f>'2010'!B5</f>
         <v>201627</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <f>'2009'!B5</f>
         <v>202976</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <f>'2008'!B5</f>
         <v>202976</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <f>'2007'!B5</f>
         <v>196706</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <f>'2006'!B5</f>
         <v>182044</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <f>'2005'!B5</f>
         <v>181467</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <f>'2004'!B5</f>
         <v>183478</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="6">
         <f>'2018'!B6</f>
         <v>280967</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <f>'2017'!B6</f>
         <v>284069</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <f>'2016'!B6</f>
         <v>287147</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <f>'2015'!B6</f>
         <v>283539</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <f>'2014'!B6</f>
         <v>283539</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f>'2013'!B6</f>
         <v>281472</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <f>'2012'!B6</f>
         <v>289609</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <f>'2011'!B6</f>
         <v>293263</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <f>'2010'!B6</f>
         <v>296623</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <f>'2009'!B6</f>
         <v>300615</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <f>'2008'!B6</f>
         <v>295163</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <f>'2007'!B6</f>
         <v>299303</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <f>'2006'!B6</f>
         <v>305962</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <f>'2005'!B6</f>
         <v>315588</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <f>'2004'!B6</f>
         <v>320092</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="6">
         <f>'2018'!B7</f>
         <v>294319</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="6">
         <f>'2017'!B7</f>
         <v>290064</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <f>'2016'!B7</f>
         <v>284773</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>'2015'!B7</f>
         <v>281201</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <f>'2014'!B7</f>
         <v>280302</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <f>'2013'!B7</f>
         <v>286363</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <f>'2012'!B7</f>
         <v>288086</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <f>'2011'!B7</f>
         <v>294186</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <f>'2010'!B7</f>
         <v>294186</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <f>'2009'!B7</f>
         <v>306179</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <f>'2008'!B7</f>
         <v>306179</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <f>'2007'!B7</f>
         <v>312151</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <f>'2006'!B7</f>
         <v>318971</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <f>'2005'!B7</f>
         <v>309801</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <f>'2004'!B7</f>
         <v>300574</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="6">
         <f>'2018'!B8</f>
         <v>37489</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <f>'2017'!B8</f>
         <v>39488</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <f>'2016'!B8</f>
         <v>42924</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <f>'2015'!B8</f>
         <v>42535</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f>'2014'!B8</f>
         <v>41294</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <f>'2013'!B8</f>
         <v>44178</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <f>'2012'!B8</f>
         <v>46582</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <f>'2011'!B8</f>
         <v>50066</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <f>'2010'!B8</f>
         <v>49493</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <f>'2009'!B8</f>
         <v>48857</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <f>'2008'!B8</f>
         <v>48857</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <f>'2007'!B8</f>
         <v>52207</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <f>'2006'!B8</f>
         <v>54130</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <f>'2005'!B8</f>
         <v>54926</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <f>'2004'!B8</f>
         <v>57720</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="6">
         <f>'2018'!B9</f>
         <v>17847</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6">
         <f>'2017'!B9</f>
         <v>18323</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <f>'2016'!B9</f>
         <v>17369</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <f>'2015'!B9</f>
         <v>16786</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <f>'2014'!B9</f>
         <v>16860</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <f>'2013'!B9</f>
         <v>18184</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <f>'2012'!B9</f>
         <v>18691</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <f>'2011'!B9</f>
         <v>19271</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <f>'2010'!B9</f>
         <v>18746</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <f>'2009'!B9</f>
         <v>19890</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <f>'2008'!B9</f>
         <v>19681</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <f>'2007'!B9</f>
         <v>19472</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <f>'2006'!B9</f>
         <v>18480</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <f>'2005'!B9</f>
         <v>20066</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <f>'2004'!B9</f>
         <v>21488</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="6">
         <f>'2018'!B10</f>
         <v>190232</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <f>'2017'!B10</f>
         <v>190526</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <f>'2016'!B10</f>
         <v>181040</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <f>'2015'!B10</f>
         <v>175349</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <f>'2014'!B10</f>
         <v>176288</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <f>'2013'!B10</f>
         <v>176616</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <f>'2012'!B10</f>
         <v>176034</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <f>'2011'!B10</f>
         <v>176539</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <f>'2010'!B10</f>
         <v>170554</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <f>'2009'!B10</f>
         <v>170282</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <f>'2008'!B10</f>
         <v>167524</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <f>'2007'!B10</f>
         <v>161273</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <f>'2006'!B10</f>
         <v>175067</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <f>'2005'!B10</f>
         <v>176320</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <f>'2004'!B10</f>
         <v>181857</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="6">
         <f>'2018'!B11</f>
         <v>651910</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <f>'2017'!B11</f>
         <v>620740</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f>'2016'!B11</f>
         <v>604863</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <f>'2015'!B11</f>
         <v>395219</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <f>'2014'!B11</f>
         <v>367385</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <f>'2013'!B11</f>
         <v>363575</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <f>'2012'!B11</f>
         <v>324561</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <f>'2011'!B11</f>
         <v>307436</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <f>'2010'!B11</f>
         <v>302190</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <f>'2009'!B11</f>
         <v>273272</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <f>'2008'!B11</f>
         <v>390892</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <f>'2007'!B11</f>
         <v>314569</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <f>'2006'!B11</f>
         <v>314569</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <f>'2005'!B11</f>
         <v>331795</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <f>'2004'!B11</f>
         <v>338045</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="6">
         <f>'2018'!B12</f>
         <v>10617</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="6">
         <f>'2017'!B12</f>
         <v>10831</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <f>'2016'!B12</f>
         <v>11113</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <f>'2015'!B12</f>
         <v>10537</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <f>'2014'!B12</f>
         <v>7240</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <f>'2013'!B12</f>
         <v>9815</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <f>'2012'!B12</f>
         <v>9677</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <f>'2011'!B12</f>
         <v>9002</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <f>'2010'!B12</f>
         <v>7407</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <f>'2009'!B12</f>
         <v>6856</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <f>'2008'!B12</f>
         <v>8741</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <f>'2007'!B12</f>
         <v>7775</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <f>'2006'!B12</f>
         <v>8211</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <f>'2005'!B12</f>
         <v>8388</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <f>'2004'!B12</f>
         <v>9032</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="6">
         <f>'2018'!B13</f>
         <v>223232</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="6">
         <f>'2017'!B13</f>
         <v>221231</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <f>'2016'!B13</f>
         <v>217282</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <f>'2015'!B13</f>
         <v>219798</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <f>'2014'!B13</f>
         <v>222695</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <f>'2013'!B13</f>
         <v>227408</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <f>'2012'!B13</f>
         <v>256896</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <f>'2011'!B13</f>
         <v>264699</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <f>'2010'!B13</f>
         <v>271434</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <f>'2009'!B13</f>
         <v>290171</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <f>'2008'!B13</f>
         <v>291424</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <f>'2007'!B13</f>
         <v>280398</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <f>'2006'!B13</f>
         <v>286607</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P13" s="6">
         <f>'2005'!B13</f>
         <v>269014</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="6">
         <f>'2004'!B13</f>
         <v>257899</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="6">
         <f>'2018'!B14</f>
         <v>286947</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="6">
         <f>'2017'!B14</f>
         <v>273887</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <f>'2016'!B14</f>
         <v>266007</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <f>'2015'!B14</f>
         <v>258547</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <f>'2014'!B14</f>
         <v>252865</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <f>'2013'!B14</f>
         <v>248728</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <f>'2012'!B14</f>
         <v>252573</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <f>'2011'!B14</f>
         <v>254195</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <f>'2010'!B14</f>
         <v>256664</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <f>'2009'!B14</f>
         <v>255077</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <f>'2008'!B14</f>
         <v>255077</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <f>'2007'!B14</f>
         <v>254678</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <f>'2006'!B14</f>
         <v>250648</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <f>'2005'!B14</f>
         <v>245358</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <f>'2004'!B14</f>
         <v>246284</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="6">
         <f>'2018'!B15</f>
         <v>306024</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="6">
         <f>'2017'!B15</f>
         <v>314135</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <f>'2016'!B15</f>
         <v>319588</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <f>'2015'!B15</f>
         <v>320765</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <f>'2014'!B15</f>
         <v>321858</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <f>'2013'!B15</f>
         <v>321739</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <f>'2012'!B15</f>
         <v>328995</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <f>'2011'!B15</f>
         <v>333061</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <f>'2010'!B15</f>
         <v>301688</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <f>'2009'!B15</f>
         <v>328975</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <f>'2008'!B15</f>
         <v>328975</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <f>'2007'!B15</f>
         <v>336203</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <f>'2006'!B15</f>
         <v>330360</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15" s="6">
         <f>'2005'!B15</f>
         <v>293994</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <f>'2004'!B15</f>
         <v>300883</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="6">
         <f>'2018'!B16</f>
         <v>267447</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <f>'2017'!B16</f>
         <v>270875</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <f>'2016'!B16</f>
         <v>280952</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <f>'2015'!B16</f>
         <v>278322</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <f>'2014'!B16</f>
         <v>274048</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <f>'2013'!B16</f>
         <v>273929</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <f>'2012'!B16</f>
         <v>279214</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <f>'2011'!B16</f>
         <v>272282</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <f>'2010'!B16</f>
         <v>264323</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <f>'2009'!B16</f>
         <v>265709</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <f>'2008'!B16</f>
         <v>265709</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <f>'2007'!B16</f>
         <v>282261</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <f>'2006'!B16</f>
         <v>250573</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16" s="6">
         <f>'2005'!B16</f>
         <v>232819</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <f>'2004'!B16</f>
         <v>285573</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="6">
         <f>'2018'!B17</f>
         <v>251390</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="6">
         <f>'2017'!B17</f>
         <v>245779</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="6">
         <f>'2016'!B17</f>
         <v>245647</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <f>'2015'!B17</f>
         <v>239335</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <f>'2014'!B17</f>
         <v>245365</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <f>'2013'!B17</f>
         <v>226553</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <f>'2012'!B17</f>
         <v>235021</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <f>'2011'!B17</f>
         <v>214107</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <f>'2010'!B17</f>
         <v>214107</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <f>'2009'!B17</f>
         <v>208992</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <f>'2008'!B17</f>
         <v>209170</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="6">
         <f>'2007'!B17</f>
         <v>198368</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <f>'2006'!B17</f>
         <v>202274</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P17" s="6">
         <f>'2005'!B17</f>
         <v>195874</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="6">
         <f>'2004'!B17</f>
         <v>188310</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="6">
         <f>'2018'!B18</f>
         <v>352408</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="6">
         <f>'2017'!B18</f>
         <v>353098</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <f>'2016'!B18</f>
         <v>356500</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <f>'2015'!B18</f>
         <v>340902</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <f>'2014'!B18</f>
         <v>326976</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <f>'2013'!B18</f>
         <v>330238</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <f>'2012'!B18</f>
         <v>336463</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <f>'2011'!B18</f>
         <v>328321</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <f>'2010'!B18</f>
         <v>339483</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <f>'2009'!B18</f>
         <v>347848</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <f>'2008'!B18</f>
         <v>347848</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <f>'2007'!B18</f>
         <v>343456</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <f>'2006'!B18</f>
         <v>350544</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <f>'2005'!B18</f>
         <v>347379</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <f>'2004'!B18</f>
         <v>349951</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="6">
         <f>'2018'!B19</f>
         <v>398808</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <f>'2017'!B19</f>
         <v>395322</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <f>'2016'!B19</f>
         <v>386310</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <f>'2015'!B19</f>
         <v>370528</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <f>'2014'!B19</f>
         <v>358153</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <f>'2013'!B19</f>
         <v>345525</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <f>'2012'!B19</f>
         <v>325446</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <f>'2011'!B19</f>
         <v>314846</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <f>'2010'!B19</f>
         <v>304661</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <f>'2009'!B19</f>
         <v>293224</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="6">
         <f>'2008'!B19</f>
         <v>269471</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <f>'2007'!B19</f>
         <v>280167</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="6">
         <f>'2006'!B19</f>
         <v>277108</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19" s="6">
         <f>'2005'!B19</f>
         <v>268793</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <f>'2004'!B19</f>
         <v>272912</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="6">
         <f>'2018'!B20</f>
         <v>57921</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="6">
         <f>'2017'!B20</f>
         <v>57973</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <f>'2016'!B20</f>
         <v>59669</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <f>'2015'!B20</f>
         <v>56797</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <f>'2014'!B20</f>
         <v>61204</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <f>'2013'!B20</f>
         <v>57641</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <f>'2012'!B20</f>
         <v>57346</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <f>'2011'!B20</f>
         <v>59470</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <f>'2010'!B20</f>
         <v>57153</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <f>'2009'!B20</f>
         <v>59158</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <f>'2008'!B20</f>
         <v>57193</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <f>'2007'!B20</f>
         <v>59016</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <f>'2006'!B20</f>
         <v>69500</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <f>'2005'!B20</f>
         <v>56662</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <f>'2004'!B20</f>
         <v>68488</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="6">
         <f>'2018'!B21</f>
         <v>120334</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <f>'2017'!B21</f>
         <v>123833</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <f>'2016'!B21</f>
         <v>129376</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <f>'2015'!B21</f>
         <v>124187</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <f>'2014'!B21</f>
         <v>118997</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <f>'2013'!B21</f>
         <v>120321</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <f>'2012'!B21</f>
         <v>119969</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <f>'2011'!B21</f>
         <v>121982</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <f>'2010'!B21</f>
         <v>120630</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <f>'2009'!B21</f>
         <v>123994</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <f>'2008'!B21</f>
         <v>118708</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <f>'2007'!B21</f>
         <v>122371</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="6">
         <f>'2006'!B21</f>
         <v>120914</v>
       </c>
-      <c r="O21" s="6">
+      <c r="P21" s="6">
         <f>'2005'!B21</f>
         <v>123699</v>
       </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <f>'2004'!B21</f>
         <v>128569</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="6">
         <f>'2018'!B22</f>
         <v>163191</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="6">
         <f>'2017'!B22</f>
         <v>166051</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <f>'2016'!B22</f>
         <v>168890</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <f>'2015'!B22</f>
         <v>165781</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <f>'2014'!B22</f>
         <v>175196</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <f>'2013'!B22</f>
         <v>189120</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <f>'2012'!B22</f>
         <v>191280</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <f>'2011'!B22</f>
         <v>193436</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <f>'2010'!B22</f>
         <v>196160</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="6">
         <f>'2009'!B22</f>
         <v>195568</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="6">
         <f>'2008'!B22</f>
         <v>195568</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <f>'2007'!B22</f>
         <v>199102</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="6">
         <f>'2006'!B22</f>
         <v>205600</v>
       </c>
-      <c r="O22" s="6">
+      <c r="P22" s="6">
         <f>'2005'!B22</f>
         <v>201136</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <f>'2004'!B22</f>
         <v>197908</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="6">
         <f>'2018'!B23</f>
         <v>706101</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="6">
         <f>'2017'!B23</f>
         <v>719850</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="6">
         <f>'2016'!B23</f>
         <v>767896</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <f>'2015'!B23</f>
         <v>763618</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <f>'2014'!B23</f>
         <v>753376</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <f>'2013'!B23</f>
         <v>761269</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <f>'2012'!B23</f>
         <v>786880</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <f>'2011'!B23</f>
         <v>795535</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <f>'2010'!B23</f>
         <v>790789</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <f>'2009'!B23</f>
         <v>802299</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <f>'2008'!B23</f>
         <v>814643</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <f>'2007'!B23</f>
         <v>789244</v>
       </c>
-      <c r="N23" s="6">
+      <c r="O23" s="6">
         <f>'2006'!B23</f>
         <v>832835</v>
       </c>
-      <c r="O23" s="6">
+      <c r="P23" s="6">
         <f>'2005'!B23</f>
         <v>863946</v>
       </c>
-      <c r="P23" s="6">
+      <c r="Q23" s="6">
         <f>'2004'!B23</f>
         <v>870432</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="6">
         <f>'2018'!B24</f>
         <v>568057</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <f>'2017'!B24</f>
         <v>564694</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <f>'2016'!B24</f>
         <v>572203</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <f>'2015'!B24</f>
         <v>592125</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <f>'2014'!B24</f>
         <v>578371</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <f>'2013'!B24</f>
         <v>579910</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <f>'2012'!B24</f>
         <v>576723</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <f>'2011'!B24</f>
         <v>581828</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <f>'2010'!B24</f>
         <v>579060</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <f>'2009'!B24</f>
         <v>578244</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <f>'2008'!B24</f>
         <v>578244</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <f>'2007'!B24</f>
         <v>571547</v>
       </c>
-      <c r="N24" s="6">
+      <c r="O24" s="6">
         <f>'2006'!B24</f>
         <v>571581</v>
       </c>
-      <c r="O24" s="6">
+      <c r="P24" s="6">
         <f>'2005'!B24</f>
         <v>573424</v>
       </c>
-      <c r="P24" s="6">
+      <c r="Q24" s="6">
         <f>'2004'!B24</f>
         <v>585104</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="6">
         <f>'2018'!B25</f>
         <v>498319</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="6">
         <f>'2017'!B25</f>
         <v>499489</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="6">
         <f>'2016'!B25</f>
         <v>502652</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <f>'2015'!B25</f>
         <v>496583</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <f>'2014'!B25</f>
         <v>487024</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <f>'2013'!B25</f>
         <v>486608</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <f>'2012'!B25</f>
         <v>491357</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <f>'2011'!B25</f>
         <v>485413</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <f>'2010'!B25</f>
         <v>480883</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="6">
         <f>'2009'!B25</f>
         <v>483911</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <f>'2008'!B25</f>
         <v>487442</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <f>'2007'!B25</f>
         <v>479959</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="6">
         <f>'2006'!B25</f>
         <v>492500</v>
       </c>
-      <c r="O25" s="6">
+      <c r="P25" s="6">
         <f>'2005'!B25</f>
         <v>542477</v>
       </c>
-      <c r="P25" s="6">
+      <c r="Q25" s="6">
         <f>'2004'!B25</f>
         <v>539062</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="6">
         <f>'2018'!B26</f>
         <v>300146</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="6">
         <f>'2017'!B26</f>
         <v>298637</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="6">
         <f>'2016'!B26</f>
         <v>307747</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F26" s="6">
         <f>'2015'!B26</f>
         <v>218161</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <f>'2014'!B26</f>
         <v>219716</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H26" s="6">
         <f>'2013'!B26</f>
         <v>220266</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <f>'2012'!B26</f>
         <v>226940</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <f>'2011'!B26</f>
         <v>232546</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <f>'2010'!B26</f>
         <v>238036</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <f>'2009'!B26</f>
         <v>231865</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <f>'2008'!B26</f>
         <v>225150</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <f>'2007'!B26</f>
         <v>236067</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26" s="6">
         <f>'2006'!B26</f>
         <v>234797</v>
       </c>
-      <c r="O26" s="6">
+      <c r="P26" s="6">
         <f>'2005'!B26</f>
         <v>235447</v>
       </c>
-      <c r="P26" s="6">
+      <c r="Q26" s="6">
         <f>'2004'!B26</f>
         <v>249591</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="6">
         <f>'2018'!B27</f>
         <v>253412</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="6">
         <f>'2017'!B27</f>
         <v>240702</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <f>'2016'!B27</f>
         <v>239542</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <f>'2015'!B27</f>
         <v>229317</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <f>'2014'!B27</f>
         <v>222977</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <f>'2013'!B27</f>
         <v>235621</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <f>'2012'!B27</f>
         <v>243570</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <f>'2011'!B27</f>
         <v>245550</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <f>'2010'!B27</f>
         <v>243751</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <f>'2009'!B27</f>
         <v>240613</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <f>'2008'!B27</f>
         <v>240613</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <f>'2007'!B27</f>
         <v>231936</v>
       </c>
-      <c r="N27" s="6">
+      <c r="O27" s="6">
         <f>'2006'!B27</f>
         <v>232869</v>
       </c>
-      <c r="O27" s="6">
+      <c r="P27" s="6">
         <f>'2005'!B27</f>
         <v>232276</v>
       </c>
-      <c r="P27" s="6">
+      <c r="Q27" s="6">
         <f>'2004'!B27</f>
         <v>227365</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="6">
         <f>'2018'!B28</f>
         <v>585766</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="6">
         <f>'2017'!B28</f>
         <v>573712</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="6">
         <f>'2016'!B28</f>
         <v>570495</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <f>'2015'!B28</f>
         <v>545032</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <f>'2014'!B28</f>
         <v>528636</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <f>'2013'!B28</f>
         <v>521717</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <f>'2012'!B28</f>
         <v>505530</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <f>'2011'!B28</f>
         <v>494005</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <f>'2010'!B28</f>
         <v>475375</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <f>'2009'!B28</f>
         <v>460577</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <f>'2008'!B28</f>
         <v>440896</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <f>'2007'!B28</f>
         <v>427608</v>
       </c>
-      <c r="N28" s="6">
+      <c r="O28" s="6">
         <f>'2006'!B28</f>
         <v>438172</v>
       </c>
-      <c r="O28" s="6">
+      <c r="P28" s="6">
         <f>'2005'!B28</f>
         <v>433542</v>
       </c>
-      <c r="P28" s="6">
+      <c r="Q28" s="6">
         <f>'2004'!B28</f>
         <v>433135</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="6">
         <f>'2018'!B29</f>
         <v>141553</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="6">
         <f>'2017'!B29</f>
         <v>140243</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="6">
         <f>'2016'!B29</f>
         <v>145538</v>
       </c>
-      <c r="E29" s="6">
+      <c r="F29" s="6">
         <f>'2015'!B29</f>
         <v>148793</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <f>'2014'!B29</f>
         <v>149138</v>
       </c>
-      <c r="G29" s="6">
+      <c r="H29" s="6">
         <f>'2013'!B29</f>
         <v>156052</v>
       </c>
-      <c r="H29" s="6">
+      <c r="I29" s="6">
         <f>'2012'!B29</f>
         <v>154047</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <f>'2011'!B29</f>
         <v>156906</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <f>'2010'!B29</f>
         <v>163174</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <f>'2009'!B29</f>
         <v>156713</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <f>'2008'!B29</f>
         <v>152691</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <f>'2007'!B29</f>
         <v>148919</v>
       </c>
-      <c r="N29" s="6">
+      <c r="O29" s="6">
         <f>'2006'!B29</f>
         <v>147240</v>
       </c>
-      <c r="O29" s="6">
+      <c r="P29" s="6">
         <f>'2005'!B29</f>
         <v>146010</v>
       </c>
-      <c r="P29" s="6">
+      <c r="Q29" s="6">
         <f>'2004'!B29</f>
         <v>141816</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="6">
         <f>'2018'!B30</f>
         <v>183056</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="6">
         <f>'2017'!B30</f>
         <v>175468</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="6">
         <f>'2016'!B30</f>
         <v>174493</v>
       </c>
-      <c r="E30" s="6">
+      <c r="F30" s="6">
         <f>'2015'!B30</f>
         <v>175591</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="6">
         <f>'2014'!B30</f>
         <v>180517</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <f>'2013'!B30</f>
         <v>177623</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <f>'2012'!B30</f>
         <v>175874</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <f>'2011'!B30</f>
         <v>175944</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <f>'2010'!B30</f>
         <v>177939</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <f>'2009'!B30</f>
         <v>171419</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <f>'2008'!B30</f>
         <v>171419</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <f>'2007'!B30</f>
         <v>170785</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="6">
         <f>'2006'!B30</f>
         <v>165952</v>
       </c>
-      <c r="O30" s="6">
+      <c r="P30" s="6">
         <f>'2005'!B30</f>
         <v>176502</v>
       </c>
-      <c r="P30" s="6">
+      <c r="Q30" s="6">
         <f>'2004'!B30</f>
         <v>174927</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="6">
         <f>'2018'!B31</f>
         <v>58099</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="6">
         <f>'2017'!B31</f>
         <v>59318</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="6">
         <f>'2016'!B31</f>
         <v>61556</v>
       </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
         <f>'2015'!B31</f>
         <v>59068</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <f>'2014'!B31</f>
         <v>56411</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <f>'2013'!B31</f>
         <v>59301</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <f>'2012'!B31</f>
         <v>59420</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <f>'2011'!B31</f>
         <v>59154</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <f>'2010'!B31</f>
         <v>59768</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="6">
         <f>'2009'!B31</f>
         <v>61076</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <f>'2008'!B31</f>
         <v>61076</v>
       </c>
-      <c r="M31" s="6">
+      <c r="N31" s="6">
         <f>'2007'!B31</f>
         <v>60737</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <f>'2006'!B31</f>
         <v>62587</v>
       </c>
-      <c r="O31" s="6">
+      <c r="P31" s="6">
         <f>'2005'!B31</f>
         <v>63975</v>
       </c>
-      <c r="P31" s="6">
+      <c r="Q31" s="6">
         <f>'2004'!B31</f>
         <v>67586</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="6">
         <f>'2018'!B32</f>
         <v>74794</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="6">
         <f>'2017'!B32</f>
         <v>75248</v>
       </c>
-      <c r="D32" s="6">
+      <c r="E32" s="6">
         <f>'2016'!B32</f>
         <v>75006</v>
       </c>
-      <c r="E32" s="6">
+      <c r="F32" s="6">
         <f>'2015'!B32</f>
         <v>74067</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <f>'2014'!B32</f>
         <v>75699</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <f>'2013'!B32</f>
         <v>77607</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <f>'2012'!B32</f>
         <v>77584</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <f>'2011'!B32</f>
         <v>79539</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <f>'2010'!B32</f>
         <v>76398</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="6">
         <f>'2009'!B32</f>
         <v>80246</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <f>'2008'!B32</f>
         <v>80246</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="6">
         <f>'2007'!B32</f>
         <v>82566</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="6">
         <f>'2006'!B32</f>
         <v>86588</v>
       </c>
-      <c r="O32" s="6">
+      <c r="P32" s="6">
         <f>'2005'!B32</f>
         <v>81501</v>
       </c>
-      <c r="P32" s="6">
+      <c r="Q32" s="6">
         <f>'2004'!B32</f>
         <v>82814</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="6">
         <f>'2018'!B33</f>
         <v>107331</v>
       </c>
-      <c r="C33" s="6">
+      <c r="D33" s="6">
         <f>'2017'!B33</f>
         <v>103719</v>
       </c>
-      <c r="D33" s="6">
+      <c r="E33" s="6">
         <f>'2016'!B33</f>
         <v>99328</v>
       </c>
-      <c r="E33" s="6">
+      <c r="F33" s="6">
         <f>'2015'!B33</f>
         <v>97103</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <f>'2014'!B33</f>
         <v>95927</v>
       </c>
-      <c r="G33" s="6">
+      <c r="H33" s="6">
         <f>'2013'!B33</f>
         <v>97893</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <f>'2012'!B33</f>
         <v>96424</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="6">
         <f>'2011'!B33</f>
         <v>102463</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="6">
         <f>'2010'!B33</f>
         <v>100346</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="6">
         <f>'2009'!B33</f>
         <v>94243</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <f>'2008'!B33</f>
         <v>96160</v>
       </c>
-      <c r="M33" s="6">
+      <c r="N33" s="6">
         <f>'2007'!B33</f>
         <v>105966</v>
       </c>
-      <c r="N33" s="6">
+      <c r="O33" s="6">
         <f>'2006'!B33</f>
         <v>103968</v>
       </c>
-      <c r="O33" s="6">
+      <c r="P33" s="6">
         <f>'2005'!B33</f>
         <v>109948</v>
       </c>
-      <c r="P33" s="6">
+      <c r="Q33" s="6">
         <f>'2004'!B33</f>
         <v>111188</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="6">
         <f>'2018'!B34</f>
         <v>68744</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="6">
         <f>'2017'!B34</f>
         <v>67906</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E34" s="6">
         <f>'2016'!B34</f>
         <v>66950</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <f>'2015'!B34</f>
         <v>65606</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <f>'2014'!B34</f>
         <v>65461</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <f>'2013'!B34</f>
         <v>64334</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I34" s="6">
         <f>'2012'!B34</f>
         <v>64635</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <f>'2011'!B34</f>
         <v>63709</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <f>'2010'!B34</f>
         <v>65047</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="6">
         <f>'2009'!B34</f>
         <v>64031</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <f>'2008'!B34</f>
         <v>64031</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="6">
         <f>'2007'!B34</f>
         <v>60385</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <f>'2006'!B34</f>
         <v>58722</v>
       </c>
-      <c r="O34" s="6">
+      <c r="P34" s="6">
         <f>'2005'!B34</f>
         <v>60805</v>
       </c>
-      <c r="P34" s="6">
+      <c r="Q34" s="6">
         <f>'2004'!B34</f>
         <v>61455</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="6">
         <f>'2018'!B35</f>
         <v>579043</v>
       </c>
-      <c r="C35" s="6">
+      <c r="D35" s="6">
         <f>'2017'!B35</f>
         <v>572992</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="6">
         <f>'2016'!B35</f>
         <v>544229</v>
       </c>
-      <c r="E35" s="6">
+      <c r="F35" s="6">
         <f>'2015'!B35</f>
         <v>535915</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <f>'2014'!B35</f>
         <v>576815</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H35" s="6">
         <f>'2013'!B35</f>
         <v>581401</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="6">
         <f>'2012'!B35</f>
         <v>592216</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J35" s="6">
         <f>'2011'!B35</f>
         <v>676669</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <f>'2010'!B35</f>
         <v>597006</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <f>'2009'!B35</f>
         <v>594992</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <f>'2008'!B35</f>
         <v>611644</v>
       </c>
-      <c r="M35" s="6">
+      <c r="N35" s="6">
         <f>'2007'!B35</f>
         <v>573970</v>
       </c>
-      <c r="N35" s="6">
+      <c r="O35" s="6">
         <f>'2006'!B35</f>
         <v>627749</v>
       </c>
-      <c r="O35" s="6">
+      <c r="P35" s="6">
         <f>'2005'!B35</f>
         <v>641572</v>
       </c>
-      <c r="P35" s="6">
+      <c r="Q35" s="6">
         <f>'2004'!B35</f>
         <v>696679</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="6">
         <f>'2018'!B36</f>
         <v>390268</v>
       </c>
-      <c r="C36" s="6">
+      <c r="D36" s="6">
         <f>'2017'!B36</f>
         <v>394598</v>
       </c>
-      <c r="D36" s="6">
+      <c r="E36" s="6">
         <f>'2016'!B36</f>
         <v>404081</v>
       </c>
-      <c r="E36" s="6">
+      <c r="F36" s="6">
         <f>'2015'!B36</f>
         <v>404997</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <f>'2014'!B36</f>
         <v>400954</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <f>'2013'!B36</f>
         <v>405866</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <f>'2012'!B36</f>
         <v>413710</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <f>'2011'!B36</f>
         <v>408142</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <f>'2010'!B36</f>
         <v>395567</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <f>'2009'!B36</f>
         <v>400736</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <f>'2008'!B36</f>
         <v>420621</v>
       </c>
-      <c r="M36" s="6">
+      <c r="N36" s="6">
         <f>'2007'!B36</f>
         <v>431815</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="6">
         <f>'2006'!B36</f>
         <v>442214</v>
       </c>
-      <c r="O36" s="6">
+      <c r="P36" s="6">
         <f>'2005'!B36</f>
         <v>425992</v>
       </c>
-      <c r="P36" s="6">
+      <c r="Q36" s="6">
         <f>'2004'!B36</f>
         <v>426856</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="6">
         <f>'2018'!B37</f>
         <v>529651</v>
       </c>
-      <c r="C37" s="6">
+      <c r="D37" s="6">
         <f>'2017'!B37</f>
         <v>431077</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="6">
         <f>'2016'!B37</f>
         <v>421681</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="6">
         <f>'2015'!B37</f>
         <v>419445</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <f>'2014'!B37</f>
         <v>400809</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <f>'2013'!B37</f>
         <v>381049</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <f>'2012'!B37</f>
         <v>386374</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <f>'2011'!B37</f>
         <v>379884</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <f>'2010'!B37</f>
         <v>356257</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <f>'2009'!B37</f>
         <v>362806</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <f>'2008'!B37</f>
         <v>345020</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="6">
         <f>'2007'!B37</f>
         <v>341213</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <f>'2006'!B37</f>
         <v>341260</v>
       </c>
-      <c r="O37" s="6">
+      <c r="P37" s="6">
         <f>'2005'!B37</f>
         <v>331672</v>
       </c>
-      <c r="P37" s="6">
+      <c r="Q37" s="6">
         <f>'2004'!B37</f>
         <v>330336</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="6">
         <f>'2018'!B38</f>
         <v>264684</v>
       </c>
-      <c r="C38" s="6">
+      <c r="D38" s="6">
         <f>'2017'!B38</f>
         <v>262822</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <f>'2016'!B38</f>
         <v>259000</v>
       </c>
-      <c r="E38" s="6">
+      <c r="F38" s="6">
         <f>'2015'!B38</f>
         <v>264102</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="6">
         <f>'2014'!B38</f>
         <v>256321</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <f>'2013'!B38</f>
         <v>260949</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <f>'2012'!B38</f>
         <v>282812</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <f>'2011'!B38</f>
         <v>283749</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <f>'2010'!B38</f>
         <v>279893</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <f>'2009'!B38</f>
         <v>279937</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <f>'2008'!B38</f>
         <v>279937</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="6">
         <f>'2007'!B38</f>
         <v>279140</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <f>'2006'!B38</f>
         <v>283327</v>
       </c>
-      <c r="O38" s="6">
+      <c r="P38" s="6">
         <f>'2005'!B38</f>
         <v>295422</v>
       </c>
-      <c r="P38" s="6">
+      <c r="Q38" s="6">
         <f>'2004'!B38</f>
         <v>297944</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="6">
         <f>'2018'!B39</f>
         <v>975650</v>
       </c>
-      <c r="C39" s="6">
+      <c r="D39" s="6">
         <f>'2017'!B39</f>
         <v>984637</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="6">
         <f>'2016'!B39</f>
         <v>980613</v>
       </c>
-      <c r="E39" s="6">
+      <c r="F39" s="6">
         <f>'2015'!B39</f>
         <v>969633</v>
       </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6">
         <f>'2014'!B39</f>
         <v>964714</v>
       </c>
-      <c r="G39" s="6">
+      <c r="H39" s="6">
         <f>'2013'!B39</f>
         <v>968735</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="6">
         <f>'2012'!B39</f>
         <v>970217</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <f>'2011'!B39</f>
         <v>927655</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <f>'2010'!B39</f>
         <v>925885</v>
       </c>
-      <c r="K39" s="6">
+      <c r="L39" s="6">
         <f>'2009'!B39</f>
         <v>943222</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <f>'2008'!B39</f>
         <v>981124</v>
       </c>
-      <c r="M39" s="6">
+      <c r="N39" s="6">
         <f>'2007'!B39</f>
         <v>1006293</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="6">
         <f>'2006'!B39</f>
         <v>1018664</v>
       </c>
-      <c r="O39" s="6">
+      <c r="P39" s="6">
         <f>'2005'!B39</f>
         <v>1017802</v>
       </c>
-      <c r="P39" s="6">
+      <c r="Q39" s="6">
         <f>'2004'!B39</f>
         <v>1048731</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="6">
         <f>'2018'!B40</f>
         <v>8209</v>
       </c>
-      <c r="C40" s="6">
+      <c r="D40" s="6">
         <f>'2017'!B40</f>
         <v>8797</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="6">
         <f>'2016'!B40</f>
         <v>8978</v>
       </c>
-      <c r="E40" s="6">
+      <c r="F40" s="6">
         <f>'2015'!B40</f>
         <v>8624</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="6">
         <f>'2014'!B40</f>
         <v>8551</v>
       </c>
-      <c r="G40" s="6">
+      <c r="H40" s="6">
         <f>'2013'!B40</f>
         <v>8605</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <f>'2012'!B40</f>
         <v>8798</v>
       </c>
-      <c r="I40" s="6">
+      <c r="J40" s="6">
         <f>'2011'!B40</f>
         <v>8858</v>
       </c>
-      <c r="J40" s="6">
+      <c r="K40" s="6">
         <f>'2010'!B40</f>
         <v>9075</v>
       </c>
-      <c r="K40" s="6">
+      <c r="L40" s="6">
         <f>'2009'!B40</f>
         <v>9075</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <f>'2008'!B40</f>
         <v>9075</v>
       </c>
-      <c r="M40" s="6">
+      <c r="N40" s="6">
         <f>'2007'!B40</f>
         <v>8940</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="6">
         <f>'2006'!B40</f>
         <v>9302</v>
       </c>
-      <c r="O40" s="6">
+      <c r="P40" s="6">
         <f>'2005'!B40</f>
         <v>10691</v>
       </c>
-      <c r="P40" s="6">
+      <c r="Q40" s="6">
         <f>'2004'!B40</f>
         <v>10750</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="6">
         <f>'2018'!B41</f>
         <v>210369</v>
       </c>
-      <c r="C41" s="6">
+      <c r="D41" s="6">
         <f>'2017'!B41</f>
         <v>212621</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="6">
         <f>'2016'!B41</f>
         <v>212461</v>
       </c>
-      <c r="E41" s="6">
+      <c r="F41" s="6">
         <f>'2015'!B41</f>
         <v>206397</v>
       </c>
-      <c r="F41" s="6">
+      <c r="G41" s="6">
         <f>'2014'!B41</f>
         <v>204837</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <f>'2013'!B41</f>
         <v>173942</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="6">
         <f>'2012'!B41</f>
         <v>234457</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <f>'2011'!B41</f>
         <v>223008</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <f>'2010'!B41</f>
         <v>204445</v>
       </c>
-      <c r="K41" s="6">
+      <c r="L41" s="6">
         <f>'2009'!B41</f>
         <v>205059</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <f>'2008'!B41</f>
         <v>199540</v>
       </c>
-      <c r="M41" s="6">
+      <c r="N41" s="6">
         <f>'2007'!B41</f>
         <v>220126</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="6">
         <f>'2006'!B41</f>
         <v>210136</v>
       </c>
-      <c r="O41" s="6">
+      <c r="P41" s="6">
         <f>'2005'!B41</f>
         <v>211605</v>
       </c>
-      <c r="P41" s="6">
+      <c r="Q41" s="6">
         <f>'2004'!B41</f>
         <v>279203</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="6">
         <f>'2018'!B42</f>
         <v>233215</v>
       </c>
-      <c r="C42" s="6">
+      <c r="D42" s="6">
         <f>'2017'!B42</f>
         <v>223394</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <f>'2016'!B42</f>
         <v>221979</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F42" s="6">
         <f>'2015'!B42</f>
         <v>244182</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <f>'2014'!B42</f>
         <v>246315</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <f>'2013'!B42</f>
         <v>253512</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="6">
         <f>'2012'!B42</f>
         <v>251655</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <f>'2011'!B42</f>
         <v>256191</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <f>'2010'!B42</f>
         <v>259159</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <f>'2009'!B42</f>
         <v>248495</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <f>'2008'!B42</f>
         <v>239419</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <f>'2007'!B42</f>
         <v>243123</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <f>'2006'!B42</f>
         <v>232053</v>
       </c>
-      <c r="O42" s="6">
+      <c r="P42" s="6">
         <f>'2005'!B42</f>
         <v>207973</v>
       </c>
-      <c r="P42" s="6">
+      <c r="Q42" s="6">
         <f>'2004'!B42</f>
         <v>216152</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="6">
         <f>'2018'!B43</f>
         <v>700600</v>
       </c>
-      <c r="C43" s="6">
+      <c r="D43" s="6">
         <f>'2017'!B43</f>
         <v>717256</v>
       </c>
-      <c r="D43" s="6">
+      <c r="E43" s="6">
         <f>'2016'!B43</f>
         <v>734733</v>
       </c>
-      <c r="E43" s="6">
+      <c r="F43" s="6">
         <f>'2015'!B43</f>
         <v>727229</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43" s="6">
         <f>'2014'!B43</f>
         <v>566507</v>
       </c>
-      <c r="G43" s="6">
+      <c r="H43" s="6">
         <f>'2013'!B43</f>
         <v>530547</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="6">
         <f>'2012'!B43</f>
         <v>698993</v>
       </c>
-      <c r="I43" s="6">
+      <c r="J43" s="6">
         <f>'2011'!B43</f>
         <v>700621</v>
       </c>
-      <c r="J43" s="6">
+      <c r="K43" s="6">
         <f>'2010'!B43</f>
         <v>671120</v>
       </c>
-      <c r="K43" s="6">
+      <c r="L43" s="6">
         <f>'2009'!B43</f>
         <v>667606</v>
       </c>
-      <c r="L43" s="6">
+      <c r="M43" s="6">
         <f>'2008'!B43</f>
         <v>780053</v>
       </c>
-      <c r="M43" s="6">
+      <c r="N43" s="6">
         <f>'2007'!B43</f>
         <v>775511</v>
       </c>
-      <c r="N43" s="6">
+      <c r="O43" s="6">
         <f>'2006'!B43</f>
         <v>730495</v>
       </c>
-      <c r="O43" s="6">
+      <c r="P43" s="6">
         <f>'2005'!B43</f>
         <v>727525</v>
       </c>
-      <c r="P43" s="6">
+      <c r="Q43" s="6">
         <f>'2004'!B43</f>
         <v>725110</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="6">
         <f>'2018'!B44</f>
         <v>1157779</v>
       </c>
-      <c r="C44" s="6">
+      <c r="D44" s="6">
         <f>'2017'!B44</f>
         <v>1148765</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="6">
         <f>'2016'!B44</f>
         <v>1132099</v>
       </c>
-      <c r="E44" s="6">
+      <c r="F44" s="6">
         <f>'2015'!B44</f>
         <v>1060455</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <f>'2014'!B44</f>
         <v>1020105</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <f>'2013'!B44</f>
         <v>1036946</v>
       </c>
-      <c r="H44" s="6">
+      <c r="I44" s="6">
         <f>'2012'!B44</f>
         <v>1020227</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <f>'2011'!B44</f>
         <v>1024520</v>
       </c>
-      <c r="J44" s="6">
+      <c r="K44" s="6">
         <f>'2010'!B44</f>
         <v>1020779</v>
       </c>
-      <c r="K44" s="6">
+      <c r="L44" s="6">
         <f>'2009'!B44</f>
         <v>1012446</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="6">
         <f>'2008'!B44</f>
         <v>1005226</v>
       </c>
-      <c r="M44" s="6">
+      <c r="N44" s="6">
         <f>'2007'!B44</f>
         <v>1039709</v>
       </c>
-      <c r="N44" s="6">
+      <c r="O44" s="6">
         <f>'2006'!B44</f>
         <v>1073847</v>
       </c>
-      <c r="O44" s="6">
+      <c r="P44" s="6">
         <f>'2005'!B44</f>
         <v>1039327</v>
       </c>
-      <c r="P44" s="6">
+      <c r="Q44" s="6">
         <f>'2004'!B44</f>
         <v>1027908</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="6">
         <f>'2018'!B45</f>
         <v>236656</v>
       </c>
-      <c r="C45" s="6">
+      <c r="D45" s="6">
         <f>'2017'!B45</f>
         <v>226225</v>
       </c>
-      <c r="D45" s="6">
+      <c r="E45" s="6">
         <f>'2016'!B45</f>
         <v>217471</v>
       </c>
-      <c r="E45" s="6">
+      <c r="F45" s="6">
         <f>'2015'!B45</f>
         <v>207331</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G45" s="6">
         <f>'2014'!B45</f>
         <v>206666</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <f>'2013'!B45</f>
         <v>211863</v>
       </c>
-      <c r="H45" s="6">
+      <c r="I45" s="6">
         <f>'2012'!B45</f>
         <v>212378</v>
       </c>
-      <c r="I45" s="6">
+      <c r="J45" s="6">
         <f>'2011'!B45</f>
         <v>207232</v>
       </c>
-      <c r="J45" s="6">
+      <c r="K45" s="6">
         <f>'2010'!B45</f>
         <v>165033</v>
       </c>
-      <c r="K45" s="6">
+      <c r="L45" s="6">
         <f>'2009'!B45</f>
         <v>157217</v>
       </c>
-      <c r="L45" s="6">
+      <c r="M45" s="6">
         <f>'2008'!B45</f>
         <v>157217</v>
       </c>
-      <c r="M45" s="6">
+      <c r="N45" s="6">
         <f>'2007'!B45</f>
         <v>148849</v>
       </c>
-      <c r="N45" s="6">
+      <c r="O45" s="6">
         <f>'2006'!B45</f>
         <v>153501</v>
       </c>
-      <c r="O45" s="6">
+      <c r="P45" s="6">
         <f>'2005'!B45</f>
         <v>154884</v>
       </c>
-      <c r="P45" s="6">
+      <c r="Q45" s="6">
         <f>'2004'!B45</f>
         <v>159678</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="6">
         <f>'2018'!B46</f>
         <v>276019</v>
       </c>
-      <c r="C46" s="6">
+      <c r="D46" s="6">
         <f>'2017'!B46</f>
         <v>277281</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="6">
         <f>'2016'!B46</f>
         <v>282132</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F46" s="6">
         <f>'2015'!B46</f>
         <v>276660</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <f>'2014'!B46</f>
         <v>292863</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <f>'2013'!B46</f>
         <v>300764</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <f>'2012'!B46</f>
         <v>304206</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <f>'2011'!B46</f>
         <v>307642</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <f>'2010'!B46</f>
         <v>307995</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <f>'2009'!B46</f>
         <v>318993</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M46" s="6">
         <f>'2008'!B46</f>
         <v>309942</v>
       </c>
-      <c r="M46" s="6">
+      <c r="N46" s="6">
         <f>'2007'!B46</f>
         <v>317239</v>
       </c>
-      <c r="N46" s="6">
+      <c r="O46" s="6">
         <f>'2006'!B46</f>
         <v>317484</v>
       </c>
-      <c r="O46" s="6">
+      <c r="P46" s="6">
         <f>'2005'!B46</f>
         <v>304605</v>
       </c>
-      <c r="P46" s="6">
+      <c r="Q46" s="6">
         <f>'2004'!B46</f>
         <v>314748</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="6">
         <f>'2018'!B47</f>
         <v>69943</v>
       </c>
-      <c r="C47" s="6">
+      <c r="D47" s="6">
         <f>'2017'!B47</f>
         <v>71807</v>
       </c>
-      <c r="D47" s="6">
+      <c r="E47" s="6">
         <f>'2016'!B47</f>
         <v>74219</v>
       </c>
-      <c r="E47" s="6">
+      <c r="F47" s="6">
         <f>'2015'!B47</f>
         <v>72930</v>
       </c>
-      <c r="F47" s="6">
+      <c r="G47" s="6">
         <f>'2014'!B47</f>
         <v>74966</v>
       </c>
-      <c r="G47" s="6">
+      <c r="H47" s="6">
         <f>'2013'!B47</f>
         <v>80650</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <f>'2012'!B47</f>
         <v>82307</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <f>'2011'!B47</f>
         <v>83681</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <f>'2010'!B47</f>
         <v>84044</v>
       </c>
-      <c r="K47" s="6">
+      <c r="L47" s="6">
         <f>'2009'!B47</f>
         <v>84044</v>
       </c>
-      <c r="L47" s="6">
+      <c r="M47" s="6">
         <f>'2008'!B47</f>
         <v>83708</v>
       </c>
-      <c r="M47" s="6">
+      <c r="N47" s="6">
         <f>'2007'!B47</f>
         <v>81265</v>
       </c>
-      <c r="N47" s="6">
+      <c r="O47" s="6">
         <f>'2006'!B47</f>
         <v>86512</v>
       </c>
-      <c r="O47" s="6">
+      <c r="P47" s="6">
         <f>'2005'!B47</f>
         <v>90110</v>
       </c>
-      <c r="P47" s="6">
+      <c r="Q47" s="6">
         <f>'2004'!B47</f>
         <v>92138</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="6">
         <f>'2018'!B48</f>
         <v>183063</v>
       </c>
-      <c r="C48" s="6">
+      <c r="D48" s="6">
         <f>'2017'!B48</f>
         <v>182149</v>
       </c>
-      <c r="D48" s="6">
+      <c r="E48" s="6">
         <f>'2016'!B48</f>
         <v>182251</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <f>'2015'!B48</f>
         <v>180829</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <f>'2014'!B48</f>
         <v>180411</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <f>'2013'!B48</f>
         <v>188081</v>
       </c>
-      <c r="H48" s="6">
+      <c r="I48" s="6">
         <f>'2012'!B48</f>
         <v>194272</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <f>'2011'!B48</f>
         <v>196276</v>
       </c>
-      <c r="J48" s="6">
+      <c r="K48" s="6">
         <f>'2010'!B48</f>
         <v>209050</v>
       </c>
-      <c r="K48" s="6">
+      <c r="L48" s="6">
         <f>'2009'!B48</f>
         <v>197260</v>
       </c>
-      <c r="L48" s="6">
+      <c r="M48" s="6">
         <f>'2008'!B48</f>
         <v>197215</v>
       </c>
-      <c r="M48" s="6">
+      <c r="N48" s="6">
         <f>'2007'!B48</f>
         <v>197135</v>
       </c>
-      <c r="N48" s="6">
+      <c r="O48" s="6">
         <f>'2006'!B48</f>
         <v>193046</v>
       </c>
-      <c r="O48" s="6">
+      <c r="P48" s="6">
         <f>'2005'!B48</f>
         <v>194308</v>
       </c>
-      <c r="P48" s="6">
+      <c r="Q48" s="6">
         <f>'2004'!B48</f>
         <v>198162</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="6">
         <f>'2018'!B49</f>
         <v>706400</v>
       </c>
-      <c r="C49" s="6">
+      <c r="D49" s="6">
         <f>'2017'!B49</f>
         <v>700843</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="6">
         <f>'2016'!B49</f>
         <v>719110</v>
       </c>
-      <c r="E49" s="6">
+      <c r="F49" s="6">
         <f>'2015'!B49</f>
         <v>717381</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <f>'2014'!B49</f>
         <v>704372</v>
       </c>
-      <c r="G49" s="6">
+      <c r="H49" s="6">
         <f>'2013'!B49</f>
         <v>704357</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <f>'2012'!B49</f>
         <v>718261</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <f>'2011'!B49</f>
         <v>716504</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <f>'2010'!B49</f>
         <v>721399</v>
       </c>
-      <c r="K49" s="6">
+      <c r="L49" s="6">
         <f>'2009'!B49</f>
         <v>721851</v>
       </c>
-      <c r="L49" s="6">
+      <c r="M49" s="6">
         <f>'2008'!B49</f>
         <v>721851</v>
       </c>
-      <c r="M49" s="6">
+      <c r="N49" s="6">
         <f>'2007'!B49</f>
         <v>713610</v>
       </c>
-      <c r="N49" s="6">
+      <c r="O49" s="6">
         <f>'2006'!B49</f>
         <v>722803</v>
       </c>
-      <c r="O49" s="6">
+      <c r="P49" s="6">
         <f>'2005'!B49</f>
         <v>716200</v>
       </c>
-      <c r="P49" s="6">
+      <c r="Q49" s="6">
         <f>'2004'!B49</f>
         <v>689099</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="6">
         <f>'2018'!B50</f>
         <v>217123</v>
       </c>
-      <c r="C50" s="6">
+      <c r="D50" s="6">
         <f>'2017'!B50</f>
         <v>219990</v>
       </c>
-      <c r="D50" s="6">
+      <c r="E50" s="6">
         <f>'2016'!B50</f>
         <v>222686</v>
       </c>
-      <c r="E50" s="6">
+      <c r="F50" s="6">
         <f>'2015'!B50</f>
         <v>220811</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <f>'2014'!B50</f>
         <v>214286</v>
       </c>
-      <c r="G50" s="6">
+      <c r="H50" s="6">
         <f>'2013'!B50</f>
         <v>221806</v>
       </c>
-      <c r="H50" s="6">
+      <c r="I50" s="6">
         <f>'2012'!B50</f>
         <v>233349</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <f>'2011'!B50</f>
         <v>234192</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <f>'2010'!B50</f>
         <v>229115</v>
       </c>
-      <c r="K50" s="6">
+      <c r="L50" s="6">
         <f>'2009'!B50</f>
         <v>237343</v>
       </c>
-      <c r="L50" s="6">
+      <c r="M50" s="6">
         <f>'2008'!B50</f>
         <v>237343</v>
       </c>
-      <c r="M50" s="6">
+      <c r="N50" s="6">
         <f>'2007'!B50</f>
         <v>238355</v>
       </c>
-      <c r="N50" s="6">
+      <c r="O50" s="6">
         <f>'2006'!B50</f>
         <v>254222</v>
       </c>
-      <c r="O50" s="6">
+      <c r="P50" s="6">
         <f>'2005'!B50</f>
         <v>262835</v>
       </c>
-      <c r="P50" s="6">
+      <c r="Q50" s="6">
         <f>'2004'!B50</f>
         <v>288098</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="6">
         <f>'2018'!B51</f>
         <v>130304</v>
       </c>
-      <c r="C51" s="6">
+      <c r="D51" s="6">
         <f>'2017'!B51</f>
         <v>127198</v>
       </c>
-      <c r="D51" s="6">
+      <c r="E51" s="6">
         <f>'2016'!B51</f>
         <v>132141</v>
       </c>
-      <c r="E51" s="6">
+      <c r="F51" s="6">
         <f>'2015'!B51</f>
         <v>133568</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G51" s="6">
         <f>'2014'!B51</f>
         <v>136636</v>
       </c>
-      <c r="G51" s="6">
+      <c r="H51" s="6">
         <f>'2013'!B51</f>
         <v>143155</v>
       </c>
-      <c r="H51" s="6">
+      <c r="I51" s="6">
         <f>'2012'!B51</f>
         <v>142251</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <f>'2011'!B51</f>
         <v>135336</v>
       </c>
-      <c r="J51" s="6">
+      <c r="K51" s="6">
         <f>'2010'!B51</f>
         <v>149581</v>
       </c>
-      <c r="K51" s="6">
+      <c r="L51" s="6">
         <f>'2009'!B51</f>
         <v>145952</v>
       </c>
-      <c r="L51" s="6">
+      <c r="M51" s="6">
         <f>'2008'!B51</f>
         <v>145952</v>
       </c>
-      <c r="M51" s="6">
+      <c r="N51" s="6">
         <f>'2007'!B51</f>
         <v>139064</v>
       </c>
-      <c r="N51" s="6">
+      <c r="O51" s="6">
         <f>'2006'!B51</f>
         <v>136839</v>
       </c>
-      <c r="O51" s="6">
+      <c r="P51" s="6">
         <f>'2005'!B51</f>
         <v>137677</v>
       </c>
-      <c r="P51" s="6">
+      <c r="Q51" s="6">
         <f>'2004'!B51</f>
         <v>137608</v>
       </c>
@@ -4653,6 +4840,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F087403-A615-7542-97D8-888586A77864}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>101750</v>
+      </c>
+      <c r="C2" s="8">
+        <v>211655</v>
+      </c>
+      <c r="D2" s="8">
+        <v>38418</v>
+      </c>
+      <c r="E2" s="8">
+        <v>250073</v>
+      </c>
+      <c r="F2" s="9">
+        <v>7990838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>540098</v>
+      </c>
+      <c r="C3" s="8">
+        <v>586479</v>
+      </c>
+      <c r="D3" s="8">
+        <v>39483</v>
+      </c>
+      <c r="E3" s="8">
+        <v>625962</v>
+      </c>
+      <c r="F3" s="9">
+        <v>11451574.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>390932</v>
+      </c>
+      <c r="C4" s="8">
+        <v>384740</v>
+      </c>
+      <c r="D4" s="8">
+        <v>97203</v>
+      </c>
+      <c r="E4" s="8">
+        <v>481943</v>
+      </c>
+      <c r="F4" s="9">
+        <v>14035081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>191834</v>
+      </c>
+      <c r="C5" s="8">
+        <v>377308</v>
+      </c>
+      <c r="D5" s="8">
+        <v>34309</v>
+      </c>
+      <c r="E5" s="8">
+        <v>411617</v>
+      </c>
+      <c r="F5" s="9">
+        <v>16601597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>293263</v>
+      </c>
+      <c r="C6" s="8">
+        <v>813895</v>
+      </c>
+      <c r="D6" s="8">
+        <v>14840</v>
+      </c>
+      <c r="E6" s="8">
+        <v>828735</v>
+      </c>
+      <c r="F6" s="9">
+        <v>19513262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>294186</v>
+      </c>
+      <c r="C7" s="8">
+        <v>408997</v>
+      </c>
+      <c r="D7" s="8">
+        <v>129737</v>
+      </c>
+      <c r="E7" s="8">
+        <v>538734</v>
+      </c>
+      <c r="F7" s="9">
+        <v>56200410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>50066</v>
+      </c>
+      <c r="C8" s="8">
+        <v>123549</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6812</v>
+      </c>
+      <c r="E8" s="8">
+        <v>130361</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2258327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>19271</v>
+      </c>
+      <c r="C9" s="8">
+        <v>39377</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6126</v>
+      </c>
+      <c r="E9" s="8">
+        <v>45503</v>
+      </c>
+      <c r="F9" s="9">
+        <v>958602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>176539</v>
+      </c>
+      <c r="C10" s="8">
+        <v>315149</v>
+      </c>
+      <c r="D10" s="8">
+        <v>12824</v>
+      </c>
+      <c r="E10" s="8">
+        <v>327973</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5956378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>307436</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1085860</v>
+      </c>
+      <c r="D11" s="8">
+        <v>99734</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1185594</v>
+      </c>
+      <c r="F11" s="9">
+        <v>12889708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>9002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9265</v>
+      </c>
+      <c r="D12" s="3">
+        <v>388</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9653</v>
+      </c>
+      <c r="F12" s="9">
+        <v>160067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>264699</v>
+      </c>
+      <c r="C13" s="8">
+        <v>861164</v>
+      </c>
+      <c r="D13" s="8">
+        <v>104695</v>
+      </c>
+      <c r="E13" s="8">
+        <v>965859</v>
+      </c>
+      <c r="F13" s="9">
+        <v>20749084</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>254195</v>
+      </c>
+      <c r="C14" s="8">
+        <v>836142</v>
+      </c>
+      <c r="D14" s="8">
+        <v>110717</v>
+      </c>
+      <c r="E14" s="8">
+        <v>946859</v>
+      </c>
+      <c r="F14" s="9">
+        <v>23898310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>333061</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1379647</v>
+      </c>
+      <c r="D15" s="8">
+        <v>140615</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1520262</v>
+      </c>
+      <c r="F15" s="9">
+        <v>31346288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>272282</v>
+      </c>
+      <c r="C16" s="8">
+        <v>453958</v>
+      </c>
+      <c r="D16" s="8">
+        <v>18916</v>
+      </c>
+      <c r="E16" s="8">
+        <v>472874</v>
+      </c>
+      <c r="F16" s="9">
+        <v>10371579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>214107</v>
+      </c>
+      <c r="C17" s="8">
+        <v>370925</v>
+      </c>
+      <c r="D17" s="8">
+        <v>118803</v>
+      </c>
+      <c r="E17" s="8">
+        <v>489728</v>
+      </c>
+      <c r="F17" s="9">
+        <v>16999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>328321</v>
+      </c>
+      <c r="C18" s="8">
+        <v>478817</v>
+      </c>
+      <c r="D18" s="8">
+        <v>59165</v>
+      </c>
+      <c r="E18" s="8">
+        <v>537982</v>
+      </c>
+      <c r="F18" s="9">
+        <v>15002646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>314846</v>
+      </c>
+      <c r="C19" s="8">
+        <v>255273</v>
+      </c>
+      <c r="D19" s="8">
+        <v>15440</v>
+      </c>
+      <c r="E19" s="8">
+        <v>270713</v>
+      </c>
+      <c r="F19" s="9">
+        <v>5281036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>59470</v>
+      </c>
+      <c r="C20" s="8">
+        <v>220371</v>
+      </c>
+      <c r="D20" s="8">
+        <v>14480</v>
+      </c>
+      <c r="E20" s="8">
+        <v>234851</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1901273.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>121982</v>
+      </c>
+      <c r="C21" s="8">
+        <v>273387</v>
+      </c>
+      <c r="D21" s="8">
+        <v>52634</v>
+      </c>
+      <c r="E21" s="8">
+        <v>326021</v>
+      </c>
+      <c r="F21" s="9">
+        <v>6213687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>193436</v>
+      </c>
+      <c r="C22" s="8">
+        <v>224150</v>
+      </c>
+      <c r="D22" s="8">
+        <v>39917</v>
+      </c>
+      <c r="E22" s="8">
+        <v>264067</v>
+      </c>
+      <c r="F22" s="9">
+        <v>7817045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>795535</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1972389</v>
+      </c>
+      <c r="D23" s="8">
+        <v>36840</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2009229</v>
+      </c>
+      <c r="F23" s="9">
+        <v>27922523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>581828</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1433677</v>
+      </c>
+      <c r="D24" s="8">
+        <v>37891</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1471568</v>
+      </c>
+      <c r="F24" s="9">
+        <v>28161147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>485413</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1677486</v>
+      </c>
+      <c r="D25" s="8">
+        <v>85249</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1762735</v>
+      </c>
+      <c r="F25" s="9">
+        <v>19650761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>232546</v>
+      </c>
+      <c r="C26" s="8">
+        <v>211834</v>
+      </c>
+      <c r="D26" s="8">
+        <v>47211</v>
+      </c>
+      <c r="E26" s="8">
+        <v>259045</v>
+      </c>
+      <c r="F26" s="9">
+        <v>9722600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>245550</v>
+      </c>
+      <c r="C27" s="8">
+        <v>918255</v>
+      </c>
+      <c r="D27" s="8">
+        <v>147003</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1065258</v>
+      </c>
+      <c r="F27" s="9">
+        <v>28706032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>494005</v>
+      </c>
+      <c r="C28" s="8">
+        <v>339100</v>
+      </c>
+      <c r="D28" s="8">
+        <v>33269</v>
+      </c>
+      <c r="E28" s="8">
+        <v>372369</v>
+      </c>
+      <c r="F28" s="9">
+        <v>8287162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>156906</v>
+      </c>
+      <c r="C29" s="8">
+        <v>486519</v>
+      </c>
+      <c r="D29" s="8">
+        <v>169946</v>
+      </c>
+      <c r="E29" s="8">
+        <v>656465</v>
+      </c>
+      <c r="F29" s="9">
+        <v>11335484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>175944</v>
+      </c>
+      <c r="C30" s="8">
+        <v>381632</v>
+      </c>
+      <c r="D30" s="8">
+        <v>66734</v>
+      </c>
+      <c r="E30" s="8">
+        <v>448366</v>
+      </c>
+      <c r="F30" s="9">
+        <v>13271312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>59154</v>
+      </c>
+      <c r="C31" s="8">
+        <v>185550</v>
+      </c>
+      <c r="D31" s="8">
+        <v>31756</v>
+      </c>
+      <c r="E31" s="8">
+        <v>217306</v>
+      </c>
+      <c r="F31" s="9">
+        <v>4030447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>79539</v>
+      </c>
+      <c r="C32" s="8">
+        <v>304286</v>
+      </c>
+      <c r="D32" s="8">
+        <v>139418</v>
+      </c>
+      <c r="E32" s="8">
+        <v>443704</v>
+      </c>
+      <c r="F32" s="9">
+        <v>7710953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8">
+        <v>102463</v>
+      </c>
+      <c r="C33" s="8">
+        <v>206116</v>
+      </c>
+      <c r="D33" s="8">
+        <v>61041</v>
+      </c>
+      <c r="E33" s="8">
+        <v>267157</v>
+      </c>
+      <c r="F33" s="9">
+        <v>14768524</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8">
+        <v>63709</v>
+      </c>
+      <c r="C34" s="8">
+        <v>106174</v>
+      </c>
+      <c r="D34" s="8">
+        <v>20024</v>
+      </c>
+      <c r="E34" s="8">
+        <v>126198</v>
+      </c>
+      <c r="F34" s="9">
+        <v>5024711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8">
+        <v>676669</v>
+      </c>
+      <c r="C35" s="8">
+        <v>682624</v>
+      </c>
+      <c r="D35" s="8">
+        <v>50030</v>
+      </c>
+      <c r="E35" s="8">
+        <v>732654</v>
+      </c>
+      <c r="F35" s="9">
+        <v>27435282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>408142</v>
+      </c>
+      <c r="C36" s="8">
+        <v>383689</v>
+      </c>
+      <c r="D36" s="8">
+        <v>33802</v>
+      </c>
+      <c r="E36" s="8">
+        <v>417491</v>
+      </c>
+      <c r="F36" s="9">
+        <v>10690698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8">
+        <v>379884</v>
+      </c>
+      <c r="C37" s="8">
+        <v>286633</v>
+      </c>
+      <c r="D37" s="8">
+        <v>19154</v>
+      </c>
+      <c r="E37" s="8">
+        <v>305787</v>
+      </c>
+      <c r="F37" s="9">
+        <v>8652811</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <v>283749</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1251311</v>
+      </c>
+      <c r="D38" s="8">
+        <v>66853</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1318164</v>
+      </c>
+      <c r="F38" s="9">
+        <v>22342697</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8">
+        <v>927655</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2420482</v>
+      </c>
+      <c r="D39" s="8">
+        <v>106103</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2526585</v>
+      </c>
+      <c r="F39" s="9">
+        <v>36241937</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8">
+        <v>8858</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8">
+        <v>223008</v>
+      </c>
+      <c r="C41" s="8">
+        <v>521272</v>
+      </c>
+      <c r="D41" s="8">
+        <v>46524</v>
+      </c>
+      <c r="E41" s="8">
+        <v>567796</v>
+      </c>
+      <c r="F41" s="9">
+        <v>7588376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8">
+        <v>256191</v>
+      </c>
+      <c r="C42" s="8">
+        <v>293922</v>
+      </c>
+      <c r="D42" s="8">
+        <v>147342</v>
+      </c>
+      <c r="E42" s="8">
+        <v>441264</v>
+      </c>
+      <c r="F42" s="9">
+        <v>22881108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8">
+        <v>700621</v>
+      </c>
+      <c r="C43" s="8">
+        <v>716015</v>
+      </c>
+      <c r="D43" s="8">
+        <v>40221</v>
+      </c>
+      <c r="E43" s="8">
+        <v>756236</v>
+      </c>
+      <c r="F43" s="9">
+        <v>17697586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1024520</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1401741</v>
+      </c>
+      <c r="D44" s="8">
+        <v>72228</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1473969</v>
+      </c>
+      <c r="F44" s="9">
+        <v>39372737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8">
+        <v>207232</v>
+      </c>
+      <c r="C45" s="8">
+        <v>332941</v>
+      </c>
+      <c r="D45" s="8">
+        <v>41269</v>
+      </c>
+      <c r="E45" s="8">
+        <v>374210</v>
+      </c>
+      <c r="F45" s="9">
+        <v>13657156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8">
+        <v>307642</v>
+      </c>
+      <c r="C46" s="8">
+        <v>761976</v>
+      </c>
+      <c r="D46" s="8">
+        <v>48683</v>
+      </c>
+      <c r="E46" s="8">
+        <v>810659</v>
+      </c>
+      <c r="F46" s="9">
+        <v>14801100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8">
+        <v>83681</v>
+      </c>
+      <c r="C47" s="8">
+        <v>168252</v>
+      </c>
+      <c r="D47" s="8">
+        <v>19816</v>
+      </c>
+      <c r="E47" s="8">
+        <v>188068</v>
+      </c>
+      <c r="F47" s="9">
+        <v>4375476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8">
+        <v>196276</v>
+      </c>
+      <c r="C48" s="8">
+        <v>765797</v>
+      </c>
+      <c r="D48" s="8">
+        <v>9231</v>
+      </c>
+      <c r="E48" s="8">
+        <v>775028</v>
+      </c>
+      <c r="F48" s="9">
+        <v>13972402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8">
+        <v>716504</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2821750</v>
+      </c>
+      <c r="D49" s="8">
+        <v>150322</v>
+      </c>
+      <c r="E49" s="8">
+        <v>2972072</v>
+      </c>
+      <c r="F49" s="9">
+        <v>39367383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8">
+        <v>234192</v>
+      </c>
+      <c r="C50" s="8">
+        <v>607435</v>
+      </c>
+      <c r="D50" s="8">
+        <v>160564</v>
+      </c>
+      <c r="E50" s="8">
+        <v>767999</v>
+      </c>
+      <c r="F50" s="9">
+        <v>10272645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8">
+        <v>135336</v>
+      </c>
+      <c r="C51" s="8">
+        <v>166777</v>
+      </c>
+      <c r="D51" s="8">
+        <v>94196</v>
+      </c>
+      <c r="E51" s="8">
+        <v>260973</v>
+      </c>
+      <c r="F51" s="9">
+        <v>28395536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38452A24-8367-7A49-B9AB-499DC8EAE1F4}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -5690,7 +6915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73713EF7-5122-4442-A923-9B904552A758}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -6728,7 +7953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C8E0B9-716A-4A41-B8BB-58465B7A3B05}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -7766,7 +8991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC52493-B46C-BD43-B2AB-047E65A5BF59}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -8804,7 +10029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480E511B-FA9B-984D-94CF-952C4D7F4CC4}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -9842,7 +11067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198B8064-E889-2640-AA1A-8D8914FA01C6}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -10880,7 +12105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF7C4D6-4D9A-BC40-B43F-27E780F206AA}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -11918,7 +13143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3517F865-8CBE-3741-B22A-88376F7D2A2B}">
   <dimension ref="A1:H58"/>
   <sheetViews>
@@ -13138,11 +14363,3338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D88F12-E87E-FB45-A427-7B7D81090A77}">
+  <dimension ref="A1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="5">
+        <f>B1-1</f>
+        <v>2017</v>
+      </c>
+      <c r="D1" s="5">
+        <f t="shared" ref="D1:P1" si="0">C1-1</f>
+        <v>2016</v>
+      </c>
+      <c r="E1" s="5">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="F1" s="5">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="G1" s="5">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="H1" s="5">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="I1" s="5">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="J1" s="5">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="K1" s="5">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="L1" s="5">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="M1" s="5">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="N1" s="5">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="O1" s="5">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="P1" s="5">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <f>'2018'!E2</f>
+        <v>352780</v>
+      </c>
+      <c r="C2" s="6">
+        <f>'2017'!E2</f>
+        <v>402002</v>
+      </c>
+      <c r="D2" s="6">
+        <f>'2016'!E2</f>
+        <v>362739</v>
+      </c>
+      <c r="E2" s="6">
+        <f>'2015'!E2</f>
+        <v>310644</v>
+      </c>
+      <c r="F2" s="6">
+        <f>'2014'!E2</f>
+        <v>287352</v>
+      </c>
+      <c r="G2" s="6">
+        <f>'2013'!E2</f>
+        <v>278400</v>
+      </c>
+      <c r="H2" s="6">
+        <f>'2012'!E2</f>
+        <v>353266</v>
+      </c>
+      <c r="I2" s="6">
+        <f>'2011'!E2</f>
+        <v>250073</v>
+      </c>
+      <c r="J2" s="6">
+        <f>'2010'!E2</f>
+        <v>239557</v>
+      </c>
+      <c r="K2" s="6">
+        <f>'2009'!E2</f>
+        <v>227588</v>
+      </c>
+      <c r="L2" s="6">
+        <f>'2008'!E2</f>
+        <v>227588</v>
+      </c>
+      <c r="M2" s="6">
+        <f>'2007'!E2</f>
+        <v>227701</v>
+      </c>
+      <c r="N2" s="6">
+        <f>'2006'!E2</f>
+        <v>223048</v>
+      </c>
+      <c r="O2" s="6">
+        <f>'2005'!E2</f>
+        <v>223215</v>
+      </c>
+      <c r="P2" s="6">
+        <f>'2004'!E2</f>
+        <v>222544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <f>'2018'!E3</f>
+        <v>579944</v>
+      </c>
+      <c r="C3" s="6">
+        <f>'2017'!E3</f>
+        <v>587686</v>
+      </c>
+      <c r="D3" s="6">
+        <f>'2016'!E3</f>
+        <v>604043</v>
+      </c>
+      <c r="E3" s="6">
+        <f>'2015'!E3</f>
+        <v>599876</v>
+      </c>
+      <c r="F3" s="6">
+        <f>'2014'!E3</f>
+        <v>597095</v>
+      </c>
+      <c r="G3" s="6">
+        <f>'2013'!E3</f>
+        <v>609156</v>
+      </c>
+      <c r="H3" s="6">
+        <f>'2012'!E3</f>
+        <v>607121</v>
+      </c>
+      <c r="I3" s="6">
+        <f>'2011'!E3</f>
+        <v>625962</v>
+      </c>
+      <c r="J3" s="6">
+        <f>'2010'!E3</f>
+        <v>287455</v>
+      </c>
+      <c r="K3" s="6">
+        <f>'2009'!E3</f>
+        <v>291183</v>
+      </c>
+      <c r="L3" s="6">
+        <f>'2008'!E3</f>
+        <v>283899</v>
+      </c>
+      <c r="M3" s="6">
+        <f>'2007'!E3</f>
+        <v>289660</v>
+      </c>
+      <c r="N3" s="6">
+        <f>'2006'!E3</f>
+        <v>302220</v>
+      </c>
+      <c r="O3" s="6">
+        <f>'2005'!E3</f>
+        <v>299224</v>
+      </c>
+      <c r="P3" s="6">
+        <f>'2004'!E3</f>
+        <v>303217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <f>'2018'!E4</f>
+        <v>517046</v>
+      </c>
+      <c r="C4" s="6">
+        <f>'2017'!E4</f>
+        <v>533585</v>
+      </c>
+      <c r="D4" s="6">
+        <f>'2016'!E4</f>
+        <v>521098</v>
+      </c>
+      <c r="E4" s="6">
+        <f>'2015'!E4</f>
+        <v>498919</v>
+      </c>
+      <c r="F4" s="6">
+        <f>'2014'!E4</f>
+        <v>492479</v>
+      </c>
+      <c r="G4" s="6">
+        <f>'2013'!E4</f>
+        <v>475057</v>
+      </c>
+      <c r="H4" s="6">
+        <f>'2012'!E4</f>
+        <v>468656</v>
+      </c>
+      <c r="I4" s="6">
+        <f>'2011'!E4</f>
+        <v>481943</v>
+      </c>
+      <c r="J4" s="6">
+        <f>'2010'!E4</f>
+        <v>434479</v>
+      </c>
+      <c r="K4" s="6">
+        <f>'2009'!E4</f>
+        <v>424003</v>
+      </c>
+      <c r="L4" s="6">
+        <f>'2008'!E4</f>
+        <v>388698</v>
+      </c>
+      <c r="M4" s="6">
+        <f>'2007'!E4</f>
+        <v>421548</v>
+      </c>
+      <c r="N4" s="6">
+        <f>'2006'!E4</f>
+        <v>422822</v>
+      </c>
+      <c r="O4" s="6">
+        <f>'2005'!E4</f>
+        <v>438108</v>
+      </c>
+      <c r="P4" s="6">
+        <f>'2004'!E4</f>
+        <v>464563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <f>'2018'!E5</f>
+        <v>517747</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'2017'!E5</f>
+        <v>540038</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'2016'!E5</f>
+        <v>446402</v>
+      </c>
+      <c r="E5" s="6">
+        <f>'2015'!E5</f>
+        <v>422136</v>
+      </c>
+      <c r="F5" s="6">
+        <f>'2014'!E5</f>
+        <v>409672</v>
+      </c>
+      <c r="G5" s="6">
+        <f>'2013'!E5</f>
+        <v>414623</v>
+      </c>
+      <c r="H5" s="6">
+        <f>'2012'!E5</f>
+        <v>409680</v>
+      </c>
+      <c r="I5" s="6">
+        <f>'2011'!E5</f>
+        <v>411617</v>
+      </c>
+      <c r="J5" s="6">
+        <f>'2010'!E5</f>
+        <v>419161</v>
+      </c>
+      <c r="K5" s="6">
+        <f>'2009'!E5</f>
+        <v>428669</v>
+      </c>
+      <c r="L5" s="6">
+        <f>'2008'!E5</f>
+        <v>428669</v>
+      </c>
+      <c r="M5" s="6">
+        <f>'2007'!E5</f>
+        <v>415432</v>
+      </c>
+      <c r="N5" s="6">
+        <f>'2006'!E5</f>
+        <v>391973</v>
+      </c>
+      <c r="O5" s="6">
+        <f>'2005'!E5</f>
+        <v>396299</v>
+      </c>
+      <c r="P5" s="6">
+        <f>'2004'!E5</f>
+        <v>406210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <f>'2018'!E6</f>
+        <v>1030160</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'2017'!E6</f>
+        <v>1054000</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'2016'!E6</f>
+        <v>1035351</v>
+      </c>
+      <c r="E6" s="6">
+        <f>'2015'!E6</f>
+        <v>847348</v>
+      </c>
+      <c r="F6" s="6">
+        <f>'2014'!E6</f>
+        <v>847348</v>
+      </c>
+      <c r="G6" s="6">
+        <f>'2013'!E6</f>
+        <v>834739</v>
+      </c>
+      <c r="H6" s="6">
+        <f>'2012'!E6</f>
+        <v>875297</v>
+      </c>
+      <c r="I6" s="6">
+        <f>'2011'!E6</f>
+        <v>828735</v>
+      </c>
+      <c r="J6" s="6">
+        <f>'2010'!E6</f>
+        <v>836694</v>
+      </c>
+      <c r="K6" s="6">
+        <f>'2009'!E6</f>
+        <v>841239</v>
+      </c>
+      <c r="L6" s="6">
+        <f>'2008'!E6</f>
+        <v>830700</v>
+      </c>
+      <c r="M6" s="6">
+        <f>'2007'!E6</f>
+        <v>831531</v>
+      </c>
+      <c r="N6" s="6">
+        <f>'2006'!E6</f>
+        <v>833977</v>
+      </c>
+      <c r="O6" s="6">
+        <f>'2005'!E6</f>
+        <v>858691</v>
+      </c>
+      <c r="P6" s="6">
+        <f>'2004'!E6</f>
+        <v>868209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <f>'2018'!E7</f>
+        <v>568764</v>
+      </c>
+      <c r="C7" s="6">
+        <f>'2017'!E7</f>
+        <v>563870</v>
+      </c>
+      <c r="D7" s="6">
+        <f>'2016'!E7</f>
+        <v>545216</v>
+      </c>
+      <c r="E7" s="6">
+        <f>'2015'!E7</f>
+        <v>530736</v>
+      </c>
+      <c r="F7" s="6">
+        <f>'2014'!E7</f>
+        <v>528174</v>
+      </c>
+      <c r="G7" s="6">
+        <f>'2013'!E7</f>
+        <v>537371</v>
+      </c>
+      <c r="H7" s="6">
+        <f>'2012'!E7</f>
+        <v>535893</v>
+      </c>
+      <c r="I7" s="6">
+        <f>'2011'!E7</f>
+        <v>538734</v>
+      </c>
+      <c r="J7" s="6">
+        <f>'2010'!E7</f>
+        <v>538734</v>
+      </c>
+      <c r="K7" s="6">
+        <f>'2009'!E7</f>
+        <v>566298</v>
+      </c>
+      <c r="L7" s="6">
+        <f>'2008'!E7</f>
+        <v>566298</v>
+      </c>
+      <c r="M7" s="6">
+        <f>'2007'!E7</f>
+        <v>581235</v>
+      </c>
+      <c r="N7" s="6">
+        <f>'2006'!E7</f>
+        <v>581733</v>
+      </c>
+      <c r="O7" s="6">
+        <f>'2005'!E7</f>
+        <v>553899</v>
+      </c>
+      <c r="P7" s="6">
+        <f>'2004'!E7</f>
+        <v>548011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <f>'2018'!E8</f>
+        <v>128232</v>
+      </c>
+      <c r="C8" s="6">
+        <f>'2017'!E8</f>
+        <v>125402</v>
+      </c>
+      <c r="D8" s="6">
+        <f>'2016'!E8</f>
+        <v>131331</v>
+      </c>
+      <c r="E8" s="6">
+        <f>'2015'!E8</f>
+        <v>128666</v>
+      </c>
+      <c r="F8" s="6">
+        <f>'2014'!E8</f>
+        <v>118798</v>
+      </c>
+      <c r="G8" s="6">
+        <f>'2013'!E8</f>
+        <v>127612</v>
+      </c>
+      <c r="H8" s="6">
+        <f>'2012'!E8</f>
+        <v>135711</v>
+      </c>
+      <c r="I8" s="6">
+        <f>'2011'!E8</f>
+        <v>130361</v>
+      </c>
+      <c r="J8" s="6">
+        <f>'2010'!E8</f>
+        <v>124647</v>
+      </c>
+      <c r="K8" s="6">
+        <f>'2009'!E8</f>
+        <v>127746</v>
+      </c>
+      <c r="L8" s="6">
+        <f>'2008'!E8</f>
+        <v>127746</v>
+      </c>
+      <c r="M8" s="6">
+        <f>'2007'!E8</f>
+        <v>129443</v>
+      </c>
+      <c r="N8" s="6">
+        <f>'2006'!E8</f>
+        <v>133311</v>
+      </c>
+      <c r="O8" s="6">
+        <f>'2005'!E8</f>
+        <v>134294</v>
+      </c>
+      <c r="P8" s="6">
+        <f>'2004'!E8</f>
+        <v>143358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <f>'2018'!E9</f>
+        <v>59440</v>
+      </c>
+      <c r="C9" s="6">
+        <f>'2017'!E9</f>
+        <v>60203</v>
+      </c>
+      <c r="D9" s="6">
+        <f>'2016'!E9</f>
+        <v>58299</v>
+      </c>
+      <c r="E9" s="6">
+        <f>'2015'!E9</f>
+        <v>57060</v>
+      </c>
+      <c r="F9" s="6">
+        <f>'2014'!E9</f>
+        <v>29513</v>
+      </c>
+      <c r="G9" s="6">
+        <f>'2013'!E9</f>
+        <v>42341</v>
+      </c>
+      <c r="H9" s="6">
+        <f>'2012'!E9</f>
+        <v>44087</v>
+      </c>
+      <c r="I9" s="6">
+        <f>'2011'!E9</f>
+        <v>45503</v>
+      </c>
+      <c r="J9" s="6">
+        <f>'2010'!E9</f>
+        <v>47562</v>
+      </c>
+      <c r="K9" s="6">
+        <f>'2009'!E9</f>
+        <v>44875</v>
+      </c>
+      <c r="L9" s="6">
+        <f>'2008'!E9</f>
+        <v>44956</v>
+      </c>
+      <c r="M9" s="6">
+        <f>'2007'!E9</f>
+        <v>30016</v>
+      </c>
+      <c r="N9" s="6">
+        <f>'2006'!E9</f>
+        <v>28968</v>
+      </c>
+      <c r="O9" s="6">
+        <f>'2005'!E9</f>
+        <v>31847</v>
+      </c>
+      <c r="P9" s="6">
+        <f>'2004'!E9</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <f>'2018'!E10</f>
+        <v>331709</v>
+      </c>
+      <c r="C10" s="6">
+        <f>'2017'!E10</f>
+        <v>384611</v>
+      </c>
+      <c r="D10" s="6">
+        <f>'2016'!E10</f>
+        <v>353926</v>
+      </c>
+      <c r="E10" s="6">
+        <f>'2015'!E10</f>
+        <v>380398</v>
+      </c>
+      <c r="F10" s="6">
+        <f>'2014'!E10</f>
+        <v>356262</v>
+      </c>
+      <c r="G10" s="6">
+        <f>'2013'!E10</f>
+        <v>369998</v>
+      </c>
+      <c r="H10" s="6">
+        <f>'2012'!E10</f>
+        <v>326835</v>
+      </c>
+      <c r="I10" s="6">
+        <f>'2011'!E10</f>
+        <v>327973</v>
+      </c>
+      <c r="J10" s="6">
+        <f>'2010'!E10</f>
+        <v>322445</v>
+      </c>
+      <c r="K10" s="6">
+        <f>'2009'!E10</f>
+        <v>159070</v>
+      </c>
+      <c r="L10" s="6">
+        <f>'2008'!E10</f>
+        <v>280643</v>
+      </c>
+      <c r="M10" s="6">
+        <f>'2007'!E10</f>
+        <v>294724</v>
+      </c>
+      <c r="N10" s="6">
+        <f>'2006'!E10</f>
+        <v>324353</v>
+      </c>
+      <c r="O10" s="6">
+        <f>'2005'!E10</f>
+        <v>321179</v>
+      </c>
+      <c r="P10" s="6">
+        <f>'2004'!E10</f>
+        <v>338769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <f>'2018'!E11</f>
+        <v>1463441</v>
+      </c>
+      <c r="C11" s="6">
+        <f>'2017'!E11</f>
+        <v>1458621</v>
+      </c>
+      <c r="D11" s="6">
+        <f>'2016'!E11</f>
+        <v>1456426</v>
+      </c>
+      <c r="E11" s="6">
+        <f>'2015'!E11</f>
+        <v>1058503</v>
+      </c>
+      <c r="F11" s="6">
+        <f>'2014'!E11</f>
+        <v>1028840</v>
+      </c>
+      <c r="G11" s="6">
+        <f>'2013'!E11</f>
+        <v>964738</v>
+      </c>
+      <c r="H11" s="6">
+        <f>'2012'!E11</f>
+        <v>1069502</v>
+      </c>
+      <c r="I11" s="6">
+        <f>'2011'!E11</f>
+        <v>1185594</v>
+      </c>
+      <c r="J11" s="6">
+        <f>'2010'!E11</f>
+        <v>1254371</v>
+      </c>
+      <c r="K11" s="6">
+        <f>'2009'!E11</f>
+        <v>11235990</v>
+      </c>
+      <c r="L11" s="6">
+        <f>'2008'!E11</f>
+        <v>1235114</v>
+      </c>
+      <c r="M11" s="6">
+        <f>'2007'!E11</f>
+        <v>989964</v>
+      </c>
+      <c r="N11" s="6">
+        <f>'2006'!E11</f>
+        <v>989964</v>
+      </c>
+      <c r="O11" s="6">
+        <f>'2005'!E11</f>
+        <v>954126</v>
+      </c>
+      <c r="P11" s="6">
+        <f>'2004'!E11</f>
+        <v>957739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <f>'2018'!E12</f>
+        <v>11802</v>
+      </c>
+      <c r="C12" s="6">
+        <f>'2017'!E12</f>
+        <v>12521</v>
+      </c>
+      <c r="D12" s="6">
+        <f>'2016'!E12</f>
+        <v>12202</v>
+      </c>
+      <c r="E12" s="6">
+        <f>'2015'!E12</f>
+        <v>11486</v>
+      </c>
+      <c r="F12" s="6">
+        <f>'2014'!E12</f>
+        <v>7970</v>
+      </c>
+      <c r="G12" s="6">
+        <f>'2013'!E12</f>
+        <v>10653</v>
+      </c>
+      <c r="H12" s="6">
+        <f>'2012'!E12</f>
+        <v>10421</v>
+      </c>
+      <c r="I12" s="6">
+        <f>'2011'!E12</f>
+        <v>9653</v>
+      </c>
+      <c r="J12" s="6">
+        <f>'2010'!E12</f>
+        <v>7803</v>
+      </c>
+      <c r="K12" s="6">
+        <f>'2009'!E12</f>
+        <v>7812</v>
+      </c>
+      <c r="L12" s="6">
+        <f>'2008'!E12</f>
+        <v>9372</v>
+      </c>
+      <c r="M12" s="6">
+        <f>'2007'!E12</f>
+        <v>8292</v>
+      </c>
+      <c r="N12" s="6">
+        <f>'2006'!E12</f>
+        <v>8309</v>
+      </c>
+      <c r="O12" s="6">
+        <f>'2005'!E12</f>
+        <v>8900</v>
+      </c>
+      <c r="P12" s="6">
+        <f>'2004'!E12</f>
+        <v>9540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <f>'2018'!E13</f>
+        <v>583884</v>
+      </c>
+      <c r="C13" s="6">
+        <f>'2017'!E13</f>
+        <v>606302</v>
+      </c>
+      <c r="D13" s="6">
+        <f>'2016'!E13</f>
+        <v>601508</v>
+      </c>
+      <c r="E13" s="6">
+        <f>'2015'!E13</f>
+        <v>841793</v>
+      </c>
+      <c r="F13" s="6">
+        <f>'2014'!E13</f>
+        <v>860078</v>
+      </c>
+      <c r="G13" s="6">
+        <f>'2013'!E13</f>
+        <v>876313</v>
+      </c>
+      <c r="H13" s="6">
+        <f>'2012'!E13</f>
+        <v>943322</v>
+      </c>
+      <c r="I13" s="6">
+        <f>'2011'!E13</f>
+        <v>965859</v>
+      </c>
+      <c r="J13" s="6">
+        <f>'2010'!E13</f>
+        <v>971151</v>
+      </c>
+      <c r="K13" s="6">
+        <f>'2009'!E13</f>
+        <v>990844</v>
+      </c>
+      <c r="L13" s="6">
+        <f>'2008'!E13</f>
+        <v>1009364</v>
+      </c>
+      <c r="M13" s="6">
+        <f>'2007'!E13</f>
+        <v>980685</v>
+      </c>
+      <c r="N13" s="6">
+        <f>'2006'!E13</f>
+        <v>962830</v>
+      </c>
+      <c r="O13" s="6">
+        <f>'2005'!E13</f>
+        <v>871914</v>
+      </c>
+      <c r="P13" s="6">
+        <f>'2004'!E13</f>
+        <v>847182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <f>'2018'!E14</f>
+        <v>1206997</v>
+      </c>
+      <c r="C14" s="6">
+        <f>'2017'!E14</f>
+        <v>1151159</v>
+      </c>
+      <c r="D14" s="6">
+        <f>'2016'!E14</f>
+        <v>1081968</v>
+      </c>
+      <c r="E14" s="6">
+        <f>'2015'!E14</f>
+        <v>1029816</v>
+      </c>
+      <c r="F14" s="6">
+        <f>'2014'!E14</f>
+        <v>1015884</v>
+      </c>
+      <c r="G14" s="6">
+        <f>'2013'!E14</f>
+        <v>958761</v>
+      </c>
+      <c r="H14" s="6">
+        <f>'2012'!E14</f>
+        <v>978693</v>
+      </c>
+      <c r="I14" s="6">
+        <f>'2011'!E14</f>
+        <v>946859</v>
+      </c>
+      <c r="J14" s="6">
+        <f>'2010'!E14</f>
+        <v>959296</v>
+      </c>
+      <c r="K14" s="6">
+        <f>'2009'!E14</f>
+        <v>913007</v>
+      </c>
+      <c r="L14" s="6">
+        <f>'2008'!E14</f>
+        <v>913007</v>
+      </c>
+      <c r="M14" s="6">
+        <f>'2007'!E14</f>
+        <v>902194</v>
+      </c>
+      <c r="N14" s="6">
+        <f>'2006'!E14</f>
+        <v>846824</v>
+      </c>
+      <c r="O14" s="6">
+        <f>'2005'!E14</f>
+        <v>824093</v>
+      </c>
+      <c r="P14" s="6">
+        <f>'2004'!E14</f>
+        <v>812609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <f>'2018'!E15</f>
+        <v>1286532</v>
+      </c>
+      <c r="C15" s="6">
+        <f>'2017'!E15</f>
+        <v>1372038</v>
+      </c>
+      <c r="D15" s="6">
+        <f>'2016'!E15</f>
+        <v>1563709</v>
+      </c>
+      <c r="E15" s="6">
+        <f>'2015'!E15</f>
+        <v>1440993</v>
+      </c>
+      <c r="F15" s="6">
+        <f>'2014'!E15</f>
+        <v>1436679</v>
+      </c>
+      <c r="G15" s="6">
+        <f>'2013'!E15</f>
+        <v>1448776</v>
+      </c>
+      <c r="H15" s="6">
+        <f>'2012'!E15</f>
+        <v>1489893</v>
+      </c>
+      <c r="I15" s="6">
+        <f>'2011'!E15</f>
+        <v>1520262</v>
+      </c>
+      <c r="J15" s="6">
+        <f>'2010'!E15</f>
+        <v>1467858</v>
+      </c>
+      <c r="K15" s="6">
+        <f>'2009'!E15</f>
+        <v>1431133</v>
+      </c>
+      <c r="L15" s="6">
+        <f>'2008'!E15</f>
+        <v>1431133</v>
+      </c>
+      <c r="M15" s="6">
+        <f>'2007'!E15</f>
+        <v>1279714</v>
+      </c>
+      <c r="N15" s="6">
+        <f>'2006'!E15</f>
+        <v>1221932</v>
+      </c>
+      <c r="O15" s="6">
+        <f>'2005'!E15</f>
+        <v>1102059</v>
+      </c>
+      <c r="P15" s="6">
+        <f>'2004'!E15</f>
+        <v>1159442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <f>'2018'!E16</f>
+        <v>404739</v>
+      </c>
+      <c r="C16" s="6">
+        <f>'2017'!E16</f>
+        <v>417124</v>
+      </c>
+      <c r="D16" s="6">
+        <f>'2016'!E16</f>
+        <v>426349</v>
+      </c>
+      <c r="E16" s="6">
+        <f>'2015'!E16</f>
+        <v>423318</v>
+      </c>
+      <c r="F16" s="6">
+        <f>'2014'!E16</f>
+        <v>497715</v>
+      </c>
+      <c r="G16" s="6">
+        <f>'2013'!E16</f>
+        <v>491802</v>
+      </c>
+      <c r="H16" s="6">
+        <f>'2012'!E16</f>
+        <v>489040</v>
+      </c>
+      <c r="I16" s="6">
+        <f>'2011'!E16</f>
+        <v>472874</v>
+      </c>
+      <c r="J16" s="6">
+        <f>'2010'!E16</f>
+        <v>451979</v>
+      </c>
+      <c r="K16" s="6">
+        <f>'2009'!E16</f>
+        <v>460800</v>
+      </c>
+      <c r="L16" s="6">
+        <f>'2008'!E16</f>
+        <v>460800</v>
+      </c>
+      <c r="M16" s="6">
+        <f>'2007'!E16</f>
+        <v>445588</v>
+      </c>
+      <c r="N16" s="6">
+        <f>'2006'!E16</f>
+        <v>552135</v>
+      </c>
+      <c r="O16" s="6">
+        <f>'2005'!E16</f>
+        <v>436206</v>
+      </c>
+      <c r="P16" s="6">
+        <f>'2004'!E16</f>
+        <v>661769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <f>'2018'!E17</f>
+        <v>519875</v>
+      </c>
+      <c r="C17" s="6">
+        <f>'2017'!E17</f>
+        <v>517519</v>
+      </c>
+      <c r="D17" s="6">
+        <f>'2016'!E17</f>
+        <v>520232</v>
+      </c>
+      <c r="E17" s="6">
+        <f>'2015'!E17</f>
+        <v>493665</v>
+      </c>
+      <c r="F17" s="6">
+        <f>'2014'!E17</f>
+        <v>471678</v>
+      </c>
+      <c r="G17" s="6">
+        <f>'2013'!E17</f>
+        <v>489223</v>
+      </c>
+      <c r="H17" s="6">
+        <f>'2012'!E17</f>
+        <v>514090</v>
+      </c>
+      <c r="I17" s="6">
+        <f>'2011'!E17</f>
+        <v>489728</v>
+      </c>
+      <c r="J17" s="6">
+        <f>'2010'!E17</f>
+        <v>489728</v>
+      </c>
+      <c r="K17" s="6">
+        <f>'2009'!E17</f>
+        <v>485091</v>
+      </c>
+      <c r="L17" s="6">
+        <f>'2008'!E17</f>
+        <v>481477</v>
+      </c>
+      <c r="M17" s="6">
+        <f>'2007'!E17</f>
+        <v>470973</v>
+      </c>
+      <c r="N17" s="6">
+        <f>'2006'!E17</f>
+        <v>470884</v>
+      </c>
+      <c r="O17" s="6">
+        <f>'2005'!E17</f>
+        <v>468946</v>
+      </c>
+      <c r="P17" s="6">
+        <f>'2004'!E17</f>
+        <v>471423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <f>'2018'!E18</f>
+        <v>614742</v>
+      </c>
+      <c r="C18" s="6">
+        <f>'2017'!E18</f>
+        <v>614120</v>
+      </c>
+      <c r="D18" s="6">
+        <f>'2016'!E18</f>
+        <v>617129</v>
+      </c>
+      <c r="E18" s="6">
+        <f>'2015'!E18</f>
+        <v>594389</v>
+      </c>
+      <c r="F18" s="6">
+        <f>'2014'!E18</f>
+        <v>578862</v>
+      </c>
+      <c r="G18" s="6">
+        <f>'2013'!E18</f>
+        <v>566072</v>
+      </c>
+      <c r="H18" s="6">
+        <f>'2012'!E18</f>
+        <v>579026</v>
+      </c>
+      <c r="I18" s="6">
+        <f>'2011'!E18</f>
+        <v>537982</v>
+      </c>
+      <c r="J18" s="6">
+        <f>'2010'!E18</f>
+        <v>562986</v>
+      </c>
+      <c r="K18" s="6">
+        <f>'2009'!E18</f>
+        <v>615832</v>
+      </c>
+      <c r="L18" s="6">
+        <f>'2008'!E18</f>
+        <v>615832</v>
+      </c>
+      <c r="M18" s="6">
+        <f>'2007'!E18</f>
+        <v>599548</v>
+      </c>
+      <c r="N18" s="6">
+        <f>'2006'!E18</f>
+        <v>654743</v>
+      </c>
+      <c r="O18" s="6">
+        <f>'2005'!E18</f>
+        <v>666695</v>
+      </c>
+      <c r="P18" s="6">
+        <f>'2004'!E18</f>
+        <v>684768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <f>'2018'!E19</f>
+        <v>658659</v>
+      </c>
+      <c r="C19" s="6">
+        <f>'2017'!E19</f>
+        <v>676500</v>
+      </c>
+      <c r="D19" s="6">
+        <f>'2016'!E19</f>
+        <v>677582</v>
+      </c>
+      <c r="E19" s="6">
+        <f>'2015'!E19</f>
+        <v>659165</v>
+      </c>
+      <c r="F19" s="6">
+        <f>'2014'!E19</f>
+        <v>645912</v>
+      </c>
+      <c r="G19" s="6">
+        <f>'2013'!E19</f>
+        <v>621388</v>
+      </c>
+      <c r="H19" s="6">
+        <f>'2012'!E19</f>
+        <v>599516</v>
+      </c>
+      <c r="I19" s="6">
+        <f>'2011'!E19</f>
+        <v>270713</v>
+      </c>
+      <c r="J19" s="6">
+        <f>'2010'!E19</f>
+        <v>264939</v>
+      </c>
+      <c r="K19" s="6">
+        <f>'2009'!E19</f>
+        <v>257134</v>
+      </c>
+      <c r="L19" s="6">
+        <f>'2008'!E19</f>
+        <v>237618</v>
+      </c>
+      <c r="M19" s="6">
+        <f>'2007'!E19</f>
+        <v>761795</v>
+      </c>
+      <c r="N19" s="6">
+        <f>'2006'!E19</f>
+        <v>602229</v>
+      </c>
+      <c r="O19" s="6">
+        <f>'2005'!E19</f>
+        <v>596557</v>
+      </c>
+      <c r="P19" s="6">
+        <f>'2004'!E19</f>
+        <v>623871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <f>'2018'!E20</f>
+        <v>261556</v>
+      </c>
+      <c r="C20" s="6">
+        <f>'2017'!E20</f>
+        <v>252212</v>
+      </c>
+      <c r="D20" s="6">
+        <f>'2016'!E20</f>
+        <v>253725</v>
+      </c>
+      <c r="E20" s="6">
+        <f>'2015'!E20</f>
+        <v>246509</v>
+      </c>
+      <c r="F20" s="6">
+        <f>'2014'!E20</f>
+        <v>250778</v>
+      </c>
+      <c r="G20" s="6">
+        <f>'2013'!E20</f>
+        <v>227487</v>
+      </c>
+      <c r="H20" s="6">
+        <f>'2012'!E20</f>
+        <v>390013</v>
+      </c>
+      <c r="I20" s="6">
+        <f>'2011'!E20</f>
+        <v>234851</v>
+      </c>
+      <c r="J20" s="6">
+        <f>'2010'!E20</f>
+        <v>224446</v>
+      </c>
+      <c r="K20" s="6">
+        <f>'2009'!E20</f>
+        <v>220645</v>
+      </c>
+      <c r="L20" s="6">
+        <f>'2008'!E20</f>
+        <v>220015</v>
+      </c>
+      <c r="M20" s="6">
+        <f>'2007'!E20</f>
+        <v>222513</v>
+      </c>
+      <c r="N20" s="6">
+        <f>'2006'!E20</f>
+        <v>235117</v>
+      </c>
+      <c r="O20" s="6">
+        <f>'2005'!E20</f>
+        <v>210350</v>
+      </c>
+      <c r="P20" s="6">
+        <f>'2004'!E20</f>
+        <v>224099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <f>'2018'!E21</f>
+        <v>345211</v>
+      </c>
+      <c r="C21" s="6">
+        <f>'2017'!E21</f>
+        <v>343495</v>
+      </c>
+      <c r="D21" s="6">
+        <f>'2016'!E21</f>
+        <v>129376</v>
+      </c>
+      <c r="E21" s="6">
+        <f>'2015'!E21</f>
+        <v>339319</v>
+      </c>
+      <c r="F21" s="6">
+        <f>'2014'!E21</f>
+        <v>351004</v>
+      </c>
+      <c r="G21" s="6">
+        <f>'2013'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <f>'2012'!E21</f>
+        <v>323275</v>
+      </c>
+      <c r="I21" s="6">
+        <f>'2011'!E21</f>
+        <v>326021</v>
+      </c>
+      <c r="J21" s="6">
+        <f>'2010'!E21</f>
+        <v>321774</v>
+      </c>
+      <c r="K21" s="6">
+        <f>'2009'!E21</f>
+        <v>338748</v>
+      </c>
+      <c r="L21" s="6">
+        <f>'2008'!E21</f>
+        <v>303779</v>
+      </c>
+      <c r="M21" s="6">
+        <f>'2007'!E21</f>
+        <v>310730</v>
+      </c>
+      <c r="N21" s="6">
+        <f>'2006'!E21</f>
+        <v>168356</v>
+      </c>
+      <c r="O21" s="6">
+        <f>'2005'!E21</f>
+        <v>293921</v>
+      </c>
+      <c r="P21" s="6">
+        <f>'2004'!E21</f>
+        <v>329707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <f>'2018'!E22</f>
+        <v>249090</v>
+      </c>
+      <c r="C22" s="6">
+        <f>'2017'!E22</f>
+        <v>252763</v>
+      </c>
+      <c r="D22" s="6">
+        <f>'2016'!E22</f>
+        <v>259854</v>
+      </c>
+      <c r="E22" s="6">
+        <f>'2015'!E22</f>
+        <v>253477</v>
+      </c>
+      <c r="F22" s="6">
+        <f>'2014'!E22</f>
+        <v>247098</v>
+      </c>
+      <c r="G22" s="6">
+        <f>'2013'!E22</f>
+        <v>251988</v>
+      </c>
+      <c r="H22" s="6">
+        <f>'2012'!E22</f>
+        <v>261404</v>
+      </c>
+      <c r="I22" s="6">
+        <f>'2011'!E22</f>
+        <v>264067</v>
+      </c>
+      <c r="J22" s="6">
+        <f>'2010'!E22</f>
+        <v>276493</v>
+      </c>
+      <c r="K22" s="6">
+        <f>'2009'!E22</f>
+        <v>278775</v>
+      </c>
+      <c r="L22" s="6">
+        <f>'2008'!E22</f>
+        <v>278775</v>
+      </c>
+      <c r="M22" s="6">
+        <f>'2007'!E22</f>
+        <v>253863</v>
+      </c>
+      <c r="N22" s="6">
+        <f>'2006'!E22</f>
+        <v>260362</v>
+      </c>
+      <c r="O22" s="6">
+        <f>'2005'!E22</f>
+        <v>265605</v>
+      </c>
+      <c r="P22" s="6">
+        <f>'2004'!E22</f>
+        <v>259968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <f>'2018'!E23</f>
+        <v>2224170</v>
+      </c>
+      <c r="C23" s="6">
+        <f>'2017'!E23</f>
+        <v>2268341</v>
+      </c>
+      <c r="D23" s="6">
+        <f>'2016'!E23</f>
+        <v>1884724</v>
+      </c>
+      <c r="E23" s="6">
+        <f>'2015'!E23</f>
+        <v>1896927</v>
+      </c>
+      <c r="F23" s="6">
+        <f>'2014'!E23</f>
+        <v>1906410</v>
+      </c>
+      <c r="G23" s="6">
+        <f>'2013'!E23</f>
+        <v>1946100</v>
+      </c>
+      <c r="H23" s="6">
+        <f>'2012'!E23</f>
+        <v>2005244</v>
+      </c>
+      <c r="I23" s="6">
+        <f>'2011'!E23</f>
+        <v>2009229</v>
+      </c>
+      <c r="J23" s="6">
+        <f>'2010'!E23</f>
+        <v>1975715</v>
+      </c>
+      <c r="K23" s="6">
+        <f>'2009'!E23</f>
+        <v>1986632</v>
+      </c>
+      <c r="L23" s="6">
+        <f>'2008'!E23</f>
+        <v>2030036</v>
+      </c>
+      <c r="M23" s="6">
+        <f>'2007'!E23</f>
+        <v>2018817</v>
+      </c>
+      <c r="N23" s="6">
+        <f>'2006'!E23</f>
+        <v>2174714</v>
+      </c>
+      <c r="O23" s="6">
+        <f>'2005'!E23</f>
+        <v>2266231</v>
+      </c>
+      <c r="P23" s="6">
+        <f>'2004'!E23</f>
+        <v>2272955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <f>'2018'!E24</f>
+        <v>1421004</v>
+      </c>
+      <c r="C24" s="6">
+        <f>'2017'!E24</f>
+        <v>1413430</v>
+      </c>
+      <c r="D24" s="6">
+        <f>'2016'!E24</f>
+        <v>1486362</v>
+      </c>
+      <c r="E24" s="6">
+        <f>'2015'!E24</f>
+        <v>1571600</v>
+      </c>
+      <c r="F24" s="6">
+        <f>'2014'!E24</f>
+        <v>1525137</v>
+      </c>
+      <c r="G24" s="6">
+        <f>'2013'!E24</f>
+        <v>1553789</v>
+      </c>
+      <c r="H24" s="6">
+        <f>'2012'!E24</f>
+        <v>1424718</v>
+      </c>
+      <c r="I24" s="6">
+        <f>'2011'!E24</f>
+        <v>1471568</v>
+      </c>
+      <c r="J24" s="6">
+        <f>'2010'!E24</f>
+        <v>1419876</v>
+      </c>
+      <c r="K24" s="6">
+        <f>'2009'!E24</f>
+        <v>1456775</v>
+      </c>
+      <c r="L24" s="6">
+        <f>'2008'!E24</f>
+        <v>1456775</v>
+      </c>
+      <c r="M24" s="6">
+        <f>'2007'!E24</f>
+        <v>1377389</v>
+      </c>
+      <c r="N24" s="6">
+        <f>'2006'!E24</f>
+        <v>1397641</v>
+      </c>
+      <c r="O24" s="6">
+        <f>'2005'!E24</f>
+        <v>1413759</v>
+      </c>
+      <c r="P24" s="6">
+        <f>'2004'!E24</f>
+        <v>1594619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <f>'2018'!E25</f>
+        <v>1782319</v>
+      </c>
+      <c r="C25" s="6">
+        <f>'2017'!E25</f>
+        <v>1782319</v>
+      </c>
+      <c r="D25" s="6">
+        <f>'2016'!E25</f>
+        <v>1827753</v>
+      </c>
+      <c r="E25" s="6">
+        <f>'2015'!E25</f>
+        <v>1831083</v>
+      </c>
+      <c r="F25" s="6">
+        <f>'2014'!E25</f>
+        <v>1787229</v>
+      </c>
+      <c r="G25" s="6">
+        <f>'2013'!E25</f>
+        <v>1765901</v>
+      </c>
+      <c r="H25" s="6">
+        <f>'2012'!E25</f>
+        <v>1776575</v>
+      </c>
+      <c r="I25" s="6">
+        <f>'2011'!E25</f>
+        <v>1762735</v>
+      </c>
+      <c r="J25" s="6">
+        <f>'2010'!E25</f>
+        <v>1728471</v>
+      </c>
+      <c r="K25" s="6">
+        <f>'2009'!E25</f>
+        <v>1735761</v>
+      </c>
+      <c r="L25" s="6">
+        <f>'2008'!E25</f>
+        <v>1736304</v>
+      </c>
+      <c r="M25" s="6">
+        <f>'2007'!E25</f>
+        <v>1731058</v>
+      </c>
+      <c r="N25" s="6">
+        <f>'2006'!E25</f>
+        <v>1742387</v>
+      </c>
+      <c r="O25" s="6">
+        <f>'2005'!E25</f>
+        <v>1230036</v>
+      </c>
+      <c r="P25" s="6">
+        <f>'2004'!E25</f>
+        <v>1167886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <f>'2018'!E26</f>
+        <v>426726</v>
+      </c>
+      <c r="C26" s="6">
+        <f>'2017'!E26</f>
+        <v>428478</v>
+      </c>
+      <c r="D26" s="6">
+        <f>'2016'!E26</f>
+        <v>433090</v>
+      </c>
+      <c r="E26" s="6">
+        <f>'2015'!E26</f>
+        <v>418042</v>
+      </c>
+      <c r="F26" s="6">
+        <f>'2014'!E26</f>
+        <v>340714</v>
+      </c>
+      <c r="G26" s="6">
+        <f>'2013'!E26</f>
+        <v>245028</v>
+      </c>
+      <c r="H26" s="6">
+        <f>'2012'!E26</f>
+        <v>249109</v>
+      </c>
+      <c r="I26" s="6">
+        <f>'2011'!E26</f>
+        <v>259045</v>
+      </c>
+      <c r="J26" s="6">
+        <f>'2010'!E26</f>
+        <v>362948</v>
+      </c>
+      <c r="K26" s="6">
+        <f>'2009'!E26</f>
+        <v>333364</v>
+      </c>
+      <c r="L26" s="6">
+        <f>'2008'!E26</f>
+        <v>314223</v>
+      </c>
+      <c r="M26" s="6">
+        <f>'2007'!E26</f>
+        <v>274680</v>
+      </c>
+      <c r="N26" s="6">
+        <f>'2006'!E26</f>
+        <v>279905</v>
+      </c>
+      <c r="O26" s="6">
+        <f>'2005'!E26</f>
+        <v>278688</v>
+      </c>
+      <c r="P26" s="6">
+        <f>'2004'!E26</f>
+        <v>287272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <f>'2018'!E27</f>
+        <v>1028981</v>
+      </c>
+      <c r="C27" s="6">
+        <f>'2017'!E27</f>
+        <v>968295</v>
+      </c>
+      <c r="D27" s="6">
+        <f>'2016'!E27</f>
+        <v>990082</v>
+      </c>
+      <c r="E27" s="6">
+        <f>'2015'!E27</f>
+        <v>965823</v>
+      </c>
+      <c r="F27" s="6">
+        <f>'2014'!E27</f>
+        <v>964200</v>
+      </c>
+      <c r="G27" s="6">
+        <f>'2013'!E27</f>
+        <v>1005130</v>
+      </c>
+      <c r="H27" s="6">
+        <f>'2012'!E27</f>
+        <v>1073594</v>
+      </c>
+      <c r="I27" s="6">
+        <f>'2011'!E27</f>
+        <v>1065258</v>
+      </c>
+      <c r="J27" s="6">
+        <f>'2010'!E27</f>
+        <v>1039982</v>
+      </c>
+      <c r="K27" s="6">
+        <f>'2009'!E27</f>
+        <v>1044772</v>
+      </c>
+      <c r="L27" s="6">
+        <f>'2008'!E27</f>
+        <v>1044772</v>
+      </c>
+      <c r="M27" s="6">
+        <f>'2007'!E27</f>
+        <v>1000846</v>
+      </c>
+      <c r="N27" s="6">
+        <f>'2006'!E27</f>
+        <v>1007542</v>
+      </c>
+      <c r="O27" s="6">
+        <f>'2005'!E27</f>
+        <v>979429</v>
+      </c>
+      <c r="P27" s="6">
+        <f>'2004'!E27</f>
+        <v>935854</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <f>'2018'!E28</f>
+        <v>344762</v>
+      </c>
+      <c r="C28" s="6">
+        <f>'2017'!E28</f>
+        <v>347124</v>
+      </c>
+      <c r="D28" s="6">
+        <f>'2016'!E28</f>
+        <v>363336</v>
+      </c>
+      <c r="E28" s="6">
+        <f>'2015'!E28</f>
+        <v>347452</v>
+      </c>
+      <c r="F28" s="6">
+        <f>'2014'!E28</f>
+        <v>352226</v>
+      </c>
+      <c r="G28" s="6">
+        <f>'2013'!E28</f>
+        <v>358606</v>
+      </c>
+      <c r="H28" s="6">
+        <f>'2012'!E28</f>
+        <v>352366</v>
+      </c>
+      <c r="I28" s="6">
+        <f>'2011'!E28</f>
+        <v>372369</v>
+      </c>
+      <c r="J28" s="6">
+        <f>'2010'!E28</f>
+        <v>373055</v>
+      </c>
+      <c r="K28" s="6">
+        <f>'2009'!E28</f>
+        <v>547584</v>
+      </c>
+      <c r="L28" s="6">
+        <f>'2008'!E28</f>
+        <v>522774</v>
+      </c>
+      <c r="M28" s="6">
+        <f>'2007'!E28</f>
+        <v>488982</v>
+      </c>
+      <c r="N28" s="6">
+        <f>'2006'!E28</f>
+        <v>497567</v>
+      </c>
+      <c r="O28" s="6">
+        <f>'2005'!E28</f>
+        <v>493945</v>
+      </c>
+      <c r="P28" s="6">
+        <f>'2004'!E28</f>
+        <v>495908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <f>'2018'!E29</f>
+        <v>520355</v>
+      </c>
+      <c r="C29" s="6">
+        <f>'2017'!E29</f>
+        <v>517440</v>
+      </c>
+      <c r="D29" s="6">
+        <f>'2016'!E29</f>
+        <v>543500</v>
+      </c>
+      <c r="E29" s="6">
+        <f>'2015'!E29</f>
+        <v>549909</v>
+      </c>
+      <c r="F29" s="6">
+        <f>'2014'!E29</f>
+        <v>587388</v>
+      </c>
+      <c r="G29" s="6">
+        <f>'2013'!E29</f>
+        <v>625338</v>
+      </c>
+      <c r="H29" s="6">
+        <f>'2012'!E29</f>
+        <v>646709</v>
+      </c>
+      <c r="I29" s="6">
+        <f>'2011'!E29</f>
+        <v>656465</v>
+      </c>
+      <c r="J29" s="6">
+        <f>'2010'!E29</f>
+        <v>677523</v>
+      </c>
+      <c r="K29" s="6">
+        <f>'2009'!E29</f>
+        <v>649949</v>
+      </c>
+      <c r="L29" s="6">
+        <f>'2008'!E29</f>
+        <v>636963</v>
+      </c>
+      <c r="M29" s="6">
+        <f>'2007'!E29</f>
+        <v>620286</v>
+      </c>
+      <c r="N29" s="6">
+        <f>'2006'!E29</f>
+        <v>592632</v>
+      </c>
+      <c r="O29" s="6">
+        <f>'2005'!E29</f>
+        <v>603672</v>
+      </c>
+      <c r="P29" s="6">
+        <f>'2004'!E29</f>
+        <v>575486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <f>'2018'!E30</f>
+        <v>429255</v>
+      </c>
+      <c r="C30" s="6">
+        <f>'2017'!E30</f>
+        <v>417591</v>
+      </c>
+      <c r="D30" s="6">
+        <f>'2016'!E30</f>
+        <v>417689</v>
+      </c>
+      <c r="E30" s="6">
+        <f>'2015'!E30</f>
+        <v>419950</v>
+      </c>
+      <c r="F30" s="6">
+        <f>'2014'!E30</f>
+        <v>447509</v>
+      </c>
+      <c r="G30" s="6">
+        <f>'2013'!E30</f>
+        <v>420893</v>
+      </c>
+      <c r="H30" s="6">
+        <f>'2012'!E30</f>
+        <v>451121</v>
+      </c>
+      <c r="I30" s="6">
+        <f>'2011'!E30</f>
+        <v>448366</v>
+      </c>
+      <c r="J30" s="6">
+        <f>'2010'!E30</f>
+        <v>459212</v>
+      </c>
+      <c r="K30" s="6">
+        <f>'2009'!E30</f>
+        <v>449663</v>
+      </c>
+      <c r="L30" s="6">
+        <f>'2008'!E30</f>
+        <v>449663</v>
+      </c>
+      <c r="M30" s="6">
+        <f>'2007'!E30</f>
+        <v>406359</v>
+      </c>
+      <c r="N30" s="6">
+        <f>'2006'!E30</f>
+        <v>405644</v>
+      </c>
+      <c r="O30" s="6">
+        <f>'2005'!E30</f>
+        <v>397069</v>
+      </c>
+      <c r="P30" s="6">
+        <f>'2004'!E30</f>
+        <v>394105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <f>'2018'!E31</f>
+        <v>218342</v>
+      </c>
+      <c r="C31" s="6">
+        <f>'2017'!E31</f>
+        <v>219698</v>
+      </c>
+      <c r="D31" s="6">
+        <f>'2016'!E31</f>
+        <v>219741</v>
+      </c>
+      <c r="E31" s="6">
+        <f>'2015'!E31</f>
+        <v>212046</v>
+      </c>
+      <c r="F31" s="6">
+        <f>'2014'!E31</f>
+        <v>203793</v>
+      </c>
+      <c r="G31" s="6">
+        <f>'2013'!E31</f>
+        <v>209194</v>
+      </c>
+      <c r="H31" s="6">
+        <f>'2012'!E31</f>
+        <v>218346</v>
+      </c>
+      <c r="I31" s="6">
+        <f>'2011'!E31</f>
+        <v>217306</v>
+      </c>
+      <c r="J31" s="6">
+        <f>'2010'!E31</f>
+        <v>222364</v>
+      </c>
+      <c r="K31" s="6">
+        <f>'2009'!E31</f>
+        <v>222164</v>
+      </c>
+      <c r="L31" s="6">
+        <f>'2008'!E31</f>
+        <v>222164</v>
+      </c>
+      <c r="M31" s="6">
+        <f>'2007'!E31</f>
+        <v>220561</v>
+      </c>
+      <c r="N31" s="6">
+        <f>'2006'!E31</f>
+        <v>223430</v>
+      </c>
+      <c r="O31" s="6">
+        <f>'2005'!E31</f>
+        <v>226252</v>
+      </c>
+      <c r="P31" s="6">
+        <f>'2004'!E31</f>
+        <v>233432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <f>'2018'!E32</f>
+        <v>422237</v>
+      </c>
+      <c r="C32" s="6">
+        <f>'2017'!E32</f>
+        <v>414662</v>
+      </c>
+      <c r="D32" s="6">
+        <f>'2016'!E32</f>
+        <v>366625</v>
+      </c>
+      <c r="E32" s="6">
+        <f>'2015'!E32</f>
+        <v>353652</v>
+      </c>
+      <c r="F32" s="6">
+        <f>'2014'!E32</f>
+        <v>345727</v>
+      </c>
+      <c r="G32" s="6">
+        <f>'2013'!E32</f>
+        <v>368420</v>
+      </c>
+      <c r="H32" s="6">
+        <f>'2012'!E32</f>
+        <v>444884</v>
+      </c>
+      <c r="I32" s="6">
+        <f>'2011'!E32</f>
+        <v>443704</v>
+      </c>
+      <c r="J32" s="6">
+        <f>'2010'!E32</f>
+        <v>455066</v>
+      </c>
+      <c r="K32" s="6">
+        <f>'2009'!E32</f>
+        <v>431715</v>
+      </c>
+      <c r="L32" s="6">
+        <f>'2008'!E32</f>
+        <v>431715</v>
+      </c>
+      <c r="M32" s="6">
+        <f>'2007'!E32</f>
+        <v>415802</v>
+      </c>
+      <c r="N32" s="6">
+        <f>'2006'!E32</f>
+        <v>418089</v>
+      </c>
+      <c r="O32" s="6">
+        <f>'2005'!E32</f>
+        <v>403563</v>
+      </c>
+      <c r="P32" s="6">
+        <f>'2004'!E32</f>
+        <v>429205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <f>'2018'!E33</f>
+        <v>441906</v>
+      </c>
+      <c r="C33" s="6">
+        <f>'2017'!E33</f>
+        <v>323624</v>
+      </c>
+      <c r="D33" s="6">
+        <f>'2016'!E33</f>
+        <v>353760</v>
+      </c>
+      <c r="E33" s="6">
+        <f>'2015'!E33</f>
+        <v>302504</v>
+      </c>
+      <c r="F33" s="6">
+        <f>'2014'!E33</f>
+        <v>250163</v>
+      </c>
+      <c r="G33" s="6">
+        <f>'2013'!E33</f>
+        <v>2648830</v>
+      </c>
+      <c r="H33" s="6">
+        <f>'2012'!E33</f>
+        <v>269843</v>
+      </c>
+      <c r="I33" s="6">
+        <f>'2011'!E33</f>
+        <v>267157</v>
+      </c>
+      <c r="J33" s="6">
+        <f>'2010'!E33</f>
+        <v>296653</v>
+      </c>
+      <c r="K33" s="6">
+        <f>'2009'!E33</f>
+        <v>231646</v>
+      </c>
+      <c r="L33" s="6">
+        <f>'2008'!E33</f>
+        <v>212187</v>
+      </c>
+      <c r="M33" s="6">
+        <f>'2007'!E33</f>
+        <v>324609</v>
+      </c>
+      <c r="N33" s="6">
+        <f>'2006'!E33</f>
+        <v>338290</v>
+      </c>
+      <c r="O33" s="6">
+        <f>'2005'!E33</f>
+        <v>338568</v>
+      </c>
+      <c r="P33" s="6">
+        <f>'2004'!E33</f>
+        <v>460545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <f>'2018'!E34</f>
+        <v>150111</v>
+      </c>
+      <c r="C34" s="6">
+        <f>'2017'!E34</f>
+        <v>149112</v>
+      </c>
+      <c r="D34" s="6">
+        <f>'2016'!E34</f>
+        <v>146631</v>
+      </c>
+      <c r="E34" s="6">
+        <f>'2015'!E34</f>
+        <v>143889</v>
+      </c>
+      <c r="F34" s="6">
+        <f>'2014'!E34</f>
+        <v>129589</v>
+      </c>
+      <c r="G34" s="6">
+        <f>'2013'!E34</f>
+        <v>128661</v>
+      </c>
+      <c r="H34" s="6">
+        <f>'2012'!E34</f>
+        <v>130471</v>
+      </c>
+      <c r="I34" s="6">
+        <f>'2011'!E34</f>
+        <v>126198</v>
+      </c>
+      <c r="J34" s="6">
+        <f>'2010'!E34</f>
+        <v>127914</v>
+      </c>
+      <c r="K34" s="6">
+        <f>'2009'!E34</f>
+        <v>135139</v>
+      </c>
+      <c r="L34" s="6">
+        <f>'2008'!E34</f>
+        <v>135139</v>
+      </c>
+      <c r="M34" s="6">
+        <f>'2007'!E34</f>
+        <v>120602</v>
+      </c>
+      <c r="N34" s="6">
+        <f>'2006'!E34</f>
+        <v>110443</v>
+      </c>
+      <c r="O34" s="6">
+        <f>'2005'!E34</f>
+        <v>89994</v>
+      </c>
+      <c r="P34" s="6">
+        <f>'2004'!E34</f>
+        <v>95545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <f>'2018'!E35</f>
+        <v>1166349</v>
+      </c>
+      <c r="C35" s="6">
+        <f>'2017'!E35</f>
+        <v>1145131</v>
+      </c>
+      <c r="D35" s="6">
+        <f>'2016'!E35</f>
+        <v>1071806</v>
+      </c>
+      <c r="E35" s="6">
+        <f>'2015'!E35</f>
+        <v>1114904</v>
+      </c>
+      <c r="F35" s="6">
+        <f>'2014'!E35</f>
+        <v>1077625</v>
+      </c>
+      <c r="G35" s="6">
+        <f>'2013'!E35</f>
+        <v>1065247</v>
+      </c>
+      <c r="H35" s="6">
+        <f>'2012'!E35</f>
+        <v>1091187</v>
+      </c>
+      <c r="I35" s="6">
+        <f>'2011'!E35</f>
+        <v>732654</v>
+      </c>
+      <c r="J35" s="6">
+        <f>'2010'!E35</f>
+        <v>899036</v>
+      </c>
+      <c r="K35" s="6">
+        <f>'2009'!E35</f>
+        <v>901313</v>
+      </c>
+      <c r="L35" s="6">
+        <f>'2008'!E35</f>
+        <v>922855</v>
+      </c>
+      <c r="M35" s="6">
+        <f>'2007'!E35</f>
+        <v>936592</v>
+      </c>
+      <c r="N35" s="6">
+        <f>'2006'!E35</f>
+        <v>1375917</v>
+      </c>
+      <c r="O35" s="6">
+        <f>'2005'!E35</f>
+        <v>1454229</v>
+      </c>
+      <c r="P35" s="6">
+        <f>'2004'!E35</f>
+        <v>754189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <f>'2018'!E36</f>
+        <v>995164</v>
+      </c>
+      <c r="C36" s="6">
+        <f>'2017'!E36</f>
+        <v>1037841</v>
+      </c>
+      <c r="D36" s="6">
+        <f>'2016'!E36</f>
+        <v>1098675</v>
+      </c>
+      <c r="E36" s="6">
+        <f>'2015'!E36</f>
+        <v>1151515</v>
+      </c>
+      <c r="F36" s="6">
+        <f>'2014'!E36</f>
+        <v>1174147</v>
+      </c>
+      <c r="G36" s="6">
+        <f>'2013'!E36</f>
+        <v>416101</v>
+      </c>
+      <c r="H36" s="6">
+        <f>'2012'!E36</f>
+        <v>423715</v>
+      </c>
+      <c r="I36" s="6">
+        <f>'2011'!E36</f>
+        <v>417491</v>
+      </c>
+      <c r="J36" s="6">
+        <f>'2010'!E36</f>
+        <v>1084277</v>
+      </c>
+      <c r="K36" s="6">
+        <f>'2009'!E36</f>
+        <v>1164034</v>
+      </c>
+      <c r="L36" s="6">
+        <f>'2008'!E36</f>
+        <v>1121921</v>
+      </c>
+      <c r="M36" s="6">
+        <f>'2007'!E36</f>
+        <v>1104617</v>
+      </c>
+      <c r="N36" s="6">
+        <f>'2006'!E36</f>
+        <v>1179515</v>
+      </c>
+      <c r="O36" s="6">
+        <f>'2005'!E36</f>
+        <v>1128842</v>
+      </c>
+      <c r="P36" s="6">
+        <f>'2004'!E36</f>
+        <v>1086640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <f>'2018'!E37</f>
+        <v>400238</v>
+      </c>
+      <c r="C37" s="6">
+        <f>'2017'!E37</f>
+        <v>321534</v>
+      </c>
+      <c r="D37" s="6">
+        <f>'2016'!E37</f>
+        <v>312573</v>
+      </c>
+      <c r="E37" s="6">
+        <f>'2015'!E37</f>
+        <v>311776</v>
+      </c>
+      <c r="F37" s="6">
+        <f>'2014'!E37</f>
+        <v>290577</v>
+      </c>
+      <c r="G37" s="6">
+        <f>'2013'!E37</f>
+        <v>289240</v>
+      </c>
+      <c r="H37" s="6">
+        <f>'2012'!E37</f>
+        <v>301441</v>
+      </c>
+      <c r="I37" s="6">
+        <f>'2011'!E37</f>
+        <v>305787</v>
+      </c>
+      <c r="J37" s="6">
+        <f>'2010'!E37</f>
+        <v>292514</v>
+      </c>
+      <c r="K37" s="6">
+        <f>'2009'!E37</f>
+        <v>281390</v>
+      </c>
+      <c r="L37" s="6">
+        <f>'2008'!E37</f>
+        <v>277600</v>
+      </c>
+      <c r="M37" s="6">
+        <f>'2007'!E37</f>
+        <v>288373</v>
+      </c>
+      <c r="N37" s="6">
+        <f>'2006'!E37</f>
+        <v>307589</v>
+      </c>
+      <c r="O37" s="6">
+        <f>'2005'!E37</f>
+        <v>328993</v>
+      </c>
+      <c r="P37" s="6">
+        <f>'2004'!E37</f>
+        <v>348924</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6">
+        <f>'2018'!E38</f>
+        <v>1222670</v>
+      </c>
+      <c r="C38" s="6">
+        <f>'2017'!E38</f>
+        <v>1238680</v>
+      </c>
+      <c r="D38" s="6">
+        <f>'2016'!E38</f>
+        <v>1253956</v>
+      </c>
+      <c r="E38" s="6">
+        <f>'2015'!E38</f>
+        <v>1291430</v>
+      </c>
+      <c r="F38" s="6">
+        <f>'2014'!E38</f>
+        <v>1240155</v>
+      </c>
+      <c r="G38" s="6">
+        <f>'2013'!E38</f>
+        <v>1255439</v>
+      </c>
+      <c r="H38" s="6">
+        <f>'2012'!E38</f>
+        <v>1289930</v>
+      </c>
+      <c r="I38" s="6">
+        <f>'2011'!E38</f>
+        <v>1318164</v>
+      </c>
+      <c r="J38" s="6">
+        <f>'2010'!E38</f>
+        <v>279893</v>
+      </c>
+      <c r="K38" s="6">
+        <f>'2009'!E38</f>
+        <v>1322269</v>
+      </c>
+      <c r="L38" s="6">
+        <f>'2008'!E38</f>
+        <v>1322269</v>
+      </c>
+      <c r="M38" s="6">
+        <f>'2007'!E38</f>
+        <v>1329338</v>
+      </c>
+      <c r="N38" s="6">
+        <f>'2006'!E38</f>
+        <v>1331894</v>
+      </c>
+      <c r="O38" s="6">
+        <f>'2005'!E38</f>
+        <v>1381167</v>
+      </c>
+      <c r="P38" s="6">
+        <f>'2004'!E38</f>
+        <v>1409238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <f>'2018'!E39</f>
+        <v>2569930</v>
+      </c>
+      <c r="C39" s="6">
+        <f>'2017'!E39</f>
+        <v>2378225</v>
+      </c>
+      <c r="D39" s="6">
+        <f>'2016'!E39</f>
+        <v>2664373</v>
+      </c>
+      <c r="E39" s="6">
+        <f>'2015'!E39</f>
+        <v>2642943</v>
+      </c>
+      <c r="F39" s="6">
+        <f>'2014'!E39</f>
+        <v>2668942</v>
+      </c>
+      <c r="G39" s="6">
+        <f>'2013'!E39</f>
+        <v>2427886</v>
+      </c>
+      <c r="H39" s="6">
+        <f>'2012'!E39</f>
+        <v>2668549</v>
+      </c>
+      <c r="I39" s="6">
+        <f>'2011'!E39</f>
+        <v>2526585</v>
+      </c>
+      <c r="J39" s="6">
+        <f>'2010'!E39</f>
+        <v>2536376</v>
+      </c>
+      <c r="K39" s="6">
+        <f>'2009'!E39</f>
+        <v>2562760</v>
+      </c>
+      <c r="L39" s="6">
+        <f>'2008'!E39</f>
+        <v>2622327</v>
+      </c>
+      <c r="M39" s="6">
+        <f>'2007'!E39</f>
+        <v>2828198</v>
+      </c>
+      <c r="N39" s="6">
+        <f>'2006'!E39</f>
+        <v>2718624</v>
+      </c>
+      <c r="O39" s="6">
+        <f>'2005'!E39</f>
+        <v>2791423</v>
+      </c>
+      <c r="P39" s="6">
+        <f>'2004'!E39</f>
+        <v>2520673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <f>'2018'!E40</f>
+        <v>30903</v>
+      </c>
+      <c r="C40" s="6">
+        <f>'2017'!E40</f>
+        <v>33200</v>
+      </c>
+      <c r="D40" s="6">
+        <f>'2016'!E40</f>
+        <v>8978</v>
+      </c>
+      <c r="E40" s="6">
+        <f>'2015'!E40</f>
+        <v>33872</v>
+      </c>
+      <c r="F40" s="6">
+        <f>'2014'!E40</f>
+        <v>9025</v>
+      </c>
+      <c r="G40" s="6">
+        <f>'2013'!E40</f>
+        <v>8605</v>
+      </c>
+      <c r="H40" s="6">
+        <f>'2012'!E40</f>
+        <v>8798</v>
+      </c>
+      <c r="I40" s="6">
+        <f>'2011'!E40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <f>'2010'!E40</f>
+        <v>34628</v>
+      </c>
+      <c r="K40" s="6">
+        <f>'2009'!E40</f>
+        <v>34628</v>
+      </c>
+      <c r="L40" s="6">
+        <f>'2008'!E40</f>
+        <v>34628</v>
+      </c>
+      <c r="M40" s="6">
+        <f>'2007'!E40</f>
+        <v>31639</v>
+      </c>
+      <c r="N40" s="6">
+        <f>'2006'!E40</f>
+        <v>33988</v>
+      </c>
+      <c r="O40" s="6">
+        <f>'2005'!E40</f>
+        <v>33876</v>
+      </c>
+      <c r="P40" s="6">
+        <f>'2004'!E40</f>
+        <v>32823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6">
+        <f>'2018'!E41</f>
+        <v>814285</v>
+      </c>
+      <c r="C41" s="6">
+        <f>'2017'!E41</f>
+        <v>802737</v>
+      </c>
+      <c r="D41" s="6">
+        <f>'2016'!E41</f>
+        <v>434043</v>
+      </c>
+      <c r="E41" s="6">
+        <f>'2015'!E41</f>
+        <v>423437</v>
+      </c>
+      <c r="F41" s="6">
+        <f>'2014'!E41</f>
+        <v>428526</v>
+      </c>
+      <c r="G41" s="6">
+        <f>'2013'!E41</f>
+        <v>399386</v>
+      </c>
+      <c r="H41" s="6">
+        <f>'2012'!E41</f>
+        <v>638166</v>
+      </c>
+      <c r="I41" s="6">
+        <f>'2011'!E41</f>
+        <v>567796</v>
+      </c>
+      <c r="J41" s="6">
+        <f>'2010'!E41</f>
+        <v>558532</v>
+      </c>
+      <c r="K41" s="6">
+        <f>'2009'!E41</f>
+        <v>535360</v>
+      </c>
+      <c r="L41" s="6">
+        <f>'2008'!E41</f>
+        <v>517773</v>
+      </c>
+      <c r="M41" s="6">
+        <f>'2007'!E41</f>
+        <v>479965</v>
+      </c>
+      <c r="N41" s="6">
+        <f>'2006'!E41</f>
+        <v>457410</v>
+      </c>
+      <c r="O41" s="6">
+        <f>'2005'!E41</f>
+        <v>259343</v>
+      </c>
+      <c r="P41" s="6">
+        <f>'2004'!E41</f>
+        <v>265906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <f>'2018'!E42</f>
+        <v>373976</v>
+      </c>
+      <c r="C42" s="6">
+        <f>'2017'!E42</f>
+        <v>362804</v>
+      </c>
+      <c r="D42" s="6">
+        <f>'2016'!E42</f>
+        <v>400704</v>
+      </c>
+      <c r="E42" s="6">
+        <f>'2015'!E42</f>
+        <v>402372</v>
+      </c>
+      <c r="F42" s="6">
+        <f>'2014'!E42</f>
+        <v>414924</v>
+      </c>
+      <c r="G42" s="6">
+        <f>'2013'!E42</f>
+        <v>430552</v>
+      </c>
+      <c r="H42" s="6">
+        <f>'2012'!E42</f>
+        <v>432327</v>
+      </c>
+      <c r="I42" s="6">
+        <f>'2011'!E42</f>
+        <v>441264</v>
+      </c>
+      <c r="J42" s="6">
+        <f>'2010'!E42</f>
+        <v>439537</v>
+      </c>
+      <c r="K42" s="6">
+        <f>'2009'!E42</f>
+        <v>418141</v>
+      </c>
+      <c r="L42" s="6">
+        <f>'2008'!E42</f>
+        <v>397779</v>
+      </c>
+      <c r="M42" s="6">
+        <f>'2007'!E42</f>
+        <v>387164</v>
+      </c>
+      <c r="N42" s="6">
+        <f>'2006'!E42</f>
+        <v>370227</v>
+      </c>
+      <c r="O42" s="6">
+        <f>'2005'!E42</f>
+        <v>348703</v>
+      </c>
+      <c r="P42" s="6">
+        <f>'2004'!E42</f>
+        <v>347928</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6">
+        <f>'2018'!E43</f>
+        <v>737173</v>
+      </c>
+      <c r="C43" s="6">
+        <f>'2017'!E43</f>
+        <v>785026</v>
+      </c>
+      <c r="D43" s="6">
+        <f>'2016'!E43</f>
+        <v>785761</v>
+      </c>
+      <c r="E43" s="6">
+        <f>'2015'!E43</f>
+        <v>757359</v>
+      </c>
+      <c r="F43" s="6">
+        <f>'2014'!E43</f>
+        <v>720420</v>
+      </c>
+      <c r="G43" s="6">
+        <f>'2013'!E43</f>
+        <v>697018</v>
+      </c>
+      <c r="H43" s="6">
+        <f>'2012'!E43</f>
+        <v>731401</v>
+      </c>
+      <c r="I43" s="6">
+        <f>'2011'!E43</f>
+        <v>756236</v>
+      </c>
+      <c r="J43" s="6">
+        <f>'2010'!E43</f>
+        <v>783115</v>
+      </c>
+      <c r="K43" s="6">
+        <f>'2009'!E43</f>
+        <v>832944</v>
+      </c>
+      <c r="L43" s="6">
+        <f>'2008'!E43</f>
+        <v>725238</v>
+      </c>
+      <c r="M43" s="6">
+        <f>'2007'!E43</f>
+        <v>1093825</v>
+      </c>
+      <c r="N43" s="6">
+        <f>'2006'!E43</f>
+        <v>1302277</v>
+      </c>
+      <c r="O43" s="6">
+        <f>'2005'!E43</f>
+        <v>983990</v>
+      </c>
+      <c r="P43" s="6">
+        <f>'2004'!E43</f>
+        <v>1131450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6">
+        <f>'2018'!E44</f>
+        <v>1655343</v>
+      </c>
+      <c r="C44" s="6">
+        <f>'2017'!E44</f>
+        <v>1641604</v>
+      </c>
+      <c r="D44" s="6">
+        <f>'2016'!E44</f>
+        <v>1611342</v>
+      </c>
+      <c r="E44" s="6">
+        <f>'2015'!E44</f>
+        <v>1537431</v>
+      </c>
+      <c r="F44" s="6">
+        <f>'2014'!E44</f>
+        <v>1450212</v>
+      </c>
+      <c r="G44" s="6">
+        <f>'2013'!E44</f>
+        <v>1473996</v>
+      </c>
+      <c r="H44" s="6">
+        <f>'2012'!E44</f>
+        <v>1442357</v>
+      </c>
+      <c r="I44" s="6">
+        <f>'2011'!E44</f>
+        <v>1473969</v>
+      </c>
+      <c r="J44" s="6">
+        <f>'2010'!E44</f>
+        <v>1596084</v>
+      </c>
+      <c r="K44" s="6">
+        <f>'2009'!E44</f>
+        <v>1539111</v>
+      </c>
+      <c r="L44" s="6">
+        <f>'2008'!E44</f>
+        <v>1512583</v>
+      </c>
+      <c r="M44" s="6">
+        <f>'2007'!E44</f>
+        <v>1444364</v>
+      </c>
+      <c r="N44" s="6">
+        <f>'2006'!E44</f>
+        <v>1294660</v>
+      </c>
+      <c r="O44" s="6">
+        <f>'2005'!E44</f>
+        <v>1290716</v>
+      </c>
+      <c r="P44" s="6">
+        <f>'2004'!E44</f>
+        <v>1266103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6">
+        <f>'2018'!E45</f>
+        <v>420841</v>
+      </c>
+      <c r="C45" s="6">
+        <f>'2017'!E45</f>
+        <v>410468</v>
+      </c>
+      <c r="D45" s="6">
+        <f>'2016'!E45</f>
+        <v>386403</v>
+      </c>
+      <c r="E45" s="6">
+        <f>'2015'!E45</f>
+        <v>367527</v>
+      </c>
+      <c r="F45" s="6">
+        <f>'2014'!E45</f>
+        <v>370250</v>
+      </c>
+      <c r="G45" s="6">
+        <f>'2013'!E45</f>
+        <v>385032</v>
+      </c>
+      <c r="H45" s="6">
+        <f>'2012'!E45</f>
+        <v>386191</v>
+      </c>
+      <c r="I45" s="6">
+        <f>'2011'!E45</f>
+        <v>374210</v>
+      </c>
+      <c r="J45" s="6">
+        <f>'2010'!E45</f>
+        <v>292695</v>
+      </c>
+      <c r="K45" s="6">
+        <f>'2009'!E45</f>
+        <v>267512</v>
+      </c>
+      <c r="L45" s="6">
+        <f>'2008'!E45</f>
+        <v>267512</v>
+      </c>
+      <c r="M45" s="6">
+        <f>'2007'!E45</f>
+        <v>231901</v>
+      </c>
+      <c r="N45" s="6">
+        <f>'2006'!E45</f>
+        <v>242701</v>
+      </c>
+      <c r="O45" s="6">
+        <f>'2005'!E45</f>
+        <v>238073</v>
+      </c>
+      <c r="P45" s="6">
+        <f>'2004'!E45</f>
+        <v>230153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <f>'2018'!E46</f>
+        <v>860075</v>
+      </c>
+      <c r="C46" s="6">
+        <f>'2017'!E46</f>
+        <v>839898</v>
+      </c>
+      <c r="D46" s="6">
+        <f>'2016'!E46</f>
+        <v>843423</v>
+      </c>
+      <c r="E46" s="6">
+        <f>'2015'!E46</f>
+        <v>830192</v>
+      </c>
+      <c r="F46" s="6">
+        <f>'2014'!E46</f>
+        <v>818851</v>
+      </c>
+      <c r="G46" s="6">
+        <f>'2013'!E46</f>
+        <v>816776</v>
+      </c>
+      <c r="H46" s="6">
+        <f>'2012'!E46</f>
+        <v>789834</v>
+      </c>
+      <c r="I46" s="6">
+        <f>'2011'!E46</f>
+        <v>810659</v>
+      </c>
+      <c r="J46" s="6">
+        <f>'2010'!E46</f>
+        <v>802526</v>
+      </c>
+      <c r="K46" s="6">
+        <f>'2009'!E46</f>
+        <v>795015</v>
+      </c>
+      <c r="L46" s="6">
+        <f>'2008'!E46</f>
+        <v>794827</v>
+      </c>
+      <c r="M46" s="6">
+        <f>'2007'!E46</f>
+        <v>791509</v>
+      </c>
+      <c r="N46" s="6">
+        <f>'2006'!E46</f>
+        <v>817220</v>
+      </c>
+      <c r="O46" s="6">
+        <f>'2005'!E46</f>
+        <v>813880</v>
+      </c>
+      <c r="P46" s="6">
+        <f>'2004'!E46</f>
+        <v>823123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6">
+        <f>'2018'!E47</f>
+        <v>169328</v>
+      </c>
+      <c r="C47" s="6">
+        <f>'2017'!E47</f>
+        <v>177428</v>
+      </c>
+      <c r="D47" s="6">
+        <f>'2016'!E47</f>
+        <v>178743</v>
+      </c>
+      <c r="E47" s="6">
+        <f>'2015'!E47</f>
+        <v>183780</v>
+      </c>
+      <c r="F47" s="6">
+        <f>'2014'!E47</f>
+        <v>172351</v>
+      </c>
+      <c r="G47" s="6">
+        <f>'2013'!E47</f>
+        <v>189241</v>
+      </c>
+      <c r="H47" s="6">
+        <f>'2012'!E47</f>
+        <v>191735</v>
+      </c>
+      <c r="I47" s="6">
+        <f>'2011'!E47</f>
+        <v>188068</v>
+      </c>
+      <c r="J47" s="6">
+        <f>'2010'!E47</f>
+        <v>172964</v>
+      </c>
+      <c r="K47" s="6">
+        <f>'2009'!E47</f>
+        <v>172964</v>
+      </c>
+      <c r="L47" s="6">
+        <f>'2008'!E47</f>
+        <v>165583</v>
+      </c>
+      <c r="M47" s="6">
+        <f>'2007'!E47</f>
+        <v>154596</v>
+      </c>
+      <c r="N47" s="6">
+        <f>'2006'!E47</f>
+        <v>170680</v>
+      </c>
+      <c r="O47" s="6">
+        <f>'2005'!E47</f>
+        <v>186789</v>
+      </c>
+      <c r="P47" s="6">
+        <f>'2004'!E47</f>
+        <v>192308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <f>'2018'!E48</f>
+        <v>691732</v>
+      </c>
+      <c r="C48" s="6">
+        <f>'2017'!E48</f>
+        <v>685166</v>
+      </c>
+      <c r="D48" s="6">
+        <f>'2016'!E48</f>
+        <v>674196</v>
+      </c>
+      <c r="E48" s="6">
+        <f>'2015'!E48</f>
+        <v>676025</v>
+      </c>
+      <c r="F48" s="6">
+        <f>'2014'!E48</f>
+        <v>666678</v>
+      </c>
+      <c r="G48" s="6">
+        <f>'2013'!E48</f>
+        <v>738385</v>
+      </c>
+      <c r="H48" s="6">
+        <f>'2012'!E48</f>
+        <v>770206</v>
+      </c>
+      <c r="I48" s="6">
+        <f>'2011'!E48</f>
+        <v>775028</v>
+      </c>
+      <c r="J48" s="6">
+        <f>'2010'!E48</f>
+        <v>763171</v>
+      </c>
+      <c r="K48" s="6">
+        <f>'2009'!E48</f>
+        <v>782009</v>
+      </c>
+      <c r="L48" s="6">
+        <f>'2008'!E48</f>
+        <v>837738</v>
+      </c>
+      <c r="M48" s="6">
+        <f>'2007'!E48</f>
+        <v>929616</v>
+      </c>
+      <c r="N48" s="6">
+        <f>'2006'!E48</f>
+        <v>902485</v>
+      </c>
+      <c r="O48" s="6">
+        <f>'2005'!E48</f>
+        <v>883616</v>
+      </c>
+      <c r="P48" s="6">
+        <f>'2004'!E48</f>
+        <v>791512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6">
+        <f>'2018'!E49</f>
+        <v>2863676</v>
+      </c>
+      <c r="C49" s="6">
+        <f>'2017'!E49</f>
+        <v>2836703</v>
+      </c>
+      <c r="D49" s="6">
+        <f>'2016'!E49</f>
+        <v>2941239</v>
+      </c>
+      <c r="E49" s="6">
+        <f>'2015'!E49</f>
+        <v>2968341</v>
+      </c>
+      <c r="F49" s="6">
+        <f>'2014'!E49</f>
+        <v>2880270</v>
+      </c>
+      <c r="G49" s="6">
+        <f>'2013'!E49</f>
+        <v>2941549</v>
+      </c>
+      <c r="H49" s="6">
+        <f>'2012'!E49</f>
+        <v>3041084</v>
+      </c>
+      <c r="I49" s="6">
+        <f>'2011'!E49</f>
+        <v>2972072</v>
+      </c>
+      <c r="J49" s="6">
+        <f>'2010'!E49</f>
+        <v>2887881</v>
+      </c>
+      <c r="K49" s="6">
+        <f>'2009'!E49</f>
+        <v>3072436</v>
+      </c>
+      <c r="L49" s="6">
+        <f>'2008'!E49</f>
+        <v>3072436</v>
+      </c>
+      <c r="M49" s="6">
+        <f>'2007'!E49</f>
+        <v>3143230</v>
+      </c>
+      <c r="N49" s="6">
+        <f>'2006'!E49</f>
+        <v>3030609</v>
+      </c>
+      <c r="O49" s="6">
+        <f>'2005'!E49</f>
+        <v>2717877</v>
+      </c>
+      <c r="P49" s="6">
+        <f>'2004'!E49</f>
+        <v>2599506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <f>'2018'!E50</f>
+        <v>677710</v>
+      </c>
+      <c r="C50" s="6">
+        <f>'2017'!E50</f>
+        <v>705072</v>
+      </c>
+      <c r="D50" s="6">
+        <f>'2016'!E50</f>
+        <v>719105</v>
+      </c>
+      <c r="E50" s="6">
+        <f>'2015'!E50</f>
+        <v>704055</v>
+      </c>
+      <c r="F50" s="6">
+        <f>'2014'!E50</f>
+        <v>684738</v>
+      </c>
+      <c r="G50" s="6">
+        <f>'2013'!E50</f>
+        <v>710174</v>
+      </c>
+      <c r="H50" s="6">
+        <f>'2012'!E50</f>
+        <v>778357</v>
+      </c>
+      <c r="I50" s="6">
+        <f>'2011'!E50</f>
+        <v>767999</v>
+      </c>
+      <c r="J50" s="6">
+        <f>'2010'!E50</f>
+        <v>736383</v>
+      </c>
+      <c r="K50" s="6">
+        <f>'2009'!E50</f>
+        <v>753449</v>
+      </c>
+      <c r="L50" s="6">
+        <f>'2008'!E50</f>
+        <v>753449</v>
+      </c>
+      <c r="M50" s="6">
+        <f>'2007'!E50</f>
+        <v>738049</v>
+      </c>
+      <c r="N50" s="6">
+        <f>'2006'!E50</f>
+        <v>949284</v>
+      </c>
+      <c r="O50" s="6">
+        <f>'2005'!E50</f>
+        <v>926177</v>
+      </c>
+      <c r="P50" s="6">
+        <f>'2004'!E50</f>
+        <v>830748</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <f>'2018'!E51</f>
+        <v>247914</v>
+      </c>
+      <c r="C51" s="6">
+        <f>'2017'!E51</f>
+        <v>240862</v>
+      </c>
+      <c r="D51" s="6">
+        <f>'2016'!E51</f>
+        <v>249478</v>
+      </c>
+      <c r="E51" s="6">
+        <f>'2015'!E51</f>
+        <v>261991</v>
+      </c>
+      <c r="F51" s="6">
+        <f>'2014'!E51</f>
+        <v>264957</v>
+      </c>
+      <c r="G51" s="6">
+        <f>'2013'!E51</f>
+        <v>269424</v>
+      </c>
+      <c r="H51" s="6">
+        <f>'2012'!E51</f>
+        <v>265887</v>
+      </c>
+      <c r="I51" s="6">
+        <f>'2011'!E51</f>
+        <v>260973</v>
+      </c>
+      <c r="J51" s="6">
+        <f>'2010'!E51</f>
+        <v>278632</v>
+      </c>
+      <c r="K51" s="6">
+        <f>'2009'!E51</f>
+        <v>266483</v>
+      </c>
+      <c r="L51" s="6">
+        <f>'2008'!E51</f>
+        <v>266483</v>
+      </c>
+      <c r="M51" s="6">
+        <f>'2007'!E51</f>
+        <v>249489</v>
+      </c>
+      <c r="N51" s="6">
+        <f>'2006'!E51</f>
+        <v>242143</v>
+      </c>
+      <c r="O51" s="6">
+        <f>'2005'!E51</f>
+        <v>228394</v>
+      </c>
+      <c r="P51" s="6">
+        <f>'2004'!E51</f>
+        <v>240898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B51"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14183,11 +18735,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94334006-1650-864D-8F9F-D8A82788025A}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15221,7 +19775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918B1D11-9F14-1A41-8364-69DE1B129969}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -16259,7 +20813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96189A99-D729-4647-860D-30531D0E635B}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -17297,7 +21851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B768367F-0663-2841-8827-81D0942D1FF8}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -18335,7 +22889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F788D21C-9766-8246-A4E9-DB6E4AFE592D}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -19373,7 +23927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4D12FB-354E-6844-A2A2-E0B6B673190B}">
   <dimension ref="A1:F51"/>
   <sheetViews>
@@ -20409,1042 +24963,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F087403-A615-7542-97D8-888586A77864}">
-  <dimension ref="A1:F51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>101750</v>
-      </c>
-      <c r="C2" s="8">
-        <v>211655</v>
-      </c>
-      <c r="D2" s="8">
-        <v>38418</v>
-      </c>
-      <c r="E2" s="8">
-        <v>250073</v>
-      </c>
-      <c r="F2" s="9">
-        <v>7990838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8">
-        <v>540098</v>
-      </c>
-      <c r="C3" s="8">
-        <v>586479</v>
-      </c>
-      <c r="D3" s="8">
-        <v>39483</v>
-      </c>
-      <c r="E3" s="8">
-        <v>625962</v>
-      </c>
-      <c r="F3" s="9">
-        <v>11451574.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8">
-        <v>390932</v>
-      </c>
-      <c r="C4" s="8">
-        <v>384740</v>
-      </c>
-      <c r="D4" s="8">
-        <v>97203</v>
-      </c>
-      <c r="E4" s="8">
-        <v>481943</v>
-      </c>
-      <c r="F4" s="9">
-        <v>14035081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8">
-        <v>191834</v>
-      </c>
-      <c r="C5" s="8">
-        <v>377308</v>
-      </c>
-      <c r="D5" s="8">
-        <v>34309</v>
-      </c>
-      <c r="E5" s="8">
-        <v>411617</v>
-      </c>
-      <c r="F5" s="9">
-        <v>16601597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8">
-        <v>293263</v>
-      </c>
-      <c r="C6" s="8">
-        <v>813895</v>
-      </c>
-      <c r="D6" s="8">
-        <v>14840</v>
-      </c>
-      <c r="E6" s="8">
-        <v>828735</v>
-      </c>
-      <c r="F6" s="9">
-        <v>19513262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8">
-        <v>294186</v>
-      </c>
-      <c r="C7" s="8">
-        <v>408997</v>
-      </c>
-      <c r="D7" s="8">
-        <v>129737</v>
-      </c>
-      <c r="E7" s="8">
-        <v>538734</v>
-      </c>
-      <c r="F7" s="9">
-        <v>56200410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
-        <v>50066</v>
-      </c>
-      <c r="C8" s="8">
-        <v>123549</v>
-      </c>
-      <c r="D8" s="8">
-        <v>6812</v>
-      </c>
-      <c r="E8" s="8">
-        <v>130361</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2258327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>19271</v>
-      </c>
-      <c r="C9" s="8">
-        <v>39377</v>
-      </c>
-      <c r="D9" s="8">
-        <v>6126</v>
-      </c>
-      <c r="E9" s="8">
-        <v>45503</v>
-      </c>
-      <c r="F9" s="9">
-        <v>958602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>176539</v>
-      </c>
-      <c r="C10" s="8">
-        <v>315149</v>
-      </c>
-      <c r="D10" s="8">
-        <v>12824</v>
-      </c>
-      <c r="E10" s="8">
-        <v>327973</v>
-      </c>
-      <c r="F10" s="9">
-        <v>5956378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8">
-        <v>307436</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1085860</v>
-      </c>
-      <c r="D11" s="8">
-        <v>99734</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1185594</v>
-      </c>
-      <c r="F11" s="9">
-        <v>12889708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
-        <v>9002</v>
-      </c>
-      <c r="C12" s="8">
-        <v>9265</v>
-      </c>
-      <c r="D12" s="3">
-        <v>388</v>
-      </c>
-      <c r="E12" s="8">
-        <v>9653</v>
-      </c>
-      <c r="F12" s="9">
-        <v>160067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8">
-        <v>264699</v>
-      </c>
-      <c r="C13" s="8">
-        <v>861164</v>
-      </c>
-      <c r="D13" s="8">
-        <v>104695</v>
-      </c>
-      <c r="E13" s="8">
-        <v>965859</v>
-      </c>
-      <c r="F13" s="9">
-        <v>20749084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
-        <v>254195</v>
-      </c>
-      <c r="C14" s="8">
-        <v>836142</v>
-      </c>
-      <c r="D14" s="8">
-        <v>110717</v>
-      </c>
-      <c r="E14" s="8">
-        <v>946859</v>
-      </c>
-      <c r="F14" s="9">
-        <v>23898310</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8">
-        <v>333061</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1379647</v>
-      </c>
-      <c r="D15" s="8">
-        <v>140615</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1520262</v>
-      </c>
-      <c r="F15" s="9">
-        <v>31346288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8">
-        <v>272282</v>
-      </c>
-      <c r="C16" s="8">
-        <v>453958</v>
-      </c>
-      <c r="D16" s="8">
-        <v>18916</v>
-      </c>
-      <c r="E16" s="8">
-        <v>472874</v>
-      </c>
-      <c r="F16" s="9">
-        <v>10371579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8">
-        <v>214107</v>
-      </c>
-      <c r="C17" s="8">
-        <v>370925</v>
-      </c>
-      <c r="D17" s="8">
-        <v>118803</v>
-      </c>
-      <c r="E17" s="8">
-        <v>489728</v>
-      </c>
-      <c r="F17" s="9">
-        <v>16999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
-        <v>328321</v>
-      </c>
-      <c r="C18" s="8">
-        <v>478817</v>
-      </c>
-      <c r="D18" s="8">
-        <v>59165</v>
-      </c>
-      <c r="E18" s="8">
-        <v>537982</v>
-      </c>
-      <c r="F18" s="9">
-        <v>15002646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8">
-        <v>314846</v>
-      </c>
-      <c r="C19" s="8">
-        <v>255273</v>
-      </c>
-      <c r="D19" s="8">
-        <v>15440</v>
-      </c>
-      <c r="E19" s="8">
-        <v>270713</v>
-      </c>
-      <c r="F19" s="9">
-        <v>5281036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8">
-        <v>59470</v>
-      </c>
-      <c r="C20" s="8">
-        <v>220371</v>
-      </c>
-      <c r="D20" s="8">
-        <v>14480</v>
-      </c>
-      <c r="E20" s="8">
-        <v>234851</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1901273.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8">
-        <v>121982</v>
-      </c>
-      <c r="C21" s="8">
-        <v>273387</v>
-      </c>
-      <c r="D21" s="8">
-        <v>52634</v>
-      </c>
-      <c r="E21" s="8">
-        <v>326021</v>
-      </c>
-      <c r="F21" s="9">
-        <v>6213687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8">
-        <v>193436</v>
-      </c>
-      <c r="C22" s="8">
-        <v>224150</v>
-      </c>
-      <c r="D22" s="8">
-        <v>39917</v>
-      </c>
-      <c r="E22" s="8">
-        <v>264067</v>
-      </c>
-      <c r="F22" s="9">
-        <v>7817045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>795535</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1972389</v>
-      </c>
-      <c r="D23" s="8">
-        <v>36840</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2009229</v>
-      </c>
-      <c r="F23" s="9">
-        <v>27922523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8">
-        <v>581828</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1433677</v>
-      </c>
-      <c r="D24" s="8">
-        <v>37891</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1471568</v>
-      </c>
-      <c r="F24" s="9">
-        <v>28161147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8">
-        <v>485413</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1677486</v>
-      </c>
-      <c r="D25" s="8">
-        <v>85249</v>
-      </c>
-      <c r="E25" s="8">
-        <v>1762735</v>
-      </c>
-      <c r="F25" s="9">
-        <v>19650761</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8">
-        <v>232546</v>
-      </c>
-      <c r="C26" s="8">
-        <v>211834</v>
-      </c>
-      <c r="D26" s="8">
-        <v>47211</v>
-      </c>
-      <c r="E26" s="8">
-        <v>259045</v>
-      </c>
-      <c r="F26" s="9">
-        <v>9722600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8">
-        <v>245550</v>
-      </c>
-      <c r="C27" s="8">
-        <v>918255</v>
-      </c>
-      <c r="D27" s="8">
-        <v>147003</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1065258</v>
-      </c>
-      <c r="F27" s="9">
-        <v>28706032</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8">
-        <v>494005</v>
-      </c>
-      <c r="C28" s="8">
-        <v>339100</v>
-      </c>
-      <c r="D28" s="8">
-        <v>33269</v>
-      </c>
-      <c r="E28" s="8">
-        <v>372369</v>
-      </c>
-      <c r="F28" s="9">
-        <v>8287162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8">
-        <v>156906</v>
-      </c>
-      <c r="C29" s="8">
-        <v>486519</v>
-      </c>
-      <c r="D29" s="8">
-        <v>169946</v>
-      </c>
-      <c r="E29" s="8">
-        <v>656465</v>
-      </c>
-      <c r="F29" s="9">
-        <v>11335484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8">
-        <v>175944</v>
-      </c>
-      <c r="C30" s="8">
-        <v>381632</v>
-      </c>
-      <c r="D30" s="8">
-        <v>66734</v>
-      </c>
-      <c r="E30" s="8">
-        <v>448366</v>
-      </c>
-      <c r="F30" s="9">
-        <v>13271312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8">
-        <v>59154</v>
-      </c>
-      <c r="C31" s="8">
-        <v>185550</v>
-      </c>
-      <c r="D31" s="8">
-        <v>31756</v>
-      </c>
-      <c r="E31" s="8">
-        <v>217306</v>
-      </c>
-      <c r="F31" s="9">
-        <v>4030447</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8">
-        <v>79539</v>
-      </c>
-      <c r="C32" s="8">
-        <v>304286</v>
-      </c>
-      <c r="D32" s="8">
-        <v>139418</v>
-      </c>
-      <c r="E32" s="8">
-        <v>443704</v>
-      </c>
-      <c r="F32" s="9">
-        <v>7710953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8">
-        <v>102463</v>
-      </c>
-      <c r="C33" s="8">
-        <v>206116</v>
-      </c>
-      <c r="D33" s="8">
-        <v>61041</v>
-      </c>
-      <c r="E33" s="8">
-        <v>267157</v>
-      </c>
-      <c r="F33" s="9">
-        <v>14768524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8">
-        <v>63709</v>
-      </c>
-      <c r="C34" s="8">
-        <v>106174</v>
-      </c>
-      <c r="D34" s="8">
-        <v>20024</v>
-      </c>
-      <c r="E34" s="8">
-        <v>126198</v>
-      </c>
-      <c r="F34" s="9">
-        <v>5024711</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8">
-        <v>676669</v>
-      </c>
-      <c r="C35" s="8">
-        <v>682624</v>
-      </c>
-      <c r="D35" s="8">
-        <v>50030</v>
-      </c>
-      <c r="E35" s="8">
-        <v>732654</v>
-      </c>
-      <c r="F35" s="9">
-        <v>27435282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8">
-        <v>408142</v>
-      </c>
-      <c r="C36" s="8">
-        <v>383689</v>
-      </c>
-      <c r="D36" s="8">
-        <v>33802</v>
-      </c>
-      <c r="E36" s="8">
-        <v>417491</v>
-      </c>
-      <c r="F36" s="9">
-        <v>10690698</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8">
-        <v>379884</v>
-      </c>
-      <c r="C37" s="8">
-        <v>286633</v>
-      </c>
-      <c r="D37" s="8">
-        <v>19154</v>
-      </c>
-      <c r="E37" s="8">
-        <v>305787</v>
-      </c>
-      <c r="F37" s="9">
-        <v>8652811</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8">
-        <v>283749</v>
-      </c>
-      <c r="C38" s="8">
-        <v>1251311</v>
-      </c>
-      <c r="D38" s="8">
-        <v>66853</v>
-      </c>
-      <c r="E38" s="8">
-        <v>1318164</v>
-      </c>
-      <c r="F38" s="9">
-        <v>22342697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8">
-        <v>927655</v>
-      </c>
-      <c r="C39" s="8">
-        <v>2420482</v>
-      </c>
-      <c r="D39" s="8">
-        <v>106103</v>
-      </c>
-      <c r="E39" s="8">
-        <v>2526585</v>
-      </c>
-      <c r="F39" s="9">
-        <v>36241937</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8">
-        <v>8858</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8">
-        <v>223008</v>
-      </c>
-      <c r="C41" s="8">
-        <v>521272</v>
-      </c>
-      <c r="D41" s="8">
-        <v>46524</v>
-      </c>
-      <c r="E41" s="8">
-        <v>567796</v>
-      </c>
-      <c r="F41" s="9">
-        <v>7588376</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8">
-        <v>256191</v>
-      </c>
-      <c r="C42" s="8">
-        <v>293922</v>
-      </c>
-      <c r="D42" s="8">
-        <v>147342</v>
-      </c>
-      <c r="E42" s="8">
-        <v>441264</v>
-      </c>
-      <c r="F42" s="9">
-        <v>22881108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8">
-        <v>700621</v>
-      </c>
-      <c r="C43" s="8">
-        <v>716015</v>
-      </c>
-      <c r="D43" s="8">
-        <v>40221</v>
-      </c>
-      <c r="E43" s="8">
-        <v>756236</v>
-      </c>
-      <c r="F43" s="9">
-        <v>17697586</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="8">
-        <v>1024520</v>
-      </c>
-      <c r="C44" s="8">
-        <v>1401741</v>
-      </c>
-      <c r="D44" s="8">
-        <v>72228</v>
-      </c>
-      <c r="E44" s="8">
-        <v>1473969</v>
-      </c>
-      <c r="F44" s="9">
-        <v>39372737</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8">
-        <v>207232</v>
-      </c>
-      <c r="C45" s="8">
-        <v>332941</v>
-      </c>
-      <c r="D45" s="8">
-        <v>41269</v>
-      </c>
-      <c r="E45" s="8">
-        <v>374210</v>
-      </c>
-      <c r="F45" s="9">
-        <v>13657156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8">
-        <v>307642</v>
-      </c>
-      <c r="C46" s="8">
-        <v>761976</v>
-      </c>
-      <c r="D46" s="8">
-        <v>48683</v>
-      </c>
-      <c r="E46" s="8">
-        <v>810659</v>
-      </c>
-      <c r="F46" s="9">
-        <v>14801100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8">
-        <v>83681</v>
-      </c>
-      <c r="C47" s="8">
-        <v>168252</v>
-      </c>
-      <c r="D47" s="8">
-        <v>19816</v>
-      </c>
-      <c r="E47" s="8">
-        <v>188068</v>
-      </c>
-      <c r="F47" s="9">
-        <v>4375476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8">
-        <v>196276</v>
-      </c>
-      <c r="C48" s="8">
-        <v>765797</v>
-      </c>
-      <c r="D48" s="8">
-        <v>9231</v>
-      </c>
-      <c r="E48" s="8">
-        <v>775028</v>
-      </c>
-      <c r="F48" s="9">
-        <v>13972402</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8">
-        <v>716504</v>
-      </c>
-      <c r="C49" s="8">
-        <v>2821750</v>
-      </c>
-      <c r="D49" s="8">
-        <v>150322</v>
-      </c>
-      <c r="E49" s="8">
-        <v>2972072</v>
-      </c>
-      <c r="F49" s="9">
-        <v>39367383</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8">
-        <v>234192</v>
-      </c>
-      <c r="C50" s="8">
-        <v>607435</v>
-      </c>
-      <c r="D50" s="8">
-        <v>160564</v>
-      </c>
-      <c r="E50" s="8">
-        <v>767999</v>
-      </c>
-      <c r="F50" s="9">
-        <v>10272645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8">
-        <v>135336</v>
-      </c>
-      <c r="C51" s="8">
-        <v>166777</v>
-      </c>
-      <c r="D51" s="8">
-        <v>94196</v>
-      </c>
-      <c r="E51" s="8">
-        <v>260973</v>
-      </c>
-      <c r="F51" s="9">
-        <v>28395536</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A8A2F6-91F9-0B43-ADE1-C22A965346FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39A857-1837-924B-BAB8-A681409083B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39A857-1837-924B-BAB8-A681409083B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99701C60-4F47-5D47-82C6-9B551E33FF57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1361,9 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A21B4A-A263-DF46-B91A-B4FADE2BF08E}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99701C60-4F47-5D47-82C6-9B551E33FF57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AE1C0A-9CAF-8845-8523-58996860DE7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="149">
   <si>
     <r>
       <rPr>
@@ -918,6 +918,9 @@
   <si>
     <t>New England</t>
   </si>
+  <si>
+    <t>Resident vs Non-Resident Cost Data collected 2016-2018, not prior:</t>
+  </si>
 </sst>
 </file>
 
@@ -1361,7 +1364,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A21B4A-A263-DF46-B91A-B4FADE2BF08E}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -13145,7 +13150,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3517F865-8CBE-3741-B22A-88376F7D2A2B}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13173,13 +13180,18 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -14362,3322 +14374,3475 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D88F12-E87E-FB45-A427-7B7D81090A77}">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="5">
         <v>2018</v>
       </c>
-      <c r="C1" s="5">
-        <f>B1-1</f>
+      <c r="D1" s="5">
+        <f>C1-1</f>
         <v>2017</v>
       </c>
-      <c r="D1" s="5">
-        <f t="shared" ref="D1:P1" si="0">C1-1</f>
+      <c r="E1" s="5">
+        <f t="shared" ref="E1:Q1" si="0">D1-1</f>
         <v>2016</v>
       </c>
-      <c r="E1" s="5">
+      <c r="F1" s="5">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="F1" s="5">
+      <c r="G1" s="5">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="G1" s="5">
+      <c r="H1" s="5">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="H1" s="5">
+      <c r="I1" s="5">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="I1" s="5">
+      <c r="J1" s="5">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="J1" s="5">
+      <c r="K1" s="5">
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="K1" s="5">
+      <c r="L1" s="5">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="L1" s="5">
+      <c r="M1" s="5">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="M1" s="5">
+      <c r="N1" s="5">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
-      <c r="N1" s="5">
+      <c r="O1" s="5">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
-      <c r="O1" s="5">
+      <c r="P1" s="5">
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="P1" s="5">
+      <c r="Q1" s="5">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="6">
         <f>'2018'!E2</f>
         <v>352780</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="6">
         <f>'2017'!E2</f>
         <v>402002</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <f>'2016'!E2</f>
         <v>362739</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <f>'2015'!E2</f>
         <v>310644</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <f>'2014'!E2</f>
         <v>287352</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>'2013'!E2</f>
         <v>278400</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <f>'2012'!E2</f>
         <v>353266</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <f>'2011'!E2</f>
         <v>250073</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <f>'2010'!E2</f>
         <v>239557</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <f>'2009'!E2</f>
         <v>227588</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <f>'2008'!E2</f>
         <v>227588</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <f>'2007'!E2</f>
         <v>227701</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <f>'2006'!E2</f>
         <v>223048</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <f>'2005'!E2</f>
         <v>223215</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <f>'2004'!E2</f>
         <v>222544</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="6">
         <f>'2018'!E3</f>
         <v>579944</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="6">
         <f>'2017'!E3</f>
         <v>587686</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <f>'2016'!E3</f>
         <v>604043</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <f>'2015'!E3</f>
         <v>599876</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <f>'2014'!E3</f>
         <v>597095</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <f>'2013'!E3</f>
         <v>609156</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <f>'2012'!E3</f>
         <v>607121</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="6">
         <f>'2011'!E3</f>
         <v>625962</v>
       </c>
-      <c r="J3" s="6">
+      <c r="K3" s="6">
         <f>'2010'!E3</f>
         <v>287455</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="6">
         <f>'2009'!E3</f>
         <v>291183</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <f>'2008'!E3</f>
         <v>283899</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <f>'2007'!E3</f>
         <v>289660</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <f>'2006'!E3</f>
         <v>302220</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <f>'2005'!E3</f>
         <v>299224</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <f>'2004'!E3</f>
         <v>303217</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="6">
         <f>'2018'!E4</f>
         <v>517046</v>
       </c>
-      <c r="C4" s="6">
+      <c r="D4" s="6">
         <f>'2017'!E4</f>
         <v>533585</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <f>'2016'!E4</f>
         <v>521098</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <f>'2015'!E4</f>
         <v>498919</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <f>'2014'!E4</f>
         <v>492479</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <f>'2013'!E4</f>
         <v>475057</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <f>'2012'!E4</f>
         <v>468656</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <f>'2011'!E4</f>
         <v>481943</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <f>'2010'!E4</f>
         <v>434479</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="6">
         <f>'2009'!E4</f>
         <v>424003</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <f>'2008'!E4</f>
         <v>388698</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <f>'2007'!E4</f>
         <v>421548</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <f>'2006'!E4</f>
         <v>422822</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <f>'2005'!E4</f>
         <v>438108</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <f>'2004'!E4</f>
         <v>464563</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="6">
         <f>'2018'!E5</f>
         <v>517747</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <f>'2017'!E5</f>
         <v>540038</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <f>'2016'!E5</f>
         <v>446402</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <f>'2015'!E5</f>
         <v>422136</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <f>'2014'!E5</f>
         <v>409672</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <f>'2013'!E5</f>
         <v>414623</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <f>'2012'!E5</f>
         <v>409680</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <f>'2011'!E5</f>
         <v>411617</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
         <f>'2010'!E5</f>
         <v>419161</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="6">
         <f>'2009'!E5</f>
         <v>428669</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <f>'2008'!E5</f>
         <v>428669</v>
       </c>
-      <c r="M5" s="6">
+      <c r="N5" s="6">
         <f>'2007'!E5</f>
         <v>415432</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <f>'2006'!E5</f>
         <v>391973</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <f>'2005'!E5</f>
         <v>396299</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <f>'2004'!E5</f>
         <v>406210</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="6">
         <f>'2018'!E6</f>
         <v>1030160</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <f>'2017'!E6</f>
         <v>1054000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <f>'2016'!E6</f>
         <v>1035351</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <f>'2015'!E6</f>
         <v>847348</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <f>'2014'!E6</f>
         <v>847348</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f>'2013'!E6</f>
         <v>834739</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="6">
         <f>'2012'!E6</f>
         <v>875297</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <f>'2011'!E6</f>
         <v>828735</v>
       </c>
-      <c r="J6" s="6">
+      <c r="K6" s="6">
         <f>'2010'!E6</f>
         <v>836694</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="6">
         <f>'2009'!E6</f>
         <v>841239</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <f>'2008'!E6</f>
         <v>830700</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <f>'2007'!E6</f>
         <v>831531</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <f>'2006'!E6</f>
         <v>833977</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <f>'2005'!E6</f>
         <v>858691</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <f>'2004'!E6</f>
         <v>868209</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="6">
         <f>'2018'!E7</f>
         <v>568764</v>
       </c>
-      <c r="C7" s="6">
+      <c r="D7" s="6">
         <f>'2017'!E7</f>
         <v>563870</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <f>'2016'!E7</f>
         <v>545216</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>'2015'!E7</f>
         <v>530736</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <f>'2014'!E7</f>
         <v>528174</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <f>'2013'!E7</f>
         <v>537371</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <f>'2012'!E7</f>
         <v>535893</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <f>'2011'!E7</f>
         <v>538734</v>
       </c>
-      <c r="J7" s="6">
+      <c r="K7" s="6">
         <f>'2010'!E7</f>
         <v>538734</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="6">
         <f>'2009'!E7</f>
         <v>566298</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <f>'2008'!E7</f>
         <v>566298</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <f>'2007'!E7</f>
         <v>581235</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <f>'2006'!E7</f>
         <v>581733</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <f>'2005'!E7</f>
         <v>553899</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <f>'2004'!E7</f>
         <v>548011</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="6">
         <f>'2018'!E8</f>
         <v>128232</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <f>'2017'!E8</f>
         <v>125402</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <f>'2016'!E8</f>
         <v>131331</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <f>'2015'!E8</f>
         <v>128666</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <f>'2014'!E8</f>
         <v>118798</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <f>'2013'!E8</f>
         <v>127612</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <f>'2012'!E8</f>
         <v>135711</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <f>'2011'!E8</f>
         <v>130361</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <f>'2010'!E8</f>
         <v>124647</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <f>'2009'!E8</f>
         <v>127746</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <f>'2008'!E8</f>
         <v>127746</v>
       </c>
-      <c r="M8" s="6">
+      <c r="N8" s="6">
         <f>'2007'!E8</f>
         <v>129443</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <f>'2006'!E8</f>
         <v>133311</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <f>'2005'!E8</f>
         <v>134294</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <f>'2004'!E8</f>
         <v>143358</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="6">
         <f>'2018'!E9</f>
         <v>59440</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6">
         <f>'2017'!E9</f>
         <v>60203</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <f>'2016'!E9</f>
         <v>58299</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <f>'2015'!E9</f>
         <v>57060</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <f>'2014'!E9</f>
         <v>29513</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <f>'2013'!E9</f>
         <v>42341</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <f>'2012'!E9</f>
         <v>44087</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <f>'2011'!E9</f>
         <v>45503</v>
       </c>
-      <c r="J9" s="6">
+      <c r="K9" s="6">
         <f>'2010'!E9</f>
         <v>47562</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <f>'2009'!E9</f>
         <v>44875</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <f>'2008'!E9</f>
         <v>44956</v>
       </c>
-      <c r="M9" s="6">
+      <c r="N9" s="6">
         <f>'2007'!E9</f>
         <v>30016</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <f>'2006'!E9</f>
         <v>28968</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <f>'2005'!E9</f>
         <v>31847</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <f>'2004'!E9</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="6">
         <f>'2018'!E10</f>
         <v>331709</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="6">
         <f>'2017'!E10</f>
         <v>384611</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <f>'2016'!E10</f>
         <v>353926</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <f>'2015'!E10</f>
         <v>380398</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <f>'2014'!E10</f>
         <v>356262</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <f>'2013'!E10</f>
         <v>369998</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <f>'2012'!E10</f>
         <v>326835</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <f>'2011'!E10</f>
         <v>327973</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <f>'2010'!E10</f>
         <v>322445</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="6">
         <f>'2009'!E10</f>
         <v>159070</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <f>'2008'!E10</f>
         <v>280643</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <f>'2007'!E10</f>
         <v>294724</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <f>'2006'!E10</f>
         <v>324353</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <f>'2005'!E10</f>
         <v>321179</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <f>'2004'!E10</f>
         <v>338769</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="6">
         <f>'2018'!E11</f>
         <v>1463441</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <f>'2017'!E11</f>
         <v>1458621</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f>'2016'!E11</f>
         <v>1456426</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <f>'2015'!E11</f>
         <v>1058503</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <f>'2014'!E11</f>
         <v>1028840</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <f>'2013'!E11</f>
         <v>964738</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <f>'2012'!E11</f>
         <v>1069502</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="6">
         <f>'2011'!E11</f>
         <v>1185594</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="6">
         <f>'2010'!E11</f>
         <v>1254371</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <f>'2009'!E11</f>
         <v>11235990</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <f>'2008'!E11</f>
         <v>1235114</v>
       </c>
-      <c r="M11" s="6">
+      <c r="N11" s="6">
         <f>'2007'!E11</f>
         <v>989964</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <f>'2006'!E11</f>
         <v>989964</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <f>'2005'!E11</f>
         <v>954126</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <f>'2004'!E11</f>
         <v>957739</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="6">
         <f>'2018'!E12</f>
         <v>11802</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="6">
         <f>'2017'!E12</f>
         <v>12521</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <f>'2016'!E12</f>
         <v>12202</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <f>'2015'!E12</f>
         <v>11486</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <f>'2014'!E12</f>
         <v>7970</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <f>'2013'!E12</f>
         <v>10653</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <f>'2012'!E12</f>
         <v>10421</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <f>'2011'!E12</f>
         <v>9653</v>
       </c>
-      <c r="J12" s="6">
+      <c r="K12" s="6">
         <f>'2010'!E12</f>
         <v>7803</v>
       </c>
-      <c r="K12" s="6">
+      <c r="L12" s="6">
         <f>'2009'!E12</f>
         <v>7812</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <f>'2008'!E12</f>
         <v>9372</v>
       </c>
-      <c r="M12" s="6">
+      <c r="N12" s="6">
         <f>'2007'!E12</f>
         <v>8292</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <f>'2006'!E12</f>
         <v>8309</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12" s="6">
         <f>'2005'!E12</f>
         <v>8900</v>
       </c>
-      <c r="P12" s="6">
+      <c r="Q12" s="6">
         <f>'2004'!E12</f>
         <v>9540</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="6">
         <f>'2018'!E13</f>
         <v>583884</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="6">
         <f>'2017'!E13</f>
         <v>606302</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <f>'2016'!E13</f>
         <v>601508</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="6">
         <f>'2015'!E13</f>
         <v>841793</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <f>'2014'!E13</f>
         <v>860078</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <f>'2013'!E13</f>
         <v>876313</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <f>'2012'!E13</f>
         <v>943322</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <f>'2011'!E13</f>
         <v>965859</v>
       </c>
-      <c r="J13" s="6">
+      <c r="K13" s="6">
         <f>'2010'!E13</f>
         <v>971151</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <f>'2009'!E13</f>
         <v>990844</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <f>'2008'!E13</f>
         <v>1009364</v>
       </c>
-      <c r="M13" s="6">
+      <c r="N13" s="6">
         <f>'2007'!E13</f>
         <v>980685</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <f>'2006'!E13</f>
         <v>962830</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P13" s="6">
         <f>'2005'!E13</f>
         <v>871914</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="6">
         <f>'2004'!E13</f>
         <v>847182</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="6">
         <f>'2018'!E14</f>
         <v>1206997</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="6">
         <f>'2017'!E14</f>
         <v>1151159</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <f>'2016'!E14</f>
         <v>1081968</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <f>'2015'!E14</f>
         <v>1029816</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <f>'2014'!E14</f>
         <v>1015884</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <f>'2013'!E14</f>
         <v>958761</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <f>'2012'!E14</f>
         <v>978693</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="6">
         <f>'2011'!E14</f>
         <v>946859</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="6">
         <f>'2010'!E14</f>
         <v>959296</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <f>'2009'!E14</f>
         <v>913007</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <f>'2008'!E14</f>
         <v>913007</v>
       </c>
-      <c r="M14" s="6">
+      <c r="N14" s="6">
         <f>'2007'!E14</f>
         <v>902194</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <f>'2006'!E14</f>
         <v>846824</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14" s="6">
         <f>'2005'!E14</f>
         <v>824093</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <f>'2004'!E14</f>
         <v>812609</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="6">
         <f>'2018'!E15</f>
         <v>1286532</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="6">
         <f>'2017'!E15</f>
         <v>1372038</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <f>'2016'!E15</f>
         <v>1563709</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <f>'2015'!E15</f>
         <v>1440993</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <f>'2014'!E15</f>
         <v>1436679</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <f>'2013'!E15</f>
         <v>1448776</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <f>'2012'!E15</f>
         <v>1489893</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="6">
         <f>'2011'!E15</f>
         <v>1520262</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="6">
         <f>'2010'!E15</f>
         <v>1467858</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <f>'2009'!E15</f>
         <v>1431133</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <f>'2008'!E15</f>
         <v>1431133</v>
       </c>
-      <c r="M15" s="6">
+      <c r="N15" s="6">
         <f>'2007'!E15</f>
         <v>1279714</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <f>'2006'!E15</f>
         <v>1221932</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15" s="6">
         <f>'2005'!E15</f>
         <v>1102059</v>
       </c>
-      <c r="P15" s="6">
+      <c r="Q15" s="6">
         <f>'2004'!E15</f>
         <v>1159442</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="6">
         <f>'2018'!E16</f>
         <v>404739</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="6">
         <f>'2017'!E16</f>
         <v>417124</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="6">
         <f>'2016'!E16</f>
         <v>426349</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="6">
         <f>'2015'!E16</f>
         <v>423318</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <f>'2014'!E16</f>
         <v>497715</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <f>'2013'!E16</f>
         <v>491802</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <f>'2012'!E16</f>
         <v>489040</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="6">
         <f>'2011'!E16</f>
         <v>472874</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="6">
         <f>'2010'!E16</f>
         <v>451979</v>
       </c>
-      <c r="K16" s="6">
+      <c r="L16" s="6">
         <f>'2009'!E16</f>
         <v>460800</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <f>'2008'!E16</f>
         <v>460800</v>
       </c>
-      <c r="M16" s="6">
+      <c r="N16" s="6">
         <f>'2007'!E16</f>
         <v>445588</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <f>'2006'!E16</f>
         <v>552135</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16" s="6">
         <f>'2005'!E16</f>
         <v>436206</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q16" s="6">
         <f>'2004'!E16</f>
         <v>661769</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="6">
         <f>'2018'!E17</f>
         <v>519875</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="6">
         <f>'2017'!E17</f>
         <v>517519</v>
       </c>
-      <c r="D17" s="6">
+      <c r="E17" s="6">
         <f>'2016'!E17</f>
         <v>520232</v>
       </c>
-      <c r="E17" s="6">
+      <c r="F17" s="6">
         <f>'2015'!E17</f>
         <v>493665</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <f>'2014'!E17</f>
         <v>471678</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <f>'2013'!E17</f>
         <v>489223</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <f>'2012'!E17</f>
         <v>514090</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="6">
         <f>'2011'!E17</f>
         <v>489728</v>
       </c>
-      <c r="J17" s="6">
+      <c r="K17" s="6">
         <f>'2010'!E17</f>
         <v>489728</v>
       </c>
-      <c r="K17" s="6">
+      <c r="L17" s="6">
         <f>'2009'!E17</f>
         <v>485091</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <f>'2008'!E17</f>
         <v>481477</v>
       </c>
-      <c r="M17" s="6">
+      <c r="N17" s="6">
         <f>'2007'!E17</f>
         <v>470973</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <f>'2006'!E17</f>
         <v>470884</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P17" s="6">
         <f>'2005'!E17</f>
         <v>468946</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q17" s="6">
         <f>'2004'!E17</f>
         <v>471423</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="6">
         <f>'2018'!E18</f>
         <v>614742</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="6">
         <f>'2017'!E18</f>
         <v>614120</v>
       </c>
-      <c r="D18" s="6">
+      <c r="E18" s="6">
         <f>'2016'!E18</f>
         <v>617129</v>
       </c>
-      <c r="E18" s="6">
+      <c r="F18" s="6">
         <f>'2015'!E18</f>
         <v>594389</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <f>'2014'!E18</f>
         <v>578862</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <f>'2013'!E18</f>
         <v>566072</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <f>'2012'!E18</f>
         <v>579026</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <f>'2011'!E18</f>
         <v>537982</v>
       </c>
-      <c r="J18" s="6">
+      <c r="K18" s="6">
         <f>'2010'!E18</f>
         <v>562986</v>
       </c>
-      <c r="K18" s="6">
+      <c r="L18" s="6">
         <f>'2009'!E18</f>
         <v>615832</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="6">
         <f>'2008'!E18</f>
         <v>615832</v>
       </c>
-      <c r="M18" s="6">
+      <c r="N18" s="6">
         <f>'2007'!E18</f>
         <v>599548</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="6">
         <f>'2006'!E18</f>
         <v>654743</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18" s="6">
         <f>'2005'!E18</f>
         <v>666695</v>
       </c>
-      <c r="P18" s="6">
+      <c r="Q18" s="6">
         <f>'2004'!E18</f>
         <v>684768</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="6">
         <f>'2018'!E19</f>
         <v>658659</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <f>'2017'!E19</f>
         <v>676500</v>
       </c>
-      <c r="D19" s="6">
+      <c r="E19" s="6">
         <f>'2016'!E19</f>
         <v>677582</v>
       </c>
-      <c r="E19" s="6">
+      <c r="F19" s="6">
         <f>'2015'!E19</f>
         <v>659165</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <f>'2014'!E19</f>
         <v>645912</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="6">
         <f>'2013'!E19</f>
         <v>621388</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <f>'2012'!E19</f>
         <v>599516</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <f>'2011'!E19</f>
         <v>270713</v>
       </c>
-      <c r="J19" s="6">
+      <c r="K19" s="6">
         <f>'2010'!E19</f>
         <v>264939</v>
       </c>
-      <c r="K19" s="6">
+      <c r="L19" s="6">
         <f>'2009'!E19</f>
         <v>257134</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="6">
         <f>'2008'!E19</f>
         <v>237618</v>
       </c>
-      <c r="M19" s="6">
+      <c r="N19" s="6">
         <f>'2007'!E19</f>
         <v>761795</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="6">
         <f>'2006'!E19</f>
         <v>602229</v>
       </c>
-      <c r="O19" s="6">
+      <c r="P19" s="6">
         <f>'2005'!E19</f>
         <v>596557</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <f>'2004'!E19</f>
         <v>623871</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="6">
         <f>'2018'!E20</f>
         <v>261556</v>
       </c>
-      <c r="C20" s="6">
+      <c r="D20" s="6">
         <f>'2017'!E20</f>
         <v>252212</v>
       </c>
-      <c r="D20" s="6">
+      <c r="E20" s="6">
         <f>'2016'!E20</f>
         <v>253725</v>
       </c>
-      <c r="E20" s="6">
+      <c r="F20" s="6">
         <f>'2015'!E20</f>
         <v>246509</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <f>'2014'!E20</f>
         <v>250778</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <f>'2013'!E20</f>
         <v>227487</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <f>'2012'!E20</f>
         <v>390013</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <f>'2011'!E20</f>
         <v>234851</v>
       </c>
-      <c r="J20" s="6">
+      <c r="K20" s="6">
         <f>'2010'!E20</f>
         <v>224446</v>
       </c>
-      <c r="K20" s="6">
+      <c r="L20" s="6">
         <f>'2009'!E20</f>
         <v>220645</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <f>'2008'!E20</f>
         <v>220015</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <f>'2007'!E20</f>
         <v>222513</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="6">
         <f>'2006'!E20</f>
         <v>235117</v>
       </c>
-      <c r="O20" s="6">
+      <c r="P20" s="6">
         <f>'2005'!E20</f>
         <v>210350</v>
       </c>
-      <c r="P20" s="6">
+      <c r="Q20" s="6">
         <f>'2004'!E20</f>
         <v>224099</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="6">
         <f>'2018'!E21</f>
         <v>345211</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <f>'2017'!E21</f>
         <v>343495</v>
       </c>
-      <c r="D21" s="6">
+      <c r="E21" s="6">
         <f>'2016'!E21</f>
         <v>129376</v>
       </c>
-      <c r="E21" s="6">
+      <c r="F21" s="6">
         <f>'2015'!E21</f>
         <v>339319</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <f>'2014'!E21</f>
         <v>351004</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <f>'2013'!E21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <f>'2012'!E21</f>
         <v>323275</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <f>'2011'!E21</f>
         <v>326021</v>
       </c>
-      <c r="J21" s="6">
+      <c r="K21" s="6">
         <f>'2010'!E21</f>
         <v>321774</v>
       </c>
-      <c r="K21" s="6">
+      <c r="L21" s="6">
         <f>'2009'!E21</f>
         <v>338748</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="6">
         <f>'2008'!E21</f>
         <v>303779</v>
       </c>
-      <c r="M21" s="6">
+      <c r="N21" s="6">
         <f>'2007'!E21</f>
         <v>310730</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="6">
         <f>'2006'!E21</f>
         <v>168356</v>
       </c>
-      <c r="O21" s="6">
+      <c r="P21" s="6">
         <f>'2005'!E21</f>
         <v>293921</v>
       </c>
-      <c r="P21" s="6">
+      <c r="Q21" s="6">
         <f>'2004'!E21</f>
         <v>329707</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="6">
         <f>'2018'!E22</f>
         <v>249090</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="6">
         <f>'2017'!E22</f>
         <v>252763</v>
       </c>
-      <c r="D22" s="6">
+      <c r="E22" s="6">
         <f>'2016'!E22</f>
         <v>259854</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <f>'2015'!E22</f>
         <v>253477</v>
       </c>
-      <c r="F22" s="6">
+      <c r="G22" s="6">
         <f>'2014'!E22</f>
         <v>247098</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <f>'2013'!E22</f>
         <v>251988</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <f>'2012'!E22</f>
         <v>261404</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <f>'2011'!E22</f>
         <v>264067</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="6">
         <f>'2010'!E22</f>
         <v>276493</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="6">
         <f>'2009'!E22</f>
         <v>278775</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="6">
         <f>'2008'!E22</f>
         <v>278775</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="6">
         <f>'2007'!E22</f>
         <v>253863</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="6">
         <f>'2006'!E22</f>
         <v>260362</v>
       </c>
-      <c r="O22" s="6">
+      <c r="P22" s="6">
         <f>'2005'!E22</f>
         <v>265605</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="6">
         <f>'2004'!E22</f>
         <v>259968</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="6">
         <f>'2018'!E23</f>
         <v>2224170</v>
       </c>
-      <c r="C23" s="6">
+      <c r="D23" s="6">
         <f>'2017'!E23</f>
         <v>2268341</v>
       </c>
-      <c r="D23" s="6">
+      <c r="E23" s="6">
         <f>'2016'!E23</f>
         <v>1884724</v>
       </c>
-      <c r="E23" s="6">
+      <c r="F23" s="6">
         <f>'2015'!E23</f>
         <v>1896927</v>
       </c>
-      <c r="F23" s="6">
+      <c r="G23" s="6">
         <f>'2014'!E23</f>
         <v>1906410</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <f>'2013'!E23</f>
         <v>1946100</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <f>'2012'!E23</f>
         <v>2005244</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <f>'2011'!E23</f>
         <v>2009229</v>
       </c>
-      <c r="J23" s="6">
+      <c r="K23" s="6">
         <f>'2010'!E23</f>
         <v>1975715</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <f>'2009'!E23</f>
         <v>1986632</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <f>'2008'!E23</f>
         <v>2030036</v>
       </c>
-      <c r="M23" s="6">
+      <c r="N23" s="6">
         <f>'2007'!E23</f>
         <v>2018817</v>
       </c>
-      <c r="N23" s="6">
+      <c r="O23" s="6">
         <f>'2006'!E23</f>
         <v>2174714</v>
       </c>
-      <c r="O23" s="6">
+      <c r="P23" s="6">
         <f>'2005'!E23</f>
         <v>2266231</v>
       </c>
-      <c r="P23" s="6">
+      <c r="Q23" s="6">
         <f>'2004'!E23</f>
         <v>2272955</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="6">
         <f>'2018'!E24</f>
         <v>1421004</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <f>'2017'!E24</f>
         <v>1413430</v>
       </c>
-      <c r="D24" s="6">
+      <c r="E24" s="6">
         <f>'2016'!E24</f>
         <v>1486362</v>
       </c>
-      <c r="E24" s="6">
+      <c r="F24" s="6">
         <f>'2015'!E24</f>
         <v>1571600</v>
       </c>
-      <c r="F24" s="6">
+      <c r="G24" s="6">
         <f>'2014'!E24</f>
         <v>1525137</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <f>'2013'!E24</f>
         <v>1553789</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <f>'2012'!E24</f>
         <v>1424718</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <f>'2011'!E24</f>
         <v>1471568</v>
       </c>
-      <c r="J24" s="6">
+      <c r="K24" s="6">
         <f>'2010'!E24</f>
         <v>1419876</v>
       </c>
-      <c r="K24" s="6">
+      <c r="L24" s="6">
         <f>'2009'!E24</f>
         <v>1456775</v>
       </c>
-      <c r="L24" s="6">
+      <c r="M24" s="6">
         <f>'2008'!E24</f>
         <v>1456775</v>
       </c>
-      <c r="M24" s="6">
+      <c r="N24" s="6">
         <f>'2007'!E24</f>
         <v>1377389</v>
       </c>
-      <c r="N24" s="6">
+      <c r="O24" s="6">
         <f>'2006'!E24</f>
         <v>1397641</v>
       </c>
-      <c r="O24" s="6">
+      <c r="P24" s="6">
         <f>'2005'!E24</f>
         <v>1413759</v>
       </c>
-      <c r="P24" s="6">
+      <c r="Q24" s="6">
         <f>'2004'!E24</f>
         <v>1594619</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="6">
         <f>'2018'!E25</f>
         <v>1782319</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="6">
         <f>'2017'!E25</f>
         <v>1782319</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E25" s="6">
         <f>'2016'!E25</f>
         <v>1827753</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F25" s="6">
         <f>'2015'!E25</f>
         <v>1831083</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G25" s="6">
         <f>'2014'!E25</f>
         <v>1787229</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <f>'2013'!E25</f>
         <v>1765901</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <f>'2012'!E25</f>
         <v>1776575</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <f>'2011'!E25</f>
         <v>1762735</v>
       </c>
-      <c r="J25" s="6">
+      <c r="K25" s="6">
         <f>'2010'!E25</f>
         <v>1728471</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="6">
         <f>'2009'!E25</f>
         <v>1735761</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <f>'2008'!E25</f>
         <v>1736304</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <f>'2007'!E25</f>
         <v>1731058</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="6">
         <f>'2006'!E25</f>
         <v>1742387</v>
       </c>
-      <c r="O25" s="6">
+      <c r="P25" s="6">
         <f>'2005'!E25</f>
         <v>1230036</v>
       </c>
-      <c r="P25" s="6">
+      <c r="Q25" s="6">
         <f>'2004'!E25</f>
         <v>1167886</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="6">
         <f>'2018'!E26</f>
         <v>426726</v>
       </c>
-      <c r="C26" s="6">
+      <c r="D26" s="6">
         <f>'2017'!E26</f>
         <v>428478</v>
       </c>
-      <c r="D26" s="6">
+      <c r="E26" s="6">
         <f>'2016'!E26</f>
         <v>433090</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F26" s="6">
         <f>'2015'!E26</f>
         <v>418042</v>
       </c>
-      <c r="F26" s="6">
+      <c r="G26" s="6">
         <f>'2014'!E26</f>
         <v>340714</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H26" s="6">
         <f>'2013'!E26</f>
         <v>245028</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <f>'2012'!E26</f>
         <v>249109</v>
       </c>
-      <c r="I26" s="6">
+      <c r="J26" s="6">
         <f>'2011'!E26</f>
         <v>259045</v>
       </c>
-      <c r="J26" s="6">
+      <c r="K26" s="6">
         <f>'2010'!E26</f>
         <v>362948</v>
       </c>
-      <c r="K26" s="6">
+      <c r="L26" s="6">
         <f>'2009'!E26</f>
         <v>333364</v>
       </c>
-      <c r="L26" s="6">
+      <c r="M26" s="6">
         <f>'2008'!E26</f>
         <v>314223</v>
       </c>
-      <c r="M26" s="6">
+      <c r="N26" s="6">
         <f>'2007'!E26</f>
         <v>274680</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26" s="6">
         <f>'2006'!E26</f>
         <v>279905</v>
       </c>
-      <c r="O26" s="6">
+      <c r="P26" s="6">
         <f>'2005'!E26</f>
         <v>278688</v>
       </c>
-      <c r="P26" s="6">
+      <c r="Q26" s="6">
         <f>'2004'!E26</f>
         <v>287272</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="6">
         <f>'2018'!E27</f>
         <v>1028981</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="6">
         <f>'2017'!E27</f>
         <v>968295</v>
       </c>
-      <c r="D27" s="6">
+      <c r="E27" s="6">
         <f>'2016'!E27</f>
         <v>990082</v>
       </c>
-      <c r="E27" s="6">
+      <c r="F27" s="6">
         <f>'2015'!E27</f>
         <v>965823</v>
       </c>
-      <c r="F27" s="6">
+      <c r="G27" s="6">
         <f>'2014'!E27</f>
         <v>964200</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <f>'2013'!E27</f>
         <v>1005130</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <f>'2012'!E27</f>
         <v>1073594</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <f>'2011'!E27</f>
         <v>1065258</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <f>'2010'!E27</f>
         <v>1039982</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <f>'2009'!E27</f>
         <v>1044772</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <f>'2008'!E27</f>
         <v>1044772</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <f>'2007'!E27</f>
         <v>1000846</v>
       </c>
-      <c r="N27" s="6">
+      <c r="O27" s="6">
         <f>'2006'!E27</f>
         <v>1007542</v>
       </c>
-      <c r="O27" s="6">
+      <c r="P27" s="6">
         <f>'2005'!E27</f>
         <v>979429</v>
       </c>
-      <c r="P27" s="6">
+      <c r="Q27" s="6">
         <f>'2004'!E27</f>
         <v>935854</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="6">
         <f>'2018'!E28</f>
         <v>344762</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="6">
         <f>'2017'!E28</f>
         <v>347124</v>
       </c>
-      <c r="D28" s="6">
+      <c r="E28" s="6">
         <f>'2016'!E28</f>
         <v>363336</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <f>'2015'!E28</f>
         <v>347452</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <f>'2014'!E28</f>
         <v>352226</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <f>'2013'!E28</f>
         <v>358606</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <f>'2012'!E28</f>
         <v>352366</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <f>'2011'!E28</f>
         <v>372369</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <f>'2010'!E28</f>
         <v>373055</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <f>'2009'!E28</f>
         <v>547584</v>
       </c>
-      <c r="L28" s="6">
+      <c r="M28" s="6">
         <f>'2008'!E28</f>
         <v>522774</v>
       </c>
-      <c r="M28" s="6">
+      <c r="N28" s="6">
         <f>'2007'!E28</f>
         <v>488982</v>
       </c>
-      <c r="N28" s="6">
+      <c r="O28" s="6">
         <f>'2006'!E28</f>
         <v>497567</v>
       </c>
-      <c r="O28" s="6">
+      <c r="P28" s="6">
         <f>'2005'!E28</f>
         <v>493945</v>
       </c>
-      <c r="P28" s="6">
+      <c r="Q28" s="6">
         <f>'2004'!E28</f>
         <v>495908</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="6">
         <f>'2018'!E29</f>
         <v>520355</v>
       </c>
-      <c r="C29" s="6">
+      <c r="D29" s="6">
         <f>'2017'!E29</f>
         <v>517440</v>
       </c>
-      <c r="D29" s="6">
+      <c r="E29" s="6">
         <f>'2016'!E29</f>
         <v>543500</v>
       </c>
-      <c r="E29" s="6">
+      <c r="F29" s="6">
         <f>'2015'!E29</f>
         <v>549909</v>
       </c>
-      <c r="F29" s="6">
+      <c r="G29" s="6">
         <f>'2014'!E29</f>
         <v>587388</v>
       </c>
-      <c r="G29" s="6">
+      <c r="H29" s="6">
         <f>'2013'!E29</f>
         <v>625338</v>
       </c>
-      <c r="H29" s="6">
+      <c r="I29" s="6">
         <f>'2012'!E29</f>
         <v>646709</v>
       </c>
-      <c r="I29" s="6">
+      <c r="J29" s="6">
         <f>'2011'!E29</f>
         <v>656465</v>
       </c>
-      <c r="J29" s="6">
+      <c r="K29" s="6">
         <f>'2010'!E29</f>
         <v>677523</v>
       </c>
-      <c r="K29" s="6">
+      <c r="L29" s="6">
         <f>'2009'!E29</f>
         <v>649949</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <f>'2008'!E29</f>
         <v>636963</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <f>'2007'!E29</f>
         <v>620286</v>
       </c>
-      <c r="N29" s="6">
+      <c r="O29" s="6">
         <f>'2006'!E29</f>
         <v>592632</v>
       </c>
-      <c r="O29" s="6">
+      <c r="P29" s="6">
         <f>'2005'!E29</f>
         <v>603672</v>
       </c>
-      <c r="P29" s="6">
+      <c r="Q29" s="6">
         <f>'2004'!E29</f>
         <v>575486</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="6">
         <f>'2018'!E30</f>
         <v>429255</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="6">
         <f>'2017'!E30</f>
         <v>417591</v>
       </c>
-      <c r="D30" s="6">
+      <c r="E30" s="6">
         <f>'2016'!E30</f>
         <v>417689</v>
       </c>
-      <c r="E30" s="6">
+      <c r="F30" s="6">
         <f>'2015'!E30</f>
         <v>419950</v>
       </c>
-      <c r="F30" s="6">
+      <c r="G30" s="6">
         <f>'2014'!E30</f>
         <v>447509</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <f>'2013'!E30</f>
         <v>420893</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <f>'2012'!E30</f>
         <v>451121</v>
       </c>
-      <c r="I30" s="6">
+      <c r="J30" s="6">
         <f>'2011'!E30</f>
         <v>448366</v>
       </c>
-      <c r="J30" s="6">
+      <c r="K30" s="6">
         <f>'2010'!E30</f>
         <v>459212</v>
       </c>
-      <c r="K30" s="6">
+      <c r="L30" s="6">
         <f>'2009'!E30</f>
         <v>449663</v>
       </c>
-      <c r="L30" s="6">
+      <c r="M30" s="6">
         <f>'2008'!E30</f>
         <v>449663</v>
       </c>
-      <c r="M30" s="6">
+      <c r="N30" s="6">
         <f>'2007'!E30</f>
         <v>406359</v>
       </c>
-      <c r="N30" s="6">
+      <c r="O30" s="6">
         <f>'2006'!E30</f>
         <v>405644</v>
       </c>
-      <c r="O30" s="6">
+      <c r="P30" s="6">
         <f>'2005'!E30</f>
         <v>397069</v>
       </c>
-      <c r="P30" s="6">
+      <c r="Q30" s="6">
         <f>'2004'!E30</f>
         <v>394105</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="6">
         <f>'2018'!E31</f>
         <v>218342</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="6">
         <f>'2017'!E31</f>
         <v>219698</v>
       </c>
-      <c r="D31" s="6">
+      <c r="E31" s="6">
         <f>'2016'!E31</f>
         <v>219741</v>
       </c>
-      <c r="E31" s="6">
+      <c r="F31" s="6">
         <f>'2015'!E31</f>
         <v>212046</v>
       </c>
-      <c r="F31" s="6">
+      <c r="G31" s="6">
         <f>'2014'!E31</f>
         <v>203793</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <f>'2013'!E31</f>
         <v>209194</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <f>'2012'!E31</f>
         <v>218346</v>
       </c>
-      <c r="I31" s="6">
+      <c r="J31" s="6">
         <f>'2011'!E31</f>
         <v>217306</v>
       </c>
-      <c r="J31" s="6">
+      <c r="K31" s="6">
         <f>'2010'!E31</f>
         <v>222364</v>
       </c>
-      <c r="K31" s="6">
+      <c r="L31" s="6">
         <f>'2009'!E31</f>
         <v>222164</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <f>'2008'!E31</f>
         <v>222164</v>
       </c>
-      <c r="M31" s="6">
+      <c r="N31" s="6">
         <f>'2007'!E31</f>
         <v>220561</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <f>'2006'!E31</f>
         <v>223430</v>
       </c>
-      <c r="O31" s="6">
+      <c r="P31" s="6">
         <f>'2005'!E31</f>
         <v>226252</v>
       </c>
-      <c r="P31" s="6">
+      <c r="Q31" s="6">
         <f>'2004'!E31</f>
         <v>233432</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="6">
         <f>'2018'!E32</f>
         <v>422237</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="6">
         <f>'2017'!E32</f>
         <v>414662</v>
       </c>
-      <c r="D32" s="6">
+      <c r="E32" s="6">
         <f>'2016'!E32</f>
         <v>366625</v>
       </c>
-      <c r="E32" s="6">
+      <c r="F32" s="6">
         <f>'2015'!E32</f>
         <v>353652</v>
       </c>
-      <c r="F32" s="6">
+      <c r="G32" s="6">
         <f>'2014'!E32</f>
         <v>345727</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <f>'2013'!E32</f>
         <v>368420</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <f>'2012'!E32</f>
         <v>444884</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <f>'2011'!E32</f>
         <v>443704</v>
       </c>
-      <c r="J32" s="6">
+      <c r="K32" s="6">
         <f>'2010'!E32</f>
         <v>455066</v>
       </c>
-      <c r="K32" s="6">
+      <c r="L32" s="6">
         <f>'2009'!E32</f>
         <v>431715</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <f>'2008'!E32</f>
         <v>431715</v>
       </c>
-      <c r="M32" s="6">
+      <c r="N32" s="6">
         <f>'2007'!E32</f>
         <v>415802</v>
       </c>
-      <c r="N32" s="6">
+      <c r="O32" s="6">
         <f>'2006'!E32</f>
         <v>418089</v>
       </c>
-      <c r="O32" s="6">
+      <c r="P32" s="6">
         <f>'2005'!E32</f>
         <v>403563</v>
       </c>
-      <c r="P32" s="6">
+      <c r="Q32" s="6">
         <f>'2004'!E32</f>
         <v>429205</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="6">
         <f>'2018'!E33</f>
         <v>441906</v>
       </c>
-      <c r="C33" s="6">
+      <c r="D33" s="6">
         <f>'2017'!E33</f>
         <v>323624</v>
       </c>
-      <c r="D33" s="6">
+      <c r="E33" s="6">
         <f>'2016'!E33</f>
         <v>353760</v>
       </c>
-      <c r="E33" s="6">
+      <c r="F33" s="6">
         <f>'2015'!E33</f>
         <v>302504</v>
       </c>
-      <c r="F33" s="6">
+      <c r="G33" s="6">
         <f>'2014'!E33</f>
         <v>250163</v>
       </c>
-      <c r="G33" s="6">
+      <c r="H33" s="6">
         <f>'2013'!E33</f>
         <v>2648830</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <f>'2012'!E33</f>
         <v>269843</v>
       </c>
-      <c r="I33" s="6">
+      <c r="J33" s="6">
         <f>'2011'!E33</f>
         <v>267157</v>
       </c>
-      <c r="J33" s="6">
+      <c r="K33" s="6">
         <f>'2010'!E33</f>
         <v>296653</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="6">
         <f>'2009'!E33</f>
         <v>231646</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <f>'2008'!E33</f>
         <v>212187</v>
       </c>
-      <c r="M33" s="6">
+      <c r="N33" s="6">
         <f>'2007'!E33</f>
         <v>324609</v>
       </c>
-      <c r="N33" s="6">
+      <c r="O33" s="6">
         <f>'2006'!E33</f>
         <v>338290</v>
       </c>
-      <c r="O33" s="6">
+      <c r="P33" s="6">
         <f>'2005'!E33</f>
         <v>338568</v>
       </c>
-      <c r="P33" s="6">
+      <c r="Q33" s="6">
         <f>'2004'!E33</f>
         <v>460545</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="6">
         <f>'2018'!E34</f>
         <v>150111</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="6">
         <f>'2017'!E34</f>
         <v>149112</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E34" s="6">
         <f>'2016'!E34</f>
         <v>146631</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <f>'2015'!E34</f>
         <v>143889</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <f>'2014'!E34</f>
         <v>129589</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <f>'2013'!E34</f>
         <v>128661</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I34" s="6">
         <f>'2012'!E34</f>
         <v>130471</v>
       </c>
-      <c r="I34" s="6">
+      <c r="J34" s="6">
         <f>'2011'!E34</f>
         <v>126198</v>
       </c>
-      <c r="J34" s="6">
+      <c r="K34" s="6">
         <f>'2010'!E34</f>
         <v>127914</v>
       </c>
-      <c r="K34" s="6">
+      <c r="L34" s="6">
         <f>'2009'!E34</f>
         <v>135139</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <f>'2008'!E34</f>
         <v>135139</v>
       </c>
-      <c r="M34" s="6">
+      <c r="N34" s="6">
         <f>'2007'!E34</f>
         <v>120602</v>
       </c>
-      <c r="N34" s="6">
+      <c r="O34" s="6">
         <f>'2006'!E34</f>
         <v>110443</v>
       </c>
-      <c r="O34" s="6">
+      <c r="P34" s="6">
         <f>'2005'!E34</f>
         <v>89994</v>
       </c>
-      <c r="P34" s="6">
+      <c r="Q34" s="6">
         <f>'2004'!E34</f>
         <v>95545</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="6">
         <f>'2018'!E35</f>
         <v>1166349</v>
       </c>
-      <c r="C35" s="6">
+      <c r="D35" s="6">
         <f>'2017'!E35</f>
         <v>1145131</v>
       </c>
-      <c r="D35" s="6">
+      <c r="E35" s="6">
         <f>'2016'!E35</f>
         <v>1071806</v>
       </c>
-      <c r="E35" s="6">
+      <c r="F35" s="6">
         <f>'2015'!E35</f>
         <v>1114904</v>
       </c>
-      <c r="F35" s="6">
+      <c r="G35" s="6">
         <f>'2014'!E35</f>
         <v>1077625</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H35" s="6">
         <f>'2013'!E35</f>
         <v>1065247</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="6">
         <f>'2012'!E35</f>
         <v>1091187</v>
       </c>
-      <c r="I35" s="6">
+      <c r="J35" s="6">
         <f>'2011'!E35</f>
         <v>732654</v>
       </c>
-      <c r="J35" s="6">
+      <c r="K35" s="6">
         <f>'2010'!E35</f>
         <v>899036</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="6">
         <f>'2009'!E35</f>
         <v>901313</v>
       </c>
-      <c r="L35" s="6">
+      <c r="M35" s="6">
         <f>'2008'!E35</f>
         <v>922855</v>
       </c>
-      <c r="M35" s="6">
+      <c r="N35" s="6">
         <f>'2007'!E35</f>
         <v>936592</v>
       </c>
-      <c r="N35" s="6">
+      <c r="O35" s="6">
         <f>'2006'!E35</f>
         <v>1375917</v>
       </c>
-      <c r="O35" s="6">
+      <c r="P35" s="6">
         <f>'2005'!E35</f>
         <v>1454229</v>
       </c>
-      <c r="P35" s="6">
+      <c r="Q35" s="6">
         <f>'2004'!E35</f>
         <v>754189</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="6">
         <f>'2018'!E36</f>
         <v>995164</v>
       </c>
-      <c r="C36" s="6">
+      <c r="D36" s="6">
         <f>'2017'!E36</f>
         <v>1037841</v>
       </c>
-      <c r="D36" s="6">
+      <c r="E36" s="6">
         <f>'2016'!E36</f>
         <v>1098675</v>
       </c>
-      <c r="E36" s="6">
+      <c r="F36" s="6">
         <f>'2015'!E36</f>
         <v>1151515</v>
       </c>
-      <c r="F36" s="6">
+      <c r="G36" s="6">
         <f>'2014'!E36</f>
         <v>1174147</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <f>'2013'!E36</f>
         <v>416101</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <f>'2012'!E36</f>
         <v>423715</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <f>'2011'!E36</f>
         <v>417491</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <f>'2010'!E36</f>
         <v>1084277</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <f>'2009'!E36</f>
         <v>1164034</v>
       </c>
-      <c r="L36" s="6">
+      <c r="M36" s="6">
         <f>'2008'!E36</f>
         <v>1121921</v>
       </c>
-      <c r="M36" s="6">
+      <c r="N36" s="6">
         <f>'2007'!E36</f>
         <v>1104617</v>
       </c>
-      <c r="N36" s="6">
+      <c r="O36" s="6">
         <f>'2006'!E36</f>
         <v>1179515</v>
       </c>
-      <c r="O36" s="6">
+      <c r="P36" s="6">
         <f>'2005'!E36</f>
         <v>1128842</v>
       </c>
-      <c r="P36" s="6">
+      <c r="Q36" s="6">
         <f>'2004'!E36</f>
         <v>1086640</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="6">
         <f>'2018'!E37</f>
         <v>400238</v>
       </c>
-      <c r="C37" s="6">
+      <c r="D37" s="6">
         <f>'2017'!E37</f>
         <v>321534</v>
       </c>
-      <c r="D37" s="6">
+      <c r="E37" s="6">
         <f>'2016'!E37</f>
         <v>312573</v>
       </c>
-      <c r="E37" s="6">
+      <c r="F37" s="6">
         <f>'2015'!E37</f>
         <v>311776</v>
       </c>
-      <c r="F37" s="6">
+      <c r="G37" s="6">
         <f>'2014'!E37</f>
         <v>290577</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <f>'2013'!E37</f>
         <v>289240</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <f>'2012'!E37</f>
         <v>301441</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <f>'2011'!E37</f>
         <v>305787</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <f>'2010'!E37</f>
         <v>292514</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <f>'2009'!E37</f>
         <v>281390</v>
       </c>
-      <c r="L37" s="6">
+      <c r="M37" s="6">
         <f>'2008'!E37</f>
         <v>277600</v>
       </c>
-      <c r="M37" s="6">
+      <c r="N37" s="6">
         <f>'2007'!E37</f>
         <v>288373</v>
       </c>
-      <c r="N37" s="6">
+      <c r="O37" s="6">
         <f>'2006'!E37</f>
         <v>307589</v>
       </c>
-      <c r="O37" s="6">
+      <c r="P37" s="6">
         <f>'2005'!E37</f>
         <v>328993</v>
       </c>
-      <c r="P37" s="6">
+      <c r="Q37" s="6">
         <f>'2004'!E37</f>
         <v>348924</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="6">
         <f>'2018'!E38</f>
         <v>1222670</v>
       </c>
-      <c r="C38" s="6">
+      <c r="D38" s="6">
         <f>'2017'!E38</f>
         <v>1238680</v>
       </c>
-      <c r="D38" s="6">
+      <c r="E38" s="6">
         <f>'2016'!E38</f>
         <v>1253956</v>
       </c>
-      <c r="E38" s="6">
+      <c r="F38" s="6">
         <f>'2015'!E38</f>
         <v>1291430</v>
       </c>
-      <c r="F38" s="6">
+      <c r="G38" s="6">
         <f>'2014'!E38</f>
         <v>1240155</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <f>'2013'!E38</f>
         <v>1255439</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <f>'2012'!E38</f>
         <v>1289930</v>
       </c>
-      <c r="I38" s="6">
+      <c r="J38" s="6">
         <f>'2011'!E38</f>
         <v>1318164</v>
       </c>
-      <c r="J38" s="6">
+      <c r="K38" s="6">
         <f>'2010'!E38</f>
         <v>279893</v>
       </c>
-      <c r="K38" s="6">
+      <c r="L38" s="6">
         <f>'2009'!E38</f>
         <v>1322269</v>
       </c>
-      <c r="L38" s="6">
+      <c r="M38" s="6">
         <f>'2008'!E38</f>
         <v>1322269</v>
       </c>
-      <c r="M38" s="6">
+      <c r="N38" s="6">
         <f>'2007'!E38</f>
         <v>1329338</v>
       </c>
-      <c r="N38" s="6">
+      <c r="O38" s="6">
         <f>'2006'!E38</f>
         <v>1331894</v>
       </c>
-      <c r="O38" s="6">
+      <c r="P38" s="6">
         <f>'2005'!E38</f>
         <v>1381167</v>
       </c>
-      <c r="P38" s="6">
+      <c r="Q38" s="6">
         <f>'2004'!E38</f>
         <v>1409238</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="6">
         <f>'2018'!E39</f>
         <v>2569930</v>
       </c>
-      <c r="C39" s="6">
+      <c r="D39" s="6">
         <f>'2017'!E39</f>
         <v>2378225</v>
       </c>
-      <c r="D39" s="6">
+      <c r="E39" s="6">
         <f>'2016'!E39</f>
         <v>2664373</v>
       </c>
-      <c r="E39" s="6">
+      <c r="F39" s="6">
         <f>'2015'!E39</f>
         <v>2642943</v>
       </c>
-      <c r="F39" s="6">
+      <c r="G39" s="6">
         <f>'2014'!E39</f>
         <v>2668942</v>
       </c>
-      <c r="G39" s="6">
+      <c r="H39" s="6">
         <f>'2013'!E39</f>
         <v>2427886</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="6">
         <f>'2012'!E39</f>
         <v>2668549</v>
       </c>
-      <c r="I39" s="6">
+      <c r="J39" s="6">
         <f>'2011'!E39</f>
         <v>2526585</v>
       </c>
-      <c r="J39" s="6">
+      <c r="K39" s="6">
         <f>'2010'!E39</f>
         <v>2536376</v>
       </c>
-      <c r="K39" s="6">
+      <c r="L39" s="6">
         <f>'2009'!E39</f>
         <v>2562760</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <f>'2008'!E39</f>
         <v>2622327</v>
       </c>
-      <c r="M39" s="6">
+      <c r="N39" s="6">
         <f>'2007'!E39</f>
         <v>2828198</v>
       </c>
-      <c r="N39" s="6">
+      <c r="O39" s="6">
         <f>'2006'!E39</f>
         <v>2718624</v>
       </c>
-      <c r="O39" s="6">
+      <c r="P39" s="6">
         <f>'2005'!E39</f>
         <v>2791423</v>
       </c>
-      <c r="P39" s="6">
+      <c r="Q39" s="6">
         <f>'2004'!E39</f>
         <v>2520673</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="6">
         <f>'2018'!E40</f>
         <v>30903</v>
       </c>
-      <c r="C40" s="6">
+      <c r="D40" s="6">
         <f>'2017'!E40</f>
         <v>33200</v>
       </c>
-      <c r="D40" s="6">
+      <c r="E40" s="6">
         <f>'2016'!E40</f>
         <v>8978</v>
       </c>
-      <c r="E40" s="6">
+      <c r="F40" s="6">
         <f>'2015'!E40</f>
         <v>33872</v>
       </c>
-      <c r="F40" s="6">
+      <c r="G40" s="6">
         <f>'2014'!E40</f>
         <v>9025</v>
       </c>
-      <c r="G40" s="6">
+      <c r="H40" s="6">
         <f>'2013'!E40</f>
         <v>8605</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <f>'2012'!E40</f>
         <v>8798</v>
       </c>
-      <c r="I40" s="6">
+      <c r="J40" s="6">
         <f>'2011'!E40</f>
         <v>0</v>
       </c>
-      <c r="J40" s="6">
+      <c r="K40" s="6">
         <f>'2010'!E40</f>
         <v>34628</v>
       </c>
-      <c r="K40" s="6">
+      <c r="L40" s="6">
         <f>'2009'!E40</f>
         <v>34628</v>
       </c>
-      <c r="L40" s="6">
+      <c r="M40" s="6">
         <f>'2008'!E40</f>
         <v>34628</v>
       </c>
-      <c r="M40" s="6">
+      <c r="N40" s="6">
         <f>'2007'!E40</f>
         <v>31639</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="6">
         <f>'2006'!E40</f>
         <v>33988</v>
       </c>
-      <c r="O40" s="6">
+      <c r="P40" s="6">
         <f>'2005'!E40</f>
         <v>33876</v>
       </c>
-      <c r="P40" s="6">
+      <c r="Q40" s="6">
         <f>'2004'!E40</f>
         <v>32823</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="6">
         <f>'2018'!E41</f>
         <v>814285</v>
       </c>
-      <c r="C41" s="6">
+      <c r="D41" s="6">
         <f>'2017'!E41</f>
         <v>802737</v>
       </c>
-      <c r="D41" s="6">
+      <c r="E41" s="6">
         <f>'2016'!E41</f>
         <v>434043</v>
       </c>
-      <c r="E41" s="6">
+      <c r="F41" s="6">
         <f>'2015'!E41</f>
         <v>423437</v>
       </c>
-      <c r="F41" s="6">
+      <c r="G41" s="6">
         <f>'2014'!E41</f>
         <v>428526</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="6">
         <f>'2013'!E41</f>
         <v>399386</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="6">
         <f>'2012'!E41</f>
         <v>638166</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="6">
         <f>'2011'!E41</f>
         <v>567796</v>
       </c>
-      <c r="J41" s="6">
+      <c r="K41" s="6">
         <f>'2010'!E41</f>
         <v>558532</v>
       </c>
-      <c r="K41" s="6">
+      <c r="L41" s="6">
         <f>'2009'!E41</f>
         <v>535360</v>
       </c>
-      <c r="L41" s="6">
+      <c r="M41" s="6">
         <f>'2008'!E41</f>
         <v>517773</v>
       </c>
-      <c r="M41" s="6">
+      <c r="N41" s="6">
         <f>'2007'!E41</f>
         <v>479965</v>
       </c>
-      <c r="N41" s="6">
+      <c r="O41" s="6">
         <f>'2006'!E41</f>
         <v>457410</v>
       </c>
-      <c r="O41" s="6">
+      <c r="P41" s="6">
         <f>'2005'!E41</f>
         <v>259343</v>
       </c>
-      <c r="P41" s="6">
+      <c r="Q41" s="6">
         <f>'2004'!E41</f>
         <v>265906</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="6">
         <f>'2018'!E42</f>
         <v>373976</v>
       </c>
-      <c r="C42" s="6">
+      <c r="D42" s="6">
         <f>'2017'!E42</f>
         <v>362804</v>
       </c>
-      <c r="D42" s="6">
+      <c r="E42" s="6">
         <f>'2016'!E42</f>
         <v>400704</v>
       </c>
-      <c r="E42" s="6">
+      <c r="F42" s="6">
         <f>'2015'!E42</f>
         <v>402372</v>
       </c>
-      <c r="F42" s="6">
+      <c r="G42" s="6">
         <f>'2014'!E42</f>
         <v>414924</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <f>'2013'!E42</f>
         <v>430552</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="6">
         <f>'2012'!E42</f>
         <v>432327</v>
       </c>
-      <c r="I42" s="6">
+      <c r="J42" s="6">
         <f>'2011'!E42</f>
         <v>441264</v>
       </c>
-      <c r="J42" s="6">
+      <c r="K42" s="6">
         <f>'2010'!E42</f>
         <v>439537</v>
       </c>
-      <c r="K42" s="6">
+      <c r="L42" s="6">
         <f>'2009'!E42</f>
         <v>418141</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M42" s="6">
         <f>'2008'!E42</f>
         <v>397779</v>
       </c>
-      <c r="M42" s="6">
+      <c r="N42" s="6">
         <f>'2007'!E42</f>
         <v>387164</v>
       </c>
-      <c r="N42" s="6">
+      <c r="O42" s="6">
         <f>'2006'!E42</f>
         <v>370227</v>
       </c>
-      <c r="O42" s="6">
+      <c r="P42" s="6">
         <f>'2005'!E42</f>
         <v>348703</v>
       </c>
-      <c r="P42" s="6">
+      <c r="Q42" s="6">
         <f>'2004'!E42</f>
         <v>347928</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="6">
         <f>'2018'!E43</f>
         <v>737173</v>
       </c>
-      <c r="C43" s="6">
+      <c r="D43" s="6">
         <f>'2017'!E43</f>
         <v>785026</v>
       </c>
-      <c r="D43" s="6">
+      <c r="E43" s="6">
         <f>'2016'!E43</f>
         <v>785761</v>
       </c>
-      <c r="E43" s="6">
+      <c r="F43" s="6">
         <f>'2015'!E43</f>
         <v>757359</v>
       </c>
-      <c r="F43" s="6">
+      <c r="G43" s="6">
         <f>'2014'!E43</f>
         <v>720420</v>
       </c>
-      <c r="G43" s="6">
+      <c r="H43" s="6">
         <f>'2013'!E43</f>
         <v>697018</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="6">
         <f>'2012'!E43</f>
         <v>731401</v>
       </c>
-      <c r="I43" s="6">
+      <c r="J43" s="6">
         <f>'2011'!E43</f>
         <v>756236</v>
       </c>
-      <c r="J43" s="6">
+      <c r="K43" s="6">
         <f>'2010'!E43</f>
         <v>783115</v>
       </c>
-      <c r="K43" s="6">
+      <c r="L43" s="6">
         <f>'2009'!E43</f>
         <v>832944</v>
       </c>
-      <c r="L43" s="6">
+      <c r="M43" s="6">
         <f>'2008'!E43</f>
         <v>725238</v>
       </c>
-      <c r="M43" s="6">
+      <c r="N43" s="6">
         <f>'2007'!E43</f>
         <v>1093825</v>
       </c>
-      <c r="N43" s="6">
+      <c r="O43" s="6">
         <f>'2006'!E43</f>
         <v>1302277</v>
       </c>
-      <c r="O43" s="6">
+      <c r="P43" s="6">
         <f>'2005'!E43</f>
         <v>983990</v>
       </c>
-      <c r="P43" s="6">
+      <c r="Q43" s="6">
         <f>'2004'!E43</f>
         <v>1131450</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="6">
         <f>'2018'!E44</f>
         <v>1655343</v>
       </c>
-      <c r="C44" s="6">
+      <c r="D44" s="6">
         <f>'2017'!E44</f>
         <v>1641604</v>
       </c>
-      <c r="D44" s="6">
+      <c r="E44" s="6">
         <f>'2016'!E44</f>
         <v>1611342</v>
       </c>
-      <c r="E44" s="6">
+      <c r="F44" s="6">
         <f>'2015'!E44</f>
         <v>1537431</v>
       </c>
-      <c r="F44" s="6">
+      <c r="G44" s="6">
         <f>'2014'!E44</f>
         <v>1450212</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <f>'2013'!E44</f>
         <v>1473996</v>
       </c>
-      <c r="H44" s="6">
+      <c r="I44" s="6">
         <f>'2012'!E44</f>
         <v>1442357</v>
       </c>
-      <c r="I44" s="6">
+      <c r="J44" s="6">
         <f>'2011'!E44</f>
         <v>1473969</v>
       </c>
-      <c r="J44" s="6">
+      <c r="K44" s="6">
         <f>'2010'!E44</f>
         <v>1596084</v>
       </c>
-      <c r="K44" s="6">
+      <c r="L44" s="6">
         <f>'2009'!E44</f>
         <v>1539111</v>
       </c>
-      <c r="L44" s="6">
+      <c r="M44" s="6">
         <f>'2008'!E44</f>
         <v>1512583</v>
       </c>
-      <c r="M44" s="6">
+      <c r="N44" s="6">
         <f>'2007'!E44</f>
         <v>1444364</v>
       </c>
-      <c r="N44" s="6">
+      <c r="O44" s="6">
         <f>'2006'!E44</f>
         <v>1294660</v>
       </c>
-      <c r="O44" s="6">
+      <c r="P44" s="6">
         <f>'2005'!E44</f>
         <v>1290716</v>
       </c>
-      <c r="P44" s="6">
+      <c r="Q44" s="6">
         <f>'2004'!E44</f>
         <v>1266103</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="6">
         <f>'2018'!E45</f>
         <v>420841</v>
       </c>
-      <c r="C45" s="6">
+      <c r="D45" s="6">
         <f>'2017'!E45</f>
         <v>410468</v>
       </c>
-      <c r="D45" s="6">
+      <c r="E45" s="6">
         <f>'2016'!E45</f>
         <v>386403</v>
       </c>
-      <c r="E45" s="6">
+      <c r="F45" s="6">
         <f>'2015'!E45</f>
         <v>367527</v>
       </c>
-      <c r="F45" s="6">
+      <c r="G45" s="6">
         <f>'2014'!E45</f>
         <v>370250</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <f>'2013'!E45</f>
         <v>385032</v>
       </c>
-      <c r="H45" s="6">
+      <c r="I45" s="6">
         <f>'2012'!E45</f>
         <v>386191</v>
       </c>
-      <c r="I45" s="6">
+      <c r="J45" s="6">
         <f>'2011'!E45</f>
         <v>374210</v>
       </c>
-      <c r="J45" s="6">
+      <c r="K45" s="6">
         <f>'2010'!E45</f>
         <v>292695</v>
       </c>
-      <c r="K45" s="6">
+      <c r="L45" s="6">
         <f>'2009'!E45</f>
         <v>267512</v>
       </c>
-      <c r="L45" s="6">
+      <c r="M45" s="6">
         <f>'2008'!E45</f>
         <v>267512</v>
       </c>
-      <c r="M45" s="6">
+      <c r="N45" s="6">
         <f>'2007'!E45</f>
         <v>231901</v>
       </c>
-      <c r="N45" s="6">
+      <c r="O45" s="6">
         <f>'2006'!E45</f>
         <v>242701</v>
       </c>
-      <c r="O45" s="6">
+      <c r="P45" s="6">
         <f>'2005'!E45</f>
         <v>238073</v>
       </c>
-      <c r="P45" s="6">
+      <c r="Q45" s="6">
         <f>'2004'!E45</f>
         <v>230153</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="6">
         <f>'2018'!E46</f>
         <v>860075</v>
       </c>
-      <c r="C46" s="6">
+      <c r="D46" s="6">
         <f>'2017'!E46</f>
         <v>839898</v>
       </c>
-      <c r="D46" s="6">
+      <c r="E46" s="6">
         <f>'2016'!E46</f>
         <v>843423</v>
       </c>
-      <c r="E46" s="6">
+      <c r="F46" s="6">
         <f>'2015'!E46</f>
         <v>830192</v>
       </c>
-      <c r="F46" s="6">
+      <c r="G46" s="6">
         <f>'2014'!E46</f>
         <v>818851</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <f>'2013'!E46</f>
         <v>816776</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <f>'2012'!E46</f>
         <v>789834</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <f>'2011'!E46</f>
         <v>810659</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <f>'2010'!E46</f>
         <v>802526</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <f>'2009'!E46</f>
         <v>795015</v>
       </c>
-      <c r="L46" s="6">
+      <c r="M46" s="6">
         <f>'2008'!E46</f>
         <v>794827</v>
       </c>
-      <c r="M46" s="6">
+      <c r="N46" s="6">
         <f>'2007'!E46</f>
         <v>791509</v>
       </c>
-      <c r="N46" s="6">
+      <c r="O46" s="6">
         <f>'2006'!E46</f>
         <v>817220</v>
       </c>
-      <c r="O46" s="6">
+      <c r="P46" s="6">
         <f>'2005'!E46</f>
         <v>813880</v>
       </c>
-      <c r="P46" s="6">
+      <c r="Q46" s="6">
         <f>'2004'!E46</f>
         <v>823123</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="6">
         <f>'2018'!E47</f>
         <v>169328</v>
       </c>
-      <c r="C47" s="6">
+      <c r="D47" s="6">
         <f>'2017'!E47</f>
         <v>177428</v>
       </c>
-      <c r="D47" s="6">
+      <c r="E47" s="6">
         <f>'2016'!E47</f>
         <v>178743</v>
       </c>
-      <c r="E47" s="6">
+      <c r="F47" s="6">
         <f>'2015'!E47</f>
         <v>183780</v>
       </c>
-      <c r="F47" s="6">
+      <c r="G47" s="6">
         <f>'2014'!E47</f>
         <v>172351</v>
       </c>
-      <c r="G47" s="6">
+      <c r="H47" s="6">
         <f>'2013'!E47</f>
         <v>189241</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <f>'2012'!E47</f>
         <v>191735</v>
       </c>
-      <c r="I47" s="6">
+      <c r="J47" s="6">
         <f>'2011'!E47</f>
         <v>188068</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <f>'2010'!E47</f>
         <v>172964</v>
       </c>
-      <c r="K47" s="6">
+      <c r="L47" s="6">
         <f>'2009'!E47</f>
         <v>172964</v>
       </c>
-      <c r="L47" s="6">
+      <c r="M47" s="6">
         <f>'2008'!E47</f>
         <v>165583</v>
       </c>
-      <c r="M47" s="6">
+      <c r="N47" s="6">
         <f>'2007'!E47</f>
         <v>154596</v>
       </c>
-      <c r="N47" s="6">
+      <c r="O47" s="6">
         <f>'2006'!E47</f>
         <v>170680</v>
       </c>
-      <c r="O47" s="6">
+      <c r="P47" s="6">
         <f>'2005'!E47</f>
         <v>186789</v>
       </c>
-      <c r="P47" s="6">
+      <c r="Q47" s="6">
         <f>'2004'!E47</f>
         <v>192308</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="6">
         <f>'2018'!E48</f>
         <v>691732</v>
       </c>
-      <c r="C48" s="6">
+      <c r="D48" s="6">
         <f>'2017'!E48</f>
         <v>685166</v>
       </c>
-      <c r="D48" s="6">
+      <c r="E48" s="6">
         <f>'2016'!E48</f>
         <v>674196</v>
       </c>
-      <c r="E48" s="6">
+      <c r="F48" s="6">
         <f>'2015'!E48</f>
         <v>676025</v>
       </c>
-      <c r="F48" s="6">
+      <c r="G48" s="6">
         <f>'2014'!E48</f>
         <v>666678</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <f>'2013'!E48</f>
         <v>738385</v>
       </c>
-      <c r="H48" s="6">
+      <c r="I48" s="6">
         <f>'2012'!E48</f>
         <v>770206</v>
       </c>
-      <c r="I48" s="6">
+      <c r="J48" s="6">
         <f>'2011'!E48</f>
         <v>775028</v>
       </c>
-      <c r="J48" s="6">
+      <c r="K48" s="6">
         <f>'2010'!E48</f>
         <v>763171</v>
       </c>
-      <c r="K48" s="6">
+      <c r="L48" s="6">
         <f>'2009'!E48</f>
         <v>782009</v>
       </c>
-      <c r="L48" s="6">
+      <c r="M48" s="6">
         <f>'2008'!E48</f>
         <v>837738</v>
       </c>
-      <c r="M48" s="6">
+      <c r="N48" s="6">
         <f>'2007'!E48</f>
         <v>929616</v>
       </c>
-      <c r="N48" s="6">
+      <c r="O48" s="6">
         <f>'2006'!E48</f>
         <v>902485</v>
       </c>
-      <c r="O48" s="6">
+      <c r="P48" s="6">
         <f>'2005'!E48</f>
         <v>883616</v>
       </c>
-      <c r="P48" s="6">
+      <c r="Q48" s="6">
         <f>'2004'!E48</f>
         <v>791512</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="6">
         <f>'2018'!E49</f>
         <v>2863676</v>
       </c>
-      <c r="C49" s="6">
+      <c r="D49" s="6">
         <f>'2017'!E49</f>
         <v>2836703</v>
       </c>
-      <c r="D49" s="6">
+      <c r="E49" s="6">
         <f>'2016'!E49</f>
         <v>2941239</v>
       </c>
-      <c r="E49" s="6">
+      <c r="F49" s="6">
         <f>'2015'!E49</f>
         <v>2968341</v>
       </c>
-      <c r="F49" s="6">
+      <c r="G49" s="6">
         <f>'2014'!E49</f>
         <v>2880270</v>
       </c>
-      <c r="G49" s="6">
+      <c r="H49" s="6">
         <f>'2013'!E49</f>
         <v>2941549</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <f>'2012'!E49</f>
         <v>3041084</v>
       </c>
-      <c r="I49" s="6">
+      <c r="J49" s="6">
         <f>'2011'!E49</f>
         <v>2972072</v>
       </c>
-      <c r="J49" s="6">
+      <c r="K49" s="6">
         <f>'2010'!E49</f>
         <v>2887881</v>
       </c>
-      <c r="K49" s="6">
+      <c r="L49" s="6">
         <f>'2009'!E49</f>
         <v>3072436</v>
       </c>
-      <c r="L49" s="6">
+      <c r="M49" s="6">
         <f>'2008'!E49</f>
         <v>3072436</v>
       </c>
-      <c r="M49" s="6">
+      <c r="N49" s="6">
         <f>'2007'!E49</f>
         <v>3143230</v>
       </c>
-      <c r="N49" s="6">
+      <c r="O49" s="6">
         <f>'2006'!E49</f>
         <v>3030609</v>
       </c>
-      <c r="O49" s="6">
+      <c r="P49" s="6">
         <f>'2005'!E49</f>
         <v>2717877</v>
       </c>
-      <c r="P49" s="6">
+      <c r="Q49" s="6">
         <f>'2004'!E49</f>
         <v>2599506</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="6">
         <f>'2018'!E50</f>
         <v>677710</v>
       </c>
-      <c r="C50" s="6">
+      <c r="D50" s="6">
         <f>'2017'!E50</f>
         <v>705072</v>
       </c>
-      <c r="D50" s="6">
+      <c r="E50" s="6">
         <f>'2016'!E50</f>
         <v>719105</v>
       </c>
-      <c r="E50" s="6">
+      <c r="F50" s="6">
         <f>'2015'!E50</f>
         <v>704055</v>
       </c>
-      <c r="F50" s="6">
+      <c r="G50" s="6">
         <f>'2014'!E50</f>
         <v>684738</v>
       </c>
-      <c r="G50" s="6">
+      <c r="H50" s="6">
         <f>'2013'!E50</f>
         <v>710174</v>
       </c>
-      <c r="H50" s="6">
+      <c r="I50" s="6">
         <f>'2012'!E50</f>
         <v>778357</v>
       </c>
-      <c r="I50" s="6">
+      <c r="J50" s="6">
         <f>'2011'!E50</f>
         <v>767999</v>
       </c>
-      <c r="J50" s="6">
+      <c r="K50" s="6">
         <f>'2010'!E50</f>
         <v>736383</v>
       </c>
-      <c r="K50" s="6">
+      <c r="L50" s="6">
         <f>'2009'!E50</f>
         <v>753449</v>
       </c>
-      <c r="L50" s="6">
+      <c r="M50" s="6">
         <f>'2008'!E50</f>
         <v>753449</v>
       </c>
-      <c r="M50" s="6">
+      <c r="N50" s="6">
         <f>'2007'!E50</f>
         <v>738049</v>
       </c>
-      <c r="N50" s="6">
+      <c r="O50" s="6">
         <f>'2006'!E50</f>
         <v>949284</v>
       </c>
-      <c r="O50" s="6">
+      <c r="P50" s="6">
         <f>'2005'!E50</f>
         <v>926177</v>
       </c>
-      <c r="P50" s="6">
+      <c r="Q50" s="6">
         <f>'2004'!E50</f>
         <v>830748</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="6">
         <f>'2018'!E51</f>
         <v>247914</v>
       </c>
-      <c r="C51" s="6">
+      <c r="D51" s="6">
         <f>'2017'!E51</f>
         <v>240862</v>
       </c>
-      <c r="D51" s="6">
+      <c r="E51" s="6">
         <f>'2016'!E51</f>
         <v>249478</v>
       </c>
-      <c r="E51" s="6">
+      <c r="F51" s="6">
         <f>'2015'!E51</f>
         <v>261991</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G51" s="6">
         <f>'2014'!E51</f>
         <v>264957</v>
       </c>
-      <c r="G51" s="6">
+      <c r="H51" s="6">
         <f>'2013'!E51</f>
         <v>269424</v>
       </c>
-      <c r="H51" s="6">
+      <c r="I51" s="6">
         <f>'2012'!E51</f>
         <v>265887</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="6">
         <f>'2011'!E51</f>
         <v>260973</v>
       </c>
-      <c r="J51" s="6">
+      <c r="K51" s="6">
         <f>'2010'!E51</f>
         <v>278632</v>
       </c>
-      <c r="K51" s="6">
+      <c r="L51" s="6">
         <f>'2009'!E51</f>
         <v>266483</v>
       </c>
-      <c r="L51" s="6">
+      <c r="M51" s="6">
         <f>'2008'!E51</f>
         <v>266483</v>
       </c>
-      <c r="M51" s="6">
+      <c r="N51" s="6">
         <f>'2007'!E51</f>
         <v>249489</v>
       </c>
-      <c r="N51" s="6">
+      <c r="O51" s="6">
         <f>'2006'!E51</f>
         <v>242143</v>
       </c>
-      <c r="O51" s="6">
+      <c r="P51" s="6">
         <f>'2005'!E51</f>
         <v>228394</v>
       </c>
-      <c r="P51" s="6">
+      <c r="Q51" s="6">
         <f>'2004'!E51</f>
         <v>240898</v>
       </c>

--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D09F8E-D488-3A4E-8860-3577D810543C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="19" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <sheet name="2018-Full" sheetId="20" r:id="rId19"/>
     <sheet name="Notes" sheetId="16" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -955,7 +956,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
@@ -1127,7 +1128,7 @@
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1462,16 +1463,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>150</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10">
@@ -1558,7 +1559,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>LicenseHolders!A8</f>
         <v>CT</v>
@@ -1640,7 +1641,7 @@
         <v>-0.15141020417402326</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>LicenseHolders!A22</f>
         <v>ME</v>
@@ -1722,7 +1723,7 @@
         <v>-0.13710342639593909</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>LicenseHolders!A20</f>
         <v>MA</v>
@@ -1804,7 +1805,7 @@
         <v>4.8576534064294508E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>LicenseHolders!A31</f>
         <v>NH</v>
@@ -1886,7 +1887,7 @@
         <v>-2.0269472690173859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>LicenseHolders!A40</f>
         <v>RI</v>
@@ -1968,7 +1969,7 @@
         <v>-4.6019755955839625E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>LicenseHolders!A47</f>
         <v>VT</v>
@@ -2050,7 +2051,7 @@
         <v>-0.13275883446993181</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>149</v>
       </c>
@@ -2127,12 +2128,12 @@
         <v>6.7281506160812576E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>TotalLicenses!A8</f>
         <v>CT</v>
@@ -2214,7 +2215,7 @@
         <v>4.8584772591919257E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>TotalLicenses!A22</f>
         <v>ME</v>
@@ -2296,7 +2297,7 @@
         <v>-1.1500547645125958E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>TotalLicenses!A20</f>
         <v>MA</v>
@@ -2378,7 +2379,7 @@
         <v>0.14976240400550361</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>TotalLicenses!A31</f>
         <v>NH</v>
@@ -2460,7 +2461,7 @@
         <v>4.3729743682897212E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>TotalLicenses!A40</f>
         <v>RI</v>
@@ -2542,7 +2543,7 @@
         <v>2.5912841371295756</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>TotalLicenses!A47</f>
         <v>VT</v>
@@ -2624,7 +2625,7 @@
         <v>-0.10522561178602946</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>149</v>
       </c>
@@ -2712,18 +2713,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>7853270.9400000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>11009924.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>13586886</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>16123171</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>20823655</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>53293990.509999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>2564858</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>962703</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>5863439</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>13185477.75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>126350</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>21414911</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>22468600</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>31173078</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>10815112</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>18754068</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>15528721</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>9269111.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>2659731</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>6158058</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>7488127</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>29895271</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>28231099</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>22137185</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>9391029</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>28926166</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>8279572</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>11570818</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>12710852</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>4010117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>7966395</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>14830083</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>5318325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>24288887.710000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>10936089</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>8472936</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -3483,7 +3484,7 @@
         <v>21499518</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>39262421</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>144197</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>8674126.9499999993</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>22413492</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>17249737</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>41354920</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>14135270</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>14522222</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>4454487</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>15107708</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>39865361</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>10365102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -3755,18 +3756,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>7990838</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>11451574.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>14035081</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>16601597</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>19513262</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>56200410</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>2258327</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>958602</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>5956378</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>12889708</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -4006,7 +4007,7 @@
         <v>160067</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>20749084</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>23898310</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>31346288</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>10371579</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>16999994</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>15002646</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>5281036</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>1901273.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>6213687</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>7817045</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>27922523</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>28161147</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>19650761</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>9722600</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>28706032</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>8287162</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>11335484</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>13271312</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>4030447</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>7710953</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>14768524</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>5024711</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>27435282</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>10690698</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>8652811</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>22342697</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>36241937</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>7588376</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>22881108</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>17697586</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>39372737</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>13657156</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>14801100</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>4375476</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>13972402</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>39367383</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>10272645</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -4798,18 +4799,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>8223411</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>12337241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>12990082</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4909,7 +4910,7 @@
         <v>16729408</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>18898487</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>56200410.140000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>2159189</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>982528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -5009,7 +5010,7 @@
         <v>5851620</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>13453679</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>261851</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>20893131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -5089,7 +5090,7 @@
         <v>23872335</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>26373550</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>9877817</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>16999994</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -5169,7 +5170,7 @@
         <v>15167121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>5483530</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>1826221</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>6182140</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -5249,7 +5250,7 @@
         <v>8233351</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>27705005</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>30515932</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -5309,7 +5310,7 @@
         <v>19484882.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>11848479</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -5349,7 +5350,7 @@
         <v>29139457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>7924776</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>11931333</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -5409,7 +5410,7 @@
         <v>11773291</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>3897560</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>7778910</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>14469466</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -5489,7 +5490,7 @@
         <v>5487441</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -5509,7 +5510,7 @@
         <v>18673805</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -5529,7 +5530,7 @@
         <v>21590929</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>8207442.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>21747044</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>36277899</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -5609,7 +5610,7 @@
         <v>466700</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>7791890</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>23023162</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>17578362</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -5689,7 +5690,7 @@
         <v>38467137</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>12005639</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>14910326</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -5749,7 +5750,7 @@
         <v>3913269.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -5769,7 +5770,7 @@
         <v>12665937</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>39526225</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>9792622</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -5841,18 +5842,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>8294701</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>9839680.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>12693613</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -5952,7 +5953,7 @@
         <v>12280563</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>17845320</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>60506720.619999997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>2196738</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>695407</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>3505738</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>12644387</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -6092,7 +6093,7 @@
         <v>311863</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>21034376</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>24626269.489999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -6152,7 +6153,7 @@
         <v>25061725</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>9844371</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>15954973</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>13675086</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -6232,7 +6233,7 @@
         <v>5271430</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>1708890</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>6281837</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>8376129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>28058824</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>30906261</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>18620715</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -6372,7 +6373,7 @@
         <v>10925298</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>29960368</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -6412,7 +6413,7 @@
         <v>11449926</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>11222738</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>10827024</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -6472,7 +6473,7 @@
         <v>3916718</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>6703069</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>14863403.949999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>6643830</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>18658617</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>22324409</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>8581915</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>21530321</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>36085947</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>466700</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>7826729</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>21712899</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>18365550</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -6732,7 +6733,7 @@
         <v>37900386</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>11614990</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -6772,7 +6773,7 @@
         <v>11159081</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>3913269.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>12805494</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>39893420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -6852,7 +6853,7 @@
         <v>10254920</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -6884,18 +6885,18 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>8294701</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>9142414</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>11822434</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>12305962</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>16859950</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>60506720.619999997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>2196738</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -7075,7 +7076,7 @@
         <v>678313</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>5002224</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>13343118</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -7135,7 +7136,7 @@
         <v>369812</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>20357714</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -7175,7 +7176,7 @@
         <v>24626269.489999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -7195,7 +7196,7 @@
         <v>25541550</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>9844371</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -7235,7 +7236,7 @@
         <v>15484151</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>13675085.949999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>4766408</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -7295,7 +7296,7 @@
         <v>2130538</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>5832018</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>8376129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>28102574</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -7375,7 +7376,7 @@
         <v>30906261</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>18620774</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>10061298</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -7435,7 +7436,7 @@
         <v>29960368</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>10762393</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -7475,7 +7476,7 @@
         <v>11934556</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>10827024</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -7515,7 +7516,7 @@
         <v>3916718</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>6703069</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>11501009.57</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>6643830</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>18524524</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>21295630</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -7635,7 +7636,7 @@
         <v>7190647.75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -7655,7 +7656,7 @@
         <v>21530321</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>38282675</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>466700</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>7517908</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>20369527</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>16367643</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -7775,7 +7776,7 @@
         <v>37196956</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>11614989.85</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>11158884</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>3805123</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>12523031</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>39893420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -7895,7 +7896,7 @@
         <v>10254920</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -7927,18 +7928,18 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>8578916</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>9200297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>11946536</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>12132147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>16571836</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>56121936.68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>2202720</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>660482</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>4975506</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>13815998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>290885</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>19677199</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>22686400</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -8238,7 +8239,7 @@
         <v>18886928</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -8258,7 +8259,7 @@
         <v>10593068</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>15050992</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>12124216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>9107216</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>2193378</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>5724554</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>7482779</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -8398,7 +8399,7 @@
         <v>27841230</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -8418,7 +8419,7 @@
         <v>29191889</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>17994472.199999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>9742658</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>26589819</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>9832703</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -8518,7 +8519,7 @@
         <v>9908723</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -8538,7 +8539,7 @@
         <v>10010804</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -8558,7 +8559,7 @@
         <v>3672664</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -8578,7 +8579,7 @@
         <v>6636457</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -8598,7 +8599,7 @@
         <v>8448884.6999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>6043700</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -8638,7 +8639,7 @@
         <v>19416047</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>20864113</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>7422958.75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>21292414</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -8718,7 +8719,7 @@
         <v>40490306</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>444453</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>8667808</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>17901593</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -8798,7 +8799,7 @@
         <v>16681793</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -8818,7 +8819,7 @@
         <v>36499640</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -8838,7 +8839,7 @@
         <v>11142967</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>10878718</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -8878,7 +8879,7 @@
         <v>3617165</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>12663409.949999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>37803913</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>8575713</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -8970,18 +8971,18 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -9021,7 +9022,7 @@
         <v>8316493.3200000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -9041,7 +9042,7 @@
         <v>9340257.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>11558603</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>10802988</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -9101,7 +9102,7 @@
         <v>15961754</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -9121,7 +9122,7 @@
         <v>54554105</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>2232972</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -9161,7 +9162,7 @@
         <v>631194</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>5308511</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>13815998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>304685</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -9241,7 +9242,7 @@
         <v>20165343</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -9261,7 +9262,7 @@
         <v>21112258</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>17545905</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>11183328</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -9321,7 +9322,7 @@
         <v>13006749</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -9341,7 +9342,7 @@
         <v>12935123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -9361,7 +9362,7 @@
         <v>9707094</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>2393180</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>5644267</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>7670701</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -9441,7 +9442,7 @@
         <v>26635311</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>29567813</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>18378130</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -9501,7 +9502,7 @@
         <v>9790388</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -9521,7 +9522,7 @@
         <v>26064256</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>9754920</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>7601066</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -9581,7 +9582,7 @@
         <v>9491764</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -9601,7 +9602,7 @@
         <v>3721195</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>6877002.8300000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>8812445.8300000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -9661,7 +9662,7 @@
         <v>4377639</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>20249675</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>17886738</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -9721,7 +9722,7 @@
         <v>7881077.3799999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>21450509</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>39877828</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -9781,7 +9782,7 @@
         <v>460313</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -9801,7 +9802,7 @@
         <v>8137508</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>16723210</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>13960929</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -9861,7 +9862,7 @@
         <v>34302678</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -9881,7 +9882,7 @@
         <v>10953575</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -9901,7 +9902,7 @@
         <v>11247707</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -9921,7 +9922,7 @@
         <v>3749295.25</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>12284591.130000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>35768454</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -9981,7 +9982,7 @@
         <v>10123221</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -10013,18 +10014,18 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -10044,7 +10045,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -10064,7 +10065,7 @@
         <v>8373590.8399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10084,7 +10085,7 @@
         <v>9077910.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -10104,7 +10105,7 @@
         <v>12153851</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -10124,7 +10125,7 @@
         <v>10486835</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -10144,7 +10145,7 @@
         <v>16342858</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>52287530</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -10184,7 +10185,7 @@
         <v>2300724</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>633008</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>4717719</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -10244,7 +10245,7 @@
         <v>13091634</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -10264,7 +10265,7 @@
         <v>285880</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -10284,7 +10285,7 @@
         <v>17578690</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -10304,7 +10305,7 @@
         <v>20321479.879999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>16016031</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -10344,7 +10345,7 @@
         <v>14943634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -10364,7 +10365,7 @@
         <v>12087277</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>12649252</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -10404,7 +10405,7 @@
         <v>10010776</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>1931205</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>5379334</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -10464,7 +10465,7 @@
         <v>7127981</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -10484,7 +10485,7 @@
         <v>27557693</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -10504,7 +10505,7 @@
         <v>27543644</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -10524,7 +10525,7 @@
         <v>19013206.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -10544,7 +10545,7 @@
         <v>9450722</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>24653681</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -10584,7 +10585,7 @@
         <v>9713265</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -10604,7 +10605,7 @@
         <v>8517645</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>9303513</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>3793753</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -10664,7 +10665,7 @@
         <v>7048188</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -10684,7 +10685,7 @@
         <v>13401961</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -10704,7 +10705,7 @@
         <v>3200053</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>20709350</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -10744,7 +10745,7 @@
         <v>17247929</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -10764,7 +10765,7 @@
         <v>7705971.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -10784,7 +10785,7 @@
         <v>18506490</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>39773564</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -10824,7 +10825,7 @@
         <v>476179</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -10844,7 +10845,7 @@
         <v>7282978</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>15365201</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -10884,7 +10885,7 @@
         <v>13505126</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -10904,7 +10905,7 @@
         <v>28126610</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -10924,7 +10925,7 @@
         <v>10750245</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -10944,7 +10945,7 @@
         <v>11198884</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -10964,7 +10965,7 @@
         <v>3418595</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -10984,7 +10985,7 @@
         <v>12197388.51</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>32848828</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -11024,7 +11025,7 @@
         <v>10642616</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -11056,18 +11057,18 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -11107,7 +11108,7 @@
         <v>8684287.2599999998</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>9111160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -11147,7 +11148,7 @@
         <v>12825689</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>10892826</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -11187,7 +11188,7 @@
         <v>15777132</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -11207,7 +11208,7 @@
         <v>52158932</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -11227,7 +11228,7 @@
         <v>1696858</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -11247,7 +11248,7 @@
         <v>569656.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>4816008</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -11287,7 +11288,7 @@
         <v>13643071</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -11307,7 +11308,7 @@
         <v>185605</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -11327,7 +11328,7 @@
         <v>14380536</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -11347,7 +11348,7 @@
         <v>20864108.460000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -11367,7 +11368,7 @@
         <v>14403458</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -11387,7 +11388,7 @@
         <v>7899606</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>11351496</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -11427,7 +11428,7 @@
         <v>12468168.16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>10748890</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -11467,7 +11468,7 @@
         <v>2286070</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -11487,7 +11488,7 @@
         <v>4678827</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -11507,7 +11508,7 @@
         <v>7225175</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -11527,7 +11528,7 @@
         <v>27570119</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -11547,7 +11548,7 @@
         <v>26234082</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -11567,7 +11568,7 @@
         <v>18388374</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -11587,7 +11588,7 @@
         <v>9251971</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -11607,7 +11608,7 @@
         <v>24234371</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -11627,7 +11628,7 @@
         <v>9649765</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -11647,7 +11648,7 @@
         <v>7837038</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>9110824</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>3660213</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -11707,7 +11708,7 @@
         <v>7133503</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -11727,7 +11728,7 @@
         <v>13442596</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -11747,7 +11748,7 @@
         <v>3132369</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -11767,7 +11768,7 @@
         <v>18492555</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -11787,7 +11788,7 @@
         <v>16403653</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>7127335.75</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -11827,7 +11828,7 @@
         <v>18605194</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -11847,7 +11848,7 @@
         <v>38783350</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -11867,7 +11868,7 @@
         <v>296574</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -11887,7 +11888,7 @@
         <v>7359441.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -11907,7 +11908,7 @@
         <v>15020114</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -11927,7 +11928,7 @@
         <v>13411397</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -11947,7 +11948,7 @@
         <v>26439898</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -11967,7 +11968,7 @@
         <v>10225741</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -11987,7 +11988,7 @@
         <v>11170083</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -12007,7 +12008,7 @@
         <v>3711690</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>11582083.699999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -12047,7 +12048,7 @@
         <v>31476990</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -12067,7 +12068,7 @@
         <v>11058550</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -12099,19 +12100,19 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="13.85546875" customWidth="1"/>
+    <col min="1" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12140,7 +12141,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12171,7 +12172,7 @@
       </c>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -12202,7 +12203,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -12233,7 +12234,7 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -12263,7 +12264,7 @@
         <v>2.9581385718524817</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>20.481050043625942</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>-3.4746332910939133</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>5.2800784909482212</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>1.6988095429869357</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -12413,7 +12414,7 @@
         <v>8.0189424926653725</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1">
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -12443,7 +12444,7 @@
         <v>-1.0762163991606268</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -12473,7 +12474,7 @@
         <v>6.5042818217205136</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1">
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -12503,7 +12504,7 @@
         <v>1.5520389867198785</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1">
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>-1.453953333286784</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1">
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -12563,7 +12564,7 @@
         <v>1.0582210736838185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1">
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>4.0671373991559152</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -12623,7 +12624,7 @@
         <v>-1.886999139393583</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1">
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -12653,7 +12654,7 @@
         <v>1.5606429905148818</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -12683,7 +12684,7 @@
         <v>3.8917718078576637</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1">
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>5.0705273276364489</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1">
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -12743,7 +12744,7 @@
         <v>1.1412151878818075</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1">
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>1.4321151406507697</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1">
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -12803,7 +12804,7 @@
         <v>8.1590329408269362</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>7.7894849462507088</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1">
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>1.4451353280156349</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1">
+    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -12893,7 +12894,7 @@
         <v>-2.0501737998416343</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1">
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -12923,7 +12924,7 @@
         <v>-2.4800065418527399</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>4.055471149259728</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1">
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -12983,7 +12984,7 @@
         <v>-1.7739666830284484</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1">
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -13013,7 +13014,7 @@
         <v>1.2746171601799079</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1">
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -13043,7 +13044,7 @@
         <v>1.9304128994138952</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.5" customHeight="1">
+    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>6.0826087183812305</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -13103,7 +13104,7 @@
         <v>-1.7591049779681089</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1">
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>1.0236095227651318</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1">
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -13163,7 +13164,7 @@
         <v>4.175289277664664</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1">
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>2.5488940371313067</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1">
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>1.4817968116034137</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1">
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -13253,7 +13254,7 @@
         <v>3.8736558871799982</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -13283,7 +13284,7 @@
         <v>4.9926565242350822</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1">
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -13313,7 +13314,7 @@
         <v>2.9806063399817257</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1">
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -13343,7 +13344,7 @@
         <v>1.2687200047067921</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -13373,7 +13374,7 @@
         <v>-2.0697790167871548</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1">
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -13403,7 +13404,7 @@
         <v>4.594964090746708</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1">
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>3.1949715087561334</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1">
+    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -13463,7 +13464,7 @@
         <v>2.0226009351252991</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1">
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>4.5835388524094345</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1">
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>3.0058741230484829</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1">
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>15.186865106154205</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1">
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -13583,7 +13584,7 @@
         <v>4.4379389186482134</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1">
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -13613,7 +13614,7 @@
         <v>-1.1181977737897342</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1">
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -13643,10 +13644,10 @@
         <v>-2.8354934897694615</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I53" s="18"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I54" s="17"/>
     </row>
   </sheetData>
@@ -13661,14 +13662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -13803,7 +13804,7 @@
         <v>97537</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -13871,7 +13872,7 @@
         <v>273638</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -13939,7 +13940,7 @@
         <v>402493</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>183478</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>320092</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>300574</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -14211,7 +14212,7 @@
         <v>57720</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -14279,7 +14280,7 @@
         <v>21488</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -14347,7 +14348,7 @@
         <v>181857</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -14415,7 +14416,7 @@
         <v>338045</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>9032</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -14551,7 +14552,7 @@
         <v>257899</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -14619,7 +14620,7 @@
         <v>246284</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -14687,7 +14688,7 @@
         <v>300883</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>285573</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -14823,7 +14824,7 @@
         <v>188310</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -14891,7 +14892,7 @@
         <v>349951</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>272912</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -15027,7 +15028,7 @@
         <v>68488</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -15095,7 +15096,7 @@
         <v>128569</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -15163,7 +15164,7 @@
         <v>197908</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -15231,7 +15232,7 @@
         <v>870432</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -15299,7 +15300,7 @@
         <v>585104</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -15367,7 +15368,7 @@
         <v>539062</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -15435,7 +15436,7 @@
         <v>249591</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -15503,7 +15504,7 @@
         <v>227365</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -15571,7 +15572,7 @@
         <v>433135</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -15639,7 +15640,7 @@
         <v>141816</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -15707,7 +15708,7 @@
         <v>174927</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -15775,7 +15776,7 @@
         <v>67586</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -15843,7 +15844,7 @@
         <v>82814</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -15911,7 +15912,7 @@
         <v>111188</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -15979,7 +15980,7 @@
         <v>61455</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -16047,7 +16048,7 @@
         <v>696679</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -16115,7 +16116,7 @@
         <v>426856</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -16183,7 +16184,7 @@
         <v>330336</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -16251,7 +16252,7 @@
         <v>297944</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -16319,7 +16320,7 @@
         <v>1048731</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -16387,7 +16388,7 @@
         <v>10750</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -16455,7 +16456,7 @@
         <v>279203</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -16523,7 +16524,7 @@
         <v>216152</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -16591,7 +16592,7 @@
         <v>725110</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -16659,7 +16660,7 @@
         <v>1027908</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -16727,7 +16728,7 @@
         <v>159678</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -16795,7 +16796,7 @@
         <v>314748</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>92138</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>198162</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -16999,7 +17000,7 @@
         <v>689099</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -17067,7 +17068,7 @@
         <v>288098</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -17146,31 +17147,31 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="5" width="13.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -17178,22 +17179,22 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -17241,7 +17242,7 @@
         <v>4821415</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -17266,7 +17267,7 @@
         <v>5897852</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -17291,7 +17292,7 @@
         <v>8454874.4700000007</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -17316,7 +17317,7 @@
         <v>5621343</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -17341,7 +17342,7 @@
         <v>1141889</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
@@ -17366,7 +17367,7 @@
         <v>41706678</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>423609</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -17416,7 +17417,7 @@
         <v>373356</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -17441,7 +17442,7 @@
         <v>932444</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -17466,7 +17467,7 @@
         <v>6708043</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -17491,7 +17492,7 @@
         <v>61560</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -17516,7 +17517,7 @@
         <v>5307590</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -17541,7 +17542,7 @@
         <v>11841188</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -17566,7 +17567,7 @@
         <v>15835755</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -17591,7 +17592,7 @@
         <v>2117942</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -17616,7 +17617,7 @@
         <v>12399015</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -17641,7 +17642,7 @@
         <v>5724881</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -17666,7 +17667,7 @@
         <v>1961453</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -17691,7 +17692,7 @@
         <v>373820</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -17716,7 +17717,7 @@
         <v>3033918</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -17741,7 +17742,7 @@
         <v>3402227</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -17766,7 +17767,7 @@
         <v>3940884</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -17791,7 +17792,7 @@
         <v>3412582</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -17816,7 +17817,7 @@
         <v>8119475</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -17841,7 +17842,7 @@
         <v>8241720</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>26</v>
       </c>
@@ -17866,7 +17867,7 @@
         <v>21500896</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
@@ -17891,7 +17892,7 @@
         <v>1756867</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>28</v>
       </c>
@@ -17916,7 +17917,7 @@
         <v>5856253</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>29</v>
       </c>
@@ -17941,7 +17942,7 @@
         <v>5290472</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -17966,7 +17967,7 @@
         <v>1379549</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>31</v>
       </c>
@@ -17991,7 +17992,7 @@
         <v>1117522</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>32</v>
       </c>
@@ -18016,7 +18017,7 @@
         <v>10223437</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
@@ -18041,7 +18042,7 @@
         <v>3566731</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>34</v>
       </c>
@@ -18066,7 +18067,7 @@
         <v>2269951</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
@@ -18091,7 +18092,7 @@
         <v>6203244</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
@@ -18116,7 +18117,7 @@
         <v>3315709</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
@@ -18141,7 +18142,7 @@
         <v>4883646</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>38</v>
       </c>
@@ -18166,7 +18167,7 @@
         <v>6270295</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
@@ -18191,7 +18192,7 @@
         <v>125964</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
@@ -18216,7 +18217,7 @@
         <v>4005523</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>41</v>
       </c>
@@ -18241,7 +18242,7 @@
         <v>13314605</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>42</v>
       </c>
@@ -18266,7 +18267,7 @@
         <v>3152352</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>43</v>
       </c>
@@ -18291,7 +18292,7 @@
         <v>10599929</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
@@ -18316,7 +18317,7 @@
         <v>4964631</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>45</v>
       </c>
@@ -18341,7 +18342,7 @@
         <v>4537587</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>46</v>
       </c>
@@ -18366,7 +18367,7 @@
         <v>989712</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>47</v>
       </c>
@@ -18391,7 +18392,7 @@
         <v>972145</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>48</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>7384222</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>49</v>
       </c>
@@ -18441,7 +18442,7 @@
         <v>5006172</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>50</v>
       </c>
@@ -18478,14 +18479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18552,7 +18553,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -18620,7 +18621,7 @@
         <v>222544</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -18688,7 +18689,7 @@
         <v>303217</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -18756,7 +18757,7 @@
         <v>464563</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -18824,7 +18825,7 @@
         <v>406210</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -18892,7 +18893,7 @@
         <v>868209</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -18960,7 +18961,7 @@
         <v>548011</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -19028,7 +19029,7 @@
         <v>143358</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -19164,7 +19165,7 @@
         <v>338769</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -19232,7 +19233,7 @@
         <v>957739</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -19300,7 +19301,7 @@
         <v>9540</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -19368,7 +19369,7 @@
         <v>847182</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -19436,7 +19437,7 @@
         <v>812609</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -19504,7 +19505,7 @@
         <v>1159442</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -19572,7 +19573,7 @@
         <v>661769</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -19640,7 +19641,7 @@
         <v>471423</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -19708,7 +19709,7 @@
         <v>684768</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -19776,7 +19777,7 @@
         <v>623871</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -19844,7 +19845,7 @@
         <v>224099</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -19912,7 +19913,7 @@
         <v>329707</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -19980,7 +19981,7 @@
         <v>259968</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -20048,7 +20049,7 @@
         <v>2272955</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -20116,7 +20117,7 @@
         <v>1594619</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -20184,7 +20185,7 @@
         <v>1167886</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -20252,7 +20253,7 @@
         <v>287272</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -20320,7 +20321,7 @@
         <v>935854</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -20388,7 +20389,7 @@
         <v>495908</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -20456,7 +20457,7 @@
         <v>575486</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -20524,7 +20525,7 @@
         <v>394105</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -20592,7 +20593,7 @@
         <v>233432</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -20660,7 +20661,7 @@
         <v>429205</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -20728,7 +20729,7 @@
         <v>460545</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -20796,7 +20797,7 @@
         <v>95545</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -20864,7 +20865,7 @@
         <v>754189</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -20932,7 +20933,7 @@
         <v>1086640</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -21000,7 +21001,7 @@
         <v>348924</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -21068,7 +21069,7 @@
         <v>1409238</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -21136,7 +21137,7 @@
         <v>2520673</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -21204,7 +21205,7 @@
         <v>32823</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -21272,7 +21273,7 @@
         <v>265906</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -21340,7 +21341,7 @@
         <v>347928</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -21408,7 +21409,7 @@
         <v>1131450</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -21476,7 +21477,7 @@
         <v>1266103</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -21544,7 +21545,7 @@
         <v>230153</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -21612,7 +21613,7 @@
         <v>823123</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -21680,7 +21681,7 @@
         <v>192308</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -21748,7 +21749,7 @@
         <v>791512</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -21816,7 +21817,7 @@
         <v>2599506</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -21884,7 +21885,7 @@
         <v>830748</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -21963,17 +21964,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" customWidth="1"/>
+    <col min="1" max="6" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" customHeight="1">
+    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21993,7 +21994,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -22020,7 +22021,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1">
+    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -22047,7 +22048,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -22074,7 +22075,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1">
+    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -22099,7 +22100,7 @@
         <v>17874083</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1">
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -22124,7 +22125,7 @@
         <v>21615994</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+    <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -22149,7 +22150,7 @@
         <v>57056595</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -22174,7 +22175,7 @@
         <v>2480317</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -22199,7 +22200,7 @@
         <v>1005204</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1">
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -22224,7 +22225,7 @@
         <v>8874919</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1">
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -22249,7 +22250,7 @@
         <v>13759765</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1">
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -22274,7 +22275,7 @@
         <v>578355</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1">
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -22299,7 +22300,7 @@
         <v>17713256</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1">
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -22324,7 +22325,7 @@
         <v>25655741</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1">
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -22349,7 +22350,7 @@
         <v>31945215</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1">
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -22374,7 +22375,7 @@
         <v>11659245</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -22399,7 +22400,7 @@
         <v>19436612</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -22424,7 +22425,7 @@
         <v>19787571</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -22449,7 +22450,7 @@
         <v>9997994</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -22474,7 +22475,7 @@
         <v>2406096</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -22499,7 +22500,7 @@
         <v>6369051</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -22524,7 +22525,7 @@
         <v>7871779</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -22549,7 +22550,7 @@
         <v>37054782</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -22574,7 +22575,7 @@
         <v>30725174</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -22599,7 +22600,7 @@
         <v>21293840</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -22624,7 +22625,7 @@
         <v>12272661</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -22649,7 +22650,7 @@
         <v>32917709</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -22674,7 +22675,7 @@
         <v>10757714</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -22699,7 +22700,7 @@
         <v>11811245</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -22724,7 +22725,7 @@
         <v>13501461</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -22749,7 +22750,7 @@
         <v>4017347</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -22774,7 +22775,7 @@
         <v>8128965</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -22799,7 +22800,7 @@
         <v>16185652</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -22824,7 +22825,7 @@
         <v>7750384</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -22849,7 +22850,7 @@
         <v>21618296</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -22874,7 +22875,7 @@
         <v>22637955</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -22899,7 +22900,7 @@
         <v>9606348</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -22924,7 +22925,7 @@
         <v>26399473</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -22949,7 +22950,7 @@
         <v>36431816</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -22974,7 +22975,7 @@
         <v>483576</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -22999,7 +23000,7 @@
         <v>9717318</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -23024,7 +23025,7 @@
         <v>22061719</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -23049,7 +23050,7 @@
         <v>20720183</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -23074,7 +23075,7 @@
         <v>46217763</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -23099,7 +23100,7 @@
         <v>16762036</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -23124,7 +23125,7 @@
         <v>21304227</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -23149,7 +23150,7 @@
         <v>3965555</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -23174,7 +23175,7 @@
         <v>17191859</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -23199,7 +23200,7 @@
         <v>41381372</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -23224,7 +23225,7 @@
         <v>9222900</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -23262,20 +23263,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23295,7 +23296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -23315,7 +23316,7 @@
         <v>8540589</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -23335,7 +23336,7 @@
         <v>12210093</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -23355,7 +23356,7 @@
         <v>16919165</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -23375,7 +23376,7 @@
         <v>18398997</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -23395,7 +23396,7 @@
         <v>22019983</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -23415,7 +23416,7 @@
         <v>54784656</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -23435,7 +23436,7 @@
         <v>2565429</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -23455,7 +23456,7 @@
         <v>1046878</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -23475,7 +23476,7 @@
         <v>8859776</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -23495,7 +23496,7 @@
         <v>13420062</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -23515,7 +23516,7 @@
         <v>197805</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -23535,7 +23536,7 @@
         <v>15951842</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -23555,7 +23556,7 @@
         <v>23620977</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -23575,7 +23576,7 @@
         <v>32074624</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -23595,7 +23596,7 @@
         <v>11654124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -23615,7 +23616,7 @@
         <v>18995452</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -23635,7 +23636,7 @@
         <v>19369862</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -23655,7 +23656,7 @@
         <v>10285751</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -23675,7 +23676,7 @@
         <v>2380540</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -23695,7 +23696,7 @@
         <v>6579461</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -23715,7 +23716,7 @@
         <v>7958709</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -23735,7 +23736,7 @@
         <v>37892196</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -23755,7 +23756,7 @@
         <v>28581321</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -23775,7 +23776,7 @@
         <v>21293840</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -23795,7 +23796,7 @@
         <v>12225495</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -23815,7 +23816,7 @@
         <v>30451903</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -23835,7 +23836,7 @@
         <v>10551121</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -23855,7 +23856,7 @@
         <v>11555067</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -23875,7 +23876,7 @@
         <v>12555500</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -23895,7 +23896,7 @@
         <v>4069728</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -23915,7 +23916,7 @@
         <v>7941106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -23935,7 +23936,7 @@
         <v>15901542</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -23955,7 +23956,7 @@
         <v>7661532</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -23975,7 +23976,7 @@
         <v>19475327</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -23995,7 +23996,7 @@
         <v>22716669</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -24015,7 +24016,7 @@
         <v>9847047</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -24035,7 +24036,7 @@
         <v>26030168</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -24055,7 +24056,7 @@
         <v>37099197</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -24075,7 +24076,7 @@
         <v>518916</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -24095,7 +24096,7 @@
         <v>9847396</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -24115,7 +24116,7 @@
         <v>21055005</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -24135,7 +24136,7 @@
         <v>19339796</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -24155,7 +24156,7 @@
         <v>44117970</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -24175,7 +24176,7 @@
         <v>15510824</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -24195,7 +24196,7 @@
         <v>27722661</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -24215,7 +24216,7 @@
         <v>4035349</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -24235,7 +24236,7 @@
         <v>16814414</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -24255,7 +24256,7 @@
         <v>36257739</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -24275,7 +24276,7 @@
         <v>9488300</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -24307,18 +24308,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24338,7 +24339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -24358,7 +24359,7 @@
         <v>8003375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -24378,7 +24379,7 @@
         <v>11836586</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -24398,7 +24399,7 @@
         <v>16235592</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -24418,7 +24419,7 @@
         <v>17235706</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -24438,7 +24439,7 @@
         <v>24240864</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -24458,7 +24459,7 @@
         <v>53835940</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -24478,7 +24479,7 @@
         <v>2639366</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -24498,7 +24499,7 @@
         <v>1115011</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -24518,7 +24519,7 @@
         <v>6749094</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -24538,7 +24539,7 @@
         <v>13059987</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -24558,7 +24559,7 @@
         <v>166210</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -24578,7 +24579,7 @@
         <v>16185849</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -24598,7 +24599,7 @@
         <v>21246258</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -24618,7 +24619,7 @@
         <v>33839806</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -24638,7 +24639,7 @@
         <v>11722915</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -24658,7 +24659,7 @@
         <v>19133441</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -24678,7 +24679,7 @@
         <v>17236301</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -24698,7 +24699,7 @@
         <v>10142678</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -24718,7 +24719,7 @@
         <v>2372184</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -24738,7 +24739,7 @@
         <v>7061276</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -24758,7 +24759,7 @@
         <v>8163831</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -24778,7 +24779,7 @@
         <v>27928675</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -24798,7 +24799,7 @@
         <v>30376271</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -24818,7 +24819,7 @@
         <v>21067768</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -24838,7 +24839,7 @@
         <v>12192722</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -24858,7 +24859,7 @@
         <v>30671262</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -24878,7 +24879,7 @@
         <v>9029600</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -24898,7 +24899,7 @@
         <v>9065500</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -24918,7 +24919,7 @@
         <v>12620423</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -24938,7 +24939,7 @@
         <v>4062376</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -24958,7 +24959,7 @@
         <v>7892740</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -24978,7 +24979,7 @@
         <v>15681992</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -24998,7 +24999,7 @@
         <v>7129981</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -25018,7 +25019,7 @@
         <v>15266035</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -25038,7 +25039,7 @@
         <v>23397644</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -25058,7 +25059,7 @@
         <v>9321041</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -25078,7 +25079,7 @@
         <v>24965471</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -25098,7 +25099,7 @@
         <v>37098180</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -25118,7 +25119,7 @@
         <v>526112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -25138,7 +25139,7 @@
         <v>8151485</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -25158,7 +25159,7 @@
         <v>20608230</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -25178,7 +25179,7 @@
         <v>17936537</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -25198,7 +25199,7 @@
         <v>43089088</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -25218,7 +25219,7 @@
         <v>14983238</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -25238,7 +25239,7 @@
         <v>27098108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -25258,7 +25259,7 @@
         <v>3858833</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -25278,7 +25279,7 @@
         <v>16470521</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -25298,7 +25299,7 @@
         <v>37297741</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -25318,7 +25319,7 @@
         <v>9757128</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -25350,18 +25351,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -25381,7 +25382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -25401,7 +25402,7 @@
         <v>7882213</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -25421,7 +25422,7 @@
         <v>11519641</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -25441,7 +25442,7 @@
         <v>15437054.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -25461,7 +25462,7 @@
         <v>16347748</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -25481,7 +25482,7 @@
         <v>23732811</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -25501,7 +25502,7 @@
         <v>53153936.93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -25521,7 +25522,7 @@
         <v>2570771</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -25541,7 +25542,7 @@
         <v>1094480</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -25561,7 +25562,7 @@
         <v>6528841</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -25581,7 +25582,7 @@
         <v>12140229</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -25601,7 +25602,7 @@
         <v>150845</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -25621,7 +25622,7 @@
         <v>20948972</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -25641,7 +25642,7 @@
         <v>20668729</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -25661,7 +25662,7 @@
         <v>34226265</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -25681,7 +25682,7 @@
         <v>11580658</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -25701,7 +25702,7 @@
         <v>19519927</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -25721,7 +25722,7 @@
         <v>16219035</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -25741,7 +25742,7 @@
         <v>9830975</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -25761,7 +25762,7 @@
         <v>2307232</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -25781,7 +25782,7 @@
         <v>6127070</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -25801,7 +25802,7 @@
         <v>7844318</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -25821,7 +25822,7 @@
         <v>27905983</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -25841,7 +25842,7 @@
         <v>28861618</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -25861,7 +25862,7 @@
         <v>20745168</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -25881,7 +25882,7 @@
         <v>5519969</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -25901,7 +25902,7 @@
         <v>30408857</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -25921,7 +25922,7 @@
         <v>8363093</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -25941,7 +25942,7 @@
         <v>9442944</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -25961,7 +25962,7 @@
         <v>12803379</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -25981,7 +25982,7 @@
         <v>3838149</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -26001,7 +26002,7 @@
         <v>7572966</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -26021,7 +26022,7 @@
         <v>15575117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -26041,7 +26042,7 @@
         <v>6735261</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -26061,7 +26062,7 @@
         <v>27042363</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -26081,7 +26082,7 @@
         <v>23846473</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -26101,7 +26102,7 @@
         <v>9096601</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -26121,7 +26122,7 @@
         <v>25566159</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -26141,7 +26142,7 @@
         <v>36676090</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -26161,7 +26162,7 @@
         <v>500979</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -26181,7 +26182,7 @@
         <v>7961337</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -26201,7 +26202,7 @@
         <v>20799163</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -26221,7 +26222,7 @@
         <v>17392725</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -26241,7 +26242,7 @@
         <v>41125300</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -26261,7 +26262,7 @@
         <v>13876849</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -26281,7 +26282,7 @@
         <v>26079622</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -26301,7 +26302,7 @@
         <v>3860543</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -26321,7 +26322,7 @@
         <v>16457582</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -26341,7 +26342,7 @@
         <v>37705555</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -26361,7 +26362,7 @@
         <v>9435005</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -26393,18 +26394,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -26424,7 +26425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -26444,7 +26445,7 @@
         <v>7618878</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -26464,7 +26465,7 @@
         <v>10836731</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -26484,7 +26485,7 @@
         <v>14445976</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -26504,7 +26505,7 @@
         <v>15831617</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -26524,7 +26525,7 @@
         <v>23732811</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -26544,7 +26545,7 @@
         <v>51900753</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -26564,7 +26565,7 @@
         <v>2488962</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -26584,7 +26585,7 @@
         <v>796288</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -26604,7 +26605,7 @@
         <v>6425255</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -26624,7 +26625,7 @@
         <v>12089507</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -26644,7 +26645,7 @@
         <v>107248</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -26664,7 +26665,7 @@
         <v>21024208</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -26684,7 +26685,7 @@
         <v>20502404</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -26704,7 +26705,7 @@
         <v>34034658</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -26724,7 +26725,7 @@
         <v>10913162</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -26744,7 +26745,7 @@
         <v>19349536</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -26764,7 +26765,7 @@
         <v>15777338</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -26784,7 +26785,7 @@
         <v>9618204</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -26804,7 +26805,7 @@
         <v>1985889</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -26824,7 +26825,7 @@
         <v>6473257</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -26844,7 +26845,7 @@
         <v>7756019</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -26864,7 +26865,7 @@
         <v>28209487</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -26884,7 +26885,7 @@
         <v>28227650</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -26904,7 +26905,7 @@
         <v>20166161</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -26924,7 +26925,7 @@
         <v>10997950</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -26944,7 +26945,7 @@
         <v>30109586</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -26964,7 +26965,7 @@
         <v>8205333</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -26984,7 +26985,7 @@
         <v>10274458</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -27004,7 +27005,7 @@
         <v>13675739</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -27024,7 +27025,7 @@
         <v>3749891</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -27044,7 +27045,7 @@
         <v>7374116</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -27064,7 +27065,7 @@
         <v>14964852</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -27084,7 +27085,7 @@
         <v>5759792</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -27104,7 +27105,7 @@
         <v>25243987</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -27124,7 +27125,7 @@
         <v>23745236</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -27144,7 +27145,7 @@
         <v>8580769</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -27164,7 +27165,7 @@
         <v>24153180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -27184,7 +27185,7 @@
         <v>36341882</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -27204,7 +27205,7 @@
         <v>433729</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -27224,7 +27225,7 @@
         <v>7896347</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -27244,7 +27245,7 @@
         <v>21659602</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -27264,7 +27265,7 @@
         <v>17517015</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -27284,7 +27285,7 @@
         <v>39245925</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -27304,7 +27305,7 @@
         <v>13536213</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -27324,7 +27325,7 @@
         <v>19025387</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -27344,7 +27345,7 @@
         <v>3837278</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -27364,7 +27365,7 @@
         <v>15731394</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -27384,7 +27385,7 @@
         <v>37480065</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -27404,7 +27405,7 @@
         <v>9402629</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -27436,18 +27437,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -27467,7 +27468,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -27487,7 +27488,7 @@
         <v>7461882.5199999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -27507,7 +27508,7 @@
         <v>10885869</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1">
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -27527,7 +27528,7 @@
         <v>14055950</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1">
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -27547,7 +27548,7 @@
         <v>16133065</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -27567,7 +27568,7 @@
         <v>22958260</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -27587,7 +27588,7 @@
         <v>54266039</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -27607,7 +27608,7 @@
         <v>2869447</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1">
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -27627,7 +27628,7 @@
         <v>952675</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -27647,7 +27648,7 @@
         <v>6479323</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -27667,7 +27668,7 @@
         <v>12673910</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1">
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -27687,7 +27688,7 @@
         <v>153025</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1">
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -27707,7 +27708,7 @@
         <v>21526044</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1">
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -27727,7 +27728,7 @@
         <v>20808219</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1">
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -27747,7 +27748,7 @@
         <v>35368658</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1">
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -27767,7 +27768,7 @@
         <v>10697596</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1">
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -27787,7 +27788,7 @@
         <v>19477815</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -27807,7 +27808,7 @@
         <v>15447775</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -27827,7 +27828,7 @@
         <v>9556402</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1">
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -27847,7 +27848,7 @@
         <v>1853277</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -27867,7 +27868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -27887,7 +27888,7 @@
         <v>7969557</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -27907,7 +27908,7 @@
         <v>28889568</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -27927,7 +27928,7 @@
         <v>27409457</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -27947,7 +27948,7 @@
         <v>20259056</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1">
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -27967,7 +27968,7 @@
         <v>9553348</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1">
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -27987,7 +27988,7 @@
         <v>27078419</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -28007,7 +28008,7 @@
         <v>8749950</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -28027,7 +28028,7 @@
         <v>11190485</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1">
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -28047,7 +28048,7 @@
         <v>13220169</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1">
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -28067,7 +28068,7 @@
         <v>3864106</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -28087,7 +28088,7 @@
         <v>8001660</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -28107,7 +28108,7 @@
         <v>18317305</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -28127,7 +28128,7 @@
         <v>5577120</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -28147,7 +28148,7 @@
         <v>23843504.57</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -28167,7 +28168,7 @@
         <v>11095058</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -28187,7 +28188,7 @@
         <v>8382917</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -28207,7 +28208,7 @@
         <v>25332873</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -28227,7 +28228,7 @@
         <v>37025397</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -28247,7 +28248,7 @@
         <v>175352</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -28267,7 +28268,7 @@
         <v>5910342</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -28287,7 +28288,7 @@
         <v>22480991</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -28307,7 +28308,7 @@
         <v>16861196</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -28327,7 +28328,7 @@
         <v>40485651</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -28347,7 +28348,7 @@
         <v>13974652</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -28367,7 +28368,7 @@
         <v>15871529</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -28387,7 +28388,7 @@
         <v>4343881</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -28407,7 +28408,7 @@
         <v>14536667</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -28427,7 +28428,7 @@
         <v>38457001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -28447,7 +28448,7 @@
         <v>9926273</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>

--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" firstSheet="12" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="19" r:id="rId1"/>
@@ -1044,9 +1044,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1098,17 +1106,25 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -12085,8 +12101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -12128,31 +12144,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <f>'2018'!B2</f>
         <v>108921</v>
       </c>
       <c r="C2" s="6">
-        <f>'2018'!C2</f>
         <v>278248</v>
       </c>
       <c r="D2" s="6">
-        <f>'2018'!D2</f>
         <v>74532</v>
       </c>
       <c r="E2" s="6">
-        <f>'2018'!E2</f>
         <v>352780</v>
       </c>
       <c r="F2" s="6">
-        <f>Notes!B9</f>
         <v>2922692</v>
       </c>
       <c r="G2" s="6">
-        <f>Notes!C9</f>
         <v>5568901</v>
       </c>
       <c r="H2" s="7">
-        <f>'2018'!F2</f>
         <v>8491593</v>
       </c>
       <c r="I2" s="17">
@@ -12166,31 +12175,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <f>'2018'!B3</f>
         <v>547905</v>
       </c>
       <c r="C3" s="6">
-        <f>'2018'!C3</f>
         <v>542838</v>
       </c>
       <c r="D3" s="6">
-        <f>'2018'!D3</f>
         <v>37106</v>
       </c>
       <c r="E3" s="6">
-        <f>'2018'!E3</f>
         <v>579944</v>
       </c>
       <c r="F3" s="6">
-        <f>Notes!B10</f>
         <v>5693734</v>
       </c>
       <c r="G3" s="6">
-        <f>Notes!C10</f>
         <v>6107717</v>
       </c>
       <c r="H3" s="7">
-        <f>'2018'!F3</f>
         <v>11801451</v>
       </c>
       <c r="I3" s="17">
@@ -12204,31 +12206,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <f>'2018'!B4</f>
         <v>326559</v>
       </c>
       <c r="C4" s="6">
-        <f>'2018'!C4</f>
         <v>380102</v>
       </c>
       <c r="D4" s="6">
-        <f>'2018'!D4</f>
         <v>136944</v>
       </c>
       <c r="E4" s="6">
-        <f>'2018'!E4</f>
         <v>517046</v>
       </c>
       <c r="F4" s="6">
-        <f>Notes!B11</f>
         <v>8186097</v>
       </c>
       <c r="G4" s="6">
-        <f>Notes!C11</f>
         <v>10579420</v>
       </c>
       <c r="H4" s="7">
-        <f>'2018'!F4</f>
         <v>18765517</v>
       </c>
       <c r="I4" s="17">
@@ -12242,31 +12237,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <f>'2018'!B5</f>
         <v>305214</v>
       </c>
       <c r="C5" s="6">
-        <f>'2018'!C5</f>
         <v>456140</v>
       </c>
       <c r="D5" s="6">
-        <f>'2018'!D5</f>
         <v>61607</v>
       </c>
       <c r="E5" s="6">
-        <f>'2018'!E5</f>
         <v>517747</v>
       </c>
       <c r="F5" s="6">
-        <f>Notes!B12</f>
         <v>13358303</v>
       </c>
       <c r="G5" s="6">
-        <f>Notes!C12</f>
         <v>4515780</v>
       </c>
       <c r="H5" s="7">
-        <f>'2018'!F5</f>
         <v>17874083</v>
       </c>
       <c r="I5" s="17">
@@ -12279,31 +12267,24 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <f>'2018'!B6</f>
         <v>280967</v>
       </c>
       <c r="C6" s="6">
-        <f>'2018'!C6</f>
         <v>1007422</v>
       </c>
       <c r="D6" s="6">
-        <f>'2018'!D6</f>
         <v>22738</v>
       </c>
       <c r="E6" s="6">
-        <f>'2018'!E6</f>
         <v>1030160</v>
       </c>
       <c r="F6" s="6">
-        <f>Notes!B13</f>
         <v>20609712</v>
       </c>
       <c r="G6" s="6">
-        <f>Notes!C13</f>
         <v>1006282</v>
       </c>
       <c r="H6" s="7">
-        <f>'2018'!F6</f>
         <v>21615994</v>
       </c>
       <c r="I6" s="17">
@@ -12316,31 +12297,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <f>'2018'!B7</f>
         <v>294319</v>
       </c>
       <c r="C7" s="6">
-        <f>'2018'!C7</f>
         <v>459518</v>
       </c>
       <c r="D7" s="6">
-        <f>'2018'!D7</f>
         <v>109246</v>
       </c>
       <c r="E7" s="6">
-        <f>'2018'!E7</f>
         <v>568764</v>
       </c>
       <c r="F7" s="6">
-        <f>Notes!B14</f>
         <v>12751122</v>
       </c>
       <c r="G7" s="6">
-        <f>Notes!C14</f>
         <v>44305473</v>
       </c>
       <c r="H7" s="7">
-        <f>'2018'!F7</f>
         <v>57056595</v>
       </c>
       <c r="I7" s="17">
@@ -12353,31 +12327,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <f>'2018'!B8</f>
         <v>37489</v>
       </c>
       <c r="C8" s="6">
-        <f>'2018'!C8</f>
         <v>124169</v>
       </c>
       <c r="D8" s="6">
-        <f>'2018'!D8</f>
         <v>4063</v>
       </c>
       <c r="E8" s="6">
-        <f>'2018'!E8</f>
         <v>128232</v>
       </c>
       <c r="F8" s="6">
-        <f>Notes!B15</f>
         <v>2085367</v>
       </c>
       <c r="G8" s="6">
-        <f>Notes!C15</f>
         <v>394950</v>
       </c>
       <c r="H8" s="7">
-        <f>'2018'!F8</f>
         <v>2480317</v>
       </c>
       <c r="I8" s="17">
@@ -12390,31 +12357,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <f>'2018'!B9</f>
         <v>17847</v>
       </c>
       <c r="C9" s="6">
-        <f>'2018'!C9</f>
         <v>52315</v>
       </c>
       <c r="D9" s="6">
-        <f>'2018'!D9</f>
         <v>7125</v>
       </c>
       <c r="E9" s="6">
-        <f>'2018'!E9</f>
         <v>59440</v>
       </c>
       <c r="F9" s="6">
-        <f>Notes!B16</f>
         <v>632742</v>
       </c>
       <c r="G9" s="6">
-        <f>Notes!C16</f>
         <v>372462</v>
       </c>
       <c r="H9" s="7">
-        <f>'2018'!F9</f>
         <v>1005204</v>
       </c>
       <c r="I9" s="17">
@@ -12427,31 +12387,24 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <f>'2018'!B10</f>
         <v>190232</v>
       </c>
       <c r="C10" s="6">
-        <f>'2018'!C10</f>
         <v>313554</v>
       </c>
       <c r="D10" s="6">
-        <f>'2018'!D10</f>
         <v>18155</v>
       </c>
       <c r="E10" s="6">
-        <f>'2018'!E10</f>
         <v>331709</v>
       </c>
       <c r="F10" s="6">
-        <f>Notes!B17</f>
         <v>7890888</v>
       </c>
       <c r="G10" s="6">
-        <f>Notes!C17</f>
         <v>984031</v>
       </c>
       <c r="H10" s="7">
-        <f>'2018'!F10</f>
         <v>8874919</v>
       </c>
       <c r="I10" s="17">
@@ -12464,31 +12417,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <f>'2018'!B11</f>
         <v>651910</v>
       </c>
       <c r="C11" s="6">
-        <f>'2018'!C11</f>
         <v>1297350</v>
       </c>
       <c r="D11" s="6">
-        <f>'2018'!D11</f>
         <v>166091</v>
       </c>
       <c r="E11" s="6">
-        <f>'2018'!E11</f>
         <v>1463441</v>
       </c>
       <c r="F11" s="6">
-        <f>Notes!B18</f>
         <v>6627327</v>
       </c>
       <c r="G11" s="6">
-        <f>Notes!C18</f>
         <v>7132438</v>
       </c>
       <c r="H11" s="7">
-        <f>'2018'!F11</f>
         <v>13759765</v>
       </c>
       <c r="I11" s="17">
@@ -12501,31 +12447,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <f>'2018'!B12</f>
         <v>10617</v>
       </c>
       <c r="C12" s="6">
-        <f>'2018'!C12</f>
         <v>11068</v>
       </c>
       <c r="D12" s="1">
-        <f>'2018'!D12</f>
         <v>734</v>
       </c>
       <c r="E12" s="6">
-        <f>'2018'!E12</f>
         <v>11802</v>
       </c>
       <c r="F12" s="6">
-        <f>Notes!B19</f>
         <v>501285</v>
       </c>
       <c r="G12" s="6">
-        <f>Notes!C19</f>
         <v>77070</v>
       </c>
       <c r="H12" s="7">
-        <f>'2018'!F12</f>
         <v>578355</v>
       </c>
       <c r="I12" s="17">
@@ -12538,31 +12477,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <f>'2018'!B13</f>
         <v>223232</v>
       </c>
       <c r="C13" s="6">
-        <f>'2018'!C13</f>
         <v>516446</v>
       </c>
       <c r="D13" s="6">
-        <f>'2018'!D13</f>
         <v>67438</v>
       </c>
       <c r="E13" s="6">
-        <f>'2018'!E13</f>
         <v>583884</v>
       </c>
       <c r="F13" s="6">
-        <f>Notes!B20</f>
         <v>10772431</v>
       </c>
       <c r="G13" s="6">
-        <f>Notes!C20</f>
         <v>6940825</v>
       </c>
       <c r="H13" s="7">
-        <f>'2018'!F13</f>
         <v>17713256</v>
       </c>
       <c r="I13" s="17">
@@ -12575,31 +12507,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <f>'2018'!B14</f>
         <v>286947</v>
       </c>
       <c r="C14" s="6">
-        <f>'2018'!C14</f>
         <v>1047773</v>
       </c>
       <c r="D14" s="6">
-        <f>'2018'!D14</f>
         <v>159224</v>
       </c>
       <c r="E14" s="6">
-        <f>'2018'!E14</f>
         <v>1206997</v>
       </c>
       <c r="F14" s="6">
-        <f>Notes!B21</f>
         <v>10454861</v>
       </c>
       <c r="G14" s="6">
-        <f>Notes!C21</f>
         <v>15200880</v>
       </c>
       <c r="H14" s="7">
-        <f>'2018'!F14</f>
         <v>25655741</v>
       </c>
       <c r="I14" s="17">
@@ -12612,31 +12537,24 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <f>'2018'!B15</f>
         <v>306024</v>
       </c>
       <c r="C15" s="6">
-        <f>'2018'!C15</f>
         <v>1203507</v>
       </c>
       <c r="D15" s="6">
-        <f>'2018'!D15</f>
         <v>83025</v>
       </c>
       <c r="E15" s="6">
-        <f>'2018'!E15</f>
         <v>1286532</v>
       </c>
       <c r="F15" s="6">
-        <f>Notes!B22</f>
         <v>16424426</v>
       </c>
       <c r="G15" s="6">
-        <f>Notes!C22</f>
         <v>15520789</v>
       </c>
       <c r="H15" s="7">
-        <f>'2018'!F15</f>
         <v>31945215</v>
       </c>
       <c r="I15" s="17">
@@ -12649,31 +12567,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <f>'2018'!B16</f>
         <v>267447</v>
       </c>
       <c r="C16" s="6">
-        <f>'2018'!C16</f>
         <v>383958</v>
       </c>
       <c r="D16" s="6">
-        <f>'2018'!D16</f>
         <v>20781</v>
       </c>
       <c r="E16" s="6">
-        <f>'2018'!E16</f>
         <v>404739</v>
       </c>
       <c r="F16" s="6">
-        <f>Notes!B23</f>
         <v>9358292</v>
       </c>
       <c r="G16" s="6">
-        <f>Notes!C23</f>
         <v>2300953</v>
       </c>
       <c r="H16" s="7">
-        <f>'2018'!F16</f>
         <v>11659245</v>
       </c>
       <c r="I16" s="17">
@@ -12686,31 +12597,24 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <f>'2018'!B17</f>
         <v>251390</v>
       </c>
       <c r="C17" s="6">
-        <f>'2018'!C17</f>
         <v>349199</v>
       </c>
       <c r="D17" s="6">
-        <f>'2018'!D17</f>
         <v>170676</v>
       </c>
       <c r="E17" s="6">
-        <f>'2018'!E17</f>
         <v>519875</v>
       </c>
       <c r="F17" s="6">
-        <f>Notes!B24</f>
         <v>6732462</v>
       </c>
       <c r="G17" s="6">
-        <f>Notes!C24</f>
         <v>12704150</v>
       </c>
       <c r="H17" s="7">
-        <f>'2018'!F17</f>
         <v>19436612</v>
       </c>
       <c r="I17" s="17">
@@ -12723,31 +12627,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <f>'2018'!B18</f>
         <v>352408</v>
       </c>
       <c r="C18" s="6">
-        <f>'2018'!C18</f>
         <v>512113</v>
       </c>
       <c r="D18" s="6">
-        <f>'2018'!D18</f>
         <v>102629</v>
       </c>
       <c r="E18" s="6">
-        <f>'2018'!E18</f>
         <v>614742</v>
       </c>
       <c r="F18" s="6">
-        <f>Notes!B25</f>
         <v>12059992</v>
       </c>
       <c r="G18" s="6">
-        <f>Notes!C25</f>
         <v>7727579</v>
       </c>
       <c r="H18" s="7">
-        <f>'2018'!F18</f>
         <v>19787571</v>
       </c>
       <c r="I18" s="17">
@@ -12760,31 +12657,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <f>'2018'!B19</f>
         <v>398808</v>
       </c>
       <c r="C19" s="6">
-        <f>'2018'!C19</f>
         <v>605336</v>
       </c>
       <c r="D19" s="6">
-        <f>'2018'!D19</f>
         <v>53323</v>
       </c>
       <c r="E19" s="6">
-        <f>'2018'!E19</f>
         <v>658659</v>
       </c>
       <c r="F19" s="6">
-        <f>Notes!B26</f>
         <v>7954155</v>
       </c>
       <c r="G19" s="6">
-        <f>Notes!C26</f>
         <v>2043839</v>
       </c>
       <c r="H19" s="7">
-        <f>'2018'!F19</f>
         <v>9997994</v>
       </c>
       <c r="I19" s="17">
@@ -12797,31 +12687,24 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <f>'2018'!B20</f>
         <v>57921</v>
       </c>
       <c r="C20" s="6">
-        <f>'2018'!C20</f>
         <v>246052</v>
       </c>
       <c r="D20" s="6">
-        <f>'2018'!D20</f>
         <v>15504</v>
       </c>
       <c r="E20" s="6">
-        <f>'2018'!E20</f>
         <v>261556</v>
       </c>
       <c r="F20" s="6">
-        <f>Notes!B27</f>
         <v>2009739</v>
       </c>
       <c r="G20" s="6">
-        <f>Notes!C27</f>
         <v>396357</v>
       </c>
       <c r="H20" s="7">
-        <f>'2018'!F20</f>
         <v>2406096</v>
       </c>
       <c r="I20" s="17">
@@ -12834,31 +12717,24 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <f>'2018'!B21</f>
         <v>120334</v>
       </c>
       <c r="C21" s="6">
-        <f>'2018'!C21</f>
         <v>284941</v>
       </c>
       <c r="D21" s="6">
-        <f>'2018'!D21</f>
         <v>60270</v>
       </c>
       <c r="E21" s="6">
-        <f>'2018'!E21</f>
         <v>345211</v>
       </c>
       <c r="F21" s="6">
-        <f>Notes!B28</f>
         <v>3394548</v>
       </c>
       <c r="G21" s="6">
-        <f>Notes!C28</f>
         <v>2974503</v>
       </c>
       <c r="H21" s="7">
-        <f>'2018'!F21</f>
         <v>6369051</v>
       </c>
       <c r="I21" s="17">
@@ -12871,31 +12747,24 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <f>'2018'!B22</f>
         <v>163191</v>
       </c>
       <c r="C22" s="6">
-        <f>'2018'!C22</f>
         <v>214767</v>
       </c>
       <c r="D22" s="6">
-        <f>'2018'!D22</f>
         <v>34323</v>
       </c>
       <c r="E22" s="6">
-        <f>'2018'!E22</f>
         <v>249090</v>
       </c>
       <c r="F22" s="6">
-        <f>Notes!B29</f>
         <v>4635181</v>
       </c>
       <c r="G22" s="6">
-        <f>Notes!C29</f>
         <v>3236598</v>
       </c>
       <c r="H22" s="7">
-        <f>'2018'!F22</f>
         <v>7871779</v>
       </c>
       <c r="I22" s="17">
@@ -12908,31 +12777,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <f>'2018'!B23</f>
         <v>706101</v>
       </c>
       <c r="C23" s="6">
-        <f>'2018'!C23</f>
         <v>2171384</v>
       </c>
       <c r="D23" s="6">
-        <f>'2018'!D23</f>
         <v>52786</v>
       </c>
       <c r="E23" s="6">
-        <f>'2018'!E23</f>
         <v>2224170</v>
       </c>
       <c r="F23" s="6">
-        <f>Notes!B30</f>
         <v>33009073</v>
       </c>
       <c r="G23" s="6">
-        <f>Notes!C30</f>
         <v>4045709</v>
       </c>
       <c r="H23" s="7">
-        <f>'2018'!F23</f>
         <v>37054782</v>
       </c>
       <c r="I23" s="17">
@@ -12945,31 +12807,24 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <f>'2018'!B24</f>
         <v>568057</v>
       </c>
       <c r="C24" s="6">
-        <f>'2018'!C24</f>
         <v>1376759</v>
       </c>
       <c r="D24" s="6">
-        <f>'2018'!D24</f>
         <v>44245</v>
       </c>
       <c r="E24" s="6">
-        <f>'2018'!E24</f>
         <v>1421004</v>
       </c>
       <c r="F24" s="6">
-        <f>Notes!B31</f>
         <v>27229500</v>
       </c>
       <c r="G24" s="6">
-        <f>Notes!C31</f>
         <v>3495674</v>
       </c>
       <c r="H24" s="7">
-        <f>'2018'!F24</f>
         <v>30725174</v>
       </c>
       <c r="I24" s="17">
@@ -12982,31 +12837,24 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <f>'2018'!B25</f>
         <v>498319</v>
       </c>
       <c r="C25" s="6">
-        <f>'2018'!C25</f>
         <v>1702400</v>
       </c>
       <c r="D25" s="6">
-        <f>'2018'!D25</f>
         <v>79919</v>
       </c>
       <c r="E25" s="6">
-        <f>'2018'!E25</f>
         <v>1782319</v>
       </c>
       <c r="F25" s="6">
-        <f>Notes!B32</f>
         <v>12585185</v>
       </c>
       <c r="G25" s="6">
-        <f>Notes!C32</f>
         <v>8708655</v>
       </c>
       <c r="H25" s="7">
-        <f>'2018'!F25</f>
         <v>21293840</v>
       </c>
       <c r="I25" s="17">
@@ -13019,31 +12867,24 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <f>'2018'!B26</f>
         <v>300146</v>
       </c>
       <c r="C26" s="6">
-        <f>'2018'!C26</f>
         <v>335324</v>
       </c>
       <c r="D26" s="6">
-        <f>'2018'!D26</f>
         <v>91402</v>
       </c>
       <c r="E26" s="6">
-        <f>'2018'!E26</f>
         <v>426726</v>
       </c>
       <c r="F26" s="6">
-        <f>Notes!B33</f>
         <v>4023594</v>
       </c>
       <c r="G26" s="6">
-        <f>Notes!C33</f>
         <v>8249067</v>
       </c>
       <c r="H26" s="7">
-        <f>'2018'!F26</f>
         <v>12272661</v>
       </c>
       <c r="I26" s="17">
@@ -13056,31 +12897,24 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <f>'2018'!B27</f>
         <v>253412</v>
       </c>
       <c r="C27" s="6">
-        <f>'2018'!C27</f>
         <v>873323</v>
       </c>
       <c r="D27" s="6">
-        <f>'2018'!D27</f>
         <v>155658</v>
       </c>
       <c r="E27" s="6">
-        <f>'2018'!E27</f>
         <v>1028981</v>
       </c>
       <c r="F27" s="6">
-        <f>Notes!B34</f>
         <v>9459094</v>
       </c>
       <c r="G27" s="6">
-        <f>Notes!C34</f>
         <v>23458615</v>
       </c>
       <c r="H27" s="7">
-        <f>'2018'!F27</f>
         <v>32917709</v>
       </c>
       <c r="I27" s="17">
@@ -13093,31 +12927,24 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <f>'2018'!B28</f>
         <v>585766</v>
       </c>
       <c r="C28" s="6">
-        <f>'2018'!C28</f>
         <v>319136</v>
       </c>
       <c r="D28" s="6">
-        <f>'2018'!D28</f>
         <v>25626</v>
       </c>
       <c r="E28" s="6">
-        <f>'2018'!E28</f>
         <v>344762</v>
       </c>
       <c r="F28" s="6">
-        <f>Notes!B35</f>
         <v>8629779</v>
       </c>
       <c r="G28" s="6">
-        <f>Notes!C35</f>
         <v>2127935</v>
       </c>
       <c r="H28" s="7">
-        <f>'2018'!F28</f>
         <v>10757714</v>
       </c>
       <c r="I28" s="17">
@@ -13130,31 +12957,24 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <f>'2018'!B29</f>
         <v>141553</v>
       </c>
       <c r="C29" s="6">
-        <f>'2018'!C29</f>
         <v>362554</v>
       </c>
       <c r="D29" s="6">
-        <f>'2018'!D29</f>
         <v>157801</v>
       </c>
       <c r="E29" s="6">
-        <f>'2018'!E29</f>
         <v>520355</v>
       </c>
       <c r="F29" s="6">
-        <f>Notes!B36</f>
         <v>4257890</v>
       </c>
       <c r="G29" s="6">
-        <f>Notes!C36</f>
         <v>7553355</v>
       </c>
       <c r="H29" s="7">
-        <f>'2018'!F29</f>
         <v>11811245</v>
       </c>
       <c r="I29" s="17">
@@ -13167,31 +12987,24 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <f>'2018'!B30</f>
         <v>183056</v>
       </c>
       <c r="C30" s="6">
-        <f>'2018'!C30</f>
         <v>339053</v>
       </c>
       <c r="D30" s="6">
-        <f>'2018'!D30</f>
         <v>90202</v>
       </c>
       <c r="E30" s="6">
-        <f>'2018'!E30</f>
         <v>429255</v>
       </c>
       <c r="F30" s="6">
-        <f>Notes!B37</f>
         <v>7565754</v>
       </c>
       <c r="G30" s="6">
-        <f>Notes!C37</f>
         <v>5935707</v>
       </c>
       <c r="H30" s="7">
-        <f>'2018'!F30</f>
         <v>13501461</v>
       </c>
       <c r="I30" s="17">
@@ -13204,31 +13017,24 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <f>'2018'!B31</f>
         <v>58099</v>
       </c>
       <c r="C31" s="6">
-        <f>'2018'!C31</f>
         <v>186931</v>
       </c>
       <c r="D31" s="6">
-        <f>'2018'!D31</f>
         <v>31411</v>
       </c>
       <c r="E31" s="6">
-        <f>'2018'!E31</f>
         <v>218342</v>
       </c>
       <c r="F31" s="6">
-        <f>Notes!B38</f>
         <v>2646432</v>
       </c>
       <c r="G31" s="6">
-        <f>Notes!C38</f>
         <v>1370915</v>
       </c>
       <c r="H31" s="7">
-        <f>'2018'!F31</f>
         <v>4017347</v>
       </c>
       <c r="I31" s="17">
@@ -13241,31 +13047,24 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <f>'2018'!B32</f>
         <v>74794</v>
       </c>
       <c r="C32" s="6">
-        <f>'2018'!C32</f>
         <v>303795</v>
       </c>
       <c r="D32" s="6">
-        <f>'2018'!D32</f>
         <v>118442</v>
       </c>
       <c r="E32" s="6">
-        <f>'2018'!E32</f>
         <v>422237</v>
       </c>
       <c r="F32" s="6">
-        <f>Notes!B39</f>
         <v>6981229</v>
       </c>
       <c r="G32" s="6">
-        <f>Notes!C39</f>
         <v>1147736</v>
       </c>
       <c r="H32" s="7">
-        <f>'2018'!F32</f>
         <v>8128965</v>
       </c>
       <c r="I32" s="17">
@@ -13278,31 +13077,24 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <f>'2018'!B33</f>
         <v>107331</v>
       </c>
       <c r="C33" s="6">
-        <f>'2018'!C33</f>
         <v>329423</v>
       </c>
       <c r="D33" s="6">
-        <f>'2018'!D33</f>
         <v>112483</v>
       </c>
       <c r="E33" s="6">
-        <f>'2018'!E33</f>
         <v>441906</v>
       </c>
       <c r="F33" s="6">
-        <f>Notes!B40</f>
         <v>5866269</v>
       </c>
       <c r="G33" s="6">
-        <f>Notes!C40</f>
         <v>10319383</v>
       </c>
       <c r="H33" s="7">
-        <f>'2018'!F33</f>
         <v>16185652</v>
       </c>
       <c r="I33" s="17">
@@ -13315,31 +13107,24 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <f>'2018'!B34</f>
         <v>68744</v>
       </c>
       <c r="C34" s="6">
-        <f>'2018'!C34</f>
         <v>123271</v>
       </c>
       <c r="D34" s="6">
-        <f>'2018'!D34</f>
         <v>26840</v>
       </c>
       <c r="E34" s="6">
-        <f>'2018'!E34</f>
         <v>150111</v>
       </c>
       <c r="F34" s="6">
-        <f>Notes!B41</f>
         <v>3920404</v>
       </c>
       <c r="G34" s="6">
-        <f>Notes!C41</f>
         <v>3829980</v>
       </c>
       <c r="H34" s="7">
-        <f>'2018'!F34</f>
         <v>7750384</v>
       </c>
       <c r="I34" s="17">
@@ -13352,31 +13137,24 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <f>'2018'!B35</f>
         <v>579043</v>
       </c>
       <c r="C35" s="6">
-        <f>'2018'!C35</f>
         <v>1117576</v>
       </c>
       <c r="D35" s="6">
-        <f>'2018'!D35</f>
         <v>48773</v>
       </c>
       <c r="E35" s="6">
-        <f>'2018'!E35</f>
         <v>1166349</v>
       </c>
       <c r="F35" s="6">
-        <f>Notes!B42</f>
         <v>17441081</v>
       </c>
       <c r="G35" s="6">
-        <f>Notes!C42</f>
         <v>4177215</v>
       </c>
       <c r="H35" s="7">
-        <f>'2018'!F35</f>
         <v>21618296</v>
       </c>
       <c r="I35" s="17">
@@ -13389,31 +13167,24 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <f>'2018'!B36</f>
         <v>390268</v>
       </c>
       <c r="C36" s="6">
-        <f>'2018'!C36</f>
         <v>895099</v>
       </c>
       <c r="D36" s="6">
-        <f>'2018'!D36</f>
         <v>100065</v>
       </c>
       <c r="E36" s="6">
-        <f>'2018'!E36</f>
         <v>995164</v>
       </c>
       <c r="F36" s="6">
-        <f>Notes!B43</f>
         <v>16259079</v>
       </c>
       <c r="G36" s="6">
-        <f>Notes!C43</f>
         <v>6378876</v>
       </c>
       <c r="H36" s="7">
-        <f>'2018'!F36</f>
         <v>22637955</v>
       </c>
       <c r="I36" s="17">
@@ -13426,31 +13197,24 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <f>'2018'!B37</f>
         <v>529651</v>
       </c>
       <c r="C37" s="6">
-        <f>'2018'!C37</f>
         <v>377498</v>
       </c>
       <c r="D37" s="6">
-        <f>'2018'!D37</f>
         <v>22740</v>
       </c>
       <c r="E37" s="6">
-        <f>'2018'!E37</f>
         <v>400238</v>
       </c>
       <c r="F37" s="6">
-        <f>Notes!B44</f>
         <v>5735625</v>
       </c>
       <c r="G37" s="6">
-        <f>Notes!C44</f>
         <v>3870723</v>
       </c>
       <c r="H37" s="7">
-        <f>'2018'!F37</f>
         <v>9606348</v>
       </c>
       <c r="I37" s="17">
@@ -13463,31 +13227,24 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <f>'2018'!B38</f>
         <v>264684</v>
       </c>
       <c r="C38" s="6">
-        <f>'2018'!C38</f>
         <v>1173427</v>
       </c>
       <c r="D38" s="6">
-        <f>'2018'!D38</f>
         <v>49243</v>
       </c>
       <c r="E38" s="6">
-        <f>'2018'!E38</f>
         <v>1222670</v>
       </c>
       <c r="F38" s="6">
-        <f>Notes!B45</f>
         <v>20982703</v>
       </c>
       <c r="G38" s="6">
-        <f>Notes!C45</f>
         <v>5416770</v>
       </c>
       <c r="H38" s="7">
-        <f>'2018'!F38</f>
         <v>26399473</v>
       </c>
       <c r="I38" s="17">
@@ -13500,31 +13257,24 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <f>'2018'!B39</f>
         <v>975650</v>
       </c>
       <c r="C39" s="6">
-        <f>'2018'!C39</f>
         <v>2468652</v>
       </c>
       <c r="D39" s="6">
-        <f>'2018'!D39</f>
         <v>101278</v>
       </c>
       <c r="E39" s="6">
-        <f>'2018'!E39</f>
         <v>2569930</v>
       </c>
       <c r="F39" s="6">
-        <f>Notes!B46</f>
         <v>30352406</v>
       </c>
       <c r="G39" s="6">
-        <f>Notes!C46</f>
         <v>6079410</v>
       </c>
       <c r="H39" s="7">
-        <f>'2018'!F39</f>
         <v>36431816</v>
       </c>
       <c r="I39" s="17">
@@ -13537,31 +13287,24 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <f>'2018'!B40</f>
         <v>8209</v>
       </c>
       <c r="C40" s="6">
-        <f>'2018'!C40</f>
         <v>26515</v>
       </c>
       <c r="D40" s="6">
-        <f>'2018'!D40</f>
         <v>4388</v>
       </c>
       <c r="E40" s="6">
-        <f>'2018'!E40</f>
         <v>30903</v>
       </c>
       <c r="F40" s="6">
-        <f>Notes!B47</f>
         <v>362093</v>
       </c>
       <c r="G40" s="6">
-        <f>Notes!C47</f>
         <v>121483</v>
       </c>
       <c r="H40" s="7">
-        <f>'2018'!F40</f>
         <v>483576</v>
       </c>
       <c r="I40" s="17">
@@ -13574,31 +13317,24 @@
         <v>40</v>
       </c>
       <c r="B41" s="6">
-        <f>'2018'!B41</f>
         <v>210369</v>
       </c>
       <c r="C41" s="6">
-        <f>'2018'!C41</f>
         <v>722055</v>
       </c>
       <c r="D41" s="6">
-        <f>'2018'!D41</f>
         <v>92230</v>
       </c>
       <c r="E41" s="6">
-        <f>'2018'!E41</f>
         <v>814285</v>
       </c>
       <c r="F41" s="6">
-        <f>Notes!B48</f>
         <v>5434146</v>
       </c>
       <c r="G41" s="6">
-        <f>Notes!C48</f>
         <v>4283172</v>
       </c>
       <c r="H41" s="7">
-        <f>'2018'!F41</f>
         <v>9717318</v>
       </c>
       <c r="I41" s="17">
@@ -13611,31 +13347,24 @@
         <v>41</v>
       </c>
       <c r="B42" s="6">
-        <f>'2018'!B42</f>
         <v>233215</v>
       </c>
       <c r="C42" s="6">
-        <f>'2018'!C42</f>
         <v>245474</v>
       </c>
       <c r="D42" s="6">
-        <f>'2018'!D42</f>
         <v>128502</v>
       </c>
       <c r="E42" s="6">
-        <f>'2018'!E42</f>
         <v>373976</v>
       </c>
       <c r="F42" s="6">
-        <f>Notes!B49</f>
         <v>7186745</v>
       </c>
       <c r="G42" s="6">
-        <f>Notes!C49</f>
         <v>14874974</v>
       </c>
       <c r="H42" s="7">
-        <f>'2018'!F42</f>
         <v>22061719</v>
       </c>
       <c r="I42" s="17">
@@ -13648,31 +13377,24 @@
         <v>42</v>
       </c>
       <c r="B43" s="6">
-        <f>'2018'!B43</f>
         <v>700600</v>
       </c>
       <c r="C43" s="6">
-        <f>'2018'!C43</f>
         <v>696906</v>
       </c>
       <c r="D43" s="6">
-        <f>'2018'!D43</f>
         <v>40267</v>
       </c>
       <c r="E43" s="6">
-        <f>'2018'!E43</f>
         <v>737173</v>
       </c>
       <c r="F43" s="6">
-        <f>Notes!B50</f>
         <v>17016820</v>
       </c>
       <c r="G43" s="6">
-        <f>Notes!C50</f>
         <v>3703363</v>
       </c>
       <c r="H43" s="7">
-        <f>'2018'!F43</f>
         <v>20720183</v>
       </c>
       <c r="I43" s="17">
@@ -13685,31 +13407,24 @@
         <v>43</v>
       </c>
       <c r="B44" s="6">
-        <f>'2018'!B44</f>
         <v>1157779</v>
       </c>
       <c r="C44" s="6">
-        <f>'2018'!C44</f>
         <v>1575985</v>
       </c>
       <c r="D44" s="6">
-        <f>'2018'!D44</f>
         <v>79358</v>
       </c>
       <c r="E44" s="6">
-        <f>'2018'!E44</f>
         <v>1655343</v>
       </c>
       <c r="F44" s="6">
-        <f>Notes!B51</f>
         <v>35200343</v>
       </c>
       <c r="G44" s="6">
-        <f>Notes!C51</f>
         <v>11017420</v>
       </c>
       <c r="H44" s="7">
-        <f>'2018'!F44</f>
         <v>46217763</v>
       </c>
       <c r="I44" s="17">
@@ -13722,31 +13437,24 @@
         <v>44</v>
       </c>
       <c r="B45" s="6">
-        <f>'2018'!B45</f>
         <v>236656</v>
       </c>
       <c r="C45" s="6">
-        <f>'2018'!C45</f>
         <v>379805</v>
       </c>
       <c r="D45" s="6">
-        <f>'2018'!D45</f>
         <v>41036</v>
       </c>
       <c r="E45" s="6">
-        <f>'2018'!E45</f>
         <v>420841</v>
       </c>
       <c r="F45" s="6">
-        <f>Notes!B52</f>
         <v>11216469</v>
       </c>
       <c r="G45" s="6">
-        <f>Notes!C52</f>
         <v>5545567</v>
       </c>
       <c r="H45" s="7">
-        <f>'2018'!F45</f>
         <v>16762036</v>
       </c>
       <c r="I45" s="17">
@@ -13759,31 +13467,24 @@
         <v>45</v>
       </c>
       <c r="B46" s="6">
-        <f>'2018'!B46</f>
         <v>276019</v>
       </c>
       <c r="C46" s="6">
-        <f>'2018'!C46</f>
         <v>815464</v>
       </c>
       <c r="D46" s="6">
-        <f>'2018'!D46</f>
         <v>44611</v>
       </c>
       <c r="E46" s="6">
-        <f>'2018'!E46</f>
         <v>860075</v>
       </c>
       <c r="F46" s="6">
-        <f>Notes!B53</f>
         <v>17488685</v>
       </c>
       <c r="G46" s="6">
-        <f>Notes!C53</f>
         <v>3815542</v>
       </c>
       <c r="H46" s="7">
-        <f>'2018'!F46</f>
         <v>21304227</v>
       </c>
       <c r="I46" s="17">
@@ -13796,31 +13497,24 @@
         <v>46</v>
       </c>
       <c r="B47" s="6">
-        <f>'2018'!B47</f>
         <v>69943</v>
       </c>
       <c r="C47" s="6">
-        <f>'2018'!C47</f>
         <v>153476</v>
       </c>
       <c r="D47" s="6">
-        <f>'2018'!D47</f>
         <v>15852</v>
       </c>
       <c r="E47" s="6">
-        <f>'2018'!E47</f>
         <v>169328</v>
       </c>
       <c r="F47" s="6">
-        <f>Notes!B54</f>
         <v>2975620</v>
       </c>
       <c r="G47" s="6">
-        <f>Notes!C54</f>
         <v>989935</v>
       </c>
       <c r="H47" s="7">
-        <f>'2018'!F47</f>
         <v>3965555</v>
       </c>
       <c r="I47" s="17">
@@ -13833,31 +13527,24 @@
         <v>47</v>
       </c>
       <c r="B48" s="6">
-        <f>'2018'!B48</f>
         <v>183063</v>
       </c>
       <c r="C48" s="6">
-        <f>'2018'!C48</f>
         <v>681049</v>
       </c>
       <c r="D48" s="6">
-        <f>'2018'!D48</f>
         <v>10683</v>
       </c>
       <c r="E48" s="6">
-        <f>'2018'!E48</f>
         <v>691732</v>
       </c>
       <c r="F48" s="6">
-        <f>Notes!B55</f>
         <v>16129772</v>
       </c>
       <c r="G48" s="6">
-        <f>Notes!C55</f>
         <v>1062087</v>
       </c>
       <c r="H48" s="7">
-        <f>'2018'!F48</f>
         <v>17191859</v>
       </c>
       <c r="I48" s="17">
@@ -13870,31 +13557,24 @@
         <v>48</v>
       </c>
       <c r="B49" s="6">
-        <f>'2018'!B49</f>
         <v>706400</v>
       </c>
       <c r="C49" s="6">
-        <f>'2018'!C49</f>
         <v>2716899</v>
       </c>
       <c r="D49" s="6">
-        <f>'2018'!D49</f>
         <v>146777</v>
       </c>
       <c r="E49" s="6">
-        <f>'2018'!E49</f>
         <v>2863676</v>
       </c>
       <c r="F49" s="6">
-        <f>Notes!B56</f>
         <v>33771619</v>
       </c>
       <c r="G49" s="6">
-        <f>Notes!C56</f>
         <v>7609753</v>
       </c>
       <c r="H49" s="7">
-        <f>'2018'!F49</f>
         <v>41381372</v>
       </c>
       <c r="I49" s="17">
@@ -13907,31 +13587,24 @@
         <v>49</v>
       </c>
       <c r="B50" s="6">
-        <f>'2018'!B50</f>
         <v>217123</v>
       </c>
       <c r="C50" s="6">
-        <f>'2018'!C50</f>
         <v>537767</v>
       </c>
       <c r="D50" s="6">
-        <f>'2018'!D50</f>
         <v>139943</v>
       </c>
       <c r="E50" s="6">
-        <f>'2018'!E50</f>
         <v>677710</v>
       </c>
       <c r="F50" s="6">
-        <f>Notes!B57</f>
         <v>4354126</v>
       </c>
       <c r="G50" s="6">
-        <f>Notes!C57</f>
         <v>4868774</v>
       </c>
       <c r="H50" s="7">
-        <f>'2018'!F50</f>
         <v>9222900</v>
       </c>
       <c r="I50" s="17">
@@ -13944,31 +13617,24 @@
         <v>50</v>
       </c>
       <c r="B51" s="6">
-        <f>'2018'!B51</f>
         <v>130304</v>
       </c>
       <c r="C51" s="6">
-        <f>'2018'!C51</f>
         <v>176549</v>
       </c>
       <c r="D51" s="6">
-        <f>'2018'!D51</f>
         <v>71365</v>
       </c>
       <c r="E51" s="6">
-        <f>'2018'!E51</f>
         <v>247914</v>
       </c>
       <c r="F51" s="6">
-        <f>Notes!B58</f>
         <v>6484947</v>
       </c>
       <c r="G51" s="6">
-        <f>Notes!C58</f>
         <v>18388025</v>
       </c>
       <c r="H51" s="7">
-        <f>'2018'!F51</f>
         <v>24872972</v>
       </c>
       <c r="I51" s="17">
@@ -17476,7 +17142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
@@ -17546,9 +17214,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="7">
+        <f>'2018-Full'!F2</f>
         <v>2922692</v>
       </c>
       <c r="C9" s="7">
+        <f>'2018-Full'!G2</f>
         <v>5568901</v>
       </c>
       <c r="D9" s="9">
@@ -17569,9 +17239,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="7">
+        <f>'2018-Full'!F3</f>
         <v>5693734</v>
       </c>
       <c r="C10" s="7">
+        <f>'2018-Full'!G3</f>
         <v>6107717</v>
       </c>
       <c r="D10" s="9">
@@ -17592,9 +17264,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="7">
+        <f>'2018-Full'!F4</f>
         <v>8186097</v>
       </c>
       <c r="C11" s="7">
+        <f>'2018-Full'!G4</f>
         <v>10579420</v>
       </c>
       <c r="D11" s="9">
@@ -17615,9 +17289,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="7">
+        <f>'2018-Full'!F5</f>
         <v>13358303</v>
       </c>
       <c r="C12" s="7">
+        <f>'2018-Full'!G5</f>
         <v>4515780</v>
       </c>
       <c r="D12" s="9">
@@ -17638,9 +17314,11 @@
         <v>5</v>
       </c>
       <c r="B13" s="7">
+        <f>'2018-Full'!F6</f>
         <v>20609712</v>
       </c>
       <c r="C13" s="7">
+        <f>'2018-Full'!G6</f>
         <v>1006282</v>
       </c>
       <c r="D13" s="9">
@@ -17661,9 +17339,11 @@
         <v>6</v>
       </c>
       <c r="B14" s="7">
+        <f>'2018-Full'!F7</f>
         <v>12751122</v>
       </c>
       <c r="C14" s="7">
+        <f>'2018-Full'!G7</f>
         <v>44305473</v>
       </c>
       <c r="D14" s="9">
@@ -17684,9 +17364,11 @@
         <v>7</v>
       </c>
       <c r="B15" s="7">
+        <f>'2018-Full'!F8</f>
         <v>2085367</v>
       </c>
       <c r="C15" s="7">
+        <f>'2018-Full'!G8</f>
         <v>394950</v>
       </c>
       <c r="D15" s="9">
@@ -17707,9 +17389,11 @@
         <v>8</v>
       </c>
       <c r="B16" s="7">
+        <f>'2018-Full'!F9</f>
         <v>632742</v>
       </c>
       <c r="C16" s="7">
+        <f>'2018-Full'!G9</f>
         <v>372462</v>
       </c>
       <c r="D16" s="9">
@@ -17730,9 +17414,11 @@
         <v>9</v>
       </c>
       <c r="B17" s="7">
+        <f>'2018-Full'!F10</f>
         <v>7890888</v>
       </c>
       <c r="C17" s="7">
+        <f>'2018-Full'!G10</f>
         <v>984031</v>
       </c>
       <c r="D17" s="9">
@@ -17753,9 +17439,11 @@
         <v>10</v>
       </c>
       <c r="B18" s="7">
+        <f>'2018-Full'!F11</f>
         <v>6627327</v>
       </c>
       <c r="C18" s="7">
+        <f>'2018-Full'!G11</f>
         <v>7132438</v>
       </c>
       <c r="D18" s="9">
@@ -17776,9 +17464,11 @@
         <v>11</v>
       </c>
       <c r="B19" s="7">
+        <f>'2018-Full'!F12</f>
         <v>501285</v>
       </c>
       <c r="C19" s="7">
+        <f>'2018-Full'!G12</f>
         <v>77070</v>
       </c>
       <c r="D19" s="9">
@@ -17799,9 +17489,11 @@
         <v>12</v>
       </c>
       <c r="B20" s="7">
+        <f>'2018-Full'!F13</f>
         <v>10772431</v>
       </c>
       <c r="C20" s="7">
+        <f>'2018-Full'!G13</f>
         <v>6940825</v>
       </c>
       <c r="D20" s="9">
@@ -17822,9 +17514,11 @@
         <v>13</v>
       </c>
       <c r="B21" s="7">
+        <f>'2018-Full'!F14</f>
         <v>10454861</v>
       </c>
       <c r="C21" s="7">
+        <f>'2018-Full'!G14</f>
         <v>15200880</v>
       </c>
       <c r="D21" s="9">
@@ -17845,9 +17539,11 @@
         <v>14</v>
       </c>
       <c r="B22" s="7">
+        <f>'2018-Full'!F15</f>
         <v>16424426</v>
       </c>
       <c r="C22" s="7">
+        <f>'2018-Full'!G15</f>
         <v>15520789</v>
       </c>
       <c r="D22" s="9">
@@ -17868,9 +17564,11 @@
         <v>15</v>
       </c>
       <c r="B23" s="7">
+        <f>'2018-Full'!F16</f>
         <v>9358292</v>
       </c>
       <c r="C23" s="7">
+        <f>'2018-Full'!G16</f>
         <v>2300953</v>
       </c>
       <c r="D23" s="9">
@@ -17891,9 +17589,11 @@
         <v>16</v>
       </c>
       <c r="B24" s="7">
+        <f>'2018-Full'!F17</f>
         <v>6732462</v>
       </c>
       <c r="C24" s="7">
+        <f>'2018-Full'!G17</f>
         <v>12704150</v>
       </c>
       <c r="D24" s="9">
@@ -17914,9 +17614,11 @@
         <v>17</v>
       </c>
       <c r="B25" s="7">
+        <f>'2018-Full'!F18</f>
         <v>12059992</v>
       </c>
       <c r="C25" s="7">
+        <f>'2018-Full'!G18</f>
         <v>7727579</v>
       </c>
       <c r="D25" s="9">
@@ -17937,9 +17639,11 @@
         <v>18</v>
       </c>
       <c r="B26" s="7">
+        <f>'2018-Full'!F19</f>
         <v>7954155</v>
       </c>
       <c r="C26" s="7">
+        <f>'2018-Full'!G19</f>
         <v>2043839</v>
       </c>
       <c r="D26" s="9">
@@ -17960,9 +17664,11 @@
         <v>19</v>
       </c>
       <c r="B27" s="7">
+        <f>'2018-Full'!F20</f>
         <v>2009739</v>
       </c>
       <c r="C27" s="7">
+        <f>'2018-Full'!G20</f>
         <v>396357</v>
       </c>
       <c r="D27" s="9">
@@ -17983,9 +17689,11 @@
         <v>20</v>
       </c>
       <c r="B28" s="7">
+        <f>'2018-Full'!F21</f>
         <v>3394548</v>
       </c>
       <c r="C28" s="7">
+        <f>'2018-Full'!G21</f>
         <v>2974503</v>
       </c>
       <c r="D28" s="9">
@@ -18006,9 +17714,11 @@
         <v>21</v>
       </c>
       <c r="B29" s="7">
+        <f>'2018-Full'!F22</f>
         <v>4635181</v>
       </c>
       <c r="C29" s="7">
+        <f>'2018-Full'!G22</f>
         <v>3236598</v>
       </c>
       <c r="D29" s="9">
@@ -18029,9 +17739,11 @@
         <v>22</v>
       </c>
       <c r="B30" s="7">
+        <f>'2018-Full'!F23</f>
         <v>33009073</v>
       </c>
       <c r="C30" s="7">
+        <f>'2018-Full'!G23</f>
         <v>4045709</v>
       </c>
       <c r="D30" s="9">
@@ -18052,9 +17764,11 @@
         <v>23</v>
       </c>
       <c r="B31" s="7">
+        <f>'2018-Full'!F24</f>
         <v>27229500</v>
       </c>
       <c r="C31" s="7">
+        <f>'2018-Full'!G24</f>
         <v>3495674</v>
       </c>
       <c r="D31" s="9">
@@ -18075,9 +17789,11 @@
         <v>24</v>
       </c>
       <c r="B32" s="7">
+        <f>'2018-Full'!F25</f>
         <v>12585185</v>
       </c>
       <c r="C32" s="7">
+        <f>'2018-Full'!G25</f>
         <v>8708655</v>
       </c>
       <c r="D32" s="9">
@@ -18098,9 +17814,11 @@
         <v>25</v>
       </c>
       <c r="B33" s="7">
+        <f>'2018-Full'!F26</f>
         <v>4023594</v>
       </c>
       <c r="C33" s="7">
+        <f>'2018-Full'!G26</f>
         <v>8249067</v>
       </c>
       <c r="D33" s="9">
@@ -18121,9 +17839,11 @@
         <v>26</v>
       </c>
       <c r="B34" s="7">
+        <f>'2018-Full'!F27</f>
         <v>9459094</v>
       </c>
       <c r="C34" s="7">
+        <f>'2018-Full'!G27</f>
         <v>23458615</v>
       </c>
       <c r="D34" s="9">
@@ -18144,9 +17864,11 @@
         <v>27</v>
       </c>
       <c r="B35" s="7">
+        <f>'2018-Full'!F28</f>
         <v>8629779</v>
       </c>
       <c r="C35" s="7">
+        <f>'2018-Full'!G28</f>
         <v>2127935</v>
       </c>
       <c r="D35" s="9">
@@ -18167,9 +17889,11 @@
         <v>28</v>
       </c>
       <c r="B36" s="7">
+        <f>'2018-Full'!F29</f>
         <v>4257890</v>
       </c>
       <c r="C36" s="7">
+        <f>'2018-Full'!G29</f>
         <v>7553355</v>
       </c>
       <c r="D36" s="9">
@@ -18190,9 +17914,11 @@
         <v>29</v>
       </c>
       <c r="B37" s="7">
+        <f>'2018-Full'!F30</f>
         <v>7565754</v>
       </c>
       <c r="C37" s="7">
+        <f>'2018-Full'!G30</f>
         <v>5935707</v>
       </c>
       <c r="D37" s="9">
@@ -18213,9 +17939,11 @@
         <v>30</v>
       </c>
       <c r="B38" s="7">
+        <f>'2018-Full'!F31</f>
         <v>2646432</v>
       </c>
       <c r="C38" s="7">
+        <f>'2018-Full'!G31</f>
         <v>1370915</v>
       </c>
       <c r="D38" s="9">
@@ -18236,9 +17964,11 @@
         <v>31</v>
       </c>
       <c r="B39" s="7">
+        <f>'2018-Full'!F32</f>
         <v>6981229</v>
       </c>
       <c r="C39" s="7">
+        <f>'2018-Full'!G32</f>
         <v>1147736</v>
       </c>
       <c r="D39" s="9">
@@ -18259,9 +17989,11 @@
         <v>32</v>
       </c>
       <c r="B40" s="7">
+        <f>'2018-Full'!F33</f>
         <v>5866269</v>
       </c>
       <c r="C40" s="7">
+        <f>'2018-Full'!G33</f>
         <v>10319383</v>
       </c>
       <c r="D40" s="9">
@@ -18282,9 +18014,11 @@
         <v>33</v>
       </c>
       <c r="B41" s="7">
+        <f>'2018-Full'!F34</f>
         <v>3920404</v>
       </c>
       <c r="C41" s="7">
+        <f>'2018-Full'!G34</f>
         <v>3829980</v>
       </c>
       <c r="D41" s="9">
@@ -18305,9 +18039,11 @@
         <v>34</v>
       </c>
       <c r="B42" s="7">
+        <f>'2018-Full'!F35</f>
         <v>17441081</v>
       </c>
       <c r="C42" s="7">
+        <f>'2018-Full'!G35</f>
         <v>4177215</v>
       </c>
       <c r="D42" s="9">
@@ -18328,9 +18064,11 @@
         <v>35</v>
       </c>
       <c r="B43" s="7">
+        <f>'2018-Full'!F36</f>
         <v>16259079</v>
       </c>
       <c r="C43" s="7">
+        <f>'2018-Full'!G36</f>
         <v>6378876</v>
       </c>
       <c r="D43" s="9">
@@ -18351,9 +18089,11 @@
         <v>36</v>
       </c>
       <c r="B44" s="7">
+        <f>'2018-Full'!F37</f>
         <v>5735625</v>
       </c>
       <c r="C44" s="7">
+        <f>'2018-Full'!G37</f>
         <v>3870723</v>
       </c>
       <c r="D44" s="9">
@@ -18374,9 +18114,11 @@
         <v>37</v>
       </c>
       <c r="B45" s="7">
+        <f>'2018-Full'!F38</f>
         <v>20982703</v>
       </c>
       <c r="C45" s="7">
+        <f>'2018-Full'!G38</f>
         <v>5416770</v>
       </c>
       <c r="D45" s="9">
@@ -18397,9 +18139,11 @@
         <v>38</v>
       </c>
       <c r="B46" s="7">
+        <f>'2018-Full'!F39</f>
         <v>30352406</v>
       </c>
       <c r="C46" s="7">
+        <f>'2018-Full'!G39</f>
         <v>6079410</v>
       </c>
       <c r="D46" s="9">
@@ -18420,9 +18164,11 @@
         <v>39</v>
       </c>
       <c r="B47" s="7">
+        <f>'2018-Full'!F40</f>
         <v>362093</v>
       </c>
       <c r="C47" s="7">
+        <f>'2018-Full'!G40</f>
         <v>121483</v>
       </c>
       <c r="D47" s="9">
@@ -18443,9 +18189,11 @@
         <v>40</v>
       </c>
       <c r="B48" s="7">
+        <f>'2018-Full'!F41</f>
         <v>5434146</v>
       </c>
       <c r="C48" s="7">
+        <f>'2018-Full'!G41</f>
         <v>4283172</v>
       </c>
       <c r="D48" s="9">
@@ -18466,9 +18214,11 @@
         <v>41</v>
       </c>
       <c r="B49" s="7">
+        <f>'2018-Full'!F42</f>
         <v>7186745</v>
       </c>
       <c r="C49" s="7">
+        <f>'2018-Full'!G42</f>
         <v>14874974</v>
       </c>
       <c r="D49" s="9">
@@ -18489,9 +18239,11 @@
         <v>42</v>
       </c>
       <c r="B50" s="7">
+        <f>'2018-Full'!F43</f>
         <v>17016820</v>
       </c>
       <c r="C50" s="7">
+        <f>'2018-Full'!G43</f>
         <v>3703363</v>
       </c>
       <c r="D50" s="9">
@@ -18512,9 +18264,11 @@
         <v>43</v>
       </c>
       <c r="B51" s="7">
+        <f>'2018-Full'!F44</f>
         <v>35200343</v>
       </c>
       <c r="C51" s="7">
+        <f>'2018-Full'!G44</f>
         <v>11017420</v>
       </c>
       <c r="D51" s="9">
@@ -18535,9 +18289,11 @@
         <v>44</v>
       </c>
       <c r="B52" s="7">
+        <f>'2018-Full'!F45</f>
         <v>11216469</v>
       </c>
       <c r="C52" s="7">
+        <f>'2018-Full'!G45</f>
         <v>5545567</v>
       </c>
       <c r="D52" s="9">
@@ -18558,9 +18314,11 @@
         <v>45</v>
       </c>
       <c r="B53" s="7">
+        <f>'2018-Full'!F46</f>
         <v>17488685</v>
       </c>
       <c r="C53" s="7">
+        <f>'2018-Full'!G46</f>
         <v>3815542</v>
       </c>
       <c r="D53" s="9">
@@ -18581,9 +18339,11 @@
         <v>46</v>
       </c>
       <c r="B54" s="7">
+        <f>'2018-Full'!F47</f>
         <v>2975620</v>
       </c>
       <c r="C54" s="7">
+        <f>'2018-Full'!G47</f>
         <v>989935</v>
       </c>
       <c r="D54" s="9">
@@ -18604,9 +18364,11 @@
         <v>47</v>
       </c>
       <c r="B55" s="7">
+        <f>'2018-Full'!F48</f>
         <v>16129772</v>
       </c>
       <c r="C55" s="7">
+        <f>'2018-Full'!G48</f>
         <v>1062087</v>
       </c>
       <c r="D55" s="9">
@@ -18627,9 +18389,11 @@
         <v>48</v>
       </c>
       <c r="B56" s="7">
+        <f>'2018-Full'!F49</f>
         <v>33771619</v>
       </c>
       <c r="C56" s="7">
+        <f>'2018-Full'!G49</f>
         <v>7609753</v>
       </c>
       <c r="D56" s="9">
@@ -18650,9 +18414,11 @@
         <v>49</v>
       </c>
       <c r="B57" s="7">
+        <f>'2018-Full'!F50</f>
         <v>4354126</v>
       </c>
       <c r="C57" s="7">
+        <f>'2018-Full'!G50</f>
         <v>4868774</v>
       </c>
       <c r="D57" s="9">
@@ -18673,9 +18439,11 @@
         <v>50</v>
       </c>
       <c r="B58" s="7">
+        <f>'2018-Full'!F51</f>
         <v>6484947</v>
       </c>
       <c r="C58" s="7">
+        <f>'2018-Full'!G51</f>
         <v>18388025</v>
       </c>
       <c r="D58" s="9">
@@ -22191,7 +21959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
@@ -22223,18 +21991,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
+        <f>'2018-Full'!B2</f>
         <v>108921</v>
       </c>
       <c r="C2" s="6">
+        <f>'2018-Full'!C2</f>
         <v>278248</v>
       </c>
       <c r="D2" s="6">
+        <f>'2018-Full'!D2</f>
         <v>74532</v>
       </c>
       <c r="E2" s="6">
+        <f>'2018-Full'!E2</f>
         <v>352780</v>
       </c>
       <c r="F2" s="7">
+        <f>'2018-Full'!H2</f>
         <v>8491593</v>
       </c>
       <c r="G2" s="11"/>
@@ -22245,18 +22018,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
+        <f>'2018-Full'!B3</f>
         <v>547905</v>
       </c>
       <c r="C3" s="6">
+        <f>'2018-Full'!C3</f>
         <v>542838</v>
       </c>
       <c r="D3" s="6">
+        <f>'2018-Full'!D3</f>
         <v>37106</v>
       </c>
       <c r="E3" s="6">
+        <f>'2018-Full'!E3</f>
         <v>579944</v>
       </c>
       <c r="F3" s="7">
+        <f>'2018-Full'!H3</f>
         <v>11801451</v>
       </c>
       <c r="G3" s="11"/>
@@ -22267,18 +22045,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
+        <f>'2018-Full'!B4</f>
         <v>326559</v>
       </c>
       <c r="C4" s="6">
+        <f>'2018-Full'!C4</f>
         <v>380102</v>
       </c>
       <c r="D4" s="6">
+        <f>'2018-Full'!D4</f>
         <v>136944</v>
       </c>
       <c r="E4" s="6">
+        <f>'2018-Full'!E4</f>
         <v>517046</v>
       </c>
       <c r="F4" s="7">
+        <f>'2018-Full'!H4</f>
         <v>18765517</v>
       </c>
       <c r="G4" s="11"/>
@@ -22289,18 +22072,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
+        <f>'2018-Full'!B5</f>
         <v>305214</v>
       </c>
       <c r="C5" s="6">
+        <f>'2018-Full'!C5</f>
         <v>456140</v>
       </c>
       <c r="D5" s="6">
+        <f>'2018-Full'!D5</f>
         <v>61607</v>
       </c>
       <c r="E5" s="6">
+        <f>'2018-Full'!E5</f>
         <v>517747</v>
       </c>
       <c r="F5" s="7">
+        <f>'2018-Full'!H5</f>
         <v>17874083</v>
       </c>
     </row>
@@ -22309,18 +22097,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
+        <f>'2018-Full'!B6</f>
         <v>280967</v>
       </c>
       <c r="C6" s="6">
+        <f>'2018-Full'!C6</f>
         <v>1007422</v>
       </c>
       <c r="D6" s="6">
+        <f>'2018-Full'!D6</f>
         <v>22738</v>
       </c>
       <c r="E6" s="6">
+        <f>'2018-Full'!E6</f>
         <v>1030160</v>
       </c>
       <c r="F6" s="7">
+        <f>'2018-Full'!H6</f>
         <v>21615994</v>
       </c>
     </row>
@@ -22329,18 +22122,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
+        <f>'2018-Full'!B7</f>
         <v>294319</v>
       </c>
       <c r="C7" s="6">
+        <f>'2018-Full'!C7</f>
         <v>459518</v>
       </c>
       <c r="D7" s="6">
+        <f>'2018-Full'!D7</f>
         <v>109246</v>
       </c>
       <c r="E7" s="6">
+        <f>'2018-Full'!E7</f>
         <v>568764</v>
       </c>
       <c r="F7" s="7">
+        <f>'2018-Full'!H7</f>
         <v>57056595</v>
       </c>
     </row>
@@ -22349,18 +22147,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
+        <f>'2018-Full'!B8</f>
         <v>37489</v>
       </c>
       <c r="C8" s="6">
+        <f>'2018-Full'!C8</f>
         <v>124169</v>
       </c>
       <c r="D8" s="6">
+        <f>'2018-Full'!D8</f>
         <v>4063</v>
       </c>
       <c r="E8" s="6">
+        <f>'2018-Full'!E8</f>
         <v>128232</v>
       </c>
       <c r="F8" s="7">
+        <f>'2018-Full'!H8</f>
         <v>2480317</v>
       </c>
     </row>
@@ -22369,18 +22172,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
+        <f>'2018-Full'!B9</f>
         <v>17847</v>
       </c>
       <c r="C9" s="6">
+        <f>'2018-Full'!C9</f>
         <v>52315</v>
       </c>
       <c r="D9" s="6">
+        <f>'2018-Full'!D9</f>
         <v>7125</v>
       </c>
       <c r="E9" s="6">
+        <f>'2018-Full'!E9</f>
         <v>59440</v>
       </c>
       <c r="F9" s="7">
+        <f>'2018-Full'!H9</f>
         <v>1005204</v>
       </c>
     </row>
@@ -22389,18 +22197,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
+        <f>'2018-Full'!B10</f>
         <v>190232</v>
       </c>
       <c r="C10" s="6">
+        <f>'2018-Full'!C10</f>
         <v>313554</v>
       </c>
       <c r="D10" s="6">
+        <f>'2018-Full'!D10</f>
         <v>18155</v>
       </c>
       <c r="E10" s="6">
+        <f>'2018-Full'!E10</f>
         <v>331709</v>
       </c>
       <c r="F10" s="7">
+        <f>'2018-Full'!H10</f>
         <v>8874919</v>
       </c>
     </row>
@@ -22409,18 +22222,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
+        <f>'2018-Full'!B11</f>
         <v>651910</v>
       </c>
       <c r="C11" s="6">
+        <f>'2018-Full'!C11</f>
         <v>1297350</v>
       </c>
       <c r="D11" s="6">
+        <f>'2018-Full'!D11</f>
         <v>166091</v>
       </c>
       <c r="E11" s="6">
+        <f>'2018-Full'!E11</f>
         <v>1463441</v>
       </c>
       <c r="F11" s="7">
+        <f>'2018-Full'!H11</f>
         <v>13759765</v>
       </c>
     </row>
@@ -22429,18 +22247,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
+        <f>'2018-Full'!B12</f>
         <v>10617</v>
       </c>
       <c r="C12" s="6">
+        <f>'2018-Full'!C12</f>
         <v>11068</v>
       </c>
       <c r="D12" s="1">
+        <f>'2018-Full'!D12</f>
         <v>734</v>
       </c>
       <c r="E12" s="6">
+        <f>'2018-Full'!E12</f>
         <v>11802</v>
       </c>
       <c r="F12" s="7">
+        <f>'2018-Full'!H12</f>
         <v>578355</v>
       </c>
     </row>
@@ -22449,18 +22272,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
+        <f>'2018-Full'!B13</f>
         <v>223232</v>
       </c>
       <c r="C13" s="6">
+        <f>'2018-Full'!C13</f>
         <v>516446</v>
       </c>
       <c r="D13" s="6">
+        <f>'2018-Full'!D13</f>
         <v>67438</v>
       </c>
       <c r="E13" s="6">
+        <f>'2018-Full'!E13</f>
         <v>583884</v>
       </c>
       <c r="F13" s="7">
+        <f>'2018-Full'!H13</f>
         <v>17713256</v>
       </c>
     </row>
@@ -22469,18 +22297,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
+        <f>'2018-Full'!B14</f>
         <v>286947</v>
       </c>
       <c r="C14" s="6">
+        <f>'2018-Full'!C14</f>
         <v>1047773</v>
       </c>
       <c r="D14" s="6">
+        <f>'2018-Full'!D14</f>
         <v>159224</v>
       </c>
       <c r="E14" s="6">
+        <f>'2018-Full'!E14</f>
         <v>1206997</v>
       </c>
       <c r="F14" s="7">
+        <f>'2018-Full'!H14</f>
         <v>25655741</v>
       </c>
     </row>
@@ -22489,18 +22322,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
+        <f>'2018-Full'!B15</f>
         <v>306024</v>
       </c>
       <c r="C15" s="6">
+        <f>'2018-Full'!C15</f>
         <v>1203507</v>
       </c>
       <c r="D15" s="6">
+        <f>'2018-Full'!D15</f>
         <v>83025</v>
       </c>
       <c r="E15" s="6">
+        <f>'2018-Full'!E15</f>
         <v>1286532</v>
       </c>
       <c r="F15" s="7">
+        <f>'2018-Full'!H15</f>
         <v>31945215</v>
       </c>
     </row>
@@ -22509,18 +22347,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
+        <f>'2018-Full'!B16</f>
         <v>267447</v>
       </c>
       <c r="C16" s="6">
+        <f>'2018-Full'!C16</f>
         <v>383958</v>
       </c>
       <c r="D16" s="6">
+        <f>'2018-Full'!D16</f>
         <v>20781</v>
       </c>
       <c r="E16" s="6">
+        <f>'2018-Full'!E16</f>
         <v>404739</v>
       </c>
       <c r="F16" s="7">
+        <f>'2018-Full'!H16</f>
         <v>11659245</v>
       </c>
     </row>
@@ -22529,18 +22372,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
+        <f>'2018-Full'!B17</f>
         <v>251390</v>
       </c>
       <c r="C17" s="6">
+        <f>'2018-Full'!C17</f>
         <v>349199</v>
       </c>
       <c r="D17" s="6">
+        <f>'2018-Full'!D17</f>
         <v>170676</v>
       </c>
       <c r="E17" s="6">
+        <f>'2018-Full'!E17</f>
         <v>519875</v>
       </c>
       <c r="F17" s="7">
+        <f>'2018-Full'!H17</f>
         <v>19436612</v>
       </c>
     </row>
@@ -22549,18 +22397,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
+        <f>'2018-Full'!B18</f>
         <v>352408</v>
       </c>
       <c r="C18" s="6">
+        <f>'2018-Full'!C18</f>
         <v>512113</v>
       </c>
       <c r="D18" s="6">
+        <f>'2018-Full'!D18</f>
         <v>102629</v>
       </c>
       <c r="E18" s="6">
+        <f>'2018-Full'!E18</f>
         <v>614742</v>
       </c>
       <c r="F18" s="7">
+        <f>'2018-Full'!H18</f>
         <v>19787571</v>
       </c>
     </row>
@@ -22569,18 +22422,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
+        <f>'2018-Full'!B19</f>
         <v>398808</v>
       </c>
       <c r="C19" s="6">
+        <f>'2018-Full'!C19</f>
         <v>605336</v>
       </c>
       <c r="D19" s="6">
+        <f>'2018-Full'!D19</f>
         <v>53323</v>
       </c>
       <c r="E19" s="6">
+        <f>'2018-Full'!E19</f>
         <v>658659</v>
       </c>
       <c r="F19" s="7">
+        <f>'2018-Full'!H19</f>
         <v>9997994</v>
       </c>
     </row>
@@ -22589,18 +22447,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
+        <f>'2018-Full'!B20</f>
         <v>57921</v>
       </c>
       <c r="C20" s="6">
+        <f>'2018-Full'!C20</f>
         <v>246052</v>
       </c>
       <c r="D20" s="6">
+        <f>'2018-Full'!D20</f>
         <v>15504</v>
       </c>
       <c r="E20" s="6">
+        <f>'2018-Full'!E20</f>
         <v>261556</v>
       </c>
       <c r="F20" s="7">
+        <f>'2018-Full'!H20</f>
         <v>2406096</v>
       </c>
     </row>
@@ -22609,18 +22472,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
+        <f>'2018-Full'!B21</f>
         <v>120334</v>
       </c>
       <c r="C21" s="6">
+        <f>'2018-Full'!C21</f>
         <v>284941</v>
       </c>
       <c r="D21" s="6">
+        <f>'2018-Full'!D21</f>
         <v>60270</v>
       </c>
       <c r="E21" s="6">
+        <f>'2018-Full'!E21</f>
         <v>345211</v>
       </c>
       <c r="F21" s="7">
+        <f>'2018-Full'!H21</f>
         <v>6369051</v>
       </c>
     </row>
@@ -22629,18 +22497,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
+        <f>'2018-Full'!B22</f>
         <v>163191</v>
       </c>
       <c r="C22" s="6">
+        <f>'2018-Full'!C22</f>
         <v>214767</v>
       </c>
       <c r="D22" s="6">
+        <f>'2018-Full'!D22</f>
         <v>34323</v>
       </c>
       <c r="E22" s="6">
+        <f>'2018-Full'!E22</f>
         <v>249090</v>
       </c>
       <c r="F22" s="7">
+        <f>'2018-Full'!H22</f>
         <v>7871779</v>
       </c>
     </row>
@@ -22649,18 +22522,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
+        <f>'2018-Full'!B23</f>
         <v>706101</v>
       </c>
       <c r="C23" s="6">
+        <f>'2018-Full'!C23</f>
         <v>2171384</v>
       </c>
       <c r="D23" s="6">
+        <f>'2018-Full'!D23</f>
         <v>52786</v>
       </c>
       <c r="E23" s="6">
+        <f>'2018-Full'!E23</f>
         <v>2224170</v>
       </c>
       <c r="F23" s="7">
+        <f>'2018-Full'!H23</f>
         <v>37054782</v>
       </c>
     </row>
@@ -22669,18 +22547,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
+        <f>'2018-Full'!B24</f>
         <v>568057</v>
       </c>
       <c r="C24" s="6">
+        <f>'2018-Full'!C24</f>
         <v>1376759</v>
       </c>
       <c r="D24" s="6">
+        <f>'2018-Full'!D24</f>
         <v>44245</v>
       </c>
       <c r="E24" s="6">
+        <f>'2018-Full'!E24</f>
         <v>1421004</v>
       </c>
       <c r="F24" s="7">
+        <f>'2018-Full'!H24</f>
         <v>30725174</v>
       </c>
     </row>
@@ -22689,18 +22572,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
+        <f>'2018-Full'!B25</f>
         <v>498319</v>
       </c>
       <c r="C25" s="6">
+        <f>'2018-Full'!C25</f>
         <v>1702400</v>
       </c>
       <c r="D25" s="6">
+        <f>'2018-Full'!D25</f>
         <v>79919</v>
       </c>
       <c r="E25" s="6">
+        <f>'2018-Full'!E25</f>
         <v>1782319</v>
       </c>
       <c r="F25" s="7">
+        <f>'2018-Full'!H25</f>
         <v>21293840</v>
       </c>
     </row>
@@ -22709,18 +22597,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
+        <f>'2018-Full'!B26</f>
         <v>300146</v>
       </c>
       <c r="C26" s="6">
+        <f>'2018-Full'!C26</f>
         <v>335324</v>
       </c>
       <c r="D26" s="6">
+        <f>'2018-Full'!D26</f>
         <v>91402</v>
       </c>
       <c r="E26" s="6">
+        <f>'2018-Full'!E26</f>
         <v>426726</v>
       </c>
       <c r="F26" s="7">
+        <f>'2018-Full'!H26</f>
         <v>12272661</v>
       </c>
     </row>
@@ -22729,18 +22622,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
+        <f>'2018-Full'!B27</f>
         <v>253412</v>
       </c>
       <c r="C27" s="6">
+        <f>'2018-Full'!C27</f>
         <v>873323</v>
       </c>
       <c r="D27" s="6">
+        <f>'2018-Full'!D27</f>
         <v>155658</v>
       </c>
       <c r="E27" s="6">
+        <f>'2018-Full'!E27</f>
         <v>1028981</v>
       </c>
       <c r="F27" s="7">
+        <f>'2018-Full'!H27</f>
         <v>32917709</v>
       </c>
     </row>
@@ -22749,18 +22647,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
+        <f>'2018-Full'!B28</f>
         <v>585766</v>
       </c>
       <c r="C28" s="6">
+        <f>'2018-Full'!C28</f>
         <v>319136</v>
       </c>
       <c r="D28" s="6">
+        <f>'2018-Full'!D28</f>
         <v>25626</v>
       </c>
       <c r="E28" s="6">
+        <f>'2018-Full'!E28</f>
         <v>344762</v>
       </c>
       <c r="F28" s="7">
+        <f>'2018-Full'!H28</f>
         <v>10757714</v>
       </c>
     </row>
@@ -22769,18 +22672,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
+        <f>'2018-Full'!B29</f>
         <v>141553</v>
       </c>
       <c r="C29" s="6">
+        <f>'2018-Full'!C29</f>
         <v>362554</v>
       </c>
       <c r="D29" s="6">
+        <f>'2018-Full'!D29</f>
         <v>157801</v>
       </c>
       <c r="E29" s="6">
+        <f>'2018-Full'!E29</f>
         <v>520355</v>
       </c>
       <c r="F29" s="7">
+        <f>'2018-Full'!H29</f>
         <v>11811245</v>
       </c>
     </row>
@@ -22789,18 +22697,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
+        <f>'2018-Full'!B30</f>
         <v>183056</v>
       </c>
       <c r="C30" s="6">
+        <f>'2018-Full'!C30</f>
         <v>339053</v>
       </c>
       <c r="D30" s="6">
+        <f>'2018-Full'!D30</f>
         <v>90202</v>
       </c>
       <c r="E30" s="6">
+        <f>'2018-Full'!E30</f>
         <v>429255</v>
       </c>
       <c r="F30" s="7">
+        <f>'2018-Full'!H30</f>
         <v>13501461</v>
       </c>
     </row>
@@ -22809,18 +22722,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
+        <f>'2018-Full'!B31</f>
         <v>58099</v>
       </c>
       <c r="C31" s="6">
+        <f>'2018-Full'!C31</f>
         <v>186931</v>
       </c>
       <c r="D31" s="6">
+        <f>'2018-Full'!D31</f>
         <v>31411</v>
       </c>
       <c r="E31" s="6">
+        <f>'2018-Full'!E31</f>
         <v>218342</v>
       </c>
       <c r="F31" s="7">
+        <f>'2018-Full'!H31</f>
         <v>4017347</v>
       </c>
     </row>
@@ -22829,18 +22747,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
+        <f>'2018-Full'!B32</f>
         <v>74794</v>
       </c>
       <c r="C32" s="6">
+        <f>'2018-Full'!C32</f>
         <v>303795</v>
       </c>
       <c r="D32" s="6">
+        <f>'2018-Full'!D32</f>
         <v>118442</v>
       </c>
       <c r="E32" s="6">
+        <f>'2018-Full'!E32</f>
         <v>422237</v>
       </c>
       <c r="F32" s="7">
+        <f>'2018-Full'!H32</f>
         <v>8128965</v>
       </c>
     </row>
@@ -22849,18 +22772,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
+        <f>'2018-Full'!B33</f>
         <v>107331</v>
       </c>
       <c r="C33" s="6">
+        <f>'2018-Full'!C33</f>
         <v>329423</v>
       </c>
       <c r="D33" s="6">
+        <f>'2018-Full'!D33</f>
         <v>112483</v>
       </c>
       <c r="E33" s="6">
+        <f>'2018-Full'!E33</f>
         <v>441906</v>
       </c>
       <c r="F33" s="7">
+        <f>'2018-Full'!H33</f>
         <v>16185652</v>
       </c>
     </row>
@@ -22869,18 +22797,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
+        <f>'2018-Full'!B34</f>
         <v>68744</v>
       </c>
       <c r="C34" s="6">
+        <f>'2018-Full'!C34</f>
         <v>123271</v>
       </c>
       <c r="D34" s="6">
+        <f>'2018-Full'!D34</f>
         <v>26840</v>
       </c>
       <c r="E34" s="6">
+        <f>'2018-Full'!E34</f>
         <v>150111</v>
       </c>
       <c r="F34" s="7">
+        <f>'2018-Full'!H34</f>
         <v>7750384</v>
       </c>
     </row>
@@ -22889,18 +22822,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
+        <f>'2018-Full'!B35</f>
         <v>579043</v>
       </c>
       <c r="C35" s="6">
+        <f>'2018-Full'!C35</f>
         <v>1117576</v>
       </c>
       <c r="D35" s="6">
+        <f>'2018-Full'!D35</f>
         <v>48773</v>
       </c>
       <c r="E35" s="6">
+        <f>'2018-Full'!E35</f>
         <v>1166349</v>
       </c>
       <c r="F35" s="7">
+        <f>'2018-Full'!H35</f>
         <v>21618296</v>
       </c>
     </row>
@@ -22909,18 +22847,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
+        <f>'2018-Full'!B36</f>
         <v>390268</v>
       </c>
       <c r="C36" s="6">
+        <f>'2018-Full'!C36</f>
         <v>895099</v>
       </c>
       <c r="D36" s="6">
+        <f>'2018-Full'!D36</f>
         <v>100065</v>
       </c>
       <c r="E36" s="6">
+        <f>'2018-Full'!E36</f>
         <v>995164</v>
       </c>
       <c r="F36" s="7">
+        <f>'2018-Full'!H36</f>
         <v>22637955</v>
       </c>
     </row>
@@ -22929,18 +22872,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
+        <f>'2018-Full'!B37</f>
         <v>529651</v>
       </c>
       <c r="C37" s="6">
+        <f>'2018-Full'!C37</f>
         <v>377498</v>
       </c>
       <c r="D37" s="6">
+        <f>'2018-Full'!D37</f>
         <v>22740</v>
       </c>
       <c r="E37" s="6">
+        <f>'2018-Full'!E37</f>
         <v>400238</v>
       </c>
       <c r="F37" s="7">
+        <f>'2018-Full'!H37</f>
         <v>9606348</v>
       </c>
     </row>
@@ -22949,18 +22897,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
+        <f>'2018-Full'!B38</f>
         <v>264684</v>
       </c>
       <c r="C38" s="6">
+        <f>'2018-Full'!C38</f>
         <v>1173427</v>
       </c>
       <c r="D38" s="6">
+        <f>'2018-Full'!D38</f>
         <v>49243</v>
       </c>
       <c r="E38" s="6">
+        <f>'2018-Full'!E38</f>
         <v>1222670</v>
       </c>
       <c r="F38" s="7">
+        <f>'2018-Full'!H38</f>
         <v>26399473</v>
       </c>
     </row>
@@ -22969,18 +22922,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
+        <f>'2018-Full'!B39</f>
         <v>975650</v>
       </c>
       <c r="C39" s="6">
+        <f>'2018-Full'!C39</f>
         <v>2468652</v>
       </c>
       <c r="D39" s="6">
+        <f>'2018-Full'!D39</f>
         <v>101278</v>
       </c>
       <c r="E39" s="6">
+        <f>'2018-Full'!E39</f>
         <v>2569930</v>
       </c>
       <c r="F39" s="7">
+        <f>'2018-Full'!H39</f>
         <v>36431816</v>
       </c>
     </row>
@@ -22989,18 +22947,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
+        <f>'2018-Full'!B40</f>
         <v>8209</v>
       </c>
       <c r="C40" s="6">
+        <f>'2018-Full'!C40</f>
         <v>26515</v>
       </c>
       <c r="D40" s="6">
+        <f>'2018-Full'!D40</f>
         <v>4388</v>
       </c>
       <c r="E40" s="6">
+        <f>'2018-Full'!E40</f>
         <v>30903</v>
       </c>
       <c r="F40" s="7">
+        <f>'2018-Full'!H40</f>
         <v>483576</v>
       </c>
     </row>
@@ -23009,18 +22972,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="6">
+        <f>'2018-Full'!B41</f>
         <v>210369</v>
       </c>
       <c r="C41" s="6">
+        <f>'2018-Full'!C41</f>
         <v>722055</v>
       </c>
       <c r="D41" s="6">
+        <f>'2018-Full'!D41</f>
         <v>92230</v>
       </c>
       <c r="E41" s="6">
+        <f>'2018-Full'!E41</f>
         <v>814285</v>
       </c>
       <c r="F41" s="7">
+        <f>'2018-Full'!H41</f>
         <v>9717318</v>
       </c>
     </row>
@@ -23029,18 +22997,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="6">
+        <f>'2018-Full'!B42</f>
         <v>233215</v>
       </c>
       <c r="C42" s="6">
+        <f>'2018-Full'!C42</f>
         <v>245474</v>
       </c>
       <c r="D42" s="6">
+        <f>'2018-Full'!D42</f>
         <v>128502</v>
       </c>
       <c r="E42" s="6">
+        <f>'2018-Full'!E42</f>
         <v>373976</v>
       </c>
       <c r="F42" s="7">
+        <f>'2018-Full'!H42</f>
         <v>22061719</v>
       </c>
     </row>
@@ -23049,18 +23022,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="6">
+        <f>'2018-Full'!B43</f>
         <v>700600</v>
       </c>
       <c r="C43" s="6">
+        <f>'2018-Full'!C43</f>
         <v>696906</v>
       </c>
       <c r="D43" s="6">
+        <f>'2018-Full'!D43</f>
         <v>40267</v>
       </c>
       <c r="E43" s="6">
+        <f>'2018-Full'!E43</f>
         <v>737173</v>
       </c>
       <c r="F43" s="7">
+        <f>'2018-Full'!H43</f>
         <v>20720183</v>
       </c>
     </row>
@@ -23069,18 +23047,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="6">
+        <f>'2018-Full'!B44</f>
         <v>1157779</v>
       </c>
       <c r="C44" s="6">
+        <f>'2018-Full'!C44</f>
         <v>1575985</v>
       </c>
       <c r="D44" s="6">
+        <f>'2018-Full'!D44</f>
         <v>79358</v>
       </c>
       <c r="E44" s="6">
+        <f>'2018-Full'!E44</f>
         <v>1655343</v>
       </c>
       <c r="F44" s="7">
+        <f>'2018-Full'!H44</f>
         <v>46217763</v>
       </c>
     </row>
@@ -23089,18 +23072,23 @@
         <v>44</v>
       </c>
       <c r="B45" s="6">
+        <f>'2018-Full'!B45</f>
         <v>236656</v>
       </c>
       <c r="C45" s="6">
+        <f>'2018-Full'!C45</f>
         <v>379805</v>
       </c>
       <c r="D45" s="6">
+        <f>'2018-Full'!D45</f>
         <v>41036</v>
       </c>
       <c r="E45" s="6">
+        <f>'2018-Full'!E45</f>
         <v>420841</v>
       </c>
       <c r="F45" s="7">
+        <f>'2018-Full'!H45</f>
         <v>16762036</v>
       </c>
     </row>
@@ -23109,18 +23097,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="6">
+        <f>'2018-Full'!B46</f>
         <v>276019</v>
       </c>
       <c r="C46" s="6">
+        <f>'2018-Full'!C46</f>
         <v>815464</v>
       </c>
       <c r="D46" s="6">
+        <f>'2018-Full'!D46</f>
         <v>44611</v>
       </c>
       <c r="E46" s="6">
+        <f>'2018-Full'!E46</f>
         <v>860075</v>
       </c>
       <c r="F46" s="7">
+        <f>'2018-Full'!H46</f>
         <v>21304227</v>
       </c>
     </row>
@@ -23129,18 +23122,23 @@
         <v>46</v>
       </c>
       <c r="B47" s="6">
+        <f>'2018-Full'!B47</f>
         <v>69943</v>
       </c>
       <c r="C47" s="6">
+        <f>'2018-Full'!C47</f>
         <v>153476</v>
       </c>
       <c r="D47" s="6">
+        <f>'2018-Full'!D47</f>
         <v>15852</v>
       </c>
       <c r="E47" s="6">
+        <f>'2018-Full'!E47</f>
         <v>169328</v>
       </c>
       <c r="F47" s="7">
+        <f>'2018-Full'!H47</f>
         <v>3965555</v>
       </c>
     </row>
@@ -23149,18 +23147,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="6">
+        <f>'2018-Full'!B48</f>
         <v>183063</v>
       </c>
       <c r="C48" s="6">
+        <f>'2018-Full'!C48</f>
         <v>681049</v>
       </c>
       <c r="D48" s="6">
+        <f>'2018-Full'!D48</f>
         <v>10683</v>
       </c>
       <c r="E48" s="6">
+        <f>'2018-Full'!E48</f>
         <v>691732</v>
       </c>
       <c r="F48" s="7">
+        <f>'2018-Full'!H48</f>
         <v>17191859</v>
       </c>
     </row>
@@ -23169,18 +23172,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="6">
+        <f>'2018-Full'!B49</f>
         <v>706400</v>
       </c>
       <c r="C49" s="6">
+        <f>'2018-Full'!C49</f>
         <v>2716899</v>
       </c>
       <c r="D49" s="6">
+        <f>'2018-Full'!D49</f>
         <v>146777</v>
       </c>
       <c r="E49" s="6">
+        <f>'2018-Full'!E49</f>
         <v>2863676</v>
       </c>
       <c r="F49" s="7">
+        <f>'2018-Full'!H49</f>
         <v>41381372</v>
       </c>
     </row>
@@ -23189,18 +23197,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="6">
+        <f>'2018-Full'!B50</f>
         <v>217123</v>
       </c>
       <c r="C50" s="6">
+        <f>'2018-Full'!C50</f>
         <v>537767</v>
       </c>
       <c r="D50" s="6">
+        <f>'2018-Full'!D50</f>
         <v>139943</v>
       </c>
       <c r="E50" s="6">
+        <f>'2018-Full'!E50</f>
         <v>677710</v>
       </c>
       <c r="F50" s="7">
+        <f>'2018-Full'!H50</f>
         <v>9222900</v>
       </c>
     </row>
@@ -23209,18 +23222,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="6">
+        <f>'2018-Full'!B51</f>
         <v>130304</v>
       </c>
       <c r="C51" s="6">
+        <f>'2018-Full'!C51</f>
         <v>176549</v>
       </c>
       <c r="D51" s="6">
+        <f>'2018-Full'!D51</f>
         <v>71365</v>
       </c>
       <c r="E51" s="6">
+        <f>'2018-Full'!E51</f>
         <v>247914</v>
       </c>
       <c r="F51" s="7">
+        <f>'2018-Full'!H51</f>
         <v>24872972</v>
       </c>
     </row>

--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="19" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1105,6 +1105,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -12099,10 +12100,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -13641,6 +13642,12 @@
         <f t="shared" si="0"/>
         <v>-2.8354934897694615</v>
       </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="I54" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21959,7 +21966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>

--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D09F8E-D488-3A4E-8860-3577D810543C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0A0284-9E48-C54E-9EA3-39746F45BC0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="156">
   <si>
     <r>
       <rPr>
@@ -949,19 +949,15 @@
   <si>
     <t>Total Licenses</t>
   </si>
-  <si>
-    <t>Non-resident Cost Factor</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1010,7 +1006,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1031,17 +1027,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1067,7 +1052,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1102,11 +1087,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1186,7 +1167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1238,7 +1219,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11058,9 +11039,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11068,7 +11051,7 @@
     <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -11088,7 +11071,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -11107,8 +11090,9 @@
       <c r="F2" s="9">
         <v>8684287.2599999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11127,8 +11111,9 @@
       <c r="F3" s="9">
         <v>9111160</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -11147,8 +11132,9 @@
       <c r="F4" s="9">
         <v>12825689</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -11167,8 +11153,9 @@
       <c r="F5" s="9">
         <v>10892826</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -11187,8 +11174,9 @@
       <c r="F6" s="9">
         <v>15777132</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -11207,8 +11195,9 @@
       <c r="F7" s="9">
         <v>52158932</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -11227,8 +11216,9 @@
       <c r="F8" s="9">
         <v>1696858</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -11247,8 +11237,9 @@
       <c r="F9" s="9">
         <v>569656.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -11267,8 +11258,9 @@
       <c r="F10" s="9">
         <v>4816008</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -11287,8 +11279,9 @@
       <c r="F11" s="9">
         <v>13643071</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -11307,8 +11300,9 @@
       <c r="F12" s="9">
         <v>185605</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -11327,8 +11321,9 @@
       <c r="F13" s="9">
         <v>14380536</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -11347,8 +11342,9 @@
       <c r="F14" s="9">
         <v>20864108.460000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -11367,8 +11363,9 @@
       <c r="F15" s="9">
         <v>14403458</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -11387,6 +11384,7 @@
       <c r="F16" s="9">
         <v>7899606</v>
       </c>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -12101,18 +12099,16 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12137,11 +12133,8 @@
       <c r="H1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12166,13 +12159,9 @@
       <c r="H2" s="7">
         <v>8491593</v>
       </c>
-      <c r="I2" s="17">
-        <f>IF(G2&gt;F2, -G2/F2, F2/G2)</f>
-        <v>-1.9054012533650484</v>
-      </c>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -12197,13 +12186,9 @@
       <c r="H3" s="7">
         <v>11801451</v>
       </c>
-      <c r="I3" s="17">
-        <f t="shared" ref="I3:I51" si="0">IF(G3&gt;F3, -G3/F3, F3/G3)</f>
-        <v>-1.0727085248450314</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -12228,13 +12213,9 @@
       <c r="H4" s="7">
         <v>18765517</v>
       </c>
-      <c r="I4" s="17">
-        <f t="shared" si="0"/>
-        <v>-1.2923643587414124</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -12259,12 +12240,8 @@
       <c r="H5" s="7">
         <v>17874083</v>
       </c>
-      <c r="I5" s="17">
-        <f t="shared" si="0"/>
-        <v>2.9581385718524817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -12289,12 +12266,8 @@
       <c r="H6" s="7">
         <v>21615994</v>
       </c>
-      <c r="I6" s="17">
-        <f t="shared" si="0"/>
-        <v>20.481050043625942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -12319,12 +12292,8 @@
       <c r="H7" s="7">
         <v>57056595</v>
       </c>
-      <c r="I7" s="17">
-        <f t="shared" si="0"/>
-        <v>-3.4746332910939133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -12349,12 +12318,8 @@
       <c r="H8" s="7">
         <v>2480317</v>
       </c>
-      <c r="I8" s="17">
-        <f t="shared" si="0"/>
-        <v>5.2800784909482212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -12379,12 +12344,8 @@
       <c r="H9" s="7">
         <v>1005204</v>
       </c>
-      <c r="I9" s="17">
-        <f t="shared" si="0"/>
-        <v>1.6988095429869357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -12409,12 +12370,8 @@
       <c r="H10" s="7">
         <v>8874919</v>
       </c>
-      <c r="I10" s="17">
-        <f t="shared" si="0"/>
-        <v>8.0189424926653725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -12439,12 +12396,8 @@
       <c r="H11" s="7">
         <v>13759765</v>
       </c>
-      <c r="I11" s="17">
-        <f t="shared" si="0"/>
-        <v>-1.0762163991606268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -12469,12 +12422,8 @@
       <c r="H12" s="7">
         <v>578355</v>
       </c>
-      <c r="I12" s="17">
-        <f t="shared" si="0"/>
-        <v>6.5042818217205136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -12499,12 +12448,8 @@
       <c r="H13" s="7">
         <v>17713256</v>
       </c>
-      <c r="I13" s="17">
-        <f t="shared" si="0"/>
-        <v>1.5520389867198785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -12529,12 +12474,8 @@
       <c r="H14" s="7">
         <v>25655741</v>
       </c>
-      <c r="I14" s="17">
-        <f t="shared" si="0"/>
-        <v>-1.453953333286784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -12559,12 +12500,8 @@
       <c r="H15" s="7">
         <v>31945215</v>
       </c>
-      <c r="I15" s="17">
-        <f t="shared" si="0"/>
-        <v>1.0582210736838185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -12589,12 +12526,8 @@
       <c r="H16" s="7">
         <v>11659245</v>
       </c>
-      <c r="I16" s="17">
-        <f t="shared" si="0"/>
-        <v>4.0671373991559152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -12619,12 +12552,8 @@
       <c r="H17" s="7">
         <v>19436612</v>
       </c>
-      <c r="I17" s="17">
-        <f t="shared" si="0"/>
-        <v>-1.886999139393583</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -12649,12 +12578,8 @@
       <c r="H18" s="7">
         <v>19787571</v>
       </c>
-      <c r="I18" s="17">
-        <f t="shared" si="0"/>
-        <v>1.5606429905148818</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -12679,12 +12604,8 @@
       <c r="H19" s="7">
         <v>9997994</v>
       </c>
-      <c r="I19" s="17">
-        <f t="shared" si="0"/>
-        <v>3.8917718078576637</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -12709,12 +12630,8 @@
       <c r="H20" s="7">
         <v>2406096</v>
       </c>
-      <c r="I20" s="17">
-        <f t="shared" si="0"/>
-        <v>5.0705273276364489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -12739,12 +12656,8 @@
       <c r="H21" s="7">
         <v>6369051</v>
       </c>
-      <c r="I21" s="17">
-        <f t="shared" si="0"/>
-        <v>1.1412151878818075</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -12769,12 +12682,8 @@
       <c r="H22" s="7">
         <v>7871779</v>
       </c>
-      <c r="I22" s="17">
-        <f t="shared" si="0"/>
-        <v>1.4321151406507697</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -12799,12 +12708,8 @@
       <c r="H23" s="7">
         <v>37054782</v>
       </c>
-      <c r="I23" s="17">
-        <f t="shared" si="0"/>
-        <v>8.1590329408269362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -12829,12 +12734,8 @@
       <c r="H24" s="7">
         <v>30725174</v>
       </c>
-      <c r="I24" s="17">
-        <f t="shared" si="0"/>
-        <v>7.7894849462507088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -12859,12 +12760,8 @@
       <c r="H25" s="7">
         <v>21293840</v>
       </c>
-      <c r="I25" s="17">
-        <f t="shared" si="0"/>
-        <v>1.4451353280156349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -12889,12 +12786,8 @@
       <c r="H26" s="7">
         <v>12272661</v>
       </c>
-      <c r="I26" s="17">
-        <f t="shared" si="0"/>
-        <v>-2.0501737998416343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -12919,12 +12812,8 @@
       <c r="H27" s="7">
         <v>32917709</v>
       </c>
-      <c r="I27" s="17">
-        <f t="shared" si="0"/>
-        <v>-2.4800065418527399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -12949,12 +12838,8 @@
       <c r="H28" s="7">
         <v>10757714</v>
       </c>
-      <c r="I28" s="17">
-        <f t="shared" si="0"/>
-        <v>4.055471149259728</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -12979,12 +12864,8 @@
       <c r="H29" s="7">
         <v>11811245</v>
       </c>
-      <c r="I29" s="17">
-        <f t="shared" si="0"/>
-        <v>-1.7739666830284484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -13009,12 +12890,8 @@
       <c r="H30" s="7">
         <v>13501461</v>
       </c>
-      <c r="I30" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2746171601799079</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -13039,12 +12916,8 @@
       <c r="H31" s="7">
         <v>4017347</v>
       </c>
-      <c r="I31" s="17">
-        <f t="shared" si="0"/>
-        <v>1.9304128994138952</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -13069,12 +12942,8 @@
       <c r="H32" s="7">
         <v>8128965</v>
       </c>
-      <c r="I32" s="17">
-        <f t="shared" si="0"/>
-        <v>6.0826087183812305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -13099,12 +12968,8 @@
       <c r="H33" s="7">
         <v>16185652</v>
       </c>
-      <c r="I33" s="17">
-        <f t="shared" si="0"/>
-        <v>-1.7591049779681089</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -13129,12 +12994,8 @@
       <c r="H34" s="7">
         <v>7750384</v>
       </c>
-      <c r="I34" s="17">
-        <f t="shared" si="0"/>
-        <v>1.0236095227651318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -13159,12 +13020,8 @@
       <c r="H35" s="7">
         <v>21618296</v>
       </c>
-      <c r="I35" s="17">
-        <f t="shared" si="0"/>
-        <v>4.175289277664664</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -13189,12 +13046,8 @@
       <c r="H36" s="7">
         <v>22637955</v>
       </c>
-      <c r="I36" s="17">
-        <f t="shared" si="0"/>
-        <v>2.5488940371313067</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -13219,12 +13072,8 @@
       <c r="H37" s="7">
         <v>9606348</v>
       </c>
-      <c r="I37" s="17">
-        <f t="shared" si="0"/>
-        <v>1.4817968116034137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -13249,12 +13098,8 @@
       <c r="H38" s="7">
         <v>26399473</v>
       </c>
-      <c r="I38" s="17">
-        <f t="shared" si="0"/>
-        <v>3.8736558871799982</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -13279,12 +13124,8 @@
       <c r="H39" s="7">
         <v>36431816</v>
       </c>
-      <c r="I39" s="17">
-        <f t="shared" si="0"/>
-        <v>4.9926565242350822</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -13309,12 +13150,8 @@
       <c r="H40" s="7">
         <v>483576</v>
       </c>
-      <c r="I40" s="17">
-        <f t="shared" si="0"/>
-        <v>2.9806063399817257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -13339,12 +13176,8 @@
       <c r="H41" s="7">
         <v>9717318</v>
       </c>
-      <c r="I41" s="17">
-        <f t="shared" si="0"/>
-        <v>1.2687200047067921</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -13369,12 +13202,8 @@
       <c r="H42" s="7">
         <v>22061719</v>
       </c>
-      <c r="I42" s="17">
-        <f t="shared" si="0"/>
-        <v>-2.0697790167871548</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -13399,12 +13228,8 @@
       <c r="H43" s="7">
         <v>20720183</v>
       </c>
-      <c r="I43" s="17">
-        <f t="shared" si="0"/>
-        <v>4.594964090746708</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -13429,12 +13254,8 @@
       <c r="H44" s="7">
         <v>46217763</v>
       </c>
-      <c r="I44" s="17">
-        <f t="shared" si="0"/>
-        <v>3.1949715087561334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -13459,12 +13280,8 @@
       <c r="H45" s="7">
         <v>16762036</v>
       </c>
-      <c r="I45" s="17">
-        <f t="shared" si="0"/>
-        <v>2.0226009351252991</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -13489,12 +13306,8 @@
       <c r="H46" s="7">
         <v>21304227</v>
       </c>
-      <c r="I46" s="17">
-        <f t="shared" si="0"/>
-        <v>4.5835388524094345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -13519,12 +13332,8 @@
       <c r="H47" s="7">
         <v>3965555</v>
       </c>
-      <c r="I47" s="17">
-        <f t="shared" si="0"/>
-        <v>3.0058741230484829</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -13549,12 +13358,8 @@
       <c r="H48" s="7">
         <v>17191859</v>
       </c>
-      <c r="I48" s="17">
-        <f t="shared" si="0"/>
-        <v>15.186865106154205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -13579,12 +13384,8 @@
       <c r="H49" s="7">
         <v>41381372</v>
       </c>
-      <c r="I49" s="17">
-        <f t="shared" si="0"/>
-        <v>4.4379389186482134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -13609,12 +13410,8 @@
       <c r="H50" s="7">
         <v>9222900</v>
       </c>
-      <c r="I50" s="17">
-        <f t="shared" si="0"/>
-        <v>-1.1181977737897342</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -13639,16 +13436,6 @@
       <c r="H51" s="7">
         <v>24872972</v>
       </c>
-      <c r="I51" s="17">
-        <f t="shared" si="0"/>
-        <v>-2.8354934897694615</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I53" s="18"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I54" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17151,7 +16938,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0A0284-9E48-C54E-9EA3-39746F45BC0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B9BB8-D11D-DA48-9749-AF00B7EB3E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="19" r:id="rId1"/>
@@ -26,8 +26,9 @@
     <sheet name="2006" sheetId="13" r:id="rId16"/>
     <sheet name="2005" sheetId="14" r:id="rId17"/>
     <sheet name="2004" sheetId="15" r:id="rId18"/>
-    <sheet name="2018-Full" sheetId="20" r:id="rId19"/>
-    <sheet name="Notes" sheetId="16" r:id="rId20"/>
+    <sheet name="2003" sheetId="21" r:id="rId19"/>
+    <sheet name="2018-Full" sheetId="20" r:id="rId20"/>
+    <sheet name="Notes" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="161">
   <si>
     <r>
       <rPr>
@@ -935,9 +936,6 @@
     <t>License Holders</t>
   </si>
   <si>
-    <t>14-Year</t>
-  </si>
-  <si>
     <t>Change (%)</t>
   </si>
   <si>
@@ -948,6 +946,24 @@
   </si>
   <si>
     <t>Total Licenses</t>
+  </si>
+  <si>
+    <t>2003 Paid Hunting License Holders</t>
+  </si>
+  <si>
+    <t>2003 Resident Hunting Licenses, Tags, Permits, and Stamps</t>
+  </si>
+  <si>
+    <t>2003 Non-Resident Hunting Licenses, Tags, Permits, and Stamps</t>
+  </si>
+  <si>
+    <t>2003 Total Hunting Licenses, Tags, Permits, and Stamps</t>
+  </si>
+  <si>
+    <t>2003 Gross Cost - Hunting Licenses</t>
+  </si>
+  <si>
+    <t>15-Year</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1068,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1088,6 +1104,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1445,29 +1462,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T23"/>
+  <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>151</v>
-      </c>
       <c r="S2" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="T2" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10">
@@ -1530,17 +1547,21 @@
         <f>LicenseHolders!Q1</f>
         <v>2004</v>
       </c>
-      <c r="R3" s="15" t="s">
-        <v>152</v>
+      <c r="R3" s="10">
+        <f>LicenseHolders!R1</f>
+        <v>2003</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>LicenseHolders!A8</f>
         <v>CT</v>
@@ -1609,20 +1630,24 @@
         <f>LicenseHolders!Q8</f>
         <v>57720</v>
       </c>
-      <c r="R4" s="14">
-        <f t="shared" ref="R4:R9" si="0">(C4-Q4)/Q4</f>
-        <v>-0.3505024255024255</v>
+      <c r="R4">
+        <f>LicenseHolders!R8</f>
+        <v>54926</v>
       </c>
       <c r="S4" s="14">
-        <f t="shared" ref="S4:S9" si="1">(C4-M4)/M4</f>
+        <f>(C4-R4)/R4</f>
+        <v>-0.31746349634053089</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" ref="T4:T9" si="0">(C4-M4)/M4</f>
         <v>-0.23267904292117814</v>
       </c>
-      <c r="T4" s="14">
-        <f t="shared" ref="T4:T9" si="2">(C4-H4)/H4</f>
+      <c r="U4" s="14">
+        <f t="shared" ref="U4:U9" si="1">(C4-H4)/H4</f>
         <v>-0.15141020417402326</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>LicenseHolders!A22</f>
         <v>ME</v>
@@ -1691,20 +1716,24 @@
         <f>LicenseHolders!Q22</f>
         <v>197908</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5">
+        <f>LicenseHolders!R22</f>
+        <v>201136</v>
+      </c>
+      <c r="S5" s="14">
+        <f t="shared" ref="S5:S9" si="2">(C5-R5)/R5</f>
+        <v>-0.18865344841301407</v>
+      </c>
+      <c r="T5" s="14">
         <f t="shared" si="0"/>
-        <v>-0.17541989207106332</v>
-      </c>
-      <c r="S5" s="14">
+        <v>-0.16555366931195287</v>
+      </c>
+      <c r="U5" s="14">
         <f t="shared" si="1"/>
-        <v>-0.16555366931195287</v>
-      </c>
-      <c r="T5" s="14">
-        <f t="shared" si="2"/>
         <v>-0.13710342639593909</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>LicenseHolders!A20</f>
         <v>MA</v>
@@ -1773,20 +1802,24 @@
         <f>LicenseHolders!Q20</f>
         <v>68488</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6">
+        <f>LicenseHolders!R20</f>
+        <v>56662</v>
+      </c>
+      <c r="S6" s="14">
+        <f t="shared" si="2"/>
+        <v>2.2219476898097491E-2</v>
+      </c>
+      <c r="T6" s="14">
         <f t="shared" si="0"/>
-        <v>-0.154289802593155</v>
-      </c>
-      <c r="S6" s="14">
+        <v>1.2728830451279002E-2</v>
+      </c>
+      <c r="U6" s="14">
         <f t="shared" si="1"/>
-        <v>1.2728830451279002E-2</v>
-      </c>
-      <c r="T6" s="14">
-        <f t="shared" si="2"/>
         <v>4.8576534064294508E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>LicenseHolders!A31</f>
         <v>NH</v>
@@ -1855,20 +1888,24 @@
         <f>LicenseHolders!Q31</f>
         <v>67586</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7">
+        <f>LicenseHolders!R31</f>
+        <v>63975</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="2"/>
+        <v>-9.1848378272762793E-2</v>
+      </c>
+      <c r="T7" s="14">
         <f t="shared" si="0"/>
-        <v>-0.14036930725298138</v>
-      </c>
-      <c r="S7" s="14">
+        <v>-4.8742550265243302E-2</v>
+      </c>
+      <c r="U7" s="14">
         <f t="shared" si="1"/>
-        <v>-4.8742550265243302E-2</v>
-      </c>
-      <c r="T7" s="14">
-        <f t="shared" si="2"/>
         <v>-2.0269472690173859E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f>LicenseHolders!A40</f>
         <v>RI</v>
@@ -1937,20 +1974,24 @@
         <f>LicenseHolders!Q40</f>
         <v>10750</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8">
+        <f>LicenseHolders!R40</f>
+        <v>10691</v>
+      </c>
+      <c r="S8" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.23215788981386212</v>
+      </c>
+      <c r="T8" s="14">
         <f t="shared" si="0"/>
-        <v>-0.23637209302325582</v>
-      </c>
-      <c r="S8" s="14">
+        <v>-9.5426997245179057E-2</v>
+      </c>
+      <c r="U8" s="14">
         <f t="shared" si="1"/>
-        <v>-9.5426997245179057E-2</v>
-      </c>
-      <c r="T8" s="14">
-        <f t="shared" si="2"/>
         <v>-4.6019755955839625E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>LicenseHolders!A47</f>
         <v>VT</v>
@@ -2019,20 +2060,24 @@
         <f>LicenseHolders!Q47</f>
         <v>92138</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9">
+        <f>LicenseHolders!R47</f>
+        <v>90110</v>
+      </c>
+      <c r="S9" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.22380423926312284</v>
+      </c>
+      <c r="T9" s="14">
         <f t="shared" si="0"/>
-        <v>-0.24088866699950076</v>
-      </c>
-      <c r="S9" s="14">
+        <v>-0.16444067472642998</v>
+      </c>
+      <c r="U9" s="14">
         <f t="shared" si="1"/>
-        <v>-0.16444067472642998</v>
-      </c>
-      <c r="T9" s="14">
-        <f t="shared" si="2"/>
         <v>-0.13275883446993181</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>149</v>
       </c>
@@ -2096,25 +2141,29 @@
         <f>SUM(LicenseHolders!Q2:Q51)</f>
         <v>14966406</v>
       </c>
-      <c r="R11" s="14">
-        <f>(C11-Q11)/Q11</f>
-        <v>4.3272245855150528E-2</v>
+      <c r="R11" s="12">
+        <f>SUM(LicenseHolders!R2:R51)</f>
+        <v>14740188</v>
       </c>
       <c r="S11" s="14">
+        <f>(C11-R11)/R11</f>
+        <v>5.9283368706016505E-2</v>
+      </c>
+      <c r="T11" s="14">
         <f>(C11-M11)/M11</f>
         <v>6.7728749108119629E-2</v>
       </c>
-      <c r="T11" s="14">
+      <c r="U11" s="14">
         <f>(C11-H11)/H11</f>
         <v>6.7281506160812576E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>TotalLicenses!A8</f>
         <v>CT</v>
@@ -2183,20 +2232,24 @@
         <f>TotalLicenses!Q8</f>
         <v>143358</v>
       </c>
-      <c r="R16" s="14">
-        <f t="shared" ref="R16:R21" si="3">(C16-Q16)/Q16</f>
-        <v>-0.10551207466622023</v>
+      <c r="R16">
+        <f>TotalLicenses!R8</f>
+        <v>134294</v>
       </c>
       <c r="S16" s="14">
-        <f t="shared" ref="S16:S21" si="4">(C16-M16)/M16</f>
+        <f t="shared" ref="S16:S21" si="3">(C16-R16)/R16</f>
+        <v>-4.5139767971763445E-2</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" ref="T16:T21" si="4">(C16-M16)/M16</f>
         <v>3.8044244046780331E-3</v>
       </c>
-      <c r="T16" s="14">
-        <f t="shared" ref="T16:T21" si="5">(C16-H16)/H16</f>
+      <c r="U16" s="14">
+        <f t="shared" ref="U16:U21" si="5">(C16-H16)/H16</f>
         <v>4.8584772591919257E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>TotalLicenses!A22</f>
         <v>ME</v>
@@ -2265,20 +2318,24 @@
         <f>TotalLicenses!Q22</f>
         <v>259968</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17">
+        <f>TotalLicenses!R22</f>
+        <v>265605</v>
+      </c>
+      <c r="S17" s="14">
         <f t="shared" si="3"/>
-        <v>-4.1843611521418023E-2</v>
-      </c>
-      <c r="S17" s="14">
+        <v>-6.2178799344891851E-2</v>
+      </c>
+      <c r="T17" s="14">
         <f t="shared" si="4"/>
         <v>-0.10648372343287597</v>
       </c>
-      <c r="T17" s="14">
+      <c r="U17" s="14">
         <f t="shared" si="5"/>
         <v>-1.1500547645125958E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>TotalLicenses!A20</f>
         <v>MA</v>
@@ -2347,20 +2404,24 @@
         <f>TotalLicenses!Q20</f>
         <v>224099</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18">
+        <f>TotalLicenses!R20</f>
+        <v>210350</v>
+      </c>
+      <c r="S18" s="14">
         <f t="shared" si="3"/>
-        <v>0.16714487793341334</v>
-      </c>
-      <c r="S18" s="14">
+        <v>0.24343237461373901</v>
+      </c>
+      <c r="T18" s="14">
         <f t="shared" si="4"/>
         <v>0.18880985387359953</v>
       </c>
-      <c r="T18" s="14">
+      <c r="U18" s="14">
         <f t="shared" si="5"/>
         <v>0.14976240400550361</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>TotalLicenses!A31</f>
         <v>NH</v>
@@ -2429,20 +2490,24 @@
         <f>TotalLicenses!Q31</f>
         <v>233432</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19">
+        <f>TotalLicenses!R31</f>
+        <v>226252</v>
+      </c>
+      <c r="S19" s="14">
         <f t="shared" si="3"/>
-        <v>-6.4644093354809973E-2</v>
-      </c>
-      <c r="S19" s="14">
+        <v>-3.4961016919187453E-2</v>
+      </c>
+      <c r="T19" s="14">
         <f t="shared" si="4"/>
         <v>-1.7203507318917555E-2</v>
       </c>
-      <c r="T19" s="14">
+      <c r="U19" s="14">
         <f t="shared" si="5"/>
         <v>4.3729743682897212E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>TotalLicenses!A40</f>
         <v>RI</v>
@@ -2511,20 +2576,24 @@
         <f>TotalLicenses!Q40</f>
         <v>32823</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20">
+        <f>TotalLicenses!R40</f>
+        <v>33876</v>
+      </c>
+      <c r="S20" s="14">
         <f t="shared" si="3"/>
-        <v>-5.8495567132803218E-2</v>
-      </c>
-      <c r="S20" s="14">
+        <v>-8.7761246900460499E-2</v>
+      </c>
+      <c r="T20" s="14">
         <f t="shared" si="4"/>
         <v>-0.10757190712718032</v>
       </c>
-      <c r="T20" s="14">
+      <c r="U20" s="14">
         <f t="shared" si="5"/>
         <v>2.5912841371295756</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>TotalLicenses!A47</f>
         <v>VT</v>
@@ -2593,20 +2662,24 @@
         <f>TotalLicenses!Q47</f>
         <v>192308</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21">
+        <f>TotalLicenses!R47</f>
+        <v>186789</v>
+      </c>
+      <c r="S21" s="14">
         <f t="shared" si="3"/>
-        <v>-0.11949580880670591</v>
-      </c>
-      <c r="S21" s="14">
+        <v>-9.3479808768182279E-2</v>
+      </c>
+      <c r="T21" s="14">
         <f t="shared" si="4"/>
         <v>2.2617056098754099E-2</v>
       </c>
-      <c r="T21" s="14">
+      <c r="U21" s="14">
         <f t="shared" si="5"/>
         <v>-0.10522561178602946</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>149</v>
       </c>
@@ -2670,15 +2743,19 @@
         <f>SUM(TotalLicenses!Q2:Q51)</f>
         <v>34187932</v>
       </c>
-      <c r="R23" s="14">
-        <f>(C23-Q23)/Q23</f>
-        <v>8.2248116089618989E-2</v>
+      <c r="R23" s="12">
+        <f>SUM(TotalLicenses!R2:R51)</f>
+        <v>34673422</v>
       </c>
       <c r="S23" s="14">
+        <f>(C23-R23)/R23</f>
+        <v>6.7094704410773184E-2</v>
+      </c>
+      <c r="T23" s="14">
         <f>(C23-M23)/M23</f>
         <v>5.1693121658531307E-2</v>
       </c>
-      <c r="T23" s="14">
+      <c r="U23" s="14">
         <f>(C23-H23)/H23</f>
         <v>1.6857544097678808E-2</v>
       </c>
@@ -12098,10 +12175,4768 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD7335F-6457-BB4B-983A-3CCA6ED505AB}">
+  <dimension ref="A1:I53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>99121</v>
+      </c>
+      <c r="C2" s="8">
+        <v>185367</v>
+      </c>
+      <c r="D2" s="8">
+        <v>37848</v>
+      </c>
+      <c r="E2" s="8">
+        <v>223215</v>
+      </c>
+      <c r="F2" s="9">
+        <v>8373590.8399999999</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>270229</v>
+      </c>
+      <c r="C3" s="8">
+        <v>255022</v>
+      </c>
+      <c r="D3" s="8">
+        <v>44202</v>
+      </c>
+      <c r="E3" s="8">
+        <v>299224</v>
+      </c>
+      <c r="F3" s="9">
+        <v>9077910.5</v>
+      </c>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>386559</v>
+      </c>
+      <c r="C4" s="8">
+        <v>361702</v>
+      </c>
+      <c r="D4" s="8">
+        <v>76406</v>
+      </c>
+      <c r="E4" s="8">
+        <v>438108</v>
+      </c>
+      <c r="F4" s="9">
+        <v>12153851</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>181467</v>
+      </c>
+      <c r="C5" s="8">
+        <v>362036</v>
+      </c>
+      <c r="D5" s="8">
+        <v>34263</v>
+      </c>
+      <c r="E5" s="8">
+        <v>396299</v>
+      </c>
+      <c r="F5" s="9">
+        <v>10486835</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>315588</v>
+      </c>
+      <c r="C6" s="8">
+        <v>843357</v>
+      </c>
+      <c r="D6" s="8">
+        <v>15334</v>
+      </c>
+      <c r="E6" s="8">
+        <v>858691</v>
+      </c>
+      <c r="F6" s="9">
+        <v>16342858</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>309801</v>
+      </c>
+      <c r="C7" s="8">
+        <v>388842</v>
+      </c>
+      <c r="D7" s="8">
+        <v>165057</v>
+      </c>
+      <c r="E7" s="8">
+        <v>553899</v>
+      </c>
+      <c r="F7" s="9">
+        <v>52287530</v>
+      </c>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>54926</v>
+      </c>
+      <c r="C8" s="8">
+        <v>127832</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6462</v>
+      </c>
+      <c r="E8" s="8">
+        <v>134294</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2300724</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>20066</v>
+      </c>
+      <c r="C9" s="8">
+        <v>28682</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3165</v>
+      </c>
+      <c r="E9" s="8">
+        <v>31847</v>
+      </c>
+      <c r="F9" s="9">
+        <v>633008</v>
+      </c>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>176320</v>
+      </c>
+      <c r="C10" s="8">
+        <v>313151</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8028</v>
+      </c>
+      <c r="E10" s="8">
+        <v>321179</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4717719</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>331795</v>
+      </c>
+      <c r="C11" s="8">
+        <v>870755</v>
+      </c>
+      <c r="D11" s="8">
+        <v>83371</v>
+      </c>
+      <c r="E11" s="8">
+        <v>954126</v>
+      </c>
+      <c r="F11" s="9">
+        <v>13091634</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8388</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8584</v>
+      </c>
+      <c r="D12" s="3">
+        <v>316</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8900</v>
+      </c>
+      <c r="F12" s="9">
+        <v>285880</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>269014</v>
+      </c>
+      <c r="C13" s="8">
+        <v>768276</v>
+      </c>
+      <c r="D13" s="8">
+        <v>103638</v>
+      </c>
+      <c r="E13" s="8">
+        <v>871914</v>
+      </c>
+      <c r="F13" s="9">
+        <v>17578690</v>
+      </c>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>245358</v>
+      </c>
+      <c r="C14" s="8">
+        <v>727210</v>
+      </c>
+      <c r="D14" s="8">
+        <v>96883</v>
+      </c>
+      <c r="E14" s="8">
+        <v>824093</v>
+      </c>
+      <c r="F14" s="9">
+        <v>20321479.879999999</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>293994</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1057549</v>
+      </c>
+      <c r="D15" s="8">
+        <v>44510</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1102059</v>
+      </c>
+      <c r="F15" s="9">
+        <v>16016031</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>232819</v>
+      </c>
+      <c r="C16" s="8">
+        <v>421894</v>
+      </c>
+      <c r="D16" s="8">
+        <v>14312</v>
+      </c>
+      <c r="E16" s="8">
+        <v>436206</v>
+      </c>
+      <c r="F16" s="9">
+        <v>14943634</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>195874</v>
+      </c>
+      <c r="C17" s="8">
+        <v>397044</v>
+      </c>
+      <c r="D17" s="8">
+        <v>71902</v>
+      </c>
+      <c r="E17" s="8">
+        <v>468946</v>
+      </c>
+      <c r="F17" s="9">
+        <v>12087277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>347379</v>
+      </c>
+      <c r="C18" s="8">
+        <v>608399</v>
+      </c>
+      <c r="D18" s="8">
+        <v>58296</v>
+      </c>
+      <c r="E18" s="8">
+        <v>666695</v>
+      </c>
+      <c r="F18" s="9">
+        <v>12649252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <v>268793</v>
+      </c>
+      <c r="C19" s="8">
+        <v>561943</v>
+      </c>
+      <c r="D19" s="8">
+        <v>34614</v>
+      </c>
+      <c r="E19" s="8">
+        <v>596557</v>
+      </c>
+      <c r="F19" s="9">
+        <v>10010776</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <v>56662</v>
+      </c>
+      <c r="C20" s="8">
+        <v>204885</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5465</v>
+      </c>
+      <c r="E20" s="8">
+        <v>210350</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1931205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <v>123699</v>
+      </c>
+      <c r="C21" s="8">
+        <v>264537</v>
+      </c>
+      <c r="D21" s="8">
+        <v>29384</v>
+      </c>
+      <c r="E21" s="8">
+        <v>293921</v>
+      </c>
+      <c r="F21" s="9">
+        <v>5379334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <v>201136</v>
+      </c>
+      <c r="C22" s="8">
+        <v>217930</v>
+      </c>
+      <c r="D22" s="8">
+        <v>47675</v>
+      </c>
+      <c r="E22" s="8">
+        <v>265605</v>
+      </c>
+      <c r="F22" s="9">
+        <v>7127981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>863946</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2225367</v>
+      </c>
+      <c r="D23" s="8">
+        <v>40864</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2266231</v>
+      </c>
+      <c r="F23" s="9">
+        <v>27557693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <v>573424</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1379563</v>
+      </c>
+      <c r="D24" s="8">
+        <v>34196</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1413759</v>
+      </c>
+      <c r="F24" s="9">
+        <v>27543644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <v>542477</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1175640</v>
+      </c>
+      <c r="D25" s="8">
+        <v>54396</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1230036</v>
+      </c>
+      <c r="F25" s="9">
+        <v>19013206.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>235447</v>
+      </c>
+      <c r="C26" s="8">
+        <v>234717</v>
+      </c>
+      <c r="D26" s="8">
+        <v>43971</v>
+      </c>
+      <c r="E26" s="8">
+        <v>278688</v>
+      </c>
+      <c r="F26" s="9">
+        <v>9450722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <v>232276</v>
+      </c>
+      <c r="C27" s="8">
+        <v>856605</v>
+      </c>
+      <c r="D27" s="8">
+        <v>122824</v>
+      </c>
+      <c r="E27" s="8">
+        <v>979429</v>
+      </c>
+      <c r="F27" s="9">
+        <v>24653681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>433542</v>
+      </c>
+      <c r="C28" s="8">
+        <v>470217</v>
+      </c>
+      <c r="D28" s="8">
+        <v>23728</v>
+      </c>
+      <c r="E28" s="8">
+        <v>493945</v>
+      </c>
+      <c r="F28" s="9">
+        <v>9713265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <v>146010</v>
+      </c>
+      <c r="C29" s="8">
+        <v>425646</v>
+      </c>
+      <c r="D29" s="8">
+        <v>178026</v>
+      </c>
+      <c r="E29" s="8">
+        <v>603672</v>
+      </c>
+      <c r="F29" s="9">
+        <v>8517645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <v>176502</v>
+      </c>
+      <c r="C30" s="8">
+        <v>345550</v>
+      </c>
+      <c r="D30" s="8">
+        <v>51519</v>
+      </c>
+      <c r="E30" s="8">
+        <v>397069</v>
+      </c>
+      <c r="F30" s="9">
+        <v>9303513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <v>63975</v>
+      </c>
+      <c r="C31" s="8">
+        <v>188686</v>
+      </c>
+      <c r="D31" s="8">
+        <v>37566</v>
+      </c>
+      <c r="E31" s="8">
+        <v>226252</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3793753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>81501</v>
+      </c>
+      <c r="C32" s="8">
+        <v>266914</v>
+      </c>
+      <c r="D32" s="8">
+        <v>136649</v>
+      </c>
+      <c r="E32" s="8">
+        <v>403563</v>
+      </c>
+      <c r="F32" s="9">
+        <v>7048188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8">
+        <v>109948</v>
+      </c>
+      <c r="C33" s="8">
+        <v>284052</v>
+      </c>
+      <c r="D33" s="8">
+        <v>54516</v>
+      </c>
+      <c r="E33" s="8">
+        <v>338568</v>
+      </c>
+      <c r="F33" s="9">
+        <v>13401961</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8">
+        <v>60805</v>
+      </c>
+      <c r="C34" s="8">
+        <v>75909</v>
+      </c>
+      <c r="D34" s="8">
+        <v>14085</v>
+      </c>
+      <c r="E34" s="8">
+        <v>89994</v>
+      </c>
+      <c r="F34" s="9">
+        <v>3200053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8">
+        <v>641572</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1373531</v>
+      </c>
+      <c r="D35" s="8">
+        <v>80698</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1454229</v>
+      </c>
+      <c r="F35" s="9">
+        <v>20709350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>425992</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1108893</v>
+      </c>
+      <c r="D36" s="8">
+        <v>19949</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1128842</v>
+      </c>
+      <c r="F36" s="9">
+        <v>17247929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8">
+        <v>331672</v>
+      </c>
+      <c r="C37" s="8">
+        <v>313181</v>
+      </c>
+      <c r="D37" s="8">
+        <v>15812</v>
+      </c>
+      <c r="E37" s="8">
+        <v>328993</v>
+      </c>
+      <c r="F37" s="9">
+        <v>7705971.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <v>295422</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1314350</v>
+      </c>
+      <c r="D38" s="8">
+        <v>66817</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1381167</v>
+      </c>
+      <c r="F38" s="9">
+        <v>18506490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1017802</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2660174</v>
+      </c>
+      <c r="D39" s="8">
+        <v>131249</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2791423</v>
+      </c>
+      <c r="F39" s="9">
+        <v>39773564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8">
+        <v>10691</v>
+      </c>
+      <c r="C40" s="8">
+        <v>30995</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2881</v>
+      </c>
+      <c r="E40" s="8">
+        <v>33876</v>
+      </c>
+      <c r="F40" s="9">
+        <v>476179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8">
+        <v>272752</v>
+      </c>
+      <c r="C41" s="8">
+        <v>200487</v>
+      </c>
+      <c r="D41" s="8">
+        <v>58856</v>
+      </c>
+      <c r="E41" s="8">
+        <v>259343</v>
+      </c>
+      <c r="F41" s="9">
+        <v>7282978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8">
+        <v>207973</v>
+      </c>
+      <c r="C42" s="8">
+        <v>244101</v>
+      </c>
+      <c r="D42" s="8">
+        <v>104602</v>
+      </c>
+      <c r="E42" s="8">
+        <v>348703</v>
+      </c>
+      <c r="F42" s="9">
+        <v>15365201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8">
+        <v>727525</v>
+      </c>
+      <c r="C43" s="8">
+        <v>946477</v>
+      </c>
+      <c r="D43" s="8">
+        <v>37513</v>
+      </c>
+      <c r="E43" s="8">
+        <v>983990</v>
+      </c>
+      <c r="F43" s="9">
+        <v>13505126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1039327</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1225481</v>
+      </c>
+      <c r="D44" s="8">
+        <v>65235</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1290716</v>
+      </c>
+      <c r="F44" s="9">
+        <v>28126610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8">
+        <v>154884</v>
+      </c>
+      <c r="C45" s="8">
+        <v>226437</v>
+      </c>
+      <c r="D45" s="8">
+        <v>11636</v>
+      </c>
+      <c r="E45" s="8">
+        <v>238073</v>
+      </c>
+      <c r="F45" s="9">
+        <v>10750245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8">
+        <v>304605</v>
+      </c>
+      <c r="C46" s="8">
+        <v>763282</v>
+      </c>
+      <c r="D46" s="8">
+        <v>50598</v>
+      </c>
+      <c r="E46" s="8">
+        <v>813880</v>
+      </c>
+      <c r="F46" s="9">
+        <v>11198884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8">
+        <v>90110</v>
+      </c>
+      <c r="C47" s="8">
+        <v>164924</v>
+      </c>
+      <c r="D47" s="8">
+        <v>21865</v>
+      </c>
+      <c r="E47" s="8">
+        <v>186789</v>
+      </c>
+      <c r="F47" s="9">
+        <v>3418595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8">
+        <v>194308</v>
+      </c>
+      <c r="C48" s="8">
+        <v>871538</v>
+      </c>
+      <c r="D48" s="8">
+        <v>12078</v>
+      </c>
+      <c r="E48" s="8">
+        <v>883616</v>
+      </c>
+      <c r="F48" s="9">
+        <v>12197388.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8">
+        <v>716200</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2584071</v>
+      </c>
+      <c r="D49" s="8">
+        <v>133806</v>
+      </c>
+      <c r="E49" s="8">
+        <v>2717877</v>
+      </c>
+      <c r="F49" s="9">
+        <v>32848828</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8">
+        <v>262835</v>
+      </c>
+      <c r="C50" s="8">
+        <v>729189</v>
+      </c>
+      <c r="D50" s="8">
+        <v>196988</v>
+      </c>
+      <c r="E50" s="8">
+        <v>926177</v>
+      </c>
+      <c r="F50" s="9">
+        <v>10642616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8">
+        <v>137677</v>
+      </c>
+      <c r="C51" s="8">
+        <v>152836</v>
+      </c>
+      <c r="D51" s="8">
+        <v>75558</v>
+      </c>
+      <c r="E51" s="8">
+        <v>228394</v>
+      </c>
+      <c r="F51" s="9">
+        <v>19073987</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C52" s="2">
+        <v>31813810</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2859612</v>
+      </c>
+      <c r="E52" s="2">
+        <v>34673422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F53" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:R51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D1" s="5">
+        <f>C1-1</f>
+        <v>2017</v>
+      </c>
+      <c r="E1" s="5">
+        <f t="shared" ref="E1:R1" si="0">D1-1</f>
+        <v>2016</v>
+      </c>
+      <c r="F1" s="5">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="G1" s="5">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="H1" s="5">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="I1" s="5">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="J1" s="5">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="K1" s="5">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="L1" s="5">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="M1" s="5">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="N1" s="5">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="O1" s="5">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="P1" s="5">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="Q1" s="5">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="R1" s="5">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="6">
+        <f>'2018'!B2</f>
+        <v>108921</v>
+      </c>
+      <c r="D2" s="6">
+        <f>'2017'!B2</f>
+        <v>108487</v>
+      </c>
+      <c r="E2" s="6">
+        <f>'2016'!B2</f>
+        <v>106916</v>
+      </c>
+      <c r="F2" s="6">
+        <f>'2015'!B2</f>
+        <v>107131</v>
+      </c>
+      <c r="G2" s="6">
+        <f>'2014'!B2</f>
+        <v>107260</v>
+      </c>
+      <c r="H2" s="6">
+        <f>'2013'!B2</f>
+        <v>101547</v>
+      </c>
+      <c r="I2" s="6">
+        <f>'2012'!B2</f>
+        <v>106653</v>
+      </c>
+      <c r="J2" s="6">
+        <f>'2011'!B2</f>
+        <v>101750</v>
+      </c>
+      <c r="K2" s="6">
+        <f>'2010'!B2</f>
+        <v>97858</v>
+      </c>
+      <c r="L2" s="6">
+        <f>'2009'!B2</f>
+        <v>96979</v>
+      </c>
+      <c r="M2" s="6">
+        <f>'2008'!B2</f>
+        <v>96979</v>
+      </c>
+      <c r="N2" s="6">
+        <f>'2007'!B2</f>
+        <v>99954</v>
+      </c>
+      <c r="O2" s="6">
+        <f>'2006'!B2</f>
+        <v>98084</v>
+      </c>
+      <c r="P2" s="6">
+        <f>'2005'!B2</f>
+        <v>99121</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>'2004'!B2</f>
+        <v>97537</v>
+      </c>
+      <c r="R2" s="6">
+        <f>'2003'!B2</f>
+        <v>99121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="6">
+        <f>'2018'!B3</f>
+        <v>547905</v>
+      </c>
+      <c r="D3" s="6">
+        <f>'2017'!B3</f>
+        <v>548829</v>
+      </c>
+      <c r="E3" s="6">
+        <f>'2016'!B3</f>
+        <v>565139</v>
+      </c>
+      <c r="F3" s="6">
+        <f>'2015'!B3</f>
+        <v>507926</v>
+      </c>
+      <c r="G3" s="6">
+        <f>'2014'!B3</f>
+        <v>507403</v>
+      </c>
+      <c r="H3" s="6">
+        <f>'2013'!B3</f>
+        <v>530127</v>
+      </c>
+      <c r="I3" s="6">
+        <f>'2012'!B3</f>
+        <v>527713</v>
+      </c>
+      <c r="J3" s="6">
+        <f>'2011'!B3</f>
+        <v>540098</v>
+      </c>
+      <c r="K3" s="6">
+        <f>'2010'!B3</f>
+        <v>264710</v>
+      </c>
+      <c r="L3" s="6">
+        <f>'2009'!B3</f>
+        <v>264640</v>
+      </c>
+      <c r="M3" s="6">
+        <f>'2008'!B3</f>
+        <v>255923</v>
+      </c>
+      <c r="N3" s="6">
+        <f>'2007'!B3</f>
+        <v>259241</v>
+      </c>
+      <c r="O3" s="6">
+        <f>'2006'!B3</f>
+        <v>267354</v>
+      </c>
+      <c r="P3" s="6">
+        <f>'2005'!B3</f>
+        <v>270229</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>'2004'!B3</f>
+        <v>273638</v>
+      </c>
+      <c r="R3" s="6">
+        <f>'2003'!B3</f>
+        <v>270229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="6">
+        <f>'2018'!B4</f>
+        <v>326559</v>
+      </c>
+      <c r="D4" s="6">
+        <f>'2017'!B4</f>
+        <v>340200</v>
+      </c>
+      <c r="E4" s="6">
+        <f>'2016'!B4</f>
+        <v>328542</v>
+      </c>
+      <c r="F4" s="6">
+        <f>'2015'!B4</f>
+        <v>326779</v>
+      </c>
+      <c r="G4" s="6">
+        <f>'2014'!B4</f>
+        <v>382212</v>
+      </c>
+      <c r="H4" s="6">
+        <f>'2013'!B4</f>
+        <v>390554</v>
+      </c>
+      <c r="I4" s="6">
+        <f>'2012'!B4</f>
+        <v>385275</v>
+      </c>
+      <c r="J4" s="6">
+        <f>'2011'!B4</f>
+        <v>390932</v>
+      </c>
+      <c r="K4" s="6">
+        <f>'2010'!B4</f>
+        <v>381521</v>
+      </c>
+      <c r="L4" s="6">
+        <f>'2009'!B4</f>
+        <v>380931</v>
+      </c>
+      <c r="M4" s="6">
+        <f>'2008'!B4</f>
+        <v>354042</v>
+      </c>
+      <c r="N4" s="6">
+        <f>'2007'!B4</f>
+        <v>375737</v>
+      </c>
+      <c r="O4" s="6">
+        <f>'2006'!B4</f>
+        <v>378162</v>
+      </c>
+      <c r="P4" s="6">
+        <f>'2005'!B4</f>
+        <v>386559</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>'2004'!B4</f>
+        <v>402493</v>
+      </c>
+      <c r="R4" s="6">
+        <f>'2003'!B4</f>
+        <v>386559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'2018'!B5</f>
+        <v>305214</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'2017'!B5</f>
+        <v>324553</v>
+      </c>
+      <c r="E5" s="6">
+        <f>'2016'!B5</f>
+        <v>215444</v>
+      </c>
+      <c r="F5" s="6">
+        <f>'2015'!B5</f>
+        <v>200092</v>
+      </c>
+      <c r="G5" s="6">
+        <f>'2014'!B5</f>
+        <v>195213</v>
+      </c>
+      <c r="H5" s="6">
+        <f>'2013'!B5</f>
+        <v>195664</v>
+      </c>
+      <c r="I5" s="6">
+        <f>'2012'!B5</f>
+        <v>194727</v>
+      </c>
+      <c r="J5" s="6">
+        <f>'2011'!B5</f>
+        <v>191834</v>
+      </c>
+      <c r="K5" s="6">
+        <f>'2010'!B5</f>
+        <v>201627</v>
+      </c>
+      <c r="L5" s="6">
+        <f>'2009'!B5</f>
+        <v>202976</v>
+      </c>
+      <c r="M5" s="6">
+        <f>'2008'!B5</f>
+        <v>202976</v>
+      </c>
+      <c r="N5" s="6">
+        <f>'2007'!B5</f>
+        <v>196706</v>
+      </c>
+      <c r="O5" s="6">
+        <f>'2006'!B5</f>
+        <v>182044</v>
+      </c>
+      <c r="P5" s="6">
+        <f>'2005'!B5</f>
+        <v>181467</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>'2004'!B5</f>
+        <v>183478</v>
+      </c>
+      <c r="R5" s="6">
+        <f>'2003'!B5</f>
+        <v>181467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'2018'!B6</f>
+        <v>280967</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'2017'!B6</f>
+        <v>284069</v>
+      </c>
+      <c r="E6" s="6">
+        <f>'2016'!B6</f>
+        <v>287147</v>
+      </c>
+      <c r="F6" s="6">
+        <f>'2015'!B6</f>
+        <v>283539</v>
+      </c>
+      <c r="G6" s="6">
+        <f>'2014'!B6</f>
+        <v>283539</v>
+      </c>
+      <c r="H6" s="6">
+        <f>'2013'!B6</f>
+        <v>281472</v>
+      </c>
+      <c r="I6" s="6">
+        <f>'2012'!B6</f>
+        <v>289609</v>
+      </c>
+      <c r="J6" s="6">
+        <f>'2011'!B6</f>
+        <v>293263</v>
+      </c>
+      <c r="K6" s="6">
+        <f>'2010'!B6</f>
+        <v>296623</v>
+      </c>
+      <c r="L6" s="6">
+        <f>'2009'!B6</f>
+        <v>300615</v>
+      </c>
+      <c r="M6" s="6">
+        <f>'2008'!B6</f>
+        <v>295163</v>
+      </c>
+      <c r="N6" s="6">
+        <f>'2007'!B6</f>
+        <v>299303</v>
+      </c>
+      <c r="O6" s="6">
+        <f>'2006'!B6</f>
+        <v>305962</v>
+      </c>
+      <c r="P6" s="6">
+        <f>'2005'!B6</f>
+        <v>315588</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>'2004'!B6</f>
+        <v>320092</v>
+      </c>
+      <c r="R6" s="6">
+        <f>'2003'!B6</f>
+        <v>315588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="6">
+        <f>'2018'!B7</f>
+        <v>294319</v>
+      </c>
+      <c r="D7" s="6">
+        <f>'2017'!B7</f>
+        <v>290064</v>
+      </c>
+      <c r="E7" s="6">
+        <f>'2016'!B7</f>
+        <v>284773</v>
+      </c>
+      <c r="F7" s="6">
+        <f>'2015'!B7</f>
+        <v>281201</v>
+      </c>
+      <c r="G7" s="6">
+        <f>'2014'!B7</f>
+        <v>280302</v>
+      </c>
+      <c r="H7" s="6">
+        <f>'2013'!B7</f>
+        <v>286363</v>
+      </c>
+      <c r="I7" s="6">
+        <f>'2012'!B7</f>
+        <v>288086</v>
+      </c>
+      <c r="J7" s="6">
+        <f>'2011'!B7</f>
+        <v>294186</v>
+      </c>
+      <c r="K7" s="6">
+        <f>'2010'!B7</f>
+        <v>294186</v>
+      </c>
+      <c r="L7" s="6">
+        <f>'2009'!B7</f>
+        <v>306179</v>
+      </c>
+      <c r="M7" s="6">
+        <f>'2008'!B7</f>
+        <v>306179</v>
+      </c>
+      <c r="N7" s="6">
+        <f>'2007'!B7</f>
+        <v>312151</v>
+      </c>
+      <c r="O7" s="6">
+        <f>'2006'!B7</f>
+        <v>318971</v>
+      </c>
+      <c r="P7" s="6">
+        <f>'2005'!B7</f>
+        <v>309801</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>'2004'!B7</f>
+        <v>300574</v>
+      </c>
+      <c r="R7" s="6">
+        <f>'2003'!B7</f>
+        <v>309801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="6">
+        <f>'2018'!B8</f>
+        <v>37489</v>
+      </c>
+      <c r="D8" s="6">
+        <f>'2017'!B8</f>
+        <v>39488</v>
+      </c>
+      <c r="E8" s="6">
+        <f>'2016'!B8</f>
+        <v>42924</v>
+      </c>
+      <c r="F8" s="6">
+        <f>'2015'!B8</f>
+        <v>42535</v>
+      </c>
+      <c r="G8" s="6">
+        <f>'2014'!B8</f>
+        <v>41294</v>
+      </c>
+      <c r="H8" s="6">
+        <f>'2013'!B8</f>
+        <v>44178</v>
+      </c>
+      <c r="I8" s="6">
+        <f>'2012'!B8</f>
+        <v>46582</v>
+      </c>
+      <c r="J8" s="6">
+        <f>'2011'!B8</f>
+        <v>50066</v>
+      </c>
+      <c r="K8" s="6">
+        <f>'2010'!B8</f>
+        <v>49493</v>
+      </c>
+      <c r="L8" s="6">
+        <f>'2009'!B8</f>
+        <v>48857</v>
+      </c>
+      <c r="M8" s="6">
+        <f>'2008'!B8</f>
+        <v>48857</v>
+      </c>
+      <c r="N8" s="6">
+        <f>'2007'!B8</f>
+        <v>52207</v>
+      </c>
+      <c r="O8" s="6">
+        <f>'2006'!B8</f>
+        <v>54130</v>
+      </c>
+      <c r="P8" s="6">
+        <f>'2005'!B8</f>
+        <v>54926</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>'2004'!B8</f>
+        <v>57720</v>
+      </c>
+      <c r="R8" s="6">
+        <f>'2003'!B8</f>
+        <v>54926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="6">
+        <f>'2018'!B9</f>
+        <v>17847</v>
+      </c>
+      <c r="D9" s="6">
+        <f>'2017'!B9</f>
+        <v>18323</v>
+      </c>
+      <c r="E9" s="6">
+        <f>'2016'!B9</f>
+        <v>17369</v>
+      </c>
+      <c r="F9" s="6">
+        <f>'2015'!B9</f>
+        <v>16786</v>
+      </c>
+      <c r="G9" s="6">
+        <f>'2014'!B9</f>
+        <v>16860</v>
+      </c>
+      <c r="H9" s="6">
+        <f>'2013'!B9</f>
+        <v>18184</v>
+      </c>
+      <c r="I9" s="6">
+        <f>'2012'!B9</f>
+        <v>18691</v>
+      </c>
+      <c r="J9" s="6">
+        <f>'2011'!B9</f>
+        <v>19271</v>
+      </c>
+      <c r="K9" s="6">
+        <f>'2010'!B9</f>
+        <v>18746</v>
+      </c>
+      <c r="L9" s="6">
+        <f>'2009'!B9</f>
+        <v>19890</v>
+      </c>
+      <c r="M9" s="6">
+        <f>'2008'!B9</f>
+        <v>19681</v>
+      </c>
+      <c r="N9" s="6">
+        <f>'2007'!B9</f>
+        <v>19472</v>
+      </c>
+      <c r="O9" s="6">
+        <f>'2006'!B9</f>
+        <v>18480</v>
+      </c>
+      <c r="P9" s="6">
+        <f>'2005'!B9</f>
+        <v>20066</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>'2004'!B9</f>
+        <v>21488</v>
+      </c>
+      <c r="R9" s="6">
+        <f>'2003'!B9</f>
+        <v>20066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="6">
+        <f>'2018'!B10</f>
+        <v>190232</v>
+      </c>
+      <c r="D10" s="6">
+        <f>'2017'!B10</f>
+        <v>190526</v>
+      </c>
+      <c r="E10" s="6">
+        <f>'2016'!B10</f>
+        <v>181040</v>
+      </c>
+      <c r="F10" s="6">
+        <f>'2015'!B10</f>
+        <v>175349</v>
+      </c>
+      <c r="G10" s="6">
+        <f>'2014'!B10</f>
+        <v>176288</v>
+      </c>
+      <c r="H10" s="6">
+        <f>'2013'!B10</f>
+        <v>176616</v>
+      </c>
+      <c r="I10" s="6">
+        <f>'2012'!B10</f>
+        <v>176034</v>
+      </c>
+      <c r="J10" s="6">
+        <f>'2011'!B10</f>
+        <v>176539</v>
+      </c>
+      <c r="K10" s="6">
+        <f>'2010'!B10</f>
+        <v>170554</v>
+      </c>
+      <c r="L10" s="6">
+        <f>'2009'!B10</f>
+        <v>170282</v>
+      </c>
+      <c r="M10" s="6">
+        <f>'2008'!B10</f>
+        <v>167524</v>
+      </c>
+      <c r="N10" s="6">
+        <f>'2007'!B10</f>
+        <v>161273</v>
+      </c>
+      <c r="O10" s="6">
+        <f>'2006'!B10</f>
+        <v>175067</v>
+      </c>
+      <c r="P10" s="6">
+        <f>'2005'!B10</f>
+        <v>176320</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>'2004'!B10</f>
+        <v>181857</v>
+      </c>
+      <c r="R10" s="6">
+        <f>'2003'!B10</f>
+        <v>176320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="6">
+        <f>'2018'!B11</f>
+        <v>651910</v>
+      </c>
+      <c r="D11" s="6">
+        <f>'2017'!B11</f>
+        <v>620740</v>
+      </c>
+      <c r="E11" s="6">
+        <f>'2016'!B11</f>
+        <v>604863</v>
+      </c>
+      <c r="F11" s="6">
+        <f>'2015'!B11</f>
+        <v>395219</v>
+      </c>
+      <c r="G11" s="6">
+        <f>'2014'!B11</f>
+        <v>367385</v>
+      </c>
+      <c r="H11" s="6">
+        <f>'2013'!B11</f>
+        <v>363575</v>
+      </c>
+      <c r="I11" s="6">
+        <f>'2012'!B11</f>
+        <v>324561</v>
+      </c>
+      <c r="J11" s="6">
+        <f>'2011'!B11</f>
+        <v>307436</v>
+      </c>
+      <c r="K11" s="6">
+        <f>'2010'!B11</f>
+        <v>302190</v>
+      </c>
+      <c r="L11" s="6">
+        <f>'2009'!B11</f>
+        <v>273272</v>
+      </c>
+      <c r="M11" s="6">
+        <f>'2008'!B11</f>
+        <v>390892</v>
+      </c>
+      <c r="N11" s="6">
+        <f>'2007'!B11</f>
+        <v>314569</v>
+      </c>
+      <c r="O11" s="6">
+        <f>'2006'!B11</f>
+        <v>314569</v>
+      </c>
+      <c r="P11" s="6">
+        <f>'2005'!B11</f>
+        <v>331795</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>'2004'!B11</f>
+        <v>338045</v>
+      </c>
+      <c r="R11" s="6">
+        <f>'2003'!B11</f>
+        <v>331795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="6">
+        <f>'2018'!B12</f>
+        <v>10617</v>
+      </c>
+      <c r="D12" s="6">
+        <f>'2017'!B12</f>
+        <v>10831</v>
+      </c>
+      <c r="E12" s="6">
+        <f>'2016'!B12</f>
+        <v>11113</v>
+      </c>
+      <c r="F12" s="6">
+        <f>'2015'!B12</f>
+        <v>10537</v>
+      </c>
+      <c r="G12" s="6">
+        <f>'2014'!B12</f>
+        <v>7240</v>
+      </c>
+      <c r="H12" s="6">
+        <f>'2013'!B12</f>
+        <v>9815</v>
+      </c>
+      <c r="I12" s="6">
+        <f>'2012'!B12</f>
+        <v>9677</v>
+      </c>
+      <c r="J12" s="6">
+        <f>'2011'!B12</f>
+        <v>9002</v>
+      </c>
+      <c r="K12" s="6">
+        <f>'2010'!B12</f>
+        <v>7407</v>
+      </c>
+      <c r="L12" s="6">
+        <f>'2009'!B12</f>
+        <v>6856</v>
+      </c>
+      <c r="M12" s="6">
+        <f>'2008'!B12</f>
+        <v>8741</v>
+      </c>
+      <c r="N12" s="6">
+        <f>'2007'!B12</f>
+        <v>7775</v>
+      </c>
+      <c r="O12" s="6">
+        <f>'2006'!B12</f>
+        <v>8211</v>
+      </c>
+      <c r="P12" s="6">
+        <f>'2005'!B12</f>
+        <v>8388</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>'2004'!B12</f>
+        <v>9032</v>
+      </c>
+      <c r="R12" s="6">
+        <f>'2003'!B12</f>
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="6">
+        <f>'2018'!B13</f>
+        <v>223232</v>
+      </c>
+      <c r="D13" s="6">
+        <f>'2017'!B13</f>
+        <v>221231</v>
+      </c>
+      <c r="E13" s="6">
+        <f>'2016'!B13</f>
+        <v>217282</v>
+      </c>
+      <c r="F13" s="6">
+        <f>'2015'!B13</f>
+        <v>219798</v>
+      </c>
+      <c r="G13" s="6">
+        <f>'2014'!B13</f>
+        <v>222695</v>
+      </c>
+      <c r="H13" s="6">
+        <f>'2013'!B13</f>
+        <v>227408</v>
+      </c>
+      <c r="I13" s="6">
+        <f>'2012'!B13</f>
+        <v>256896</v>
+      </c>
+      <c r="J13" s="6">
+        <f>'2011'!B13</f>
+        <v>264699</v>
+      </c>
+      <c r="K13" s="6">
+        <f>'2010'!B13</f>
+        <v>271434</v>
+      </c>
+      <c r="L13" s="6">
+        <f>'2009'!B13</f>
+        <v>290171</v>
+      </c>
+      <c r="M13" s="6">
+        <f>'2008'!B13</f>
+        <v>291424</v>
+      </c>
+      <c r="N13" s="6">
+        <f>'2007'!B13</f>
+        <v>280398</v>
+      </c>
+      <c r="O13" s="6">
+        <f>'2006'!B13</f>
+        <v>286607</v>
+      </c>
+      <c r="P13" s="6">
+        <f>'2005'!B13</f>
+        <v>269014</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>'2004'!B13</f>
+        <v>257899</v>
+      </c>
+      <c r="R13" s="6">
+        <f>'2003'!B13</f>
+        <v>269014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="6">
+        <f>'2018'!B14</f>
+        <v>286947</v>
+      </c>
+      <c r="D14" s="6">
+        <f>'2017'!B14</f>
+        <v>273887</v>
+      </c>
+      <c r="E14" s="6">
+        <f>'2016'!B14</f>
+        <v>266007</v>
+      </c>
+      <c r="F14" s="6">
+        <f>'2015'!B14</f>
+        <v>258547</v>
+      </c>
+      <c r="G14" s="6">
+        <f>'2014'!B14</f>
+        <v>252865</v>
+      </c>
+      <c r="H14" s="6">
+        <f>'2013'!B14</f>
+        <v>248728</v>
+      </c>
+      <c r="I14" s="6">
+        <f>'2012'!B14</f>
+        <v>252573</v>
+      </c>
+      <c r="J14" s="6">
+        <f>'2011'!B14</f>
+        <v>254195</v>
+      </c>
+      <c r="K14" s="6">
+        <f>'2010'!B14</f>
+        <v>256664</v>
+      </c>
+      <c r="L14" s="6">
+        <f>'2009'!B14</f>
+        <v>255077</v>
+      </c>
+      <c r="M14" s="6">
+        <f>'2008'!B14</f>
+        <v>255077</v>
+      </c>
+      <c r="N14" s="6">
+        <f>'2007'!B14</f>
+        <v>254678</v>
+      </c>
+      <c r="O14" s="6">
+        <f>'2006'!B14</f>
+        <v>250648</v>
+      </c>
+      <c r="P14" s="6">
+        <f>'2005'!B14</f>
+        <v>245358</v>
+      </c>
+      <c r="Q14" s="6">
+        <f>'2004'!B14</f>
+        <v>246284</v>
+      </c>
+      <c r="R14" s="6">
+        <f>'2003'!B14</f>
+        <v>245358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="6">
+        <f>'2018'!B15</f>
+        <v>306024</v>
+      </c>
+      <c r="D15" s="6">
+        <f>'2017'!B15</f>
+        <v>314135</v>
+      </c>
+      <c r="E15" s="6">
+        <f>'2016'!B15</f>
+        <v>319588</v>
+      </c>
+      <c r="F15" s="6">
+        <f>'2015'!B15</f>
+        <v>320765</v>
+      </c>
+      <c r="G15" s="6">
+        <f>'2014'!B15</f>
+        <v>321858</v>
+      </c>
+      <c r="H15" s="6">
+        <f>'2013'!B15</f>
+        <v>321739</v>
+      </c>
+      <c r="I15" s="6">
+        <f>'2012'!B15</f>
+        <v>328995</v>
+      </c>
+      <c r="J15" s="6">
+        <f>'2011'!B15</f>
+        <v>333061</v>
+      </c>
+      <c r="K15" s="6">
+        <f>'2010'!B15</f>
+        <v>301688</v>
+      </c>
+      <c r="L15" s="6">
+        <f>'2009'!B15</f>
+        <v>328975</v>
+      </c>
+      <c r="M15" s="6">
+        <f>'2008'!B15</f>
+        <v>328975</v>
+      </c>
+      <c r="N15" s="6">
+        <f>'2007'!B15</f>
+        <v>336203</v>
+      </c>
+      <c r="O15" s="6">
+        <f>'2006'!B15</f>
+        <v>330360</v>
+      </c>
+      <c r="P15" s="6">
+        <f>'2005'!B15</f>
+        <v>293994</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>'2004'!B15</f>
+        <v>300883</v>
+      </c>
+      <c r="R15" s="6">
+        <f>'2003'!B15</f>
+        <v>293994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="6">
+        <f>'2018'!B16</f>
+        <v>267447</v>
+      </c>
+      <c r="D16" s="6">
+        <f>'2017'!B16</f>
+        <v>270875</v>
+      </c>
+      <c r="E16" s="6">
+        <f>'2016'!B16</f>
+        <v>280952</v>
+      </c>
+      <c r="F16" s="6">
+        <f>'2015'!B16</f>
+        <v>278322</v>
+      </c>
+      <c r="G16" s="6">
+        <f>'2014'!B16</f>
+        <v>274048</v>
+      </c>
+      <c r="H16" s="6">
+        <f>'2013'!B16</f>
+        <v>273929</v>
+      </c>
+      <c r="I16" s="6">
+        <f>'2012'!B16</f>
+        <v>279214</v>
+      </c>
+      <c r="J16" s="6">
+        <f>'2011'!B16</f>
+        <v>272282</v>
+      </c>
+      <c r="K16" s="6">
+        <f>'2010'!B16</f>
+        <v>264323</v>
+      </c>
+      <c r="L16" s="6">
+        <f>'2009'!B16</f>
+        <v>265709</v>
+      </c>
+      <c r="M16" s="6">
+        <f>'2008'!B16</f>
+        <v>265709</v>
+      </c>
+      <c r="N16" s="6">
+        <f>'2007'!B16</f>
+        <v>282261</v>
+      </c>
+      <c r="O16" s="6">
+        <f>'2006'!B16</f>
+        <v>250573</v>
+      </c>
+      <c r="P16" s="6">
+        <f>'2005'!B16</f>
+        <v>232819</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>'2004'!B16</f>
+        <v>285573</v>
+      </c>
+      <c r="R16" s="6">
+        <f>'2003'!B16</f>
+        <v>232819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="6">
+        <f>'2018'!B17</f>
+        <v>251390</v>
+      </c>
+      <c r="D17" s="6">
+        <f>'2017'!B17</f>
+        <v>245779</v>
+      </c>
+      <c r="E17" s="6">
+        <f>'2016'!B17</f>
+        <v>245647</v>
+      </c>
+      <c r="F17" s="6">
+        <f>'2015'!B17</f>
+        <v>239335</v>
+      </c>
+      <c r="G17" s="6">
+        <f>'2014'!B17</f>
+        <v>245365</v>
+      </c>
+      <c r="H17" s="6">
+        <f>'2013'!B17</f>
+        <v>226553</v>
+      </c>
+      <c r="I17" s="6">
+        <f>'2012'!B17</f>
+        <v>235021</v>
+      </c>
+      <c r="J17" s="6">
+        <f>'2011'!B17</f>
+        <v>214107</v>
+      </c>
+      <c r="K17" s="6">
+        <f>'2010'!B17</f>
+        <v>214107</v>
+      </c>
+      <c r="L17" s="6">
+        <f>'2009'!B17</f>
+        <v>208992</v>
+      </c>
+      <c r="M17" s="6">
+        <f>'2008'!B17</f>
+        <v>209170</v>
+      </c>
+      <c r="N17" s="6">
+        <f>'2007'!B17</f>
+        <v>198368</v>
+      </c>
+      <c r="O17" s="6">
+        <f>'2006'!B17</f>
+        <v>202274</v>
+      </c>
+      <c r="P17" s="6">
+        <f>'2005'!B17</f>
+        <v>195874</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>'2004'!B17</f>
+        <v>188310</v>
+      </c>
+      <c r="R17" s="6">
+        <f>'2003'!B17</f>
+        <v>195874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="6">
+        <f>'2018'!B18</f>
+        <v>352408</v>
+      </c>
+      <c r="D18" s="6">
+        <f>'2017'!B18</f>
+        <v>353098</v>
+      </c>
+      <c r="E18" s="6">
+        <f>'2016'!B18</f>
+        <v>356500</v>
+      </c>
+      <c r="F18" s="6">
+        <f>'2015'!B18</f>
+        <v>340902</v>
+      </c>
+      <c r="G18" s="6">
+        <f>'2014'!B18</f>
+        <v>326976</v>
+      </c>
+      <c r="H18" s="6">
+        <f>'2013'!B18</f>
+        <v>330238</v>
+      </c>
+      <c r="I18" s="6">
+        <f>'2012'!B18</f>
+        <v>336463</v>
+      </c>
+      <c r="J18" s="6">
+        <f>'2011'!B18</f>
+        <v>328321</v>
+      </c>
+      <c r="K18" s="6">
+        <f>'2010'!B18</f>
+        <v>339483</v>
+      </c>
+      <c r="L18" s="6">
+        <f>'2009'!B18</f>
+        <v>347848</v>
+      </c>
+      <c r="M18" s="6">
+        <f>'2008'!B18</f>
+        <v>347848</v>
+      </c>
+      <c r="N18" s="6">
+        <f>'2007'!B18</f>
+        <v>343456</v>
+      </c>
+      <c r="O18" s="6">
+        <f>'2006'!B18</f>
+        <v>350544</v>
+      </c>
+      <c r="P18" s="6">
+        <f>'2005'!B18</f>
+        <v>347379</v>
+      </c>
+      <c r="Q18" s="6">
+        <f>'2004'!B18</f>
+        <v>349951</v>
+      </c>
+      <c r="R18" s="6">
+        <f>'2003'!B18</f>
+        <v>347379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="6">
+        <f>'2018'!B19</f>
+        <v>398808</v>
+      </c>
+      <c r="D19" s="6">
+        <f>'2017'!B19</f>
+        <v>395322</v>
+      </c>
+      <c r="E19" s="6">
+        <f>'2016'!B19</f>
+        <v>386310</v>
+      </c>
+      <c r="F19" s="6">
+        <f>'2015'!B19</f>
+        <v>370528</v>
+      </c>
+      <c r="G19" s="6">
+        <f>'2014'!B19</f>
+        <v>358153</v>
+      </c>
+      <c r="H19" s="6">
+        <f>'2013'!B19</f>
+        <v>345525</v>
+      </c>
+      <c r="I19" s="6">
+        <f>'2012'!B19</f>
+        <v>325446</v>
+      </c>
+      <c r="J19" s="6">
+        <f>'2011'!B19</f>
+        <v>314846</v>
+      </c>
+      <c r="K19" s="6">
+        <f>'2010'!B19</f>
+        <v>304661</v>
+      </c>
+      <c r="L19" s="6">
+        <f>'2009'!B19</f>
+        <v>293224</v>
+      </c>
+      <c r="M19" s="6">
+        <f>'2008'!B19</f>
+        <v>269471</v>
+      </c>
+      <c r="N19" s="6">
+        <f>'2007'!B19</f>
+        <v>280167</v>
+      </c>
+      <c r="O19" s="6">
+        <f>'2006'!B19</f>
+        <v>277108</v>
+      </c>
+      <c r="P19" s="6">
+        <f>'2005'!B19</f>
+        <v>268793</v>
+      </c>
+      <c r="Q19" s="6">
+        <f>'2004'!B19</f>
+        <v>272912</v>
+      </c>
+      <c r="R19" s="6">
+        <f>'2003'!B19</f>
+        <v>268793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="6">
+        <f>'2018'!B20</f>
+        <v>57921</v>
+      </c>
+      <c r="D20" s="6">
+        <f>'2017'!B20</f>
+        <v>57973</v>
+      </c>
+      <c r="E20" s="6">
+        <f>'2016'!B20</f>
+        <v>59669</v>
+      </c>
+      <c r="F20" s="6">
+        <f>'2015'!B20</f>
+        <v>56797</v>
+      </c>
+      <c r="G20" s="6">
+        <f>'2014'!B20</f>
+        <v>61204</v>
+      </c>
+      <c r="H20" s="6">
+        <f>'2013'!B20</f>
+        <v>57641</v>
+      </c>
+      <c r="I20" s="6">
+        <f>'2012'!B20</f>
+        <v>57346</v>
+      </c>
+      <c r="J20" s="6">
+        <f>'2011'!B20</f>
+        <v>59470</v>
+      </c>
+      <c r="K20" s="6">
+        <f>'2010'!B20</f>
+        <v>57153</v>
+      </c>
+      <c r="L20" s="6">
+        <f>'2009'!B20</f>
+        <v>59158</v>
+      </c>
+      <c r="M20" s="6">
+        <f>'2008'!B20</f>
+        <v>57193</v>
+      </c>
+      <c r="N20" s="6">
+        <f>'2007'!B20</f>
+        <v>59016</v>
+      </c>
+      <c r="O20" s="6">
+        <f>'2006'!B20</f>
+        <v>69500</v>
+      </c>
+      <c r="P20" s="6">
+        <f>'2005'!B20</f>
+        <v>56662</v>
+      </c>
+      <c r="Q20" s="6">
+        <f>'2004'!B20</f>
+        <v>68488</v>
+      </c>
+      <c r="R20" s="6">
+        <f>'2003'!B20</f>
+        <v>56662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="6">
+        <f>'2018'!B21</f>
+        <v>120334</v>
+      </c>
+      <c r="D21" s="6">
+        <f>'2017'!B21</f>
+        <v>123833</v>
+      </c>
+      <c r="E21" s="6">
+        <f>'2016'!B21</f>
+        <v>129376</v>
+      </c>
+      <c r="F21" s="6">
+        <f>'2015'!B21</f>
+        <v>124187</v>
+      </c>
+      <c r="G21" s="6">
+        <f>'2014'!B21</f>
+        <v>118997</v>
+      </c>
+      <c r="H21" s="6">
+        <f>'2013'!B21</f>
+        <v>120321</v>
+      </c>
+      <c r="I21" s="6">
+        <f>'2012'!B21</f>
+        <v>119969</v>
+      </c>
+      <c r="J21" s="6">
+        <f>'2011'!B21</f>
+        <v>121982</v>
+      </c>
+      <c r="K21" s="6">
+        <f>'2010'!B21</f>
+        <v>120630</v>
+      </c>
+      <c r="L21" s="6">
+        <f>'2009'!B21</f>
+        <v>123994</v>
+      </c>
+      <c r="M21" s="6">
+        <f>'2008'!B21</f>
+        <v>118708</v>
+      </c>
+      <c r="N21" s="6">
+        <f>'2007'!B21</f>
+        <v>122371</v>
+      </c>
+      <c r="O21" s="6">
+        <f>'2006'!B21</f>
+        <v>120914</v>
+      </c>
+      <c r="P21" s="6">
+        <f>'2005'!B21</f>
+        <v>123699</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>'2004'!B21</f>
+        <v>128569</v>
+      </c>
+      <c r="R21" s="6">
+        <f>'2003'!B21</f>
+        <v>123699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="6">
+        <f>'2018'!B22</f>
+        <v>163191</v>
+      </c>
+      <c r="D22" s="6">
+        <f>'2017'!B22</f>
+        <v>166051</v>
+      </c>
+      <c r="E22" s="6">
+        <f>'2016'!B22</f>
+        <v>168890</v>
+      </c>
+      <c r="F22" s="6">
+        <f>'2015'!B22</f>
+        <v>165781</v>
+      </c>
+      <c r="G22" s="6">
+        <f>'2014'!B22</f>
+        <v>175196</v>
+      </c>
+      <c r="H22" s="6">
+        <f>'2013'!B22</f>
+        <v>189120</v>
+      </c>
+      <c r="I22" s="6">
+        <f>'2012'!B22</f>
+        <v>191280</v>
+      </c>
+      <c r="J22" s="6">
+        <f>'2011'!B22</f>
+        <v>193436</v>
+      </c>
+      <c r="K22" s="6">
+        <f>'2010'!B22</f>
+        <v>196160</v>
+      </c>
+      <c r="L22" s="6">
+        <f>'2009'!B22</f>
+        <v>195568</v>
+      </c>
+      <c r="M22" s="6">
+        <f>'2008'!B22</f>
+        <v>195568</v>
+      </c>
+      <c r="N22" s="6">
+        <f>'2007'!B22</f>
+        <v>199102</v>
+      </c>
+      <c r="O22" s="6">
+        <f>'2006'!B22</f>
+        <v>205600</v>
+      </c>
+      <c r="P22" s="6">
+        <f>'2005'!B22</f>
+        <v>201136</v>
+      </c>
+      <c r="Q22" s="6">
+        <f>'2004'!B22</f>
+        <v>197908</v>
+      </c>
+      <c r="R22" s="6">
+        <f>'2003'!B22</f>
+        <v>201136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="6">
+        <f>'2018'!B23</f>
+        <v>706101</v>
+      </c>
+      <c r="D23" s="6">
+        <f>'2017'!B23</f>
+        <v>719850</v>
+      </c>
+      <c r="E23" s="6">
+        <f>'2016'!B23</f>
+        <v>767896</v>
+      </c>
+      <c r="F23" s="6">
+        <f>'2015'!B23</f>
+        <v>763618</v>
+      </c>
+      <c r="G23" s="6">
+        <f>'2014'!B23</f>
+        <v>753376</v>
+      </c>
+      <c r="H23" s="6">
+        <f>'2013'!B23</f>
+        <v>761269</v>
+      </c>
+      <c r="I23" s="6">
+        <f>'2012'!B23</f>
+        <v>786880</v>
+      </c>
+      <c r="J23" s="6">
+        <f>'2011'!B23</f>
+        <v>795535</v>
+      </c>
+      <c r="K23" s="6">
+        <f>'2010'!B23</f>
+        <v>790789</v>
+      </c>
+      <c r="L23" s="6">
+        <f>'2009'!B23</f>
+        <v>802299</v>
+      </c>
+      <c r="M23" s="6">
+        <f>'2008'!B23</f>
+        <v>814643</v>
+      </c>
+      <c r="N23" s="6">
+        <f>'2007'!B23</f>
+        <v>789244</v>
+      </c>
+      <c r="O23" s="6">
+        <f>'2006'!B23</f>
+        <v>832835</v>
+      </c>
+      <c r="P23" s="6">
+        <f>'2005'!B23</f>
+        <v>863946</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>'2004'!B23</f>
+        <v>870432</v>
+      </c>
+      <c r="R23" s="6">
+        <f>'2003'!B23</f>
+        <v>863946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="6">
+        <f>'2018'!B24</f>
+        <v>568057</v>
+      </c>
+      <c r="D24" s="6">
+        <f>'2017'!B24</f>
+        <v>564694</v>
+      </c>
+      <c r="E24" s="6">
+        <f>'2016'!B24</f>
+        <v>572203</v>
+      </c>
+      <c r="F24" s="6">
+        <f>'2015'!B24</f>
+        <v>592125</v>
+      </c>
+      <c r="G24" s="6">
+        <f>'2014'!B24</f>
+        <v>578371</v>
+      </c>
+      <c r="H24" s="6">
+        <f>'2013'!B24</f>
+        <v>579910</v>
+      </c>
+      <c r="I24" s="6">
+        <f>'2012'!B24</f>
+        <v>576723</v>
+      </c>
+      <c r="J24" s="6">
+        <f>'2011'!B24</f>
+        <v>581828</v>
+      </c>
+      <c r="K24" s="6">
+        <f>'2010'!B24</f>
+        <v>579060</v>
+      </c>
+      <c r="L24" s="6">
+        <f>'2009'!B24</f>
+        <v>578244</v>
+      </c>
+      <c r="M24" s="6">
+        <f>'2008'!B24</f>
+        <v>578244</v>
+      </c>
+      <c r="N24" s="6">
+        <f>'2007'!B24</f>
+        <v>571547</v>
+      </c>
+      <c r="O24" s="6">
+        <f>'2006'!B24</f>
+        <v>571581</v>
+      </c>
+      <c r="P24" s="6">
+        <f>'2005'!B24</f>
+        <v>573424</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>'2004'!B24</f>
+        <v>585104</v>
+      </c>
+      <c r="R24" s="6">
+        <f>'2003'!B24</f>
+        <v>573424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="6">
+        <f>'2018'!B25</f>
+        <v>498319</v>
+      </c>
+      <c r="D25" s="6">
+        <f>'2017'!B25</f>
+        <v>499489</v>
+      </c>
+      <c r="E25" s="6">
+        <f>'2016'!B25</f>
+        <v>502652</v>
+      </c>
+      <c r="F25" s="6">
+        <f>'2015'!B25</f>
+        <v>496583</v>
+      </c>
+      <c r="G25" s="6">
+        <f>'2014'!B25</f>
+        <v>487024</v>
+      </c>
+      <c r="H25" s="6">
+        <f>'2013'!B25</f>
+        <v>486608</v>
+      </c>
+      <c r="I25" s="6">
+        <f>'2012'!B25</f>
+        <v>491357</v>
+      </c>
+      <c r="J25" s="6">
+        <f>'2011'!B25</f>
+        <v>485413</v>
+      </c>
+      <c r="K25" s="6">
+        <f>'2010'!B25</f>
+        <v>480883</v>
+      </c>
+      <c r="L25" s="6">
+        <f>'2009'!B25</f>
+        <v>483911</v>
+      </c>
+      <c r="M25" s="6">
+        <f>'2008'!B25</f>
+        <v>487442</v>
+      </c>
+      <c r="N25" s="6">
+        <f>'2007'!B25</f>
+        <v>479959</v>
+      </c>
+      <c r="O25" s="6">
+        <f>'2006'!B25</f>
+        <v>492500</v>
+      </c>
+      <c r="P25" s="6">
+        <f>'2005'!B25</f>
+        <v>542477</v>
+      </c>
+      <c r="Q25" s="6">
+        <f>'2004'!B25</f>
+        <v>539062</v>
+      </c>
+      <c r="R25" s="6">
+        <f>'2003'!B25</f>
+        <v>542477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="6">
+        <f>'2018'!B26</f>
+        <v>300146</v>
+      </c>
+      <c r="D26" s="6">
+        <f>'2017'!B26</f>
+        <v>298637</v>
+      </c>
+      <c r="E26" s="6">
+        <f>'2016'!B26</f>
+        <v>307747</v>
+      </c>
+      <c r="F26" s="6">
+        <f>'2015'!B26</f>
+        <v>218161</v>
+      </c>
+      <c r="G26" s="6">
+        <f>'2014'!B26</f>
+        <v>219716</v>
+      </c>
+      <c r="H26" s="6">
+        <f>'2013'!B26</f>
+        <v>220266</v>
+      </c>
+      <c r="I26" s="6">
+        <f>'2012'!B26</f>
+        <v>226940</v>
+      </c>
+      <c r="J26" s="6">
+        <f>'2011'!B26</f>
+        <v>232546</v>
+      </c>
+      <c r="K26" s="6">
+        <f>'2010'!B26</f>
+        <v>238036</v>
+      </c>
+      <c r="L26" s="6">
+        <f>'2009'!B26</f>
+        <v>231865</v>
+      </c>
+      <c r="M26" s="6">
+        <f>'2008'!B26</f>
+        <v>225150</v>
+      </c>
+      <c r="N26" s="6">
+        <f>'2007'!B26</f>
+        <v>236067</v>
+      </c>
+      <c r="O26" s="6">
+        <f>'2006'!B26</f>
+        <v>234797</v>
+      </c>
+      <c r="P26" s="6">
+        <f>'2005'!B26</f>
+        <v>235447</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>'2004'!B26</f>
+        <v>249591</v>
+      </c>
+      <c r="R26" s="6">
+        <f>'2003'!B26</f>
+        <v>235447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="6">
+        <f>'2018'!B27</f>
+        <v>253412</v>
+      </c>
+      <c r="D27" s="6">
+        <f>'2017'!B27</f>
+        <v>240702</v>
+      </c>
+      <c r="E27" s="6">
+        <f>'2016'!B27</f>
+        <v>239542</v>
+      </c>
+      <c r="F27" s="6">
+        <f>'2015'!B27</f>
+        <v>229317</v>
+      </c>
+      <c r="G27" s="6">
+        <f>'2014'!B27</f>
+        <v>222977</v>
+      </c>
+      <c r="H27" s="6">
+        <f>'2013'!B27</f>
+        <v>235621</v>
+      </c>
+      <c r="I27" s="6">
+        <f>'2012'!B27</f>
+        <v>243570</v>
+      </c>
+      <c r="J27" s="6">
+        <f>'2011'!B27</f>
+        <v>245550</v>
+      </c>
+      <c r="K27" s="6">
+        <f>'2010'!B27</f>
+        <v>243751</v>
+      </c>
+      <c r="L27" s="6">
+        <f>'2009'!B27</f>
+        <v>240613</v>
+      </c>
+      <c r="M27" s="6">
+        <f>'2008'!B27</f>
+        <v>240613</v>
+      </c>
+      <c r="N27" s="6">
+        <f>'2007'!B27</f>
+        <v>231936</v>
+      </c>
+      <c r="O27" s="6">
+        <f>'2006'!B27</f>
+        <v>232869</v>
+      </c>
+      <c r="P27" s="6">
+        <f>'2005'!B27</f>
+        <v>232276</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>'2004'!B27</f>
+        <v>227365</v>
+      </c>
+      <c r="R27" s="6">
+        <f>'2003'!B27</f>
+        <v>232276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="6">
+        <f>'2018'!B28</f>
+        <v>585766</v>
+      </c>
+      <c r="D28" s="6">
+        <f>'2017'!B28</f>
+        <v>573712</v>
+      </c>
+      <c r="E28" s="6">
+        <f>'2016'!B28</f>
+        <v>570495</v>
+      </c>
+      <c r="F28" s="6">
+        <f>'2015'!B28</f>
+        <v>545032</v>
+      </c>
+      <c r="G28" s="6">
+        <f>'2014'!B28</f>
+        <v>528636</v>
+      </c>
+      <c r="H28" s="6">
+        <f>'2013'!B28</f>
+        <v>521717</v>
+      </c>
+      <c r="I28" s="6">
+        <f>'2012'!B28</f>
+        <v>505530</v>
+      </c>
+      <c r="J28" s="6">
+        <f>'2011'!B28</f>
+        <v>494005</v>
+      </c>
+      <c r="K28" s="6">
+        <f>'2010'!B28</f>
+        <v>475375</v>
+      </c>
+      <c r="L28" s="6">
+        <f>'2009'!B28</f>
+        <v>460577</v>
+      </c>
+      <c r="M28" s="6">
+        <f>'2008'!B28</f>
+        <v>440896</v>
+      </c>
+      <c r="N28" s="6">
+        <f>'2007'!B28</f>
+        <v>427608</v>
+      </c>
+      <c r="O28" s="6">
+        <f>'2006'!B28</f>
+        <v>438172</v>
+      </c>
+      <c r="P28" s="6">
+        <f>'2005'!B28</f>
+        <v>433542</v>
+      </c>
+      <c r="Q28" s="6">
+        <f>'2004'!B28</f>
+        <v>433135</v>
+      </c>
+      <c r="R28" s="6">
+        <f>'2003'!B28</f>
+        <v>433542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="6">
+        <f>'2018'!B29</f>
+        <v>141553</v>
+      </c>
+      <c r="D29" s="6">
+        <f>'2017'!B29</f>
+        <v>140243</v>
+      </c>
+      <c r="E29" s="6">
+        <f>'2016'!B29</f>
+        <v>145538</v>
+      </c>
+      <c r="F29" s="6">
+        <f>'2015'!B29</f>
+        <v>148793</v>
+      </c>
+      <c r="G29" s="6">
+        <f>'2014'!B29</f>
+        <v>149138</v>
+      </c>
+      <c r="H29" s="6">
+        <f>'2013'!B29</f>
+        <v>156052</v>
+      </c>
+      <c r="I29" s="6">
+        <f>'2012'!B29</f>
+        <v>154047</v>
+      </c>
+      <c r="J29" s="6">
+        <f>'2011'!B29</f>
+        <v>156906</v>
+      </c>
+      <c r="K29" s="6">
+        <f>'2010'!B29</f>
+        <v>163174</v>
+      </c>
+      <c r="L29" s="6">
+        <f>'2009'!B29</f>
+        <v>156713</v>
+      </c>
+      <c r="M29" s="6">
+        <f>'2008'!B29</f>
+        <v>152691</v>
+      </c>
+      <c r="N29" s="6">
+        <f>'2007'!B29</f>
+        <v>148919</v>
+      </c>
+      <c r="O29" s="6">
+        <f>'2006'!B29</f>
+        <v>147240</v>
+      </c>
+      <c r="P29" s="6">
+        <f>'2005'!B29</f>
+        <v>146010</v>
+      </c>
+      <c r="Q29" s="6">
+        <f>'2004'!B29</f>
+        <v>141816</v>
+      </c>
+      <c r="R29" s="6">
+        <f>'2003'!B29</f>
+        <v>146010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="6">
+        <f>'2018'!B30</f>
+        <v>183056</v>
+      </c>
+      <c r="D30" s="6">
+        <f>'2017'!B30</f>
+        <v>175468</v>
+      </c>
+      <c r="E30" s="6">
+        <f>'2016'!B30</f>
+        <v>174493</v>
+      </c>
+      <c r="F30" s="6">
+        <f>'2015'!B30</f>
+        <v>175591</v>
+      </c>
+      <c r="G30" s="6">
+        <f>'2014'!B30</f>
+        <v>180517</v>
+      </c>
+      <c r="H30" s="6">
+        <f>'2013'!B30</f>
+        <v>177623</v>
+      </c>
+      <c r="I30" s="6">
+        <f>'2012'!B30</f>
+        <v>175874</v>
+      </c>
+      <c r="J30" s="6">
+        <f>'2011'!B30</f>
+        <v>175944</v>
+      </c>
+      <c r="K30" s="6">
+        <f>'2010'!B30</f>
+        <v>177939</v>
+      </c>
+      <c r="L30" s="6">
+        <f>'2009'!B30</f>
+        <v>171419</v>
+      </c>
+      <c r="M30" s="6">
+        <f>'2008'!B30</f>
+        <v>171419</v>
+      </c>
+      <c r="N30" s="6">
+        <f>'2007'!B30</f>
+        <v>170785</v>
+      </c>
+      <c r="O30" s="6">
+        <f>'2006'!B30</f>
+        <v>165952</v>
+      </c>
+      <c r="P30" s="6">
+        <f>'2005'!B30</f>
+        <v>176502</v>
+      </c>
+      <c r="Q30" s="6">
+        <f>'2004'!B30</f>
+        <v>174927</v>
+      </c>
+      <c r="R30" s="6">
+        <f>'2003'!B30</f>
+        <v>176502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="6">
+        <f>'2018'!B31</f>
+        <v>58099</v>
+      </c>
+      <c r="D31" s="6">
+        <f>'2017'!B31</f>
+        <v>59318</v>
+      </c>
+      <c r="E31" s="6">
+        <f>'2016'!B31</f>
+        <v>61556</v>
+      </c>
+      <c r="F31" s="6">
+        <f>'2015'!B31</f>
+        <v>59068</v>
+      </c>
+      <c r="G31" s="6">
+        <f>'2014'!B31</f>
+        <v>56411</v>
+      </c>
+      <c r="H31" s="6">
+        <f>'2013'!B31</f>
+        <v>59301</v>
+      </c>
+      <c r="I31" s="6">
+        <f>'2012'!B31</f>
+        <v>59420</v>
+      </c>
+      <c r="J31" s="6">
+        <f>'2011'!B31</f>
+        <v>59154</v>
+      </c>
+      <c r="K31" s="6">
+        <f>'2010'!B31</f>
+        <v>59768</v>
+      </c>
+      <c r="L31" s="6">
+        <f>'2009'!B31</f>
+        <v>61076</v>
+      </c>
+      <c r="M31" s="6">
+        <f>'2008'!B31</f>
+        <v>61076</v>
+      </c>
+      <c r="N31" s="6">
+        <f>'2007'!B31</f>
+        <v>60737</v>
+      </c>
+      <c r="O31" s="6">
+        <f>'2006'!B31</f>
+        <v>62587</v>
+      </c>
+      <c r="P31" s="6">
+        <f>'2005'!B31</f>
+        <v>63975</v>
+      </c>
+      <c r="Q31" s="6">
+        <f>'2004'!B31</f>
+        <v>67586</v>
+      </c>
+      <c r="R31" s="6">
+        <f>'2003'!B31</f>
+        <v>63975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="6">
+        <f>'2018'!B32</f>
+        <v>74794</v>
+      </c>
+      <c r="D32" s="6">
+        <f>'2017'!B32</f>
+        <v>75248</v>
+      </c>
+      <c r="E32" s="6">
+        <f>'2016'!B32</f>
+        <v>75006</v>
+      </c>
+      <c r="F32" s="6">
+        <f>'2015'!B32</f>
+        <v>74067</v>
+      </c>
+      <c r="G32" s="6">
+        <f>'2014'!B32</f>
+        <v>75699</v>
+      </c>
+      <c r="H32" s="6">
+        <f>'2013'!B32</f>
+        <v>77607</v>
+      </c>
+      <c r="I32" s="6">
+        <f>'2012'!B32</f>
+        <v>77584</v>
+      </c>
+      <c r="J32" s="6">
+        <f>'2011'!B32</f>
+        <v>79539</v>
+      </c>
+      <c r="K32" s="6">
+        <f>'2010'!B32</f>
+        <v>76398</v>
+      </c>
+      <c r="L32" s="6">
+        <f>'2009'!B32</f>
+        <v>80246</v>
+      </c>
+      <c r="M32" s="6">
+        <f>'2008'!B32</f>
+        <v>80246</v>
+      </c>
+      <c r="N32" s="6">
+        <f>'2007'!B32</f>
+        <v>82566</v>
+      </c>
+      <c r="O32" s="6">
+        <f>'2006'!B32</f>
+        <v>86588</v>
+      </c>
+      <c r="P32" s="6">
+        <f>'2005'!B32</f>
+        <v>81501</v>
+      </c>
+      <c r="Q32" s="6">
+        <f>'2004'!B32</f>
+        <v>82814</v>
+      </c>
+      <c r="R32" s="6">
+        <f>'2003'!B32</f>
+        <v>81501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="6">
+        <f>'2018'!B33</f>
+        <v>107331</v>
+      </c>
+      <c r="D33" s="6">
+        <f>'2017'!B33</f>
+        <v>103719</v>
+      </c>
+      <c r="E33" s="6">
+        <f>'2016'!B33</f>
+        <v>99328</v>
+      </c>
+      <c r="F33" s="6">
+        <f>'2015'!B33</f>
+        <v>97103</v>
+      </c>
+      <c r="G33" s="6">
+        <f>'2014'!B33</f>
+        <v>95927</v>
+      </c>
+      <c r="H33" s="6">
+        <f>'2013'!B33</f>
+        <v>97893</v>
+      </c>
+      <c r="I33" s="6">
+        <f>'2012'!B33</f>
+        <v>96424</v>
+      </c>
+      <c r="J33" s="6">
+        <f>'2011'!B33</f>
+        <v>102463</v>
+      </c>
+      <c r="K33" s="6">
+        <f>'2010'!B33</f>
+        <v>100346</v>
+      </c>
+      <c r="L33" s="6">
+        <f>'2009'!B33</f>
+        <v>94243</v>
+      </c>
+      <c r="M33" s="6">
+        <f>'2008'!B33</f>
+        <v>96160</v>
+      </c>
+      <c r="N33" s="6">
+        <f>'2007'!B33</f>
+        <v>105966</v>
+      </c>
+      <c r="O33" s="6">
+        <f>'2006'!B33</f>
+        <v>103968</v>
+      </c>
+      <c r="P33" s="6">
+        <f>'2005'!B33</f>
+        <v>109948</v>
+      </c>
+      <c r="Q33" s="6">
+        <f>'2004'!B33</f>
+        <v>111188</v>
+      </c>
+      <c r="R33" s="6">
+        <f>'2003'!B33</f>
+        <v>109948</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="6">
+        <f>'2018'!B34</f>
+        <v>68744</v>
+      </c>
+      <c r="D34" s="6">
+        <f>'2017'!B34</f>
+        <v>67906</v>
+      </c>
+      <c r="E34" s="6">
+        <f>'2016'!B34</f>
+        <v>66950</v>
+      </c>
+      <c r="F34" s="6">
+        <f>'2015'!B34</f>
+        <v>65606</v>
+      </c>
+      <c r="G34" s="6">
+        <f>'2014'!B34</f>
+        <v>65461</v>
+      </c>
+      <c r="H34" s="6">
+        <f>'2013'!B34</f>
+        <v>64334</v>
+      </c>
+      <c r="I34" s="6">
+        <f>'2012'!B34</f>
+        <v>64635</v>
+      </c>
+      <c r="J34" s="6">
+        <f>'2011'!B34</f>
+        <v>63709</v>
+      </c>
+      <c r="K34" s="6">
+        <f>'2010'!B34</f>
+        <v>65047</v>
+      </c>
+      <c r="L34" s="6">
+        <f>'2009'!B34</f>
+        <v>64031</v>
+      </c>
+      <c r="M34" s="6">
+        <f>'2008'!B34</f>
+        <v>64031</v>
+      </c>
+      <c r="N34" s="6">
+        <f>'2007'!B34</f>
+        <v>60385</v>
+      </c>
+      <c r="O34" s="6">
+        <f>'2006'!B34</f>
+        <v>58722</v>
+      </c>
+      <c r="P34" s="6">
+        <f>'2005'!B34</f>
+        <v>60805</v>
+      </c>
+      <c r="Q34" s="6">
+        <f>'2004'!B34</f>
+        <v>61455</v>
+      </c>
+      <c r="R34" s="6">
+        <f>'2003'!B34</f>
+        <v>60805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="6">
+        <f>'2018'!B35</f>
+        <v>579043</v>
+      </c>
+      <c r="D35" s="6">
+        <f>'2017'!B35</f>
+        <v>572992</v>
+      </c>
+      <c r="E35" s="6">
+        <f>'2016'!B35</f>
+        <v>544229</v>
+      </c>
+      <c r="F35" s="6">
+        <f>'2015'!B35</f>
+        <v>535915</v>
+      </c>
+      <c r="G35" s="6">
+        <f>'2014'!B35</f>
+        <v>576815</v>
+      </c>
+      <c r="H35" s="6">
+        <f>'2013'!B35</f>
+        <v>581401</v>
+      </c>
+      <c r="I35" s="6">
+        <f>'2012'!B35</f>
+        <v>592216</v>
+      </c>
+      <c r="J35" s="6">
+        <f>'2011'!B35</f>
+        <v>676669</v>
+      </c>
+      <c r="K35" s="6">
+        <f>'2010'!B35</f>
+        <v>597006</v>
+      </c>
+      <c r="L35" s="6">
+        <f>'2009'!B35</f>
+        <v>594992</v>
+      </c>
+      <c r="M35" s="6">
+        <f>'2008'!B35</f>
+        <v>611644</v>
+      </c>
+      <c r="N35" s="6">
+        <f>'2007'!B35</f>
+        <v>573970</v>
+      </c>
+      <c r="O35" s="6">
+        <f>'2006'!B35</f>
+        <v>627749</v>
+      </c>
+      <c r="P35" s="6">
+        <f>'2005'!B35</f>
+        <v>641572</v>
+      </c>
+      <c r="Q35" s="6">
+        <f>'2004'!B35</f>
+        <v>696679</v>
+      </c>
+      <c r="R35" s="6">
+        <f>'2003'!B35</f>
+        <v>641572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="6">
+        <f>'2018'!B36</f>
+        <v>390268</v>
+      </c>
+      <c r="D36" s="6">
+        <f>'2017'!B36</f>
+        <v>394598</v>
+      </c>
+      <c r="E36" s="6">
+        <f>'2016'!B36</f>
+        <v>404081</v>
+      </c>
+      <c r="F36" s="6">
+        <f>'2015'!B36</f>
+        <v>404997</v>
+      </c>
+      <c r="G36" s="6">
+        <f>'2014'!B36</f>
+        <v>400954</v>
+      </c>
+      <c r="H36" s="6">
+        <f>'2013'!B36</f>
+        <v>405866</v>
+      </c>
+      <c r="I36" s="6">
+        <f>'2012'!B36</f>
+        <v>413710</v>
+      </c>
+      <c r="J36" s="6">
+        <f>'2011'!B36</f>
+        <v>408142</v>
+      </c>
+      <c r="K36" s="6">
+        <f>'2010'!B36</f>
+        <v>395567</v>
+      </c>
+      <c r="L36" s="6">
+        <f>'2009'!B36</f>
+        <v>400736</v>
+      </c>
+      <c r="M36" s="6">
+        <f>'2008'!B36</f>
+        <v>420621</v>
+      </c>
+      <c r="N36" s="6">
+        <f>'2007'!B36</f>
+        <v>431815</v>
+      </c>
+      <c r="O36" s="6">
+        <f>'2006'!B36</f>
+        <v>442214</v>
+      </c>
+      <c r="P36" s="6">
+        <f>'2005'!B36</f>
+        <v>425992</v>
+      </c>
+      <c r="Q36" s="6">
+        <f>'2004'!B36</f>
+        <v>426856</v>
+      </c>
+      <c r="R36" s="6">
+        <f>'2003'!B36</f>
+        <v>425992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="6">
+        <f>'2018'!B37</f>
+        <v>529651</v>
+      </c>
+      <c r="D37" s="6">
+        <f>'2017'!B37</f>
+        <v>431077</v>
+      </c>
+      <c r="E37" s="6">
+        <f>'2016'!B37</f>
+        <v>421681</v>
+      </c>
+      <c r="F37" s="6">
+        <f>'2015'!B37</f>
+        <v>419445</v>
+      </c>
+      <c r="G37" s="6">
+        <f>'2014'!B37</f>
+        <v>400809</v>
+      </c>
+      <c r="H37" s="6">
+        <f>'2013'!B37</f>
+        <v>381049</v>
+      </c>
+      <c r="I37" s="6">
+        <f>'2012'!B37</f>
+        <v>386374</v>
+      </c>
+      <c r="J37" s="6">
+        <f>'2011'!B37</f>
+        <v>379884</v>
+      </c>
+      <c r="K37" s="6">
+        <f>'2010'!B37</f>
+        <v>356257</v>
+      </c>
+      <c r="L37" s="6">
+        <f>'2009'!B37</f>
+        <v>362806</v>
+      </c>
+      <c r="M37" s="6">
+        <f>'2008'!B37</f>
+        <v>345020</v>
+      </c>
+      <c r="N37" s="6">
+        <f>'2007'!B37</f>
+        <v>341213</v>
+      </c>
+      <c r="O37" s="6">
+        <f>'2006'!B37</f>
+        <v>341260</v>
+      </c>
+      <c r="P37" s="6">
+        <f>'2005'!B37</f>
+        <v>331672</v>
+      </c>
+      <c r="Q37" s="6">
+        <f>'2004'!B37</f>
+        <v>330336</v>
+      </c>
+      <c r="R37" s="6">
+        <f>'2003'!B37</f>
+        <v>331672</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="6">
+        <f>'2018'!B38</f>
+        <v>264684</v>
+      </c>
+      <c r="D38" s="6">
+        <f>'2017'!B38</f>
+        <v>262822</v>
+      </c>
+      <c r="E38" s="6">
+        <f>'2016'!B38</f>
+        <v>259000</v>
+      </c>
+      <c r="F38" s="6">
+        <f>'2015'!B38</f>
+        <v>264102</v>
+      </c>
+      <c r="G38" s="6">
+        <f>'2014'!B38</f>
+        <v>256321</v>
+      </c>
+      <c r="H38" s="6">
+        <f>'2013'!B38</f>
+        <v>260949</v>
+      </c>
+      <c r="I38" s="6">
+        <f>'2012'!B38</f>
+        <v>282812</v>
+      </c>
+      <c r="J38" s="6">
+        <f>'2011'!B38</f>
+        <v>283749</v>
+      </c>
+      <c r="K38" s="6">
+        <f>'2010'!B38</f>
+        <v>279893</v>
+      </c>
+      <c r="L38" s="6">
+        <f>'2009'!B38</f>
+        <v>279937</v>
+      </c>
+      <c r="M38" s="6">
+        <f>'2008'!B38</f>
+        <v>279937</v>
+      </c>
+      <c r="N38" s="6">
+        <f>'2007'!B38</f>
+        <v>279140</v>
+      </c>
+      <c r="O38" s="6">
+        <f>'2006'!B38</f>
+        <v>283327</v>
+      </c>
+      <c r="P38" s="6">
+        <f>'2005'!B38</f>
+        <v>295422</v>
+      </c>
+      <c r="Q38" s="6">
+        <f>'2004'!B38</f>
+        <v>297944</v>
+      </c>
+      <c r="R38" s="6">
+        <f>'2003'!B38</f>
+        <v>295422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="6">
+        <f>'2018'!B39</f>
+        <v>975650</v>
+      </c>
+      <c r="D39" s="6">
+        <f>'2017'!B39</f>
+        <v>984637</v>
+      </c>
+      <c r="E39" s="6">
+        <f>'2016'!B39</f>
+        <v>980613</v>
+      </c>
+      <c r="F39" s="6">
+        <f>'2015'!B39</f>
+        <v>969633</v>
+      </c>
+      <c r="G39" s="6">
+        <f>'2014'!B39</f>
+        <v>964714</v>
+      </c>
+      <c r="H39" s="6">
+        <f>'2013'!B39</f>
+        <v>968735</v>
+      </c>
+      <c r="I39" s="6">
+        <f>'2012'!B39</f>
+        <v>970217</v>
+      </c>
+      <c r="J39" s="6">
+        <f>'2011'!B39</f>
+        <v>927655</v>
+      </c>
+      <c r="K39" s="6">
+        <f>'2010'!B39</f>
+        <v>925885</v>
+      </c>
+      <c r="L39" s="6">
+        <f>'2009'!B39</f>
+        <v>943222</v>
+      </c>
+      <c r="M39" s="6">
+        <f>'2008'!B39</f>
+        <v>981124</v>
+      </c>
+      <c r="N39" s="6">
+        <f>'2007'!B39</f>
+        <v>1006293</v>
+      </c>
+      <c r="O39" s="6">
+        <f>'2006'!B39</f>
+        <v>1018664</v>
+      </c>
+      <c r="P39" s="6">
+        <f>'2005'!B39</f>
+        <v>1017802</v>
+      </c>
+      <c r="Q39" s="6">
+        <f>'2004'!B39</f>
+        <v>1048731</v>
+      </c>
+      <c r="R39" s="6">
+        <f>'2003'!B39</f>
+        <v>1017802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="6">
+        <f>'2018'!B40</f>
+        <v>8209</v>
+      </c>
+      <c r="D40" s="6">
+        <f>'2017'!B40</f>
+        <v>8797</v>
+      </c>
+      <c r="E40" s="6">
+        <f>'2016'!B40</f>
+        <v>8978</v>
+      </c>
+      <c r="F40" s="6">
+        <f>'2015'!B40</f>
+        <v>8624</v>
+      </c>
+      <c r="G40" s="6">
+        <f>'2014'!B40</f>
+        <v>8551</v>
+      </c>
+      <c r="H40" s="6">
+        <f>'2013'!B40</f>
+        <v>8605</v>
+      </c>
+      <c r="I40" s="6">
+        <f>'2012'!B40</f>
+        <v>8798</v>
+      </c>
+      <c r="J40" s="6">
+        <f>'2011'!B40</f>
+        <v>8858</v>
+      </c>
+      <c r="K40" s="6">
+        <f>'2010'!B40</f>
+        <v>9075</v>
+      </c>
+      <c r="L40" s="6">
+        <f>'2009'!B40</f>
+        <v>9075</v>
+      </c>
+      <c r="M40" s="6">
+        <f>'2008'!B40</f>
+        <v>9075</v>
+      </c>
+      <c r="N40" s="6">
+        <f>'2007'!B40</f>
+        <v>8940</v>
+      </c>
+      <c r="O40" s="6">
+        <f>'2006'!B40</f>
+        <v>9302</v>
+      </c>
+      <c r="P40" s="6">
+        <f>'2005'!B40</f>
+        <v>10691</v>
+      </c>
+      <c r="Q40" s="6">
+        <f>'2004'!B40</f>
+        <v>10750</v>
+      </c>
+      <c r="R40" s="6">
+        <f>'2003'!B40</f>
+        <v>10691</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="6">
+        <f>'2018'!B41</f>
+        <v>210369</v>
+      </c>
+      <c r="D41" s="6">
+        <f>'2017'!B41</f>
+        <v>212621</v>
+      </c>
+      <c r="E41" s="6">
+        <f>'2016'!B41</f>
+        <v>212461</v>
+      </c>
+      <c r="F41" s="6">
+        <f>'2015'!B41</f>
+        <v>206397</v>
+      </c>
+      <c r="G41" s="6">
+        <f>'2014'!B41</f>
+        <v>204837</v>
+      </c>
+      <c r="H41" s="6">
+        <f>'2013'!B41</f>
+        <v>173942</v>
+      </c>
+      <c r="I41" s="6">
+        <f>'2012'!B41</f>
+        <v>234457</v>
+      </c>
+      <c r="J41" s="6">
+        <f>'2011'!B41</f>
+        <v>223008</v>
+      </c>
+      <c r="K41" s="6">
+        <f>'2010'!B41</f>
+        <v>204445</v>
+      </c>
+      <c r="L41" s="6">
+        <f>'2009'!B41</f>
+        <v>205059</v>
+      </c>
+      <c r="M41" s="6">
+        <f>'2008'!B41</f>
+        <v>199540</v>
+      </c>
+      <c r="N41" s="6">
+        <f>'2007'!B41</f>
+        <v>220126</v>
+      </c>
+      <c r="O41" s="6">
+        <f>'2006'!B41</f>
+        <v>210136</v>
+      </c>
+      <c r="P41" s="6">
+        <f>'2005'!B41</f>
+        <v>211605</v>
+      </c>
+      <c r="Q41" s="6">
+        <f>'2004'!B41</f>
+        <v>279203</v>
+      </c>
+      <c r="R41" s="6">
+        <f>'2003'!B41</f>
+        <v>272752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="6">
+        <f>'2018'!B42</f>
+        <v>233215</v>
+      </c>
+      <c r="D42" s="6">
+        <f>'2017'!B42</f>
+        <v>223394</v>
+      </c>
+      <c r="E42" s="6">
+        <f>'2016'!B42</f>
+        <v>221979</v>
+      </c>
+      <c r="F42" s="6">
+        <f>'2015'!B42</f>
+        <v>244182</v>
+      </c>
+      <c r="G42" s="6">
+        <f>'2014'!B42</f>
+        <v>246315</v>
+      </c>
+      <c r="H42" s="6">
+        <f>'2013'!B42</f>
+        <v>253512</v>
+      </c>
+      <c r="I42" s="6">
+        <f>'2012'!B42</f>
+        <v>251655</v>
+      </c>
+      <c r="J42" s="6">
+        <f>'2011'!B42</f>
+        <v>256191</v>
+      </c>
+      <c r="K42" s="6">
+        <f>'2010'!B42</f>
+        <v>259159</v>
+      </c>
+      <c r="L42" s="6">
+        <f>'2009'!B42</f>
+        <v>248495</v>
+      </c>
+      <c r="M42" s="6">
+        <f>'2008'!B42</f>
+        <v>239419</v>
+      </c>
+      <c r="N42" s="6">
+        <f>'2007'!B42</f>
+        <v>243123</v>
+      </c>
+      <c r="O42" s="6">
+        <f>'2006'!B42</f>
+        <v>232053</v>
+      </c>
+      <c r="P42" s="6">
+        <f>'2005'!B42</f>
+        <v>207973</v>
+      </c>
+      <c r="Q42" s="6">
+        <f>'2004'!B42</f>
+        <v>216152</v>
+      </c>
+      <c r="R42" s="6">
+        <f>'2003'!B42</f>
+        <v>207973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="6">
+        <f>'2018'!B43</f>
+        <v>700600</v>
+      </c>
+      <c r="D43" s="6">
+        <f>'2017'!B43</f>
+        <v>717256</v>
+      </c>
+      <c r="E43" s="6">
+        <f>'2016'!B43</f>
+        <v>734733</v>
+      </c>
+      <c r="F43" s="6">
+        <f>'2015'!B43</f>
+        <v>727229</v>
+      </c>
+      <c r="G43" s="6">
+        <f>'2014'!B43</f>
+        <v>566507</v>
+      </c>
+      <c r="H43" s="6">
+        <f>'2013'!B43</f>
+        <v>530547</v>
+      </c>
+      <c r="I43" s="6">
+        <f>'2012'!B43</f>
+        <v>698993</v>
+      </c>
+      <c r="J43" s="6">
+        <f>'2011'!B43</f>
+        <v>700621</v>
+      </c>
+      <c r="K43" s="6">
+        <f>'2010'!B43</f>
+        <v>671120</v>
+      </c>
+      <c r="L43" s="6">
+        <f>'2009'!B43</f>
+        <v>667606</v>
+      </c>
+      <c r="M43" s="6">
+        <f>'2008'!B43</f>
+        <v>780053</v>
+      </c>
+      <c r="N43" s="6">
+        <f>'2007'!B43</f>
+        <v>775511</v>
+      </c>
+      <c r="O43" s="6">
+        <f>'2006'!B43</f>
+        <v>730495</v>
+      </c>
+      <c r="P43" s="6">
+        <f>'2005'!B43</f>
+        <v>727525</v>
+      </c>
+      <c r="Q43" s="6">
+        <f>'2004'!B43</f>
+        <v>725110</v>
+      </c>
+      <c r="R43" s="6">
+        <f>'2003'!B43</f>
+        <v>727525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="6">
+        <f>'2018'!B44</f>
+        <v>1157779</v>
+      </c>
+      <c r="D44" s="6">
+        <f>'2017'!B44</f>
+        <v>1148765</v>
+      </c>
+      <c r="E44" s="6">
+        <f>'2016'!B44</f>
+        <v>1132099</v>
+      </c>
+      <c r="F44" s="6">
+        <f>'2015'!B44</f>
+        <v>1060455</v>
+      </c>
+      <c r="G44" s="6">
+        <f>'2014'!B44</f>
+        <v>1020105</v>
+      </c>
+      <c r="H44" s="6">
+        <f>'2013'!B44</f>
+        <v>1036946</v>
+      </c>
+      <c r="I44" s="6">
+        <f>'2012'!B44</f>
+        <v>1020227</v>
+      </c>
+      <c r="J44" s="6">
+        <f>'2011'!B44</f>
+        <v>1024520</v>
+      </c>
+      <c r="K44" s="6">
+        <f>'2010'!B44</f>
+        <v>1020779</v>
+      </c>
+      <c r="L44" s="6">
+        <f>'2009'!B44</f>
+        <v>1012446</v>
+      </c>
+      <c r="M44" s="6">
+        <f>'2008'!B44</f>
+        <v>1005226</v>
+      </c>
+      <c r="N44" s="6">
+        <f>'2007'!B44</f>
+        <v>1039709</v>
+      </c>
+      <c r="O44" s="6">
+        <f>'2006'!B44</f>
+        <v>1073847</v>
+      </c>
+      <c r="P44" s="6">
+        <f>'2005'!B44</f>
+        <v>1039327</v>
+      </c>
+      <c r="Q44" s="6">
+        <f>'2004'!B44</f>
+        <v>1027908</v>
+      </c>
+      <c r="R44" s="6">
+        <f>'2003'!B44</f>
+        <v>1039327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="6">
+        <f>'2018'!B45</f>
+        <v>236656</v>
+      </c>
+      <c r="D45" s="6">
+        <f>'2017'!B45</f>
+        <v>226225</v>
+      </c>
+      <c r="E45" s="6">
+        <f>'2016'!B45</f>
+        <v>217471</v>
+      </c>
+      <c r="F45" s="6">
+        <f>'2015'!B45</f>
+        <v>207331</v>
+      </c>
+      <c r="G45" s="6">
+        <f>'2014'!B45</f>
+        <v>206666</v>
+      </c>
+      <c r="H45" s="6">
+        <f>'2013'!B45</f>
+        <v>211863</v>
+      </c>
+      <c r="I45" s="6">
+        <f>'2012'!B45</f>
+        <v>212378</v>
+      </c>
+      <c r="J45" s="6">
+        <f>'2011'!B45</f>
+        <v>207232</v>
+      </c>
+      <c r="K45" s="6">
+        <f>'2010'!B45</f>
+        <v>165033</v>
+      </c>
+      <c r="L45" s="6">
+        <f>'2009'!B45</f>
+        <v>157217</v>
+      </c>
+      <c r="M45" s="6">
+        <f>'2008'!B45</f>
+        <v>157217</v>
+      </c>
+      <c r="N45" s="6">
+        <f>'2007'!B45</f>
+        <v>148849</v>
+      </c>
+      <c r="O45" s="6">
+        <f>'2006'!B45</f>
+        <v>153501</v>
+      </c>
+      <c r="P45" s="6">
+        <f>'2005'!B45</f>
+        <v>154884</v>
+      </c>
+      <c r="Q45" s="6">
+        <f>'2004'!B45</f>
+        <v>159678</v>
+      </c>
+      <c r="R45" s="6">
+        <f>'2003'!B45</f>
+        <v>154884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="6">
+        <f>'2018'!B46</f>
+        <v>276019</v>
+      </c>
+      <c r="D46" s="6">
+        <f>'2017'!B46</f>
+        <v>277281</v>
+      </c>
+      <c r="E46" s="6">
+        <f>'2016'!B46</f>
+        <v>282132</v>
+      </c>
+      <c r="F46" s="6">
+        <f>'2015'!B46</f>
+        <v>276660</v>
+      </c>
+      <c r="G46" s="6">
+        <f>'2014'!B46</f>
+        <v>292863</v>
+      </c>
+      <c r="H46" s="6">
+        <f>'2013'!B46</f>
+        <v>300764</v>
+      </c>
+      <c r="I46" s="6">
+        <f>'2012'!B46</f>
+        <v>304206</v>
+      </c>
+      <c r="J46" s="6">
+        <f>'2011'!B46</f>
+        <v>307642</v>
+      </c>
+      <c r="K46" s="6">
+        <f>'2010'!B46</f>
+        <v>307995</v>
+      </c>
+      <c r="L46" s="6">
+        <f>'2009'!B46</f>
+        <v>318993</v>
+      </c>
+      <c r="M46" s="6">
+        <f>'2008'!B46</f>
+        <v>309942</v>
+      </c>
+      <c r="N46" s="6">
+        <f>'2007'!B46</f>
+        <v>317239</v>
+      </c>
+      <c r="O46" s="6">
+        <f>'2006'!B46</f>
+        <v>317484</v>
+      </c>
+      <c r="P46" s="6">
+        <f>'2005'!B46</f>
+        <v>304605</v>
+      </c>
+      <c r="Q46" s="6">
+        <f>'2004'!B46</f>
+        <v>314748</v>
+      </c>
+      <c r="R46" s="6">
+        <f>'2003'!B46</f>
+        <v>304605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="6">
+        <f>'2018'!B47</f>
+        <v>69943</v>
+      </c>
+      <c r="D47" s="6">
+        <f>'2017'!B47</f>
+        <v>71807</v>
+      </c>
+      <c r="E47" s="6">
+        <f>'2016'!B47</f>
+        <v>74219</v>
+      </c>
+      <c r="F47" s="6">
+        <f>'2015'!B47</f>
+        <v>72930</v>
+      </c>
+      <c r="G47" s="6">
+        <f>'2014'!B47</f>
+        <v>74966</v>
+      </c>
+      <c r="H47" s="6">
+        <f>'2013'!B47</f>
+        <v>80650</v>
+      </c>
+      <c r="I47" s="6">
+        <f>'2012'!B47</f>
+        <v>82307</v>
+      </c>
+      <c r="J47" s="6">
+        <f>'2011'!B47</f>
+        <v>83681</v>
+      </c>
+      <c r="K47" s="6">
+        <f>'2010'!B47</f>
+        <v>84044</v>
+      </c>
+      <c r="L47" s="6">
+        <f>'2009'!B47</f>
+        <v>84044</v>
+      </c>
+      <c r="M47" s="6">
+        <f>'2008'!B47</f>
+        <v>83708</v>
+      </c>
+      <c r="N47" s="6">
+        <f>'2007'!B47</f>
+        <v>81265</v>
+      </c>
+      <c r="O47" s="6">
+        <f>'2006'!B47</f>
+        <v>86512</v>
+      </c>
+      <c r="P47" s="6">
+        <f>'2005'!B47</f>
+        <v>90110</v>
+      </c>
+      <c r="Q47" s="6">
+        <f>'2004'!B47</f>
+        <v>92138</v>
+      </c>
+      <c r="R47" s="6">
+        <f>'2003'!B47</f>
+        <v>90110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="6">
+        <f>'2018'!B48</f>
+        <v>183063</v>
+      </c>
+      <c r="D48" s="6">
+        <f>'2017'!B48</f>
+        <v>182149</v>
+      </c>
+      <c r="E48" s="6">
+        <f>'2016'!B48</f>
+        <v>182251</v>
+      </c>
+      <c r="F48" s="6">
+        <f>'2015'!B48</f>
+        <v>180829</v>
+      </c>
+      <c r="G48" s="6">
+        <f>'2014'!B48</f>
+        <v>180411</v>
+      </c>
+      <c r="H48" s="6">
+        <f>'2013'!B48</f>
+        <v>188081</v>
+      </c>
+      <c r="I48" s="6">
+        <f>'2012'!B48</f>
+        <v>194272</v>
+      </c>
+      <c r="J48" s="6">
+        <f>'2011'!B48</f>
+        <v>196276</v>
+      </c>
+      <c r="K48" s="6">
+        <f>'2010'!B48</f>
+        <v>209050</v>
+      </c>
+      <c r="L48" s="6">
+        <f>'2009'!B48</f>
+        <v>197260</v>
+      </c>
+      <c r="M48" s="6">
+        <f>'2008'!B48</f>
+        <v>197215</v>
+      </c>
+      <c r="N48" s="6">
+        <f>'2007'!B48</f>
+        <v>197135</v>
+      </c>
+      <c r="O48" s="6">
+        <f>'2006'!B48</f>
+        <v>193046</v>
+      </c>
+      <c r="P48" s="6">
+        <f>'2005'!B48</f>
+        <v>194308</v>
+      </c>
+      <c r="Q48" s="6">
+        <f>'2004'!B48</f>
+        <v>198162</v>
+      </c>
+      <c r="R48" s="6">
+        <f>'2003'!B48</f>
+        <v>194308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="6">
+        <f>'2018'!B49</f>
+        <v>706400</v>
+      </c>
+      <c r="D49" s="6">
+        <f>'2017'!B49</f>
+        <v>700843</v>
+      </c>
+      <c r="E49" s="6">
+        <f>'2016'!B49</f>
+        <v>719110</v>
+      </c>
+      <c r="F49" s="6">
+        <f>'2015'!B49</f>
+        <v>717381</v>
+      </c>
+      <c r="G49" s="6">
+        <f>'2014'!B49</f>
+        <v>704372</v>
+      </c>
+      <c r="H49" s="6">
+        <f>'2013'!B49</f>
+        <v>704357</v>
+      </c>
+      <c r="I49" s="6">
+        <f>'2012'!B49</f>
+        <v>718261</v>
+      </c>
+      <c r="J49" s="6">
+        <f>'2011'!B49</f>
+        <v>716504</v>
+      </c>
+      <c r="K49" s="6">
+        <f>'2010'!B49</f>
+        <v>721399</v>
+      </c>
+      <c r="L49" s="6">
+        <f>'2009'!B49</f>
+        <v>721851</v>
+      </c>
+      <c r="M49" s="6">
+        <f>'2008'!B49</f>
+        <v>721851</v>
+      </c>
+      <c r="N49" s="6">
+        <f>'2007'!B49</f>
+        <v>713610</v>
+      </c>
+      <c r="O49" s="6">
+        <f>'2006'!B49</f>
+        <v>722803</v>
+      </c>
+      <c r="P49" s="6">
+        <f>'2005'!B49</f>
+        <v>716200</v>
+      </c>
+      <c r="Q49" s="6">
+        <f>'2004'!B49</f>
+        <v>689099</v>
+      </c>
+      <c r="R49" s="6">
+        <f>'2003'!B49</f>
+        <v>716200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="6">
+        <f>'2018'!B50</f>
+        <v>217123</v>
+      </c>
+      <c r="D50" s="6">
+        <f>'2017'!B50</f>
+        <v>219990</v>
+      </c>
+      <c r="E50" s="6">
+        <f>'2016'!B50</f>
+        <v>222686</v>
+      </c>
+      <c r="F50" s="6">
+        <f>'2015'!B50</f>
+        <v>220811</v>
+      </c>
+      <c r="G50" s="6">
+        <f>'2014'!B50</f>
+        <v>214286</v>
+      </c>
+      <c r="H50" s="6">
+        <f>'2013'!B50</f>
+        <v>221806</v>
+      </c>
+      <c r="I50" s="6">
+        <f>'2012'!B50</f>
+        <v>233349</v>
+      </c>
+      <c r="J50" s="6">
+        <f>'2011'!B50</f>
+        <v>234192</v>
+      </c>
+      <c r="K50" s="6">
+        <f>'2010'!B50</f>
+        <v>229115</v>
+      </c>
+      <c r="L50" s="6">
+        <f>'2009'!B50</f>
+        <v>237343</v>
+      </c>
+      <c r="M50" s="6">
+        <f>'2008'!B50</f>
+        <v>237343</v>
+      </c>
+      <c r="N50" s="6">
+        <f>'2007'!B50</f>
+        <v>238355</v>
+      </c>
+      <c r="O50" s="6">
+        <f>'2006'!B50</f>
+        <v>254222</v>
+      </c>
+      <c r="P50" s="6">
+        <f>'2005'!B50</f>
+        <v>262835</v>
+      </c>
+      <c r="Q50" s="6">
+        <f>'2004'!B50</f>
+        <v>288098</v>
+      </c>
+      <c r="R50" s="6">
+        <f>'2003'!B50</f>
+        <v>262835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="6">
+        <f>'2018'!B51</f>
+        <v>130304</v>
+      </c>
+      <c r="D51" s="6">
+        <f>'2017'!B51</f>
+        <v>127198</v>
+      </c>
+      <c r="E51" s="6">
+        <f>'2016'!B51</f>
+        <v>132141</v>
+      </c>
+      <c r="F51" s="6">
+        <f>'2015'!B51</f>
+        <v>133568</v>
+      </c>
+      <c r="G51" s="6">
+        <f>'2014'!B51</f>
+        <v>136636</v>
+      </c>
+      <c r="H51" s="6">
+        <f>'2013'!B51</f>
+        <v>143155</v>
+      </c>
+      <c r="I51" s="6">
+        <f>'2012'!B51</f>
+        <v>142251</v>
+      </c>
+      <c r="J51" s="6">
+        <f>'2011'!B51</f>
+        <v>135336</v>
+      </c>
+      <c r="K51" s="6">
+        <f>'2010'!B51</f>
+        <v>149581</v>
+      </c>
+      <c r="L51" s="6">
+        <f>'2009'!B51</f>
+        <v>145952</v>
+      </c>
+      <c r="M51" s="6">
+        <f>'2008'!B51</f>
+        <v>145952</v>
+      </c>
+      <c r="N51" s="6">
+        <f>'2007'!B51</f>
+        <v>139064</v>
+      </c>
+      <c r="O51" s="6">
+        <f>'2006'!B51</f>
+        <v>136839</v>
+      </c>
+      <c r="P51" s="6">
+        <f>'2005'!B51</f>
+        <v>137677</v>
+      </c>
+      <c r="Q51" s="6">
+        <f>'2004'!B51</f>
+        <v>137608</v>
+      </c>
+      <c r="R51" s="6">
+        <f>'2003'!B51</f>
+        <v>137677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13448,3497 +18283,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="5">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="5">
-        <f>C1-1</f>
-        <v>2017</v>
-      </c>
-      <c r="E1" s="5">
-        <f t="shared" ref="E1:Q1" si="0">D1-1</f>
-        <v>2016</v>
-      </c>
-      <c r="F1" s="5">
-        <f t="shared" si="0"/>
-        <v>2015</v>
-      </c>
-      <c r="G1" s="5">
-        <f t="shared" si="0"/>
-        <v>2014</v>
-      </c>
-      <c r="H1" s="5">
-        <f t="shared" si="0"/>
-        <v>2013</v>
-      </c>
-      <c r="I1" s="5">
-        <f t="shared" si="0"/>
-        <v>2012</v>
-      </c>
-      <c r="J1" s="5">
-        <f t="shared" si="0"/>
-        <v>2011</v>
-      </c>
-      <c r="K1" s="5">
-        <f t="shared" si="0"/>
-        <v>2010</v>
-      </c>
-      <c r="L1" s="5">
-        <f t="shared" si="0"/>
-        <v>2009</v>
-      </c>
-      <c r="M1" s="5">
-        <f t="shared" si="0"/>
-        <v>2008</v>
-      </c>
-      <c r="N1" s="5">
-        <f t="shared" si="0"/>
-        <v>2007</v>
-      </c>
-      <c r="O1" s="5">
-        <f t="shared" si="0"/>
-        <v>2006</v>
-      </c>
-      <c r="P1" s="5">
-        <f t="shared" si="0"/>
-        <v>2005</v>
-      </c>
-      <c r="Q1" s="5">
-        <f t="shared" si="0"/>
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="6">
-        <f>'2018'!B2</f>
-        <v>108921</v>
-      </c>
-      <c r="D2" s="6">
-        <f>'2017'!B2</f>
-        <v>108487</v>
-      </c>
-      <c r="E2" s="6">
-        <f>'2016'!B2</f>
-        <v>106916</v>
-      </c>
-      <c r="F2" s="6">
-        <f>'2015'!B2</f>
-        <v>107131</v>
-      </c>
-      <c r="G2" s="6">
-        <f>'2014'!B2</f>
-        <v>107260</v>
-      </c>
-      <c r="H2" s="6">
-        <f>'2013'!B2</f>
-        <v>101547</v>
-      </c>
-      <c r="I2" s="6">
-        <f>'2012'!B2</f>
-        <v>106653</v>
-      </c>
-      <c r="J2" s="6">
-        <f>'2011'!B2</f>
-        <v>101750</v>
-      </c>
-      <c r="K2" s="6">
-        <f>'2010'!B2</f>
-        <v>97858</v>
-      </c>
-      <c r="L2" s="6">
-        <f>'2009'!B2</f>
-        <v>96979</v>
-      </c>
-      <c r="M2" s="6">
-        <f>'2008'!B2</f>
-        <v>96979</v>
-      </c>
-      <c r="N2" s="6">
-        <f>'2007'!B2</f>
-        <v>99954</v>
-      </c>
-      <c r="O2" s="6">
-        <f>'2006'!B2</f>
-        <v>98084</v>
-      </c>
-      <c r="P2" s="6">
-        <f>'2005'!B2</f>
-        <v>99121</v>
-      </c>
-      <c r="Q2" s="6">
-        <f>'2004'!B2</f>
-        <v>97537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="6">
-        <f>'2018'!B3</f>
-        <v>547905</v>
-      </c>
-      <c r="D3" s="6">
-        <f>'2017'!B3</f>
-        <v>548829</v>
-      </c>
-      <c r="E3" s="6">
-        <f>'2016'!B3</f>
-        <v>565139</v>
-      </c>
-      <c r="F3" s="6">
-        <f>'2015'!B3</f>
-        <v>507926</v>
-      </c>
-      <c r="G3" s="6">
-        <f>'2014'!B3</f>
-        <v>507403</v>
-      </c>
-      <c r="H3" s="6">
-        <f>'2013'!B3</f>
-        <v>530127</v>
-      </c>
-      <c r="I3" s="6">
-        <f>'2012'!B3</f>
-        <v>527713</v>
-      </c>
-      <c r="J3" s="6">
-        <f>'2011'!B3</f>
-        <v>540098</v>
-      </c>
-      <c r="K3" s="6">
-        <f>'2010'!B3</f>
-        <v>264710</v>
-      </c>
-      <c r="L3" s="6">
-        <f>'2009'!B3</f>
-        <v>264640</v>
-      </c>
-      <c r="M3" s="6">
-        <f>'2008'!B3</f>
-        <v>255923</v>
-      </c>
-      <c r="N3" s="6">
-        <f>'2007'!B3</f>
-        <v>259241</v>
-      </c>
-      <c r="O3" s="6">
-        <f>'2006'!B3</f>
-        <v>267354</v>
-      </c>
-      <c r="P3" s="6">
-        <f>'2005'!B3</f>
-        <v>270229</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>'2004'!B3</f>
-        <v>273638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="6">
-        <f>'2018'!B4</f>
-        <v>326559</v>
-      </c>
-      <c r="D4" s="6">
-        <f>'2017'!B4</f>
-        <v>340200</v>
-      </c>
-      <c r="E4" s="6">
-        <f>'2016'!B4</f>
-        <v>328542</v>
-      </c>
-      <c r="F4" s="6">
-        <f>'2015'!B4</f>
-        <v>326779</v>
-      </c>
-      <c r="G4" s="6">
-        <f>'2014'!B4</f>
-        <v>382212</v>
-      </c>
-      <c r="H4" s="6">
-        <f>'2013'!B4</f>
-        <v>390554</v>
-      </c>
-      <c r="I4" s="6">
-        <f>'2012'!B4</f>
-        <v>385275</v>
-      </c>
-      <c r="J4" s="6">
-        <f>'2011'!B4</f>
-        <v>390932</v>
-      </c>
-      <c r="K4" s="6">
-        <f>'2010'!B4</f>
-        <v>381521</v>
-      </c>
-      <c r="L4" s="6">
-        <f>'2009'!B4</f>
-        <v>380931</v>
-      </c>
-      <c r="M4" s="6">
-        <f>'2008'!B4</f>
-        <v>354042</v>
-      </c>
-      <c r="N4" s="6">
-        <f>'2007'!B4</f>
-        <v>375737</v>
-      </c>
-      <c r="O4" s="6">
-        <f>'2006'!B4</f>
-        <v>378162</v>
-      </c>
-      <c r="P4" s="6">
-        <f>'2005'!B4</f>
-        <v>386559</v>
-      </c>
-      <c r="Q4" s="6">
-        <f>'2004'!B4</f>
-        <v>402493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="6">
-        <f>'2018'!B5</f>
-        <v>305214</v>
-      </c>
-      <c r="D5" s="6">
-        <f>'2017'!B5</f>
-        <v>324553</v>
-      </c>
-      <c r="E5" s="6">
-        <f>'2016'!B5</f>
-        <v>215444</v>
-      </c>
-      <c r="F5" s="6">
-        <f>'2015'!B5</f>
-        <v>200092</v>
-      </c>
-      <c r="G5" s="6">
-        <f>'2014'!B5</f>
-        <v>195213</v>
-      </c>
-      <c r="H5" s="6">
-        <f>'2013'!B5</f>
-        <v>195664</v>
-      </c>
-      <c r="I5" s="6">
-        <f>'2012'!B5</f>
-        <v>194727</v>
-      </c>
-      <c r="J5" s="6">
-        <f>'2011'!B5</f>
-        <v>191834</v>
-      </c>
-      <c r="K5" s="6">
-        <f>'2010'!B5</f>
-        <v>201627</v>
-      </c>
-      <c r="L5" s="6">
-        <f>'2009'!B5</f>
-        <v>202976</v>
-      </c>
-      <c r="M5" s="6">
-        <f>'2008'!B5</f>
-        <v>202976</v>
-      </c>
-      <c r="N5" s="6">
-        <f>'2007'!B5</f>
-        <v>196706</v>
-      </c>
-      <c r="O5" s="6">
-        <f>'2006'!B5</f>
-        <v>182044</v>
-      </c>
-      <c r="P5" s="6">
-        <f>'2005'!B5</f>
-        <v>181467</v>
-      </c>
-      <c r="Q5" s="6">
-        <f>'2004'!B5</f>
-        <v>183478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="6">
-        <f>'2018'!B6</f>
-        <v>280967</v>
-      </c>
-      <c r="D6" s="6">
-        <f>'2017'!B6</f>
-        <v>284069</v>
-      </c>
-      <c r="E6" s="6">
-        <f>'2016'!B6</f>
-        <v>287147</v>
-      </c>
-      <c r="F6" s="6">
-        <f>'2015'!B6</f>
-        <v>283539</v>
-      </c>
-      <c r="G6" s="6">
-        <f>'2014'!B6</f>
-        <v>283539</v>
-      </c>
-      <c r="H6" s="6">
-        <f>'2013'!B6</f>
-        <v>281472</v>
-      </c>
-      <c r="I6" s="6">
-        <f>'2012'!B6</f>
-        <v>289609</v>
-      </c>
-      <c r="J6" s="6">
-        <f>'2011'!B6</f>
-        <v>293263</v>
-      </c>
-      <c r="K6" s="6">
-        <f>'2010'!B6</f>
-        <v>296623</v>
-      </c>
-      <c r="L6" s="6">
-        <f>'2009'!B6</f>
-        <v>300615</v>
-      </c>
-      <c r="M6" s="6">
-        <f>'2008'!B6</f>
-        <v>295163</v>
-      </c>
-      <c r="N6" s="6">
-        <f>'2007'!B6</f>
-        <v>299303</v>
-      </c>
-      <c r="O6" s="6">
-        <f>'2006'!B6</f>
-        <v>305962</v>
-      </c>
-      <c r="P6" s="6">
-        <f>'2005'!B6</f>
-        <v>315588</v>
-      </c>
-      <c r="Q6" s="6">
-        <f>'2004'!B6</f>
-        <v>320092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="6">
-        <f>'2018'!B7</f>
-        <v>294319</v>
-      </c>
-      <c r="D7" s="6">
-        <f>'2017'!B7</f>
-        <v>290064</v>
-      </c>
-      <c r="E7" s="6">
-        <f>'2016'!B7</f>
-        <v>284773</v>
-      </c>
-      <c r="F7" s="6">
-        <f>'2015'!B7</f>
-        <v>281201</v>
-      </c>
-      <c r="G7" s="6">
-        <f>'2014'!B7</f>
-        <v>280302</v>
-      </c>
-      <c r="H7" s="6">
-        <f>'2013'!B7</f>
-        <v>286363</v>
-      </c>
-      <c r="I7" s="6">
-        <f>'2012'!B7</f>
-        <v>288086</v>
-      </c>
-      <c r="J7" s="6">
-        <f>'2011'!B7</f>
-        <v>294186</v>
-      </c>
-      <c r="K7" s="6">
-        <f>'2010'!B7</f>
-        <v>294186</v>
-      </c>
-      <c r="L7" s="6">
-        <f>'2009'!B7</f>
-        <v>306179</v>
-      </c>
-      <c r="M7" s="6">
-        <f>'2008'!B7</f>
-        <v>306179</v>
-      </c>
-      <c r="N7" s="6">
-        <f>'2007'!B7</f>
-        <v>312151</v>
-      </c>
-      <c r="O7" s="6">
-        <f>'2006'!B7</f>
-        <v>318971</v>
-      </c>
-      <c r="P7" s="6">
-        <f>'2005'!B7</f>
-        <v>309801</v>
-      </c>
-      <c r="Q7" s="6">
-        <f>'2004'!B7</f>
-        <v>300574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="6">
-        <f>'2018'!B8</f>
-        <v>37489</v>
-      </c>
-      <c r="D8" s="6">
-        <f>'2017'!B8</f>
-        <v>39488</v>
-      </c>
-      <c r="E8" s="6">
-        <f>'2016'!B8</f>
-        <v>42924</v>
-      </c>
-      <c r="F8" s="6">
-        <f>'2015'!B8</f>
-        <v>42535</v>
-      </c>
-      <c r="G8" s="6">
-        <f>'2014'!B8</f>
-        <v>41294</v>
-      </c>
-      <c r="H8" s="6">
-        <f>'2013'!B8</f>
-        <v>44178</v>
-      </c>
-      <c r="I8" s="6">
-        <f>'2012'!B8</f>
-        <v>46582</v>
-      </c>
-      <c r="J8" s="6">
-        <f>'2011'!B8</f>
-        <v>50066</v>
-      </c>
-      <c r="K8" s="6">
-        <f>'2010'!B8</f>
-        <v>49493</v>
-      </c>
-      <c r="L8" s="6">
-        <f>'2009'!B8</f>
-        <v>48857</v>
-      </c>
-      <c r="M8" s="6">
-        <f>'2008'!B8</f>
-        <v>48857</v>
-      </c>
-      <c r="N8" s="6">
-        <f>'2007'!B8</f>
-        <v>52207</v>
-      </c>
-      <c r="O8" s="6">
-        <f>'2006'!B8</f>
-        <v>54130</v>
-      </c>
-      <c r="P8" s="6">
-        <f>'2005'!B8</f>
-        <v>54926</v>
-      </c>
-      <c r="Q8" s="6">
-        <f>'2004'!B8</f>
-        <v>57720</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="6">
-        <f>'2018'!B9</f>
-        <v>17847</v>
-      </c>
-      <c r="D9" s="6">
-        <f>'2017'!B9</f>
-        <v>18323</v>
-      </c>
-      <c r="E9" s="6">
-        <f>'2016'!B9</f>
-        <v>17369</v>
-      </c>
-      <c r="F9" s="6">
-        <f>'2015'!B9</f>
-        <v>16786</v>
-      </c>
-      <c r="G9" s="6">
-        <f>'2014'!B9</f>
-        <v>16860</v>
-      </c>
-      <c r="H9" s="6">
-        <f>'2013'!B9</f>
-        <v>18184</v>
-      </c>
-      <c r="I9" s="6">
-        <f>'2012'!B9</f>
-        <v>18691</v>
-      </c>
-      <c r="J9" s="6">
-        <f>'2011'!B9</f>
-        <v>19271</v>
-      </c>
-      <c r="K9" s="6">
-        <f>'2010'!B9</f>
-        <v>18746</v>
-      </c>
-      <c r="L9" s="6">
-        <f>'2009'!B9</f>
-        <v>19890</v>
-      </c>
-      <c r="M9" s="6">
-        <f>'2008'!B9</f>
-        <v>19681</v>
-      </c>
-      <c r="N9" s="6">
-        <f>'2007'!B9</f>
-        <v>19472</v>
-      </c>
-      <c r="O9" s="6">
-        <f>'2006'!B9</f>
-        <v>18480</v>
-      </c>
-      <c r="P9" s="6">
-        <f>'2005'!B9</f>
-        <v>20066</v>
-      </c>
-      <c r="Q9" s="6">
-        <f>'2004'!B9</f>
-        <v>21488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="6">
-        <f>'2018'!B10</f>
-        <v>190232</v>
-      </c>
-      <c r="D10" s="6">
-        <f>'2017'!B10</f>
-        <v>190526</v>
-      </c>
-      <c r="E10" s="6">
-        <f>'2016'!B10</f>
-        <v>181040</v>
-      </c>
-      <c r="F10" s="6">
-        <f>'2015'!B10</f>
-        <v>175349</v>
-      </c>
-      <c r="G10" s="6">
-        <f>'2014'!B10</f>
-        <v>176288</v>
-      </c>
-      <c r="H10" s="6">
-        <f>'2013'!B10</f>
-        <v>176616</v>
-      </c>
-      <c r="I10" s="6">
-        <f>'2012'!B10</f>
-        <v>176034</v>
-      </c>
-      <c r="J10" s="6">
-        <f>'2011'!B10</f>
-        <v>176539</v>
-      </c>
-      <c r="K10" s="6">
-        <f>'2010'!B10</f>
-        <v>170554</v>
-      </c>
-      <c r="L10" s="6">
-        <f>'2009'!B10</f>
-        <v>170282</v>
-      </c>
-      <c r="M10" s="6">
-        <f>'2008'!B10</f>
-        <v>167524</v>
-      </c>
-      <c r="N10" s="6">
-        <f>'2007'!B10</f>
-        <v>161273</v>
-      </c>
-      <c r="O10" s="6">
-        <f>'2006'!B10</f>
-        <v>175067</v>
-      </c>
-      <c r="P10" s="6">
-        <f>'2005'!B10</f>
-        <v>176320</v>
-      </c>
-      <c r="Q10" s="6">
-        <f>'2004'!B10</f>
-        <v>181857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="6">
-        <f>'2018'!B11</f>
-        <v>651910</v>
-      </c>
-      <c r="D11" s="6">
-        <f>'2017'!B11</f>
-        <v>620740</v>
-      </c>
-      <c r="E11" s="6">
-        <f>'2016'!B11</f>
-        <v>604863</v>
-      </c>
-      <c r="F11" s="6">
-        <f>'2015'!B11</f>
-        <v>395219</v>
-      </c>
-      <c r="G11" s="6">
-        <f>'2014'!B11</f>
-        <v>367385</v>
-      </c>
-      <c r="H11" s="6">
-        <f>'2013'!B11</f>
-        <v>363575</v>
-      </c>
-      <c r="I11" s="6">
-        <f>'2012'!B11</f>
-        <v>324561</v>
-      </c>
-      <c r="J11" s="6">
-        <f>'2011'!B11</f>
-        <v>307436</v>
-      </c>
-      <c r="K11" s="6">
-        <f>'2010'!B11</f>
-        <v>302190</v>
-      </c>
-      <c r="L11" s="6">
-        <f>'2009'!B11</f>
-        <v>273272</v>
-      </c>
-      <c r="M11" s="6">
-        <f>'2008'!B11</f>
-        <v>390892</v>
-      </c>
-      <c r="N11" s="6">
-        <f>'2007'!B11</f>
-        <v>314569</v>
-      </c>
-      <c r="O11" s="6">
-        <f>'2006'!B11</f>
-        <v>314569</v>
-      </c>
-      <c r="P11" s="6">
-        <f>'2005'!B11</f>
-        <v>331795</v>
-      </c>
-      <c r="Q11" s="6">
-        <f>'2004'!B11</f>
-        <v>338045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="6">
-        <f>'2018'!B12</f>
-        <v>10617</v>
-      </c>
-      <c r="D12" s="6">
-        <f>'2017'!B12</f>
-        <v>10831</v>
-      </c>
-      <c r="E12" s="6">
-        <f>'2016'!B12</f>
-        <v>11113</v>
-      </c>
-      <c r="F12" s="6">
-        <f>'2015'!B12</f>
-        <v>10537</v>
-      </c>
-      <c r="G12" s="6">
-        <f>'2014'!B12</f>
-        <v>7240</v>
-      </c>
-      <c r="H12" s="6">
-        <f>'2013'!B12</f>
-        <v>9815</v>
-      </c>
-      <c r="I12" s="6">
-        <f>'2012'!B12</f>
-        <v>9677</v>
-      </c>
-      <c r="J12" s="6">
-        <f>'2011'!B12</f>
-        <v>9002</v>
-      </c>
-      <c r="K12" s="6">
-        <f>'2010'!B12</f>
-        <v>7407</v>
-      </c>
-      <c r="L12" s="6">
-        <f>'2009'!B12</f>
-        <v>6856</v>
-      </c>
-      <c r="M12" s="6">
-        <f>'2008'!B12</f>
-        <v>8741</v>
-      </c>
-      <c r="N12" s="6">
-        <f>'2007'!B12</f>
-        <v>7775</v>
-      </c>
-      <c r="O12" s="6">
-        <f>'2006'!B12</f>
-        <v>8211</v>
-      </c>
-      <c r="P12" s="6">
-        <f>'2005'!B12</f>
-        <v>8388</v>
-      </c>
-      <c r="Q12" s="6">
-        <f>'2004'!B12</f>
-        <v>9032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="6">
-        <f>'2018'!B13</f>
-        <v>223232</v>
-      </c>
-      <c r="D13" s="6">
-        <f>'2017'!B13</f>
-        <v>221231</v>
-      </c>
-      <c r="E13" s="6">
-        <f>'2016'!B13</f>
-        <v>217282</v>
-      </c>
-      <c r="F13" s="6">
-        <f>'2015'!B13</f>
-        <v>219798</v>
-      </c>
-      <c r="G13" s="6">
-        <f>'2014'!B13</f>
-        <v>222695</v>
-      </c>
-      <c r="H13" s="6">
-        <f>'2013'!B13</f>
-        <v>227408</v>
-      </c>
-      <c r="I13" s="6">
-        <f>'2012'!B13</f>
-        <v>256896</v>
-      </c>
-      <c r="J13" s="6">
-        <f>'2011'!B13</f>
-        <v>264699</v>
-      </c>
-      <c r="K13" s="6">
-        <f>'2010'!B13</f>
-        <v>271434</v>
-      </c>
-      <c r="L13" s="6">
-        <f>'2009'!B13</f>
-        <v>290171</v>
-      </c>
-      <c r="M13" s="6">
-        <f>'2008'!B13</f>
-        <v>291424</v>
-      </c>
-      <c r="N13" s="6">
-        <f>'2007'!B13</f>
-        <v>280398</v>
-      </c>
-      <c r="O13" s="6">
-        <f>'2006'!B13</f>
-        <v>286607</v>
-      </c>
-      <c r="P13" s="6">
-        <f>'2005'!B13</f>
-        <v>269014</v>
-      </c>
-      <c r="Q13" s="6">
-        <f>'2004'!B13</f>
-        <v>257899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="6">
-        <f>'2018'!B14</f>
-        <v>286947</v>
-      </c>
-      <c r="D14" s="6">
-        <f>'2017'!B14</f>
-        <v>273887</v>
-      </c>
-      <c r="E14" s="6">
-        <f>'2016'!B14</f>
-        <v>266007</v>
-      </c>
-      <c r="F14" s="6">
-        <f>'2015'!B14</f>
-        <v>258547</v>
-      </c>
-      <c r="G14" s="6">
-        <f>'2014'!B14</f>
-        <v>252865</v>
-      </c>
-      <c r="H14" s="6">
-        <f>'2013'!B14</f>
-        <v>248728</v>
-      </c>
-      <c r="I14" s="6">
-        <f>'2012'!B14</f>
-        <v>252573</v>
-      </c>
-      <c r="J14" s="6">
-        <f>'2011'!B14</f>
-        <v>254195</v>
-      </c>
-      <c r="K14" s="6">
-        <f>'2010'!B14</f>
-        <v>256664</v>
-      </c>
-      <c r="L14" s="6">
-        <f>'2009'!B14</f>
-        <v>255077</v>
-      </c>
-      <c r="M14" s="6">
-        <f>'2008'!B14</f>
-        <v>255077</v>
-      </c>
-      <c r="N14" s="6">
-        <f>'2007'!B14</f>
-        <v>254678</v>
-      </c>
-      <c r="O14" s="6">
-        <f>'2006'!B14</f>
-        <v>250648</v>
-      </c>
-      <c r="P14" s="6">
-        <f>'2005'!B14</f>
-        <v>245358</v>
-      </c>
-      <c r="Q14" s="6">
-        <f>'2004'!B14</f>
-        <v>246284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="6">
-        <f>'2018'!B15</f>
-        <v>306024</v>
-      </c>
-      <c r="D15" s="6">
-        <f>'2017'!B15</f>
-        <v>314135</v>
-      </c>
-      <c r="E15" s="6">
-        <f>'2016'!B15</f>
-        <v>319588</v>
-      </c>
-      <c r="F15" s="6">
-        <f>'2015'!B15</f>
-        <v>320765</v>
-      </c>
-      <c r="G15" s="6">
-        <f>'2014'!B15</f>
-        <v>321858</v>
-      </c>
-      <c r="H15" s="6">
-        <f>'2013'!B15</f>
-        <v>321739</v>
-      </c>
-      <c r="I15" s="6">
-        <f>'2012'!B15</f>
-        <v>328995</v>
-      </c>
-      <c r="J15" s="6">
-        <f>'2011'!B15</f>
-        <v>333061</v>
-      </c>
-      <c r="K15" s="6">
-        <f>'2010'!B15</f>
-        <v>301688</v>
-      </c>
-      <c r="L15" s="6">
-        <f>'2009'!B15</f>
-        <v>328975</v>
-      </c>
-      <c r="M15" s="6">
-        <f>'2008'!B15</f>
-        <v>328975</v>
-      </c>
-      <c r="N15" s="6">
-        <f>'2007'!B15</f>
-        <v>336203</v>
-      </c>
-      <c r="O15" s="6">
-        <f>'2006'!B15</f>
-        <v>330360</v>
-      </c>
-      <c r="P15" s="6">
-        <f>'2005'!B15</f>
-        <v>293994</v>
-      </c>
-      <c r="Q15" s="6">
-        <f>'2004'!B15</f>
-        <v>300883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="6">
-        <f>'2018'!B16</f>
-        <v>267447</v>
-      </c>
-      <c r="D16" s="6">
-        <f>'2017'!B16</f>
-        <v>270875</v>
-      </c>
-      <c r="E16" s="6">
-        <f>'2016'!B16</f>
-        <v>280952</v>
-      </c>
-      <c r="F16" s="6">
-        <f>'2015'!B16</f>
-        <v>278322</v>
-      </c>
-      <c r="G16" s="6">
-        <f>'2014'!B16</f>
-        <v>274048</v>
-      </c>
-      <c r="H16" s="6">
-        <f>'2013'!B16</f>
-        <v>273929</v>
-      </c>
-      <c r="I16" s="6">
-        <f>'2012'!B16</f>
-        <v>279214</v>
-      </c>
-      <c r="J16" s="6">
-        <f>'2011'!B16</f>
-        <v>272282</v>
-      </c>
-      <c r="K16" s="6">
-        <f>'2010'!B16</f>
-        <v>264323</v>
-      </c>
-      <c r="L16" s="6">
-        <f>'2009'!B16</f>
-        <v>265709</v>
-      </c>
-      <c r="M16" s="6">
-        <f>'2008'!B16</f>
-        <v>265709</v>
-      </c>
-      <c r="N16" s="6">
-        <f>'2007'!B16</f>
-        <v>282261</v>
-      </c>
-      <c r="O16" s="6">
-        <f>'2006'!B16</f>
-        <v>250573</v>
-      </c>
-      <c r="P16" s="6">
-        <f>'2005'!B16</f>
-        <v>232819</v>
-      </c>
-      <c r="Q16" s="6">
-        <f>'2004'!B16</f>
-        <v>285573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="6">
-        <f>'2018'!B17</f>
-        <v>251390</v>
-      </c>
-      <c r="D17" s="6">
-        <f>'2017'!B17</f>
-        <v>245779</v>
-      </c>
-      <c r="E17" s="6">
-        <f>'2016'!B17</f>
-        <v>245647</v>
-      </c>
-      <c r="F17" s="6">
-        <f>'2015'!B17</f>
-        <v>239335</v>
-      </c>
-      <c r="G17" s="6">
-        <f>'2014'!B17</f>
-        <v>245365</v>
-      </c>
-      <c r="H17" s="6">
-        <f>'2013'!B17</f>
-        <v>226553</v>
-      </c>
-      <c r="I17" s="6">
-        <f>'2012'!B17</f>
-        <v>235021</v>
-      </c>
-      <c r="J17" s="6">
-        <f>'2011'!B17</f>
-        <v>214107</v>
-      </c>
-      <c r="K17" s="6">
-        <f>'2010'!B17</f>
-        <v>214107</v>
-      </c>
-      <c r="L17" s="6">
-        <f>'2009'!B17</f>
-        <v>208992</v>
-      </c>
-      <c r="M17" s="6">
-        <f>'2008'!B17</f>
-        <v>209170</v>
-      </c>
-      <c r="N17" s="6">
-        <f>'2007'!B17</f>
-        <v>198368</v>
-      </c>
-      <c r="O17" s="6">
-        <f>'2006'!B17</f>
-        <v>202274</v>
-      </c>
-      <c r="P17" s="6">
-        <f>'2005'!B17</f>
-        <v>195874</v>
-      </c>
-      <c r="Q17" s="6">
-        <f>'2004'!B17</f>
-        <v>188310</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="6">
-        <f>'2018'!B18</f>
-        <v>352408</v>
-      </c>
-      <c r="D18" s="6">
-        <f>'2017'!B18</f>
-        <v>353098</v>
-      </c>
-      <c r="E18" s="6">
-        <f>'2016'!B18</f>
-        <v>356500</v>
-      </c>
-      <c r="F18" s="6">
-        <f>'2015'!B18</f>
-        <v>340902</v>
-      </c>
-      <c r="G18" s="6">
-        <f>'2014'!B18</f>
-        <v>326976</v>
-      </c>
-      <c r="H18" s="6">
-        <f>'2013'!B18</f>
-        <v>330238</v>
-      </c>
-      <c r="I18" s="6">
-        <f>'2012'!B18</f>
-        <v>336463</v>
-      </c>
-      <c r="J18" s="6">
-        <f>'2011'!B18</f>
-        <v>328321</v>
-      </c>
-      <c r="K18" s="6">
-        <f>'2010'!B18</f>
-        <v>339483</v>
-      </c>
-      <c r="L18" s="6">
-        <f>'2009'!B18</f>
-        <v>347848</v>
-      </c>
-      <c r="M18" s="6">
-        <f>'2008'!B18</f>
-        <v>347848</v>
-      </c>
-      <c r="N18" s="6">
-        <f>'2007'!B18</f>
-        <v>343456</v>
-      </c>
-      <c r="O18" s="6">
-        <f>'2006'!B18</f>
-        <v>350544</v>
-      </c>
-      <c r="P18" s="6">
-        <f>'2005'!B18</f>
-        <v>347379</v>
-      </c>
-      <c r="Q18" s="6">
-        <f>'2004'!B18</f>
-        <v>349951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="6">
-        <f>'2018'!B19</f>
-        <v>398808</v>
-      </c>
-      <c r="D19" s="6">
-        <f>'2017'!B19</f>
-        <v>395322</v>
-      </c>
-      <c r="E19" s="6">
-        <f>'2016'!B19</f>
-        <v>386310</v>
-      </c>
-      <c r="F19" s="6">
-        <f>'2015'!B19</f>
-        <v>370528</v>
-      </c>
-      <c r="G19" s="6">
-        <f>'2014'!B19</f>
-        <v>358153</v>
-      </c>
-      <c r="H19" s="6">
-        <f>'2013'!B19</f>
-        <v>345525</v>
-      </c>
-      <c r="I19" s="6">
-        <f>'2012'!B19</f>
-        <v>325446</v>
-      </c>
-      <c r="J19" s="6">
-        <f>'2011'!B19</f>
-        <v>314846</v>
-      </c>
-      <c r="K19" s="6">
-        <f>'2010'!B19</f>
-        <v>304661</v>
-      </c>
-      <c r="L19" s="6">
-        <f>'2009'!B19</f>
-        <v>293224</v>
-      </c>
-      <c r="M19" s="6">
-        <f>'2008'!B19</f>
-        <v>269471</v>
-      </c>
-      <c r="N19" s="6">
-        <f>'2007'!B19</f>
-        <v>280167</v>
-      </c>
-      <c r="O19" s="6">
-        <f>'2006'!B19</f>
-        <v>277108</v>
-      </c>
-      <c r="P19" s="6">
-        <f>'2005'!B19</f>
-        <v>268793</v>
-      </c>
-      <c r="Q19" s="6">
-        <f>'2004'!B19</f>
-        <v>272912</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="6">
-        <f>'2018'!B20</f>
-        <v>57921</v>
-      </c>
-      <c r="D20" s="6">
-        <f>'2017'!B20</f>
-        <v>57973</v>
-      </c>
-      <c r="E20" s="6">
-        <f>'2016'!B20</f>
-        <v>59669</v>
-      </c>
-      <c r="F20" s="6">
-        <f>'2015'!B20</f>
-        <v>56797</v>
-      </c>
-      <c r="G20" s="6">
-        <f>'2014'!B20</f>
-        <v>61204</v>
-      </c>
-      <c r="H20" s="6">
-        <f>'2013'!B20</f>
-        <v>57641</v>
-      </c>
-      <c r="I20" s="6">
-        <f>'2012'!B20</f>
-        <v>57346</v>
-      </c>
-      <c r="J20" s="6">
-        <f>'2011'!B20</f>
-        <v>59470</v>
-      </c>
-      <c r="K20" s="6">
-        <f>'2010'!B20</f>
-        <v>57153</v>
-      </c>
-      <c r="L20" s="6">
-        <f>'2009'!B20</f>
-        <v>59158</v>
-      </c>
-      <c r="M20" s="6">
-        <f>'2008'!B20</f>
-        <v>57193</v>
-      </c>
-      <c r="N20" s="6">
-        <f>'2007'!B20</f>
-        <v>59016</v>
-      </c>
-      <c r="O20" s="6">
-        <f>'2006'!B20</f>
-        <v>69500</v>
-      </c>
-      <c r="P20" s="6">
-        <f>'2005'!B20</f>
-        <v>56662</v>
-      </c>
-      <c r="Q20" s="6">
-        <f>'2004'!B20</f>
-        <v>68488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="6">
-        <f>'2018'!B21</f>
-        <v>120334</v>
-      </c>
-      <c r="D21" s="6">
-        <f>'2017'!B21</f>
-        <v>123833</v>
-      </c>
-      <c r="E21" s="6">
-        <f>'2016'!B21</f>
-        <v>129376</v>
-      </c>
-      <c r="F21" s="6">
-        <f>'2015'!B21</f>
-        <v>124187</v>
-      </c>
-      <c r="G21" s="6">
-        <f>'2014'!B21</f>
-        <v>118997</v>
-      </c>
-      <c r="H21" s="6">
-        <f>'2013'!B21</f>
-        <v>120321</v>
-      </c>
-      <c r="I21" s="6">
-        <f>'2012'!B21</f>
-        <v>119969</v>
-      </c>
-      <c r="J21" s="6">
-        <f>'2011'!B21</f>
-        <v>121982</v>
-      </c>
-      <c r="K21" s="6">
-        <f>'2010'!B21</f>
-        <v>120630</v>
-      </c>
-      <c r="L21" s="6">
-        <f>'2009'!B21</f>
-        <v>123994</v>
-      </c>
-      <c r="M21" s="6">
-        <f>'2008'!B21</f>
-        <v>118708</v>
-      </c>
-      <c r="N21" s="6">
-        <f>'2007'!B21</f>
-        <v>122371</v>
-      </c>
-      <c r="O21" s="6">
-        <f>'2006'!B21</f>
-        <v>120914</v>
-      </c>
-      <c r="P21" s="6">
-        <f>'2005'!B21</f>
-        <v>123699</v>
-      </c>
-      <c r="Q21" s="6">
-        <f>'2004'!B21</f>
-        <v>128569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="6">
-        <f>'2018'!B22</f>
-        <v>163191</v>
-      </c>
-      <c r="D22" s="6">
-        <f>'2017'!B22</f>
-        <v>166051</v>
-      </c>
-      <c r="E22" s="6">
-        <f>'2016'!B22</f>
-        <v>168890</v>
-      </c>
-      <c r="F22" s="6">
-        <f>'2015'!B22</f>
-        <v>165781</v>
-      </c>
-      <c r="G22" s="6">
-        <f>'2014'!B22</f>
-        <v>175196</v>
-      </c>
-      <c r="H22" s="6">
-        <f>'2013'!B22</f>
-        <v>189120</v>
-      </c>
-      <c r="I22" s="6">
-        <f>'2012'!B22</f>
-        <v>191280</v>
-      </c>
-      <c r="J22" s="6">
-        <f>'2011'!B22</f>
-        <v>193436</v>
-      </c>
-      <c r="K22" s="6">
-        <f>'2010'!B22</f>
-        <v>196160</v>
-      </c>
-      <c r="L22" s="6">
-        <f>'2009'!B22</f>
-        <v>195568</v>
-      </c>
-      <c r="M22" s="6">
-        <f>'2008'!B22</f>
-        <v>195568</v>
-      </c>
-      <c r="N22" s="6">
-        <f>'2007'!B22</f>
-        <v>199102</v>
-      </c>
-      <c r="O22" s="6">
-        <f>'2006'!B22</f>
-        <v>205600</v>
-      </c>
-      <c r="P22" s="6">
-        <f>'2005'!B22</f>
-        <v>201136</v>
-      </c>
-      <c r="Q22" s="6">
-        <f>'2004'!B22</f>
-        <v>197908</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="6">
-        <f>'2018'!B23</f>
-        <v>706101</v>
-      </c>
-      <c r="D23" s="6">
-        <f>'2017'!B23</f>
-        <v>719850</v>
-      </c>
-      <c r="E23" s="6">
-        <f>'2016'!B23</f>
-        <v>767896</v>
-      </c>
-      <c r="F23" s="6">
-        <f>'2015'!B23</f>
-        <v>763618</v>
-      </c>
-      <c r="G23" s="6">
-        <f>'2014'!B23</f>
-        <v>753376</v>
-      </c>
-      <c r="H23" s="6">
-        <f>'2013'!B23</f>
-        <v>761269</v>
-      </c>
-      <c r="I23" s="6">
-        <f>'2012'!B23</f>
-        <v>786880</v>
-      </c>
-      <c r="J23" s="6">
-        <f>'2011'!B23</f>
-        <v>795535</v>
-      </c>
-      <c r="K23" s="6">
-        <f>'2010'!B23</f>
-        <v>790789</v>
-      </c>
-      <c r="L23" s="6">
-        <f>'2009'!B23</f>
-        <v>802299</v>
-      </c>
-      <c r="M23" s="6">
-        <f>'2008'!B23</f>
-        <v>814643</v>
-      </c>
-      <c r="N23" s="6">
-        <f>'2007'!B23</f>
-        <v>789244</v>
-      </c>
-      <c r="O23" s="6">
-        <f>'2006'!B23</f>
-        <v>832835</v>
-      </c>
-      <c r="P23" s="6">
-        <f>'2005'!B23</f>
-        <v>863946</v>
-      </c>
-      <c r="Q23" s="6">
-        <f>'2004'!B23</f>
-        <v>870432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="6">
-        <f>'2018'!B24</f>
-        <v>568057</v>
-      </c>
-      <c r="D24" s="6">
-        <f>'2017'!B24</f>
-        <v>564694</v>
-      </c>
-      <c r="E24" s="6">
-        <f>'2016'!B24</f>
-        <v>572203</v>
-      </c>
-      <c r="F24" s="6">
-        <f>'2015'!B24</f>
-        <v>592125</v>
-      </c>
-      <c r="G24" s="6">
-        <f>'2014'!B24</f>
-        <v>578371</v>
-      </c>
-      <c r="H24" s="6">
-        <f>'2013'!B24</f>
-        <v>579910</v>
-      </c>
-      <c r="I24" s="6">
-        <f>'2012'!B24</f>
-        <v>576723</v>
-      </c>
-      <c r="J24" s="6">
-        <f>'2011'!B24</f>
-        <v>581828</v>
-      </c>
-      <c r="K24" s="6">
-        <f>'2010'!B24</f>
-        <v>579060</v>
-      </c>
-      <c r="L24" s="6">
-        <f>'2009'!B24</f>
-        <v>578244</v>
-      </c>
-      <c r="M24" s="6">
-        <f>'2008'!B24</f>
-        <v>578244</v>
-      </c>
-      <c r="N24" s="6">
-        <f>'2007'!B24</f>
-        <v>571547</v>
-      </c>
-      <c r="O24" s="6">
-        <f>'2006'!B24</f>
-        <v>571581</v>
-      </c>
-      <c r="P24" s="6">
-        <f>'2005'!B24</f>
-        <v>573424</v>
-      </c>
-      <c r="Q24" s="6">
-        <f>'2004'!B24</f>
-        <v>585104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="6">
-        <f>'2018'!B25</f>
-        <v>498319</v>
-      </c>
-      <c r="D25" s="6">
-        <f>'2017'!B25</f>
-        <v>499489</v>
-      </c>
-      <c r="E25" s="6">
-        <f>'2016'!B25</f>
-        <v>502652</v>
-      </c>
-      <c r="F25" s="6">
-        <f>'2015'!B25</f>
-        <v>496583</v>
-      </c>
-      <c r="G25" s="6">
-        <f>'2014'!B25</f>
-        <v>487024</v>
-      </c>
-      <c r="H25" s="6">
-        <f>'2013'!B25</f>
-        <v>486608</v>
-      </c>
-      <c r="I25" s="6">
-        <f>'2012'!B25</f>
-        <v>491357</v>
-      </c>
-      <c r="J25" s="6">
-        <f>'2011'!B25</f>
-        <v>485413</v>
-      </c>
-      <c r="K25" s="6">
-        <f>'2010'!B25</f>
-        <v>480883</v>
-      </c>
-      <c r="L25" s="6">
-        <f>'2009'!B25</f>
-        <v>483911</v>
-      </c>
-      <c r="M25" s="6">
-        <f>'2008'!B25</f>
-        <v>487442</v>
-      </c>
-      <c r="N25" s="6">
-        <f>'2007'!B25</f>
-        <v>479959</v>
-      </c>
-      <c r="O25" s="6">
-        <f>'2006'!B25</f>
-        <v>492500</v>
-      </c>
-      <c r="P25" s="6">
-        <f>'2005'!B25</f>
-        <v>542477</v>
-      </c>
-      <c r="Q25" s="6">
-        <f>'2004'!B25</f>
-        <v>539062</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="6">
-        <f>'2018'!B26</f>
-        <v>300146</v>
-      </c>
-      <c r="D26" s="6">
-        <f>'2017'!B26</f>
-        <v>298637</v>
-      </c>
-      <c r="E26" s="6">
-        <f>'2016'!B26</f>
-        <v>307747</v>
-      </c>
-      <c r="F26" s="6">
-        <f>'2015'!B26</f>
-        <v>218161</v>
-      </c>
-      <c r="G26" s="6">
-        <f>'2014'!B26</f>
-        <v>219716</v>
-      </c>
-      <c r="H26" s="6">
-        <f>'2013'!B26</f>
-        <v>220266</v>
-      </c>
-      <c r="I26" s="6">
-        <f>'2012'!B26</f>
-        <v>226940</v>
-      </c>
-      <c r="J26" s="6">
-        <f>'2011'!B26</f>
-        <v>232546</v>
-      </c>
-      <c r="K26" s="6">
-        <f>'2010'!B26</f>
-        <v>238036</v>
-      </c>
-      <c r="L26" s="6">
-        <f>'2009'!B26</f>
-        <v>231865</v>
-      </c>
-      <c r="M26" s="6">
-        <f>'2008'!B26</f>
-        <v>225150</v>
-      </c>
-      <c r="N26" s="6">
-        <f>'2007'!B26</f>
-        <v>236067</v>
-      </c>
-      <c r="O26" s="6">
-        <f>'2006'!B26</f>
-        <v>234797</v>
-      </c>
-      <c r="P26" s="6">
-        <f>'2005'!B26</f>
-        <v>235447</v>
-      </c>
-      <c r="Q26" s="6">
-        <f>'2004'!B26</f>
-        <v>249591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="6">
-        <f>'2018'!B27</f>
-        <v>253412</v>
-      </c>
-      <c r="D27" s="6">
-        <f>'2017'!B27</f>
-        <v>240702</v>
-      </c>
-      <c r="E27" s="6">
-        <f>'2016'!B27</f>
-        <v>239542</v>
-      </c>
-      <c r="F27" s="6">
-        <f>'2015'!B27</f>
-        <v>229317</v>
-      </c>
-      <c r="G27" s="6">
-        <f>'2014'!B27</f>
-        <v>222977</v>
-      </c>
-      <c r="H27" s="6">
-        <f>'2013'!B27</f>
-        <v>235621</v>
-      </c>
-      <c r="I27" s="6">
-        <f>'2012'!B27</f>
-        <v>243570</v>
-      </c>
-      <c r="J27" s="6">
-        <f>'2011'!B27</f>
-        <v>245550</v>
-      </c>
-      <c r="K27" s="6">
-        <f>'2010'!B27</f>
-        <v>243751</v>
-      </c>
-      <c r="L27" s="6">
-        <f>'2009'!B27</f>
-        <v>240613</v>
-      </c>
-      <c r="M27" s="6">
-        <f>'2008'!B27</f>
-        <v>240613</v>
-      </c>
-      <c r="N27" s="6">
-        <f>'2007'!B27</f>
-        <v>231936</v>
-      </c>
-      <c r="O27" s="6">
-        <f>'2006'!B27</f>
-        <v>232869</v>
-      </c>
-      <c r="P27" s="6">
-        <f>'2005'!B27</f>
-        <v>232276</v>
-      </c>
-      <c r="Q27" s="6">
-        <f>'2004'!B27</f>
-        <v>227365</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="6">
-        <f>'2018'!B28</f>
-        <v>585766</v>
-      </c>
-      <c r="D28" s="6">
-        <f>'2017'!B28</f>
-        <v>573712</v>
-      </c>
-      <c r="E28" s="6">
-        <f>'2016'!B28</f>
-        <v>570495</v>
-      </c>
-      <c r="F28" s="6">
-        <f>'2015'!B28</f>
-        <v>545032</v>
-      </c>
-      <c r="G28" s="6">
-        <f>'2014'!B28</f>
-        <v>528636</v>
-      </c>
-      <c r="H28" s="6">
-        <f>'2013'!B28</f>
-        <v>521717</v>
-      </c>
-      <c r="I28" s="6">
-        <f>'2012'!B28</f>
-        <v>505530</v>
-      </c>
-      <c r="J28" s="6">
-        <f>'2011'!B28</f>
-        <v>494005</v>
-      </c>
-      <c r="K28" s="6">
-        <f>'2010'!B28</f>
-        <v>475375</v>
-      </c>
-      <c r="L28" s="6">
-        <f>'2009'!B28</f>
-        <v>460577</v>
-      </c>
-      <c r="M28" s="6">
-        <f>'2008'!B28</f>
-        <v>440896</v>
-      </c>
-      <c r="N28" s="6">
-        <f>'2007'!B28</f>
-        <v>427608</v>
-      </c>
-      <c r="O28" s="6">
-        <f>'2006'!B28</f>
-        <v>438172</v>
-      </c>
-      <c r="P28" s="6">
-        <f>'2005'!B28</f>
-        <v>433542</v>
-      </c>
-      <c r="Q28" s="6">
-        <f>'2004'!B28</f>
-        <v>433135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="6">
-        <f>'2018'!B29</f>
-        <v>141553</v>
-      </c>
-      <c r="D29" s="6">
-        <f>'2017'!B29</f>
-        <v>140243</v>
-      </c>
-      <c r="E29" s="6">
-        <f>'2016'!B29</f>
-        <v>145538</v>
-      </c>
-      <c r="F29" s="6">
-        <f>'2015'!B29</f>
-        <v>148793</v>
-      </c>
-      <c r="G29" s="6">
-        <f>'2014'!B29</f>
-        <v>149138</v>
-      </c>
-      <c r="H29" s="6">
-        <f>'2013'!B29</f>
-        <v>156052</v>
-      </c>
-      <c r="I29" s="6">
-        <f>'2012'!B29</f>
-        <v>154047</v>
-      </c>
-      <c r="J29" s="6">
-        <f>'2011'!B29</f>
-        <v>156906</v>
-      </c>
-      <c r="K29" s="6">
-        <f>'2010'!B29</f>
-        <v>163174</v>
-      </c>
-      <c r="L29" s="6">
-        <f>'2009'!B29</f>
-        <v>156713</v>
-      </c>
-      <c r="M29" s="6">
-        <f>'2008'!B29</f>
-        <v>152691</v>
-      </c>
-      <c r="N29" s="6">
-        <f>'2007'!B29</f>
-        <v>148919</v>
-      </c>
-      <c r="O29" s="6">
-        <f>'2006'!B29</f>
-        <v>147240</v>
-      </c>
-      <c r="P29" s="6">
-        <f>'2005'!B29</f>
-        <v>146010</v>
-      </c>
-      <c r="Q29" s="6">
-        <f>'2004'!B29</f>
-        <v>141816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="6">
-        <f>'2018'!B30</f>
-        <v>183056</v>
-      </c>
-      <c r="D30" s="6">
-        <f>'2017'!B30</f>
-        <v>175468</v>
-      </c>
-      <c r="E30" s="6">
-        <f>'2016'!B30</f>
-        <v>174493</v>
-      </c>
-      <c r="F30" s="6">
-        <f>'2015'!B30</f>
-        <v>175591</v>
-      </c>
-      <c r="G30" s="6">
-        <f>'2014'!B30</f>
-        <v>180517</v>
-      </c>
-      <c r="H30" s="6">
-        <f>'2013'!B30</f>
-        <v>177623</v>
-      </c>
-      <c r="I30" s="6">
-        <f>'2012'!B30</f>
-        <v>175874</v>
-      </c>
-      <c r="J30" s="6">
-        <f>'2011'!B30</f>
-        <v>175944</v>
-      </c>
-      <c r="K30" s="6">
-        <f>'2010'!B30</f>
-        <v>177939</v>
-      </c>
-      <c r="L30" s="6">
-        <f>'2009'!B30</f>
-        <v>171419</v>
-      </c>
-      <c r="M30" s="6">
-        <f>'2008'!B30</f>
-        <v>171419</v>
-      </c>
-      <c r="N30" s="6">
-        <f>'2007'!B30</f>
-        <v>170785</v>
-      </c>
-      <c r="O30" s="6">
-        <f>'2006'!B30</f>
-        <v>165952</v>
-      </c>
-      <c r="P30" s="6">
-        <f>'2005'!B30</f>
-        <v>176502</v>
-      </c>
-      <c r="Q30" s="6">
-        <f>'2004'!B30</f>
-        <v>174927</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="6">
-        <f>'2018'!B31</f>
-        <v>58099</v>
-      </c>
-      <c r="D31" s="6">
-        <f>'2017'!B31</f>
-        <v>59318</v>
-      </c>
-      <c r="E31" s="6">
-        <f>'2016'!B31</f>
-        <v>61556</v>
-      </c>
-      <c r="F31" s="6">
-        <f>'2015'!B31</f>
-        <v>59068</v>
-      </c>
-      <c r="G31" s="6">
-        <f>'2014'!B31</f>
-        <v>56411</v>
-      </c>
-      <c r="H31" s="6">
-        <f>'2013'!B31</f>
-        <v>59301</v>
-      </c>
-      <c r="I31" s="6">
-        <f>'2012'!B31</f>
-        <v>59420</v>
-      </c>
-      <c r="J31" s="6">
-        <f>'2011'!B31</f>
-        <v>59154</v>
-      </c>
-      <c r="K31" s="6">
-        <f>'2010'!B31</f>
-        <v>59768</v>
-      </c>
-      <c r="L31" s="6">
-        <f>'2009'!B31</f>
-        <v>61076</v>
-      </c>
-      <c r="M31" s="6">
-        <f>'2008'!B31</f>
-        <v>61076</v>
-      </c>
-      <c r="N31" s="6">
-        <f>'2007'!B31</f>
-        <v>60737</v>
-      </c>
-      <c r="O31" s="6">
-        <f>'2006'!B31</f>
-        <v>62587</v>
-      </c>
-      <c r="P31" s="6">
-        <f>'2005'!B31</f>
-        <v>63975</v>
-      </c>
-      <c r="Q31" s="6">
-        <f>'2004'!B31</f>
-        <v>67586</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="6">
-        <f>'2018'!B32</f>
-        <v>74794</v>
-      </c>
-      <c r="D32" s="6">
-        <f>'2017'!B32</f>
-        <v>75248</v>
-      </c>
-      <c r="E32" s="6">
-        <f>'2016'!B32</f>
-        <v>75006</v>
-      </c>
-      <c r="F32" s="6">
-        <f>'2015'!B32</f>
-        <v>74067</v>
-      </c>
-      <c r="G32" s="6">
-        <f>'2014'!B32</f>
-        <v>75699</v>
-      </c>
-      <c r="H32" s="6">
-        <f>'2013'!B32</f>
-        <v>77607</v>
-      </c>
-      <c r="I32" s="6">
-        <f>'2012'!B32</f>
-        <v>77584</v>
-      </c>
-      <c r="J32" s="6">
-        <f>'2011'!B32</f>
-        <v>79539</v>
-      </c>
-      <c r="K32" s="6">
-        <f>'2010'!B32</f>
-        <v>76398</v>
-      </c>
-      <c r="L32" s="6">
-        <f>'2009'!B32</f>
-        <v>80246</v>
-      </c>
-      <c r="M32" s="6">
-        <f>'2008'!B32</f>
-        <v>80246</v>
-      </c>
-      <c r="N32" s="6">
-        <f>'2007'!B32</f>
-        <v>82566</v>
-      </c>
-      <c r="O32" s="6">
-        <f>'2006'!B32</f>
-        <v>86588</v>
-      </c>
-      <c r="P32" s="6">
-        <f>'2005'!B32</f>
-        <v>81501</v>
-      </c>
-      <c r="Q32" s="6">
-        <f>'2004'!B32</f>
-        <v>82814</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="6">
-        <f>'2018'!B33</f>
-        <v>107331</v>
-      </c>
-      <c r="D33" s="6">
-        <f>'2017'!B33</f>
-        <v>103719</v>
-      </c>
-      <c r="E33" s="6">
-        <f>'2016'!B33</f>
-        <v>99328</v>
-      </c>
-      <c r="F33" s="6">
-        <f>'2015'!B33</f>
-        <v>97103</v>
-      </c>
-      <c r="G33" s="6">
-        <f>'2014'!B33</f>
-        <v>95927</v>
-      </c>
-      <c r="H33" s="6">
-        <f>'2013'!B33</f>
-        <v>97893</v>
-      </c>
-      <c r="I33" s="6">
-        <f>'2012'!B33</f>
-        <v>96424</v>
-      </c>
-      <c r="J33" s="6">
-        <f>'2011'!B33</f>
-        <v>102463</v>
-      </c>
-      <c r="K33" s="6">
-        <f>'2010'!B33</f>
-        <v>100346</v>
-      </c>
-      <c r="L33" s="6">
-        <f>'2009'!B33</f>
-        <v>94243</v>
-      </c>
-      <c r="M33" s="6">
-        <f>'2008'!B33</f>
-        <v>96160</v>
-      </c>
-      <c r="N33" s="6">
-        <f>'2007'!B33</f>
-        <v>105966</v>
-      </c>
-      <c r="O33" s="6">
-        <f>'2006'!B33</f>
-        <v>103968</v>
-      </c>
-      <c r="P33" s="6">
-        <f>'2005'!B33</f>
-        <v>109948</v>
-      </c>
-      <c r="Q33" s="6">
-        <f>'2004'!B33</f>
-        <v>111188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="6">
-        <f>'2018'!B34</f>
-        <v>68744</v>
-      </c>
-      <c r="D34" s="6">
-        <f>'2017'!B34</f>
-        <v>67906</v>
-      </c>
-      <c r="E34" s="6">
-        <f>'2016'!B34</f>
-        <v>66950</v>
-      </c>
-      <c r="F34" s="6">
-        <f>'2015'!B34</f>
-        <v>65606</v>
-      </c>
-      <c r="G34" s="6">
-        <f>'2014'!B34</f>
-        <v>65461</v>
-      </c>
-      <c r="H34" s="6">
-        <f>'2013'!B34</f>
-        <v>64334</v>
-      </c>
-      <c r="I34" s="6">
-        <f>'2012'!B34</f>
-        <v>64635</v>
-      </c>
-      <c r="J34" s="6">
-        <f>'2011'!B34</f>
-        <v>63709</v>
-      </c>
-      <c r="K34" s="6">
-        <f>'2010'!B34</f>
-        <v>65047</v>
-      </c>
-      <c r="L34" s="6">
-        <f>'2009'!B34</f>
-        <v>64031</v>
-      </c>
-      <c r="M34" s="6">
-        <f>'2008'!B34</f>
-        <v>64031</v>
-      </c>
-      <c r="N34" s="6">
-        <f>'2007'!B34</f>
-        <v>60385</v>
-      </c>
-      <c r="O34" s="6">
-        <f>'2006'!B34</f>
-        <v>58722</v>
-      </c>
-      <c r="P34" s="6">
-        <f>'2005'!B34</f>
-        <v>60805</v>
-      </c>
-      <c r="Q34" s="6">
-        <f>'2004'!B34</f>
-        <v>61455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="6">
-        <f>'2018'!B35</f>
-        <v>579043</v>
-      </c>
-      <c r="D35" s="6">
-        <f>'2017'!B35</f>
-        <v>572992</v>
-      </c>
-      <c r="E35" s="6">
-        <f>'2016'!B35</f>
-        <v>544229</v>
-      </c>
-      <c r="F35" s="6">
-        <f>'2015'!B35</f>
-        <v>535915</v>
-      </c>
-      <c r="G35" s="6">
-        <f>'2014'!B35</f>
-        <v>576815</v>
-      </c>
-      <c r="H35" s="6">
-        <f>'2013'!B35</f>
-        <v>581401</v>
-      </c>
-      <c r="I35" s="6">
-        <f>'2012'!B35</f>
-        <v>592216</v>
-      </c>
-      <c r="J35" s="6">
-        <f>'2011'!B35</f>
-        <v>676669</v>
-      </c>
-      <c r="K35" s="6">
-        <f>'2010'!B35</f>
-        <v>597006</v>
-      </c>
-      <c r="L35" s="6">
-        <f>'2009'!B35</f>
-        <v>594992</v>
-      </c>
-      <c r="M35" s="6">
-        <f>'2008'!B35</f>
-        <v>611644</v>
-      </c>
-      <c r="N35" s="6">
-        <f>'2007'!B35</f>
-        <v>573970</v>
-      </c>
-      <c r="O35" s="6">
-        <f>'2006'!B35</f>
-        <v>627749</v>
-      </c>
-      <c r="P35" s="6">
-        <f>'2005'!B35</f>
-        <v>641572</v>
-      </c>
-      <c r="Q35" s="6">
-        <f>'2004'!B35</f>
-        <v>696679</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="6">
-        <f>'2018'!B36</f>
-        <v>390268</v>
-      </c>
-      <c r="D36" s="6">
-        <f>'2017'!B36</f>
-        <v>394598</v>
-      </c>
-      <c r="E36" s="6">
-        <f>'2016'!B36</f>
-        <v>404081</v>
-      </c>
-      <c r="F36" s="6">
-        <f>'2015'!B36</f>
-        <v>404997</v>
-      </c>
-      <c r="G36" s="6">
-        <f>'2014'!B36</f>
-        <v>400954</v>
-      </c>
-      <c r="H36" s="6">
-        <f>'2013'!B36</f>
-        <v>405866</v>
-      </c>
-      <c r="I36" s="6">
-        <f>'2012'!B36</f>
-        <v>413710</v>
-      </c>
-      <c r="J36" s="6">
-        <f>'2011'!B36</f>
-        <v>408142</v>
-      </c>
-      <c r="K36" s="6">
-        <f>'2010'!B36</f>
-        <v>395567</v>
-      </c>
-      <c r="L36" s="6">
-        <f>'2009'!B36</f>
-        <v>400736</v>
-      </c>
-      <c r="M36" s="6">
-        <f>'2008'!B36</f>
-        <v>420621</v>
-      </c>
-      <c r="N36" s="6">
-        <f>'2007'!B36</f>
-        <v>431815</v>
-      </c>
-      <c r="O36" s="6">
-        <f>'2006'!B36</f>
-        <v>442214</v>
-      </c>
-      <c r="P36" s="6">
-        <f>'2005'!B36</f>
-        <v>425992</v>
-      </c>
-      <c r="Q36" s="6">
-        <f>'2004'!B36</f>
-        <v>426856</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C37" s="6">
-        <f>'2018'!B37</f>
-        <v>529651</v>
-      </c>
-      <c r="D37" s="6">
-        <f>'2017'!B37</f>
-        <v>431077</v>
-      </c>
-      <c r="E37" s="6">
-        <f>'2016'!B37</f>
-        <v>421681</v>
-      </c>
-      <c r="F37" s="6">
-        <f>'2015'!B37</f>
-        <v>419445</v>
-      </c>
-      <c r="G37" s="6">
-        <f>'2014'!B37</f>
-        <v>400809</v>
-      </c>
-      <c r="H37" s="6">
-        <f>'2013'!B37</f>
-        <v>381049</v>
-      </c>
-      <c r="I37" s="6">
-        <f>'2012'!B37</f>
-        <v>386374</v>
-      </c>
-      <c r="J37" s="6">
-        <f>'2011'!B37</f>
-        <v>379884</v>
-      </c>
-      <c r="K37" s="6">
-        <f>'2010'!B37</f>
-        <v>356257</v>
-      </c>
-      <c r="L37" s="6">
-        <f>'2009'!B37</f>
-        <v>362806</v>
-      </c>
-      <c r="M37" s="6">
-        <f>'2008'!B37</f>
-        <v>345020</v>
-      </c>
-      <c r="N37" s="6">
-        <f>'2007'!B37</f>
-        <v>341213</v>
-      </c>
-      <c r="O37" s="6">
-        <f>'2006'!B37</f>
-        <v>341260</v>
-      </c>
-      <c r="P37" s="6">
-        <f>'2005'!B37</f>
-        <v>331672</v>
-      </c>
-      <c r="Q37" s="6">
-        <f>'2004'!B37</f>
-        <v>330336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="6">
-        <f>'2018'!B38</f>
-        <v>264684</v>
-      </c>
-      <c r="D38" s="6">
-        <f>'2017'!B38</f>
-        <v>262822</v>
-      </c>
-      <c r="E38" s="6">
-        <f>'2016'!B38</f>
-        <v>259000</v>
-      </c>
-      <c r="F38" s="6">
-        <f>'2015'!B38</f>
-        <v>264102</v>
-      </c>
-      <c r="G38" s="6">
-        <f>'2014'!B38</f>
-        <v>256321</v>
-      </c>
-      <c r="H38" s="6">
-        <f>'2013'!B38</f>
-        <v>260949</v>
-      </c>
-      <c r="I38" s="6">
-        <f>'2012'!B38</f>
-        <v>282812</v>
-      </c>
-      <c r="J38" s="6">
-        <f>'2011'!B38</f>
-        <v>283749</v>
-      </c>
-      <c r="K38" s="6">
-        <f>'2010'!B38</f>
-        <v>279893</v>
-      </c>
-      <c r="L38" s="6">
-        <f>'2009'!B38</f>
-        <v>279937</v>
-      </c>
-      <c r="M38" s="6">
-        <f>'2008'!B38</f>
-        <v>279937</v>
-      </c>
-      <c r="N38" s="6">
-        <f>'2007'!B38</f>
-        <v>279140</v>
-      </c>
-      <c r="O38" s="6">
-        <f>'2006'!B38</f>
-        <v>283327</v>
-      </c>
-      <c r="P38" s="6">
-        <f>'2005'!B38</f>
-        <v>295422</v>
-      </c>
-      <c r="Q38" s="6">
-        <f>'2004'!B38</f>
-        <v>297944</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="6">
-        <f>'2018'!B39</f>
-        <v>975650</v>
-      </c>
-      <c r="D39" s="6">
-        <f>'2017'!B39</f>
-        <v>984637</v>
-      </c>
-      <c r="E39" s="6">
-        <f>'2016'!B39</f>
-        <v>980613</v>
-      </c>
-      <c r="F39" s="6">
-        <f>'2015'!B39</f>
-        <v>969633</v>
-      </c>
-      <c r="G39" s="6">
-        <f>'2014'!B39</f>
-        <v>964714</v>
-      </c>
-      <c r="H39" s="6">
-        <f>'2013'!B39</f>
-        <v>968735</v>
-      </c>
-      <c r="I39" s="6">
-        <f>'2012'!B39</f>
-        <v>970217</v>
-      </c>
-      <c r="J39" s="6">
-        <f>'2011'!B39</f>
-        <v>927655</v>
-      </c>
-      <c r="K39" s="6">
-        <f>'2010'!B39</f>
-        <v>925885</v>
-      </c>
-      <c r="L39" s="6">
-        <f>'2009'!B39</f>
-        <v>943222</v>
-      </c>
-      <c r="M39" s="6">
-        <f>'2008'!B39</f>
-        <v>981124</v>
-      </c>
-      <c r="N39" s="6">
-        <f>'2007'!B39</f>
-        <v>1006293</v>
-      </c>
-      <c r="O39" s="6">
-        <f>'2006'!B39</f>
-        <v>1018664</v>
-      </c>
-      <c r="P39" s="6">
-        <f>'2005'!B39</f>
-        <v>1017802</v>
-      </c>
-      <c r="Q39" s="6">
-        <f>'2004'!B39</f>
-        <v>1048731</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="6">
-        <f>'2018'!B40</f>
-        <v>8209</v>
-      </c>
-      <c r="D40" s="6">
-        <f>'2017'!B40</f>
-        <v>8797</v>
-      </c>
-      <c r="E40" s="6">
-        <f>'2016'!B40</f>
-        <v>8978</v>
-      </c>
-      <c r="F40" s="6">
-        <f>'2015'!B40</f>
-        <v>8624</v>
-      </c>
-      <c r="G40" s="6">
-        <f>'2014'!B40</f>
-        <v>8551</v>
-      </c>
-      <c r="H40" s="6">
-        <f>'2013'!B40</f>
-        <v>8605</v>
-      </c>
-      <c r="I40" s="6">
-        <f>'2012'!B40</f>
-        <v>8798</v>
-      </c>
-      <c r="J40" s="6">
-        <f>'2011'!B40</f>
-        <v>8858</v>
-      </c>
-      <c r="K40" s="6">
-        <f>'2010'!B40</f>
-        <v>9075</v>
-      </c>
-      <c r="L40" s="6">
-        <f>'2009'!B40</f>
-        <v>9075</v>
-      </c>
-      <c r="M40" s="6">
-        <f>'2008'!B40</f>
-        <v>9075</v>
-      </c>
-      <c r="N40" s="6">
-        <f>'2007'!B40</f>
-        <v>8940</v>
-      </c>
-      <c r="O40" s="6">
-        <f>'2006'!B40</f>
-        <v>9302</v>
-      </c>
-      <c r="P40" s="6">
-        <f>'2005'!B40</f>
-        <v>10691</v>
-      </c>
-      <c r="Q40" s="6">
-        <f>'2004'!B40</f>
-        <v>10750</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="6">
-        <f>'2018'!B41</f>
-        <v>210369</v>
-      </c>
-      <c r="D41" s="6">
-        <f>'2017'!B41</f>
-        <v>212621</v>
-      </c>
-      <c r="E41" s="6">
-        <f>'2016'!B41</f>
-        <v>212461</v>
-      </c>
-      <c r="F41" s="6">
-        <f>'2015'!B41</f>
-        <v>206397</v>
-      </c>
-      <c r="G41" s="6">
-        <f>'2014'!B41</f>
-        <v>204837</v>
-      </c>
-      <c r="H41" s="6">
-        <f>'2013'!B41</f>
-        <v>173942</v>
-      </c>
-      <c r="I41" s="6">
-        <f>'2012'!B41</f>
-        <v>234457</v>
-      </c>
-      <c r="J41" s="6">
-        <f>'2011'!B41</f>
-        <v>223008</v>
-      </c>
-      <c r="K41" s="6">
-        <f>'2010'!B41</f>
-        <v>204445</v>
-      </c>
-      <c r="L41" s="6">
-        <f>'2009'!B41</f>
-        <v>205059</v>
-      </c>
-      <c r="M41" s="6">
-        <f>'2008'!B41</f>
-        <v>199540</v>
-      </c>
-      <c r="N41" s="6">
-        <f>'2007'!B41</f>
-        <v>220126</v>
-      </c>
-      <c r="O41" s="6">
-        <f>'2006'!B41</f>
-        <v>210136</v>
-      </c>
-      <c r="P41" s="6">
-        <f>'2005'!B41</f>
-        <v>211605</v>
-      </c>
-      <c r="Q41" s="6">
-        <f>'2004'!B41</f>
-        <v>279203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="6">
-        <f>'2018'!B42</f>
-        <v>233215</v>
-      </c>
-      <c r="D42" s="6">
-        <f>'2017'!B42</f>
-        <v>223394</v>
-      </c>
-      <c r="E42" s="6">
-        <f>'2016'!B42</f>
-        <v>221979</v>
-      </c>
-      <c r="F42" s="6">
-        <f>'2015'!B42</f>
-        <v>244182</v>
-      </c>
-      <c r="G42" s="6">
-        <f>'2014'!B42</f>
-        <v>246315</v>
-      </c>
-      <c r="H42" s="6">
-        <f>'2013'!B42</f>
-        <v>253512</v>
-      </c>
-      <c r="I42" s="6">
-        <f>'2012'!B42</f>
-        <v>251655</v>
-      </c>
-      <c r="J42" s="6">
-        <f>'2011'!B42</f>
-        <v>256191</v>
-      </c>
-      <c r="K42" s="6">
-        <f>'2010'!B42</f>
-        <v>259159</v>
-      </c>
-      <c r="L42" s="6">
-        <f>'2009'!B42</f>
-        <v>248495</v>
-      </c>
-      <c r="M42" s="6">
-        <f>'2008'!B42</f>
-        <v>239419</v>
-      </c>
-      <c r="N42" s="6">
-        <f>'2007'!B42</f>
-        <v>243123</v>
-      </c>
-      <c r="O42" s="6">
-        <f>'2006'!B42</f>
-        <v>232053</v>
-      </c>
-      <c r="P42" s="6">
-        <f>'2005'!B42</f>
-        <v>207973</v>
-      </c>
-      <c r="Q42" s="6">
-        <f>'2004'!B42</f>
-        <v>216152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="6">
-        <f>'2018'!B43</f>
-        <v>700600</v>
-      </c>
-      <c r="D43" s="6">
-        <f>'2017'!B43</f>
-        <v>717256</v>
-      </c>
-      <c r="E43" s="6">
-        <f>'2016'!B43</f>
-        <v>734733</v>
-      </c>
-      <c r="F43" s="6">
-        <f>'2015'!B43</f>
-        <v>727229</v>
-      </c>
-      <c r="G43" s="6">
-        <f>'2014'!B43</f>
-        <v>566507</v>
-      </c>
-      <c r="H43" s="6">
-        <f>'2013'!B43</f>
-        <v>530547</v>
-      </c>
-      <c r="I43" s="6">
-        <f>'2012'!B43</f>
-        <v>698993</v>
-      </c>
-      <c r="J43" s="6">
-        <f>'2011'!B43</f>
-        <v>700621</v>
-      </c>
-      <c r="K43" s="6">
-        <f>'2010'!B43</f>
-        <v>671120</v>
-      </c>
-      <c r="L43" s="6">
-        <f>'2009'!B43</f>
-        <v>667606</v>
-      </c>
-      <c r="M43" s="6">
-        <f>'2008'!B43</f>
-        <v>780053</v>
-      </c>
-      <c r="N43" s="6">
-        <f>'2007'!B43</f>
-        <v>775511</v>
-      </c>
-      <c r="O43" s="6">
-        <f>'2006'!B43</f>
-        <v>730495</v>
-      </c>
-      <c r="P43" s="6">
-        <f>'2005'!B43</f>
-        <v>727525</v>
-      </c>
-      <c r="Q43" s="6">
-        <f>'2004'!B43</f>
-        <v>725110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="6">
-        <f>'2018'!B44</f>
-        <v>1157779</v>
-      </c>
-      <c r="D44" s="6">
-        <f>'2017'!B44</f>
-        <v>1148765</v>
-      </c>
-      <c r="E44" s="6">
-        <f>'2016'!B44</f>
-        <v>1132099</v>
-      </c>
-      <c r="F44" s="6">
-        <f>'2015'!B44</f>
-        <v>1060455</v>
-      </c>
-      <c r="G44" s="6">
-        <f>'2014'!B44</f>
-        <v>1020105</v>
-      </c>
-      <c r="H44" s="6">
-        <f>'2013'!B44</f>
-        <v>1036946</v>
-      </c>
-      <c r="I44" s="6">
-        <f>'2012'!B44</f>
-        <v>1020227</v>
-      </c>
-      <c r="J44" s="6">
-        <f>'2011'!B44</f>
-        <v>1024520</v>
-      </c>
-      <c r="K44" s="6">
-        <f>'2010'!B44</f>
-        <v>1020779</v>
-      </c>
-      <c r="L44" s="6">
-        <f>'2009'!B44</f>
-        <v>1012446</v>
-      </c>
-      <c r="M44" s="6">
-        <f>'2008'!B44</f>
-        <v>1005226</v>
-      </c>
-      <c r="N44" s="6">
-        <f>'2007'!B44</f>
-        <v>1039709</v>
-      </c>
-      <c r="O44" s="6">
-        <f>'2006'!B44</f>
-        <v>1073847</v>
-      </c>
-      <c r="P44" s="6">
-        <f>'2005'!B44</f>
-        <v>1039327</v>
-      </c>
-      <c r="Q44" s="6">
-        <f>'2004'!B44</f>
-        <v>1027908</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="6">
-        <f>'2018'!B45</f>
-        <v>236656</v>
-      </c>
-      <c r="D45" s="6">
-        <f>'2017'!B45</f>
-        <v>226225</v>
-      </c>
-      <c r="E45" s="6">
-        <f>'2016'!B45</f>
-        <v>217471</v>
-      </c>
-      <c r="F45" s="6">
-        <f>'2015'!B45</f>
-        <v>207331</v>
-      </c>
-      <c r="G45" s="6">
-        <f>'2014'!B45</f>
-        <v>206666</v>
-      </c>
-      <c r="H45" s="6">
-        <f>'2013'!B45</f>
-        <v>211863</v>
-      </c>
-      <c r="I45" s="6">
-        <f>'2012'!B45</f>
-        <v>212378</v>
-      </c>
-      <c r="J45" s="6">
-        <f>'2011'!B45</f>
-        <v>207232</v>
-      </c>
-      <c r="K45" s="6">
-        <f>'2010'!B45</f>
-        <v>165033</v>
-      </c>
-      <c r="L45" s="6">
-        <f>'2009'!B45</f>
-        <v>157217</v>
-      </c>
-      <c r="M45" s="6">
-        <f>'2008'!B45</f>
-        <v>157217</v>
-      </c>
-      <c r="N45" s="6">
-        <f>'2007'!B45</f>
-        <v>148849</v>
-      </c>
-      <c r="O45" s="6">
-        <f>'2006'!B45</f>
-        <v>153501</v>
-      </c>
-      <c r="P45" s="6">
-        <f>'2005'!B45</f>
-        <v>154884</v>
-      </c>
-      <c r="Q45" s="6">
-        <f>'2004'!B45</f>
-        <v>159678</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="6">
-        <f>'2018'!B46</f>
-        <v>276019</v>
-      </c>
-      <c r="D46" s="6">
-        <f>'2017'!B46</f>
-        <v>277281</v>
-      </c>
-      <c r="E46" s="6">
-        <f>'2016'!B46</f>
-        <v>282132</v>
-      </c>
-      <c r="F46" s="6">
-        <f>'2015'!B46</f>
-        <v>276660</v>
-      </c>
-      <c r="G46" s="6">
-        <f>'2014'!B46</f>
-        <v>292863</v>
-      </c>
-      <c r="H46" s="6">
-        <f>'2013'!B46</f>
-        <v>300764</v>
-      </c>
-      <c r="I46" s="6">
-        <f>'2012'!B46</f>
-        <v>304206</v>
-      </c>
-      <c r="J46" s="6">
-        <f>'2011'!B46</f>
-        <v>307642</v>
-      </c>
-      <c r="K46" s="6">
-        <f>'2010'!B46</f>
-        <v>307995</v>
-      </c>
-      <c r="L46" s="6">
-        <f>'2009'!B46</f>
-        <v>318993</v>
-      </c>
-      <c r="M46" s="6">
-        <f>'2008'!B46</f>
-        <v>309942</v>
-      </c>
-      <c r="N46" s="6">
-        <f>'2007'!B46</f>
-        <v>317239</v>
-      </c>
-      <c r="O46" s="6">
-        <f>'2006'!B46</f>
-        <v>317484</v>
-      </c>
-      <c r="P46" s="6">
-        <f>'2005'!B46</f>
-        <v>304605</v>
-      </c>
-      <c r="Q46" s="6">
-        <f>'2004'!B46</f>
-        <v>314748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="6">
-        <f>'2018'!B47</f>
-        <v>69943</v>
-      </c>
-      <c r="D47" s="6">
-        <f>'2017'!B47</f>
-        <v>71807</v>
-      </c>
-      <c r="E47" s="6">
-        <f>'2016'!B47</f>
-        <v>74219</v>
-      </c>
-      <c r="F47" s="6">
-        <f>'2015'!B47</f>
-        <v>72930</v>
-      </c>
-      <c r="G47" s="6">
-        <f>'2014'!B47</f>
-        <v>74966</v>
-      </c>
-      <c r="H47" s="6">
-        <f>'2013'!B47</f>
-        <v>80650</v>
-      </c>
-      <c r="I47" s="6">
-        <f>'2012'!B47</f>
-        <v>82307</v>
-      </c>
-      <c r="J47" s="6">
-        <f>'2011'!B47</f>
-        <v>83681</v>
-      </c>
-      <c r="K47" s="6">
-        <f>'2010'!B47</f>
-        <v>84044</v>
-      </c>
-      <c r="L47" s="6">
-        <f>'2009'!B47</f>
-        <v>84044</v>
-      </c>
-      <c r="M47" s="6">
-        <f>'2008'!B47</f>
-        <v>83708</v>
-      </c>
-      <c r="N47" s="6">
-        <f>'2007'!B47</f>
-        <v>81265</v>
-      </c>
-      <c r="O47" s="6">
-        <f>'2006'!B47</f>
-        <v>86512</v>
-      </c>
-      <c r="P47" s="6">
-        <f>'2005'!B47</f>
-        <v>90110</v>
-      </c>
-      <c r="Q47" s="6">
-        <f>'2004'!B47</f>
-        <v>92138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="6">
-        <f>'2018'!B48</f>
-        <v>183063</v>
-      </c>
-      <c r="D48" s="6">
-        <f>'2017'!B48</f>
-        <v>182149</v>
-      </c>
-      <c r="E48" s="6">
-        <f>'2016'!B48</f>
-        <v>182251</v>
-      </c>
-      <c r="F48" s="6">
-        <f>'2015'!B48</f>
-        <v>180829</v>
-      </c>
-      <c r="G48" s="6">
-        <f>'2014'!B48</f>
-        <v>180411</v>
-      </c>
-      <c r="H48" s="6">
-        <f>'2013'!B48</f>
-        <v>188081</v>
-      </c>
-      <c r="I48" s="6">
-        <f>'2012'!B48</f>
-        <v>194272</v>
-      </c>
-      <c r="J48" s="6">
-        <f>'2011'!B48</f>
-        <v>196276</v>
-      </c>
-      <c r="K48" s="6">
-        <f>'2010'!B48</f>
-        <v>209050</v>
-      </c>
-      <c r="L48" s="6">
-        <f>'2009'!B48</f>
-        <v>197260</v>
-      </c>
-      <c r="M48" s="6">
-        <f>'2008'!B48</f>
-        <v>197215</v>
-      </c>
-      <c r="N48" s="6">
-        <f>'2007'!B48</f>
-        <v>197135</v>
-      </c>
-      <c r="O48" s="6">
-        <f>'2006'!B48</f>
-        <v>193046</v>
-      </c>
-      <c r="P48" s="6">
-        <f>'2005'!B48</f>
-        <v>194308</v>
-      </c>
-      <c r="Q48" s="6">
-        <f>'2004'!B48</f>
-        <v>198162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="6">
-        <f>'2018'!B49</f>
-        <v>706400</v>
-      </c>
-      <c r="D49" s="6">
-        <f>'2017'!B49</f>
-        <v>700843</v>
-      </c>
-      <c r="E49" s="6">
-        <f>'2016'!B49</f>
-        <v>719110</v>
-      </c>
-      <c r="F49" s="6">
-        <f>'2015'!B49</f>
-        <v>717381</v>
-      </c>
-      <c r="G49" s="6">
-        <f>'2014'!B49</f>
-        <v>704372</v>
-      </c>
-      <c r="H49" s="6">
-        <f>'2013'!B49</f>
-        <v>704357</v>
-      </c>
-      <c r="I49" s="6">
-        <f>'2012'!B49</f>
-        <v>718261</v>
-      </c>
-      <c r="J49" s="6">
-        <f>'2011'!B49</f>
-        <v>716504</v>
-      </c>
-      <c r="K49" s="6">
-        <f>'2010'!B49</f>
-        <v>721399</v>
-      </c>
-      <c r="L49" s="6">
-        <f>'2009'!B49</f>
-        <v>721851</v>
-      </c>
-      <c r="M49" s="6">
-        <f>'2008'!B49</f>
-        <v>721851</v>
-      </c>
-      <c r="N49" s="6">
-        <f>'2007'!B49</f>
-        <v>713610</v>
-      </c>
-      <c r="O49" s="6">
-        <f>'2006'!B49</f>
-        <v>722803</v>
-      </c>
-      <c r="P49" s="6">
-        <f>'2005'!B49</f>
-        <v>716200</v>
-      </c>
-      <c r="Q49" s="6">
-        <f>'2004'!B49</f>
-        <v>689099</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="6">
-        <f>'2018'!B50</f>
-        <v>217123</v>
-      </c>
-      <c r="D50" s="6">
-        <f>'2017'!B50</f>
-        <v>219990</v>
-      </c>
-      <c r="E50" s="6">
-        <f>'2016'!B50</f>
-        <v>222686</v>
-      </c>
-      <c r="F50" s="6">
-        <f>'2015'!B50</f>
-        <v>220811</v>
-      </c>
-      <c r="G50" s="6">
-        <f>'2014'!B50</f>
-        <v>214286</v>
-      </c>
-      <c r="H50" s="6">
-        <f>'2013'!B50</f>
-        <v>221806</v>
-      </c>
-      <c r="I50" s="6">
-        <f>'2012'!B50</f>
-        <v>233349</v>
-      </c>
-      <c r="J50" s="6">
-        <f>'2011'!B50</f>
-        <v>234192</v>
-      </c>
-      <c r="K50" s="6">
-        <f>'2010'!B50</f>
-        <v>229115</v>
-      </c>
-      <c r="L50" s="6">
-        <f>'2009'!B50</f>
-        <v>237343</v>
-      </c>
-      <c r="M50" s="6">
-        <f>'2008'!B50</f>
-        <v>237343</v>
-      </c>
-      <c r="N50" s="6">
-        <f>'2007'!B50</f>
-        <v>238355</v>
-      </c>
-      <c r="O50" s="6">
-        <f>'2006'!B50</f>
-        <v>254222</v>
-      </c>
-      <c r="P50" s="6">
-        <f>'2005'!B50</f>
-        <v>262835</v>
-      </c>
-      <c r="Q50" s="6">
-        <f>'2004'!B50</f>
-        <v>288098</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="6">
-        <f>'2018'!B51</f>
-        <v>130304</v>
-      </c>
-      <c r="D51" s="6">
-        <f>'2017'!B51</f>
-        <v>127198</v>
-      </c>
-      <c r="E51" s="6">
-        <f>'2016'!B51</f>
-        <v>132141</v>
-      </c>
-      <c r="F51" s="6">
-        <f>'2015'!B51</f>
-        <v>133568</v>
-      </c>
-      <c r="G51" s="6">
-        <f>'2014'!B51</f>
-        <v>136636</v>
-      </c>
-      <c r="H51" s="6">
-        <f>'2013'!B51</f>
-        <v>143155</v>
-      </c>
-      <c r="I51" s="6">
-        <f>'2012'!B51</f>
-        <v>142251</v>
-      </c>
-      <c r="J51" s="6">
-        <f>'2011'!B51</f>
-        <v>135336</v>
-      </c>
-      <c r="K51" s="6">
-        <f>'2010'!B51</f>
-        <v>149581</v>
-      </c>
-      <c r="L51" s="6">
-        <f>'2009'!B51</f>
-        <v>145952</v>
-      </c>
-      <c r="M51" s="6">
-        <f>'2008'!B51</f>
-        <v>145952</v>
-      </c>
-      <c r="N51" s="6">
-        <f>'2007'!B51</f>
-        <v>139064</v>
-      </c>
-      <c r="O51" s="6">
-        <f>'2006'!B51</f>
-        <v>136839</v>
-      </c>
-      <c r="P51" s="6">
-        <f>'2005'!B51</f>
-        <v>137677</v>
-      </c>
-      <c r="Q51" s="6">
-        <f>'2004'!B51</f>
-        <v>137608</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18267,13 +19617,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18288,7 +19640,7 @@
         <v>2017</v>
       </c>
       <c r="E1" s="5">
-        <f t="shared" ref="E1:Q1" si="0">D1-1</f>
+        <f t="shared" ref="E1:R1" si="0">D1-1</f>
         <v>2016</v>
       </c>
       <c r="F1" s="5">
@@ -18339,8 +19691,12 @@
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R1" s="5">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -18407,8 +19763,12 @@
         <f>'2004'!E2</f>
         <v>222544</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R2" s="6">
+        <f>'2003'!E2</f>
+        <v>223215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -18475,8 +19835,12 @@
         <f>'2004'!E3</f>
         <v>303217</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R3" s="6">
+        <f>'2003'!E3</f>
+        <v>299224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -18543,8 +19907,12 @@
         <f>'2004'!E4</f>
         <v>464563</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R4" s="6">
+        <f>'2003'!E4</f>
+        <v>438108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -18611,8 +19979,12 @@
         <f>'2004'!E5</f>
         <v>406210</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R5" s="6">
+        <f>'2003'!E5</f>
+        <v>396299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -18679,8 +20051,12 @@
         <f>'2004'!E6</f>
         <v>868209</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R6" s="6">
+        <f>'2003'!E6</f>
+        <v>858691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -18747,8 +20123,12 @@
         <f>'2004'!E7</f>
         <v>548011</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R7" s="6">
+        <f>'2003'!E7</f>
+        <v>553899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -18815,8 +20195,12 @@
         <f>'2004'!E8</f>
         <v>143358</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R8" s="6">
+        <f>'2003'!E8</f>
+        <v>134294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -18883,8 +20267,12 @@
         <f>'2004'!E9</f>
         <v>36000</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R9" s="6">
+        <f>'2003'!E9</f>
+        <v>31847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -18951,8 +20339,12 @@
         <f>'2004'!E10</f>
         <v>338769</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R10" s="6">
+        <f>'2003'!E10</f>
+        <v>321179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -19019,8 +20411,12 @@
         <f>'2004'!E11</f>
         <v>957739</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R11" s="6">
+        <f>'2003'!E11</f>
+        <v>954126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -19087,8 +20483,12 @@
         <f>'2004'!E12</f>
         <v>9540</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R12" s="6">
+        <f>'2003'!E12</f>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -19155,8 +20555,12 @@
         <f>'2004'!E13</f>
         <v>847182</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R13" s="6">
+        <f>'2003'!E13</f>
+        <v>871914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -19223,8 +20627,12 @@
         <f>'2004'!E14</f>
         <v>812609</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R14" s="6">
+        <f>'2003'!E14</f>
+        <v>824093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -19291,8 +20699,12 @@
         <f>'2004'!E15</f>
         <v>1159442</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R15" s="6">
+        <f>'2003'!E15</f>
+        <v>1102059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -19359,8 +20771,12 @@
         <f>'2004'!E16</f>
         <v>661769</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R16" s="6">
+        <f>'2003'!E16</f>
+        <v>436206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -19427,8 +20843,12 @@
         <f>'2004'!E17</f>
         <v>471423</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R17" s="6">
+        <f>'2003'!E17</f>
+        <v>468946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -19495,8 +20915,12 @@
         <f>'2004'!E18</f>
         <v>684768</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R18" s="6">
+        <f>'2003'!E18</f>
+        <v>666695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -19563,8 +20987,12 @@
         <f>'2004'!E19</f>
         <v>623871</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R19" s="6">
+        <f>'2003'!E19</f>
+        <v>596557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -19631,8 +21059,12 @@
         <f>'2004'!E20</f>
         <v>224099</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R20" s="6">
+        <f>'2003'!E20</f>
+        <v>210350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -19699,8 +21131,12 @@
         <f>'2004'!E21</f>
         <v>329707</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R21" s="6">
+        <f>'2003'!E21</f>
+        <v>293921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -19767,8 +21203,12 @@
         <f>'2004'!E22</f>
         <v>259968</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R22" s="6">
+        <f>'2003'!E22</f>
+        <v>265605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -19835,8 +21275,12 @@
         <f>'2004'!E23</f>
         <v>2272955</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R23" s="6">
+        <f>'2003'!E23</f>
+        <v>2266231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -19903,8 +21347,12 @@
         <f>'2004'!E24</f>
         <v>1594619</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R24" s="6">
+        <f>'2003'!E24</f>
+        <v>1413759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -19971,8 +21419,12 @@
         <f>'2004'!E25</f>
         <v>1167886</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R25" s="6">
+        <f>'2003'!E25</f>
+        <v>1230036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -20039,8 +21491,12 @@
         <f>'2004'!E26</f>
         <v>287272</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R26" s="6">
+        <f>'2003'!E26</f>
+        <v>278688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -20107,8 +21563,12 @@
         <f>'2004'!E27</f>
         <v>935854</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R27" s="6">
+        <f>'2003'!E27</f>
+        <v>979429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -20175,8 +21635,12 @@
         <f>'2004'!E28</f>
         <v>495908</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R28" s="6">
+        <f>'2003'!E28</f>
+        <v>493945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -20243,8 +21707,12 @@
         <f>'2004'!E29</f>
         <v>575486</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R29" s="6">
+        <f>'2003'!E29</f>
+        <v>603672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -20311,8 +21779,12 @@
         <f>'2004'!E30</f>
         <v>394105</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R30" s="6">
+        <f>'2003'!E30</f>
+        <v>397069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -20379,8 +21851,12 @@
         <f>'2004'!E31</f>
         <v>233432</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R31" s="6">
+        <f>'2003'!E31</f>
+        <v>226252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -20447,8 +21923,12 @@
         <f>'2004'!E32</f>
         <v>429205</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R32" s="6">
+        <f>'2003'!E32</f>
+        <v>403563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -20515,8 +21995,12 @@
         <f>'2004'!E33</f>
         <v>460545</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R33" s="6">
+        <f>'2003'!E33</f>
+        <v>338568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -20583,8 +22067,12 @@
         <f>'2004'!E34</f>
         <v>95545</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R34" s="6">
+        <f>'2003'!E34</f>
+        <v>89994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -20651,8 +22139,12 @@
         <f>'2004'!E35</f>
         <v>754189</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R35" s="6">
+        <f>'2003'!E35</f>
+        <v>1454229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -20719,8 +22211,12 @@
         <f>'2004'!E36</f>
         <v>1086640</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R36" s="6">
+        <f>'2003'!E36</f>
+        <v>1128842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -20787,8 +22283,12 @@
         <f>'2004'!E37</f>
         <v>348924</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R37" s="6">
+        <f>'2003'!E37</f>
+        <v>328993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -20855,8 +22355,12 @@
         <f>'2004'!E38</f>
         <v>1409238</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R38" s="6">
+        <f>'2003'!E38</f>
+        <v>1381167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -20923,8 +22427,12 @@
         <f>'2004'!E39</f>
         <v>2520673</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R39" s="6">
+        <f>'2003'!E39</f>
+        <v>2791423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -20991,8 +22499,12 @@
         <f>'2004'!E40</f>
         <v>32823</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R40" s="6">
+        <f>'2003'!E40</f>
+        <v>33876</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -21059,8 +22571,12 @@
         <f>'2004'!E41</f>
         <v>265906</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R41" s="6">
+        <f>'2003'!E41</f>
+        <v>259343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -21127,8 +22643,12 @@
         <f>'2004'!E42</f>
         <v>347928</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R42" s="6">
+        <f>'2003'!E42</f>
+        <v>348703</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -21195,8 +22715,12 @@
         <f>'2004'!E43</f>
         <v>1131450</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R43" s="6">
+        <f>'2003'!E43</f>
+        <v>983990</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -21263,8 +22787,12 @@
         <f>'2004'!E44</f>
         <v>1266103</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R44" s="6">
+        <f>'2003'!E44</f>
+        <v>1290716</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -21331,8 +22859,12 @@
         <f>'2004'!E45</f>
         <v>230153</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R45" s="6">
+        <f>'2003'!E45</f>
+        <v>238073</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -21399,8 +22931,12 @@
         <f>'2004'!E46</f>
         <v>823123</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R46" s="6">
+        <f>'2003'!E46</f>
+        <v>813880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -21467,8 +23003,12 @@
         <f>'2004'!E47</f>
         <v>192308</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R47" s="6">
+        <f>'2003'!E47</f>
+        <v>186789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -21535,8 +23075,12 @@
         <f>'2004'!E48</f>
         <v>791512</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R48" s="6">
+        <f>'2003'!E48</f>
+        <v>883616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -21603,8 +23147,12 @@
         <f>'2004'!E49</f>
         <v>2599506</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R49" s="6">
+        <f>'2003'!E49</f>
+        <v>2717877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -21671,8 +23219,12 @@
         <f>'2004'!E50</f>
         <v>830748</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R50" s="6">
+        <f>'2003'!E50</f>
+        <v>926177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -21738,6 +23290,10 @@
       <c r="Q51" s="6">
         <f>'2004'!E51</f>
         <v>240898</v>
+      </c>
+      <c r="R51" s="6">
+        <f>'2003'!E51</f>
+        <v>228394</v>
       </c>
     </row>
   </sheetData>

--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B9BB8-D11D-DA48-9749-AF00B7EB3E45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE751DF-4B0A-C042-97E9-07CAA4B2D535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1464,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19619,9 +19619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
+++ b/Participation/Data/NatlHuntingLicenseReportAllYearsClean.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE751DF-4B0A-C042-97E9-07CAA4B2D535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E5E73F-C6BC-E341-BFD2-C33C9B0390E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="15900" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,8 @@
     <sheet name="2004" sheetId="15" r:id="rId18"/>
     <sheet name="2003" sheetId="21" r:id="rId19"/>
     <sheet name="2018-Full" sheetId="20" r:id="rId20"/>
-    <sheet name="Notes" sheetId="16" r:id="rId21"/>
+    <sheet name="2019-Full" sheetId="22" r:id="rId21"/>
+    <sheet name="Notes" sheetId="16" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="168">
   <si>
     <r>
       <rPr>
@@ -579,6 +580,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Tags, Permits, and Stamps</t>
     </r>
@@ -596,6 +598,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Tags, Permits, and Stamps</t>
     </r>
@@ -613,6 +616,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Tags, Permits, and Stamps</t>
     </r>
@@ -630,6 +634,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Tags, Permits, and Stamps</t>
     </r>
@@ -647,6 +652,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Tags, Permits, and Stamps</t>
     </r>
@@ -664,6 +670,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Verdana"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Tags, Permits, and Stamps</t>
     </r>
@@ -965,6 +972,57 @@
   <si>
     <t>15-Year</t>
   </si>
+  <si>
+    <t>2019 Gross Cost - Hunting Licenses</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019 Cost - Non-Resident Hunting Licenses,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tags, Permits, and Stamps</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2019 Cost - Resident Hunting Licenses,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tags, Permits, and Stamps</t>
+    </r>
+  </si>
+  <si>
+    <t>2019 Total Hunting Licenses, Tags, Permits, and Stamps</t>
+  </si>
+  <si>
+    <t>2019 Non-Resident Hunting Licenses, Tags, Permits, and Stamps</t>
+  </si>
+  <si>
+    <t>2019 Resident Hunting Licenses, Tags, Permits, and Stamps</t>
+  </si>
+  <si>
+    <t>2019 Paid Hunting License Holders</t>
+  </si>
 </sst>
 </file>
 
@@ -1006,12 +1064,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1068,7 +1128,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1105,6 +1165,16 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="5" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1464,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -18284,6 +18354,1407 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0EEEDA-FD0F-E04C-8886-F0260FA19D46}">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>124330</v>
+      </c>
+      <c r="C2" s="19">
+        <v>399020</v>
+      </c>
+      <c r="D2" s="19">
+        <v>64755</v>
+      </c>
+      <c r="E2" s="19">
+        <v>463775</v>
+      </c>
+      <c r="F2" s="19">
+        <v>3930940</v>
+      </c>
+      <c r="G2" s="19">
+        <v>7272195</v>
+      </c>
+      <c r="H2" s="19">
+        <v>11203135</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>535933</v>
+      </c>
+      <c r="C3" s="19">
+        <v>526677</v>
+      </c>
+      <c r="D3" s="19">
+        <v>37476</v>
+      </c>
+      <c r="E3" s="19">
+        <v>564153</v>
+      </c>
+      <c r="F3" s="19">
+        <v>5642231</v>
+      </c>
+      <c r="G3" s="19">
+        <v>6203532</v>
+      </c>
+      <c r="H3" s="19">
+        <v>11845763</v>
+      </c>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>301240</v>
+      </c>
+      <c r="C4" s="19">
+        <v>366964</v>
+      </c>
+      <c r="D4" s="19">
+        <v>146870</v>
+      </c>
+      <c r="E4" s="19">
+        <v>513834</v>
+      </c>
+      <c r="F4" s="19">
+        <v>7934870</v>
+      </c>
+      <c r="G4" s="19">
+        <v>11089040</v>
+      </c>
+      <c r="H4" s="19">
+        <v>19023910</v>
+      </c>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>310392</v>
+      </c>
+      <c r="C5" s="19">
+        <v>459282</v>
+      </c>
+      <c r="D5" s="19">
+        <v>66499</v>
+      </c>
+      <c r="E5" s="19">
+        <v>525781</v>
+      </c>
+      <c r="F5" s="19">
+        <v>13375848.5</v>
+      </c>
+      <c r="G5" s="19">
+        <v>4612812.5</v>
+      </c>
+      <c r="H5" s="19">
+        <v>17988661</v>
+      </c>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19">
+        <v>279248</v>
+      </c>
+      <c r="C6" s="19">
+        <v>984465</v>
+      </c>
+      <c r="D6" s="19">
+        <v>21309</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1005774</v>
+      </c>
+      <c r="F6" s="19">
+        <v>20531241</v>
+      </c>
+      <c r="G6" s="19">
+        <v>999698</v>
+      </c>
+      <c r="H6" s="19">
+        <v>21530939</v>
+      </c>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>298901</v>
+      </c>
+      <c r="C7" s="19">
+        <v>466449</v>
+      </c>
+      <c r="D7" s="19">
+        <v>113156</v>
+      </c>
+      <c r="E7" s="19">
+        <v>579605</v>
+      </c>
+      <c r="F7" s="19">
+        <v>13018692</v>
+      </c>
+      <c r="G7" s="19">
+        <v>48693308</v>
+      </c>
+      <c r="H7" s="19">
+        <v>61712000</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19">
+        <v>35681</v>
+      </c>
+      <c r="C8" s="19">
+        <v>117052</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4255</v>
+      </c>
+      <c r="E8" s="19">
+        <v>121307</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2016814</v>
+      </c>
+      <c r="G8" s="19">
+        <v>382127</v>
+      </c>
+      <c r="H8" s="19">
+        <v>2398941</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>17839</v>
+      </c>
+      <c r="C9" s="19">
+        <v>52380</v>
+      </c>
+      <c r="D9" s="19">
+        <v>7759</v>
+      </c>
+      <c r="E9" s="19">
+        <v>60139</v>
+      </c>
+      <c r="F9" s="19">
+        <v>628831</v>
+      </c>
+      <c r="G9" s="19">
+        <v>407779</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1036610</v>
+      </c>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19">
+        <v>189038</v>
+      </c>
+      <c r="C10" s="19">
+        <v>301085</v>
+      </c>
+      <c r="D10" s="19">
+        <v>18238</v>
+      </c>
+      <c r="E10" s="19">
+        <v>319323</v>
+      </c>
+      <c r="F10" s="19">
+        <v>5837701</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1031692</v>
+      </c>
+      <c r="H10" s="19">
+        <v>6869393</v>
+      </c>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>684277</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1296488</v>
+      </c>
+      <c r="D11" s="19">
+        <v>179099</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1475587</v>
+      </c>
+      <c r="F11" s="19">
+        <v>6906445</v>
+      </c>
+      <c r="G11" s="19">
+        <v>7468044</v>
+      </c>
+      <c r="H11" s="19">
+        <v>14374489</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>10585</v>
+      </c>
+      <c r="C12" s="19">
+        <v>10889</v>
+      </c>
+      <c r="D12" s="19">
+        <v>923</v>
+      </c>
+      <c r="E12" s="19">
+        <v>11812</v>
+      </c>
+      <c r="F12" s="19">
+        <v>510581</v>
+      </c>
+      <c r="G12" s="19">
+        <v>96915</v>
+      </c>
+      <c r="H12" s="19">
+        <v>607496</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>227761</v>
+      </c>
+      <c r="C13" s="19">
+        <v>590834</v>
+      </c>
+      <c r="D13" s="19">
+        <v>79713</v>
+      </c>
+      <c r="E13" s="19">
+        <v>670547</v>
+      </c>
+      <c r="F13" s="19">
+        <v>13354833</v>
+      </c>
+      <c r="G13" s="19">
+        <v>7022157</v>
+      </c>
+      <c r="H13" s="19">
+        <v>20376990</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>295281</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1077304</v>
+      </c>
+      <c r="D14" s="19">
+        <v>161667</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1238971</v>
+      </c>
+      <c r="F14" s="19">
+        <v>10977864</v>
+      </c>
+      <c r="G14" s="19">
+        <v>16824154</v>
+      </c>
+      <c r="H14" s="19">
+        <v>27802018</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>299614</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1172506</v>
+      </c>
+      <c r="D15" s="19">
+        <v>78414</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1250920</v>
+      </c>
+      <c r="F15" s="19">
+        <v>16060492</v>
+      </c>
+      <c r="G15" s="19">
+        <v>14423073</v>
+      </c>
+      <c r="H15" s="19">
+        <v>30483565</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>259453</v>
+      </c>
+      <c r="C16" s="19">
+        <v>366101</v>
+      </c>
+      <c r="D16" s="19">
+        <v>21395</v>
+      </c>
+      <c r="E16" s="19">
+        <v>387496</v>
+      </c>
+      <c r="F16" s="19">
+        <v>9152999</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2404856</v>
+      </c>
+      <c r="H16" s="19">
+        <v>11557855</v>
+      </c>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>250877</v>
+      </c>
+      <c r="C17" s="19">
+        <v>331050</v>
+      </c>
+      <c r="D17" s="19">
+        <v>156150</v>
+      </c>
+      <c r="E17" s="19">
+        <v>487200</v>
+      </c>
+      <c r="F17" s="19">
+        <v>8205661</v>
+      </c>
+      <c r="G17" s="19">
+        <v>16575650</v>
+      </c>
+      <c r="H17" s="19">
+        <v>24781311</v>
+      </c>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>346161</v>
+      </c>
+      <c r="C18" s="19">
+        <v>494892</v>
+      </c>
+      <c r="D18" s="19">
+        <v>109815</v>
+      </c>
+      <c r="E18" s="19">
+        <v>604707</v>
+      </c>
+      <c r="F18" s="19">
+        <v>11643339</v>
+      </c>
+      <c r="G18" s="19">
+        <v>8191923</v>
+      </c>
+      <c r="H18" s="19">
+        <v>19835262</v>
+      </c>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>396233</v>
+      </c>
+      <c r="C19" s="19">
+        <v>572812</v>
+      </c>
+      <c r="D19" s="19">
+        <v>54198</v>
+      </c>
+      <c r="E19" s="19">
+        <v>627010</v>
+      </c>
+      <c r="F19" s="19">
+        <v>7524678</v>
+      </c>
+      <c r="G19" s="19">
+        <v>2078804</v>
+      </c>
+      <c r="H19" s="19">
+        <v>9603482</v>
+      </c>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <v>57970</v>
+      </c>
+      <c r="C20" s="19">
+        <v>244831</v>
+      </c>
+      <c r="D20" s="19">
+        <v>16138</v>
+      </c>
+      <c r="E20" s="19">
+        <v>260969</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1991508</v>
+      </c>
+      <c r="G20" s="19">
+        <v>417246</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2408754</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>120814</v>
+      </c>
+      <c r="C21" s="19">
+        <v>281145</v>
+      </c>
+      <c r="D21" s="19">
+        <v>63594</v>
+      </c>
+      <c r="E21" s="19">
+        <v>344739</v>
+      </c>
+      <c r="F21" s="19">
+        <v>3353366</v>
+      </c>
+      <c r="G21" s="19">
+        <v>3091028</v>
+      </c>
+      <c r="H21" s="19">
+        <v>6444394</v>
+      </c>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>162065</v>
+      </c>
+      <c r="C22" s="19">
+        <v>211305</v>
+      </c>
+      <c r="D22" s="19">
+        <v>34087</v>
+      </c>
+      <c r="E22" s="19">
+        <v>245392</v>
+      </c>
+      <c r="F22" s="19">
+        <v>4693267</v>
+      </c>
+      <c r="G22" s="19">
+        <v>3197139</v>
+      </c>
+      <c r="H22" s="19">
+        <v>7890406</v>
+      </c>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19">
+        <v>685185</v>
+      </c>
+      <c r="C23" s="19">
+        <v>2117282</v>
+      </c>
+      <c r="D23" s="19">
+        <v>53829</v>
+      </c>
+      <c r="E23" s="19">
+        <v>2171111</v>
+      </c>
+      <c r="F23" s="19">
+        <v>32049336</v>
+      </c>
+      <c r="G23" s="19">
+        <v>4091668</v>
+      </c>
+      <c r="H23" s="19">
+        <v>36141004</v>
+      </c>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19">
+        <v>563127</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1389256</v>
+      </c>
+      <c r="D24" s="19">
+        <v>44442</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1433698</v>
+      </c>
+      <c r="F24" s="19">
+        <v>26912777</v>
+      </c>
+      <c r="G24" s="19">
+        <v>3550726</v>
+      </c>
+      <c r="H24" s="19">
+        <v>30463503</v>
+      </c>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>494030</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1711087</v>
+      </c>
+      <c r="D25" s="19">
+        <v>86067</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1797154</v>
+      </c>
+      <c r="F25" s="19">
+        <v>12361151</v>
+      </c>
+      <c r="G25" s="19">
+        <v>9137209</v>
+      </c>
+      <c r="H25" s="19">
+        <v>21498360</v>
+      </c>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19">
+        <v>288325</v>
+      </c>
+      <c r="C26" s="19">
+        <v>313758</v>
+      </c>
+      <c r="D26" s="19">
+        <v>88591</v>
+      </c>
+      <c r="E26" s="19">
+        <v>402349</v>
+      </c>
+      <c r="F26" s="19">
+        <v>4584194</v>
+      </c>
+      <c r="G26" s="19">
+        <v>8123862</v>
+      </c>
+      <c r="H26" s="19">
+        <v>12708056</v>
+      </c>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19">
+        <v>227039</v>
+      </c>
+      <c r="C27" s="19">
+        <v>901421</v>
+      </c>
+      <c r="D27" s="19">
+        <v>143786</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1045207</v>
+      </c>
+      <c r="F27" s="19">
+        <v>12644970</v>
+      </c>
+      <c r="G27" s="19">
+        <v>26660255</v>
+      </c>
+      <c r="H27" s="19">
+        <v>39305225</v>
+      </c>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19">
+        <v>592564</v>
+      </c>
+      <c r="C28" s="19">
+        <v>302549</v>
+      </c>
+      <c r="D28" s="19">
+        <v>25920</v>
+      </c>
+      <c r="E28" s="19">
+        <v>328469</v>
+      </c>
+      <c r="F28" s="19">
+        <v>8216289</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2144055</v>
+      </c>
+      <c r="H28" s="19">
+        <v>10360344</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19">
+        <v>141328</v>
+      </c>
+      <c r="C29" s="19">
+        <v>367976</v>
+      </c>
+      <c r="D29" s="19">
+        <v>152420</v>
+      </c>
+      <c r="E29" s="19">
+        <v>520396</v>
+      </c>
+      <c r="F29" s="19">
+        <v>4437098</v>
+      </c>
+      <c r="G29" s="19">
+        <v>7272505</v>
+      </c>
+      <c r="H29" s="19">
+        <v>11709603</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19">
+        <v>185231</v>
+      </c>
+      <c r="C30" s="19">
+        <v>335659</v>
+      </c>
+      <c r="D30" s="19">
+        <v>92534</v>
+      </c>
+      <c r="E30" s="19">
+        <v>428193</v>
+      </c>
+      <c r="F30" s="19">
+        <v>8044372</v>
+      </c>
+      <c r="G30" s="19">
+        <v>6263193</v>
+      </c>
+      <c r="H30" s="19">
+        <v>14307565</v>
+      </c>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19">
+        <v>57632</v>
+      </c>
+      <c r="C31" s="19">
+        <v>47073</v>
+      </c>
+      <c r="D31" s="19">
+        <v>10559</v>
+      </c>
+      <c r="E31" s="19">
+        <v>57632</v>
+      </c>
+      <c r="F31" s="19">
+        <v>3360985</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1511187</v>
+      </c>
+      <c r="H31" s="19">
+        <v>4872172</v>
+      </c>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19">
+        <v>73009</v>
+      </c>
+      <c r="C32" s="19">
+        <v>300067</v>
+      </c>
+      <c r="D32" s="19">
+        <v>110494</v>
+      </c>
+      <c r="E32" s="19">
+        <v>410561</v>
+      </c>
+      <c r="F32" s="19">
+        <v>6898845</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1147938</v>
+      </c>
+      <c r="H32" s="19">
+        <v>8046783</v>
+      </c>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19">
+        <v>106661</v>
+      </c>
+      <c r="C33" s="19">
+        <v>270158</v>
+      </c>
+      <c r="D33" s="19">
+        <v>85107</v>
+      </c>
+      <c r="E33" s="19">
+        <v>355265</v>
+      </c>
+      <c r="F33" s="19">
+        <v>5440500</v>
+      </c>
+      <c r="G33" s="19">
+        <v>10191120</v>
+      </c>
+      <c r="H33" s="19">
+        <v>15631620</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19">
+        <v>69780</v>
+      </c>
+      <c r="C34" s="19">
+        <v>118703</v>
+      </c>
+      <c r="D34" s="19">
+        <v>27372</v>
+      </c>
+      <c r="E34" s="19">
+        <v>146075</v>
+      </c>
+      <c r="F34" s="19">
+        <v>3766841</v>
+      </c>
+      <c r="G34" s="19">
+        <v>3921638</v>
+      </c>
+      <c r="H34" s="19">
+        <v>7688479</v>
+      </c>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19">
+        <v>564612</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1366205</v>
+      </c>
+      <c r="D35" s="19">
+        <v>48657</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1414862</v>
+      </c>
+      <c r="F35" s="19">
+        <v>20501860</v>
+      </c>
+      <c r="G35" s="19">
+        <v>4153540</v>
+      </c>
+      <c r="H35" s="19">
+        <v>24655400</v>
+      </c>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19">
+        <v>376435</v>
+      </c>
+      <c r="C36" s="19">
+        <v>852411</v>
+      </c>
+      <c r="D36" s="19">
+        <v>103254</v>
+      </c>
+      <c r="E36" s="19">
+        <v>955665</v>
+      </c>
+      <c r="F36" s="19">
+        <v>15471071</v>
+      </c>
+      <c r="G36" s="19">
+        <v>6564109</v>
+      </c>
+      <c r="H36" s="19">
+        <v>22035180</v>
+      </c>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="19">
+        <v>541553</v>
+      </c>
+      <c r="C37" s="19">
+        <v>399528</v>
+      </c>
+      <c r="D37" s="19">
+        <v>24877</v>
+      </c>
+      <c r="E37" s="19">
+        <v>424405</v>
+      </c>
+      <c r="F37" s="19">
+        <v>5512848</v>
+      </c>
+      <c r="G37" s="19">
+        <v>4476328</v>
+      </c>
+      <c r="H37" s="19">
+        <v>9989176</v>
+      </c>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19">
+        <v>335543</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1263376</v>
+      </c>
+      <c r="D38" s="19">
+        <v>62274</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1325650</v>
+      </c>
+      <c r="F38" s="19">
+        <v>23059651</v>
+      </c>
+      <c r="G38" s="19">
+        <v>5921203</v>
+      </c>
+      <c r="H38" s="19">
+        <v>28980854</v>
+      </c>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19">
+        <v>956163</v>
+      </c>
+      <c r="C39" s="19">
+        <v>2526957</v>
+      </c>
+      <c r="D39" s="19">
+        <v>103431</v>
+      </c>
+      <c r="E39" s="19">
+        <v>2630388</v>
+      </c>
+      <c r="F39" s="19">
+        <v>30970695</v>
+      </c>
+      <c r="G39" s="19">
+        <v>6090417</v>
+      </c>
+      <c r="H39" s="19">
+        <v>37061112</v>
+      </c>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19">
+        <v>7414</v>
+      </c>
+      <c r="C40" s="19">
+        <v>25962</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3967</v>
+      </c>
+      <c r="E40" s="19">
+        <v>29929</v>
+      </c>
+      <c r="F40" s="19">
+        <v>327832</v>
+      </c>
+      <c r="G40" s="19">
+        <v>113394</v>
+      </c>
+      <c r="H40" s="19">
+        <v>441226</v>
+      </c>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19">
+        <v>200912</v>
+      </c>
+      <c r="C41" s="19">
+        <v>703738</v>
+      </c>
+      <c r="D41" s="19">
+        <v>88971</v>
+      </c>
+      <c r="E41" s="19">
+        <v>792709</v>
+      </c>
+      <c r="F41" s="19">
+        <v>4599067</v>
+      </c>
+      <c r="G41" s="19">
+        <v>4072719</v>
+      </c>
+      <c r="H41" s="19">
+        <v>8671786</v>
+      </c>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="19">
+        <v>229323</v>
+      </c>
+      <c r="C42" s="19">
+        <v>244044</v>
+      </c>
+      <c r="D42" s="19">
+        <v>124596</v>
+      </c>
+      <c r="E42" s="19">
+        <v>368640</v>
+      </c>
+      <c r="F42" s="19">
+        <v>7431919</v>
+      </c>
+      <c r="G42" s="19">
+        <v>14459943</v>
+      </c>
+      <c r="H42" s="19">
+        <v>21891862</v>
+      </c>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19">
+        <v>679038</v>
+      </c>
+      <c r="C43" s="19">
+        <v>580955</v>
+      </c>
+      <c r="D43" s="19">
+        <v>43710</v>
+      </c>
+      <c r="E43" s="19">
+        <v>624665</v>
+      </c>
+      <c r="F43" s="19">
+        <v>15881299</v>
+      </c>
+      <c r="G43" s="19">
+        <v>4201071</v>
+      </c>
+      <c r="H43" s="19">
+        <v>20082370</v>
+      </c>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="19">
+        <v>1162430</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1589078</v>
+      </c>
+      <c r="D44" s="19">
+        <v>85597</v>
+      </c>
+      <c r="E44" s="19">
+        <v>1674675</v>
+      </c>
+      <c r="F44" s="19">
+        <v>35414251</v>
+      </c>
+      <c r="G44" s="19">
+        <v>11507905</v>
+      </c>
+      <c r="H44" s="19">
+        <v>46922156</v>
+      </c>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="19">
+        <v>244131</v>
+      </c>
+      <c r="C45" s="19">
+        <v>404413</v>
+      </c>
+      <c r="D45" s="19">
+        <v>44425</v>
+      </c>
+      <c r="E45" s="19">
+        <v>448838</v>
+      </c>
+      <c r="F45" s="19">
+        <v>11461931</v>
+      </c>
+      <c r="G45" s="19">
+        <v>5950216</v>
+      </c>
+      <c r="H45" s="19">
+        <v>17412147</v>
+      </c>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="19">
+        <v>268300</v>
+      </c>
+      <c r="C46" s="19">
+        <v>789170</v>
+      </c>
+      <c r="D46" s="19">
+        <v>43029</v>
+      </c>
+      <c r="E46" s="19">
+        <v>832199</v>
+      </c>
+      <c r="F46" s="19">
+        <v>17441649</v>
+      </c>
+      <c r="G46" s="19">
+        <v>3780222</v>
+      </c>
+      <c r="H46" s="19">
+        <v>21221871</v>
+      </c>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="19">
+        <v>67619</v>
+      </c>
+      <c r="C47" s="19">
+        <v>162299</v>
+      </c>
+      <c r="D47" s="19">
+        <v>16510</v>
+      </c>
+      <c r="E47" s="19">
+        <v>178809</v>
+      </c>
+      <c r="F47" s="19">
+        <v>3029366</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1014738</v>
+      </c>
+      <c r="H47" s="19">
+        <v>4044104</v>
+      </c>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="19">
+        <v>179316</v>
+      </c>
+      <c r="C48" s="19">
+        <v>702296</v>
+      </c>
+      <c r="D48" s="19">
+        <v>9506</v>
+      </c>
+      <c r="E48" s="19">
+        <v>711802</v>
+      </c>
+      <c r="F48" s="19">
+        <v>16200536</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1032455</v>
+      </c>
+      <c r="H48" s="19">
+        <v>17232991</v>
+      </c>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="19">
+        <v>692209</v>
+      </c>
+      <c r="C49" s="19">
+        <v>418349</v>
+      </c>
+      <c r="D49" s="19">
+        <v>1294207</v>
+      </c>
+      <c r="E49" s="19">
+        <v>1712556</v>
+      </c>
+      <c r="F49" s="19">
+        <v>11266763</v>
+      </c>
+      <c r="G49" s="19">
+        <v>27390894</v>
+      </c>
+      <c r="H49" s="19">
+        <v>38657657</v>
+      </c>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="19">
+        <v>213656</v>
+      </c>
+      <c r="C50" s="19">
+        <v>519105</v>
+      </c>
+      <c r="D50" s="19">
+        <v>142397</v>
+      </c>
+      <c r="E50" s="19">
+        <v>661502</v>
+      </c>
+      <c r="F50" s="19">
+        <v>4103901</v>
+      </c>
+      <c r="G50" s="19">
+        <v>4920855</v>
+      </c>
+      <c r="H50" s="19">
+        <v>9024756</v>
+      </c>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="19">
+        <v>132075</v>
+      </c>
+      <c r="C51" s="19">
+        <v>179864</v>
+      </c>
+      <c r="D51" s="19">
+        <v>74048</v>
+      </c>
+      <c r="E51" s="19">
+        <v>253912</v>
+      </c>
+      <c r="F51" s="19">
+        <v>6554885</v>
+      </c>
+      <c r="G51" s="19">
+        <v>19004047</v>
+      </c>
+      <c r="H51" s="19">
+        <v>25558932</v>
+      </c>
+      <c r="I51" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
